--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A516A6B7-4919-4F2A-B8AA-501C04886EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904F92A-C400-4B8F-985A-16F628A86066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="559">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -5936,17 +5936,6 @@
     <rPh sb="14" eb="16">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テストデータシート名</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データNo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -7306,6 +7295,44 @@
       <t>テ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientById()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientByIdForNoDataException()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShow()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShowNotExistsClient()</t>
+  </si>
+  <si>
+    <t>テストデータシート名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShowNoDataNotExistsClient()</t>
+  </si>
+  <si>
+    <t>testShowNoDataNotExistsClient</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm2()</t>
   </si>
 </sst>
 </file>
@@ -7862,7 +7889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -8274,9 +8301,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8315,6 +8339,51 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8498,45 +8567,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9472,12 +9502,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="161" t="str">
+      <c r="I25" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10037,57 +10067,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="171" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="177" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="185" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="186" t="s">
-        <v>498</v>
-      </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="168" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="200" t="s">
+        <v>496</v>
+      </c>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="209" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="162" t="str">
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="176" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10095,53 +10125,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171" t="s">
-        <v>465</v>
-      </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="168" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="188" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="162" t="str">
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="176" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10149,45 +10179,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171" t="s">
-        <v>466</v>
-      </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185" t="s">
+        <v>464</v>
+      </c>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="211"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10224,85 +10254,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="165" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="165" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="165" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="165" t="s">
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="165" t="s">
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="166"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="180"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
-      <c r="O8" s="217"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="216"/>
-      <c r="R8" s="217"/>
-      <c r="S8" s="217"/>
-      <c r="T8" s="217"/>
-      <c r="U8" s="217"/>
-      <c r="V8" s="217"/>
-      <c r="W8" s="217"/>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="217"/>
-      <c r="Z8" s="217"/>
-      <c r="AA8" s="217"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="218"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="232"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10310,928 +10340,928 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="205"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208"/>
-      <c r="U9" s="208"/>
-      <c r="V9" s="208"/>
-      <c r="W9" s="208"/>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="208"/>
-      <c r="Z9" s="208"/>
-      <c r="AA9" s="208"/>
-      <c r="AB9" s="208"/>
-      <c r="AC9" s="208"/>
-      <c r="AD9" s="208"/>
-      <c r="AE9" s="209"/>
-      <c r="AF9" s="204"/>
-      <c r="AG9" s="205"/>
-      <c r="AH9" s="205"/>
-      <c r="AI9" s="206"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="222"/>
+      <c r="X9" s="222"/>
+      <c r="Y9" s="222"/>
+      <c r="Z9" s="222"/>
+      <c r="AA9" s="222"/>
+      <c r="AB9" s="222"/>
+      <c r="AC9" s="222"/>
+      <c r="AD9" s="222"/>
+      <c r="AE9" s="223"/>
+      <c r="AF9" s="218"/>
+      <c r="AG9" s="219"/>
+      <c r="AH9" s="219"/>
+      <c r="AI9" s="220"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="208"/>
-      <c r="T10" s="208"/>
-      <c r="U10" s="208"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="208"/>
-      <c r="Y10" s="208"/>
-      <c r="Z10" s="208"/>
-      <c r="AA10" s="208"/>
-      <c r="AB10" s="208"/>
-      <c r="AC10" s="208"/>
-      <c r="AD10" s="208"/>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="205"/>
-      <c r="AI10" s="206"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="219"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="222"/>
+      <c r="AE10" s="223"/>
+      <c r="AF10" s="218"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="219"/>
+      <c r="AI10" s="220"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="206"/>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="208"/>
-      <c r="S11" s="208"/>
-      <c r="T11" s="208"/>
-      <c r="U11" s="208"/>
-      <c r="V11" s="208"/>
-      <c r="W11" s="208"/>
-      <c r="X11" s="208"/>
-      <c r="Y11" s="208"/>
-      <c r="Z11" s="208"/>
-      <c r="AA11" s="208"/>
-      <c r="AB11" s="208"/>
-      <c r="AC11" s="208"/>
-      <c r="AD11" s="208"/>
-      <c r="AE11" s="209"/>
-      <c r="AF11" s="204"/>
-      <c r="AG11" s="205"/>
-      <c r="AH11" s="205"/>
-      <c r="AI11" s="206"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="219"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="221"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="222"/>
+      <c r="X11" s="222"/>
+      <c r="Y11" s="222"/>
+      <c r="Z11" s="222"/>
+      <c r="AA11" s="222"/>
+      <c r="AB11" s="222"/>
+      <c r="AC11" s="222"/>
+      <c r="AD11" s="222"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="218"/>
+      <c r="AG11" s="219"/>
+      <c r="AH11" s="219"/>
+      <c r="AI11" s="220"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="205"/>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="207"/>
-      <c r="R12" s="208"/>
-      <c r="S12" s="208"/>
-      <c r="T12" s="208"/>
-      <c r="U12" s="208"/>
-      <c r="V12" s="208"/>
-      <c r="W12" s="208"/>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="208"/>
-      <c r="Z12" s="208"/>
-      <c r="AA12" s="208"/>
-      <c r="AB12" s="208"/>
-      <c r="AC12" s="208"/>
-      <c r="AD12" s="208"/>
-      <c r="AE12" s="209"/>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="205"/>
-      <c r="AH12" s="205"/>
-      <c r="AI12" s="206"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="219"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="219"/>
+      <c r="P12" s="220"/>
+      <c r="Q12" s="221"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="222"/>
+      <c r="V12" s="222"/>
+      <c r="W12" s="222"/>
+      <c r="X12" s="222"/>
+      <c r="Y12" s="222"/>
+      <c r="Z12" s="222"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="222"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="222"/>
+      <c r="AE12" s="223"/>
+      <c r="AF12" s="218"/>
+      <c r="AG12" s="219"/>
+      <c r="AH12" s="219"/>
+      <c r="AI12" s="220"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="205"/>
-      <c r="O13" s="205"/>
-      <c r="P13" s="206"/>
-      <c r="Q13" s="207"/>
-      <c r="R13" s="208"/>
-      <c r="S13" s="208"/>
-      <c r="T13" s="208"/>
-      <c r="U13" s="208"/>
-      <c r="V13" s="208"/>
-      <c r="W13" s="208"/>
-      <c r="X13" s="208"/>
-      <c r="Y13" s="208"/>
-      <c r="Z13" s="208"/>
-      <c r="AA13" s="208"/>
-      <c r="AB13" s="208"/>
-      <c r="AC13" s="208"/>
-      <c r="AD13" s="208"/>
-      <c r="AE13" s="209"/>
-      <c r="AF13" s="204"/>
-      <c r="AG13" s="205"/>
-      <c r="AH13" s="205"/>
-      <c r="AI13" s="206"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="219"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="219"/>
+      <c r="N13" s="219"/>
+      <c r="O13" s="219"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="222"/>
+      <c r="S13" s="222"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222"/>
+      <c r="Y13" s="222"/>
+      <c r="Z13" s="222"/>
+      <c r="AA13" s="222"/>
+      <c r="AB13" s="222"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="222"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="218"/>
+      <c r="AG13" s="219"/>
+      <c r="AH13" s="219"/>
+      <c r="AI13" s="220"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="205"/>
-      <c r="O14" s="205"/>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="207"/>
-      <c r="R14" s="208"/>
-      <c r="S14" s="208"/>
-      <c r="T14" s="208"/>
-      <c r="U14" s="208"/>
-      <c r="V14" s="208"/>
-      <c r="W14" s="208"/>
-      <c r="X14" s="208"/>
-      <c r="Y14" s="208"/>
-      <c r="Z14" s="208"/>
-      <c r="AA14" s="208"/>
-      <c r="AB14" s="208"/>
-      <c r="AC14" s="208"/>
-      <c r="AD14" s="208"/>
-      <c r="AE14" s="209"/>
-      <c r="AF14" s="204"/>
-      <c r="AG14" s="205"/>
-      <c r="AH14" s="205"/>
-      <c r="AI14" s="206"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="222"/>
+      <c r="W14" s="222"/>
+      <c r="X14" s="222"/>
+      <c r="Y14" s="222"/>
+      <c r="Z14" s="222"/>
+      <c r="AA14" s="222"/>
+      <c r="AB14" s="222"/>
+      <c r="AC14" s="222"/>
+      <c r="AD14" s="222"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="218"/>
+      <c r="AG14" s="219"/>
+      <c r="AH14" s="219"/>
+      <c r="AI14" s="220"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="205"/>
-      <c r="N15" s="205"/>
-      <c r="O15" s="205"/>
-      <c r="P15" s="206"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="208"/>
-      <c r="S15" s="208"/>
-      <c r="T15" s="208"/>
-      <c r="U15" s="208"/>
-      <c r="V15" s="208"/>
-      <c r="W15" s="208"/>
-      <c r="X15" s="208"/>
-      <c r="Y15" s="208"/>
-      <c r="Z15" s="208"/>
-      <c r="AA15" s="208"/>
-      <c r="AB15" s="208"/>
-      <c r="AC15" s="208"/>
-      <c r="AD15" s="208"/>
-      <c r="AE15" s="209"/>
-      <c r="AF15" s="204"/>
-      <c r="AG15" s="205"/>
-      <c r="AH15" s="205"/>
-      <c r="AI15" s="206"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="221"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="222"/>
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="222"/>
+      <c r="Y15" s="222"/>
+      <c r="Z15" s="222"/>
+      <c r="AA15" s="222"/>
+      <c r="AB15" s="222"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="218"/>
+      <c r="AG15" s="219"/>
+      <c r="AH15" s="219"/>
+      <c r="AI15" s="220"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="207"/>
-      <c r="R16" s="208"/>
-      <c r="S16" s="208"/>
-      <c r="T16" s="208"/>
-      <c r="U16" s="208"/>
-      <c r="V16" s="208"/>
-      <c r="W16" s="208"/>
-      <c r="X16" s="208"/>
-      <c r="Y16" s="208"/>
-      <c r="Z16" s="208"/>
-      <c r="AA16" s="208"/>
-      <c r="AB16" s="208"/>
-      <c r="AC16" s="208"/>
-      <c r="AD16" s="208"/>
-      <c r="AE16" s="209"/>
-      <c r="AF16" s="204"/>
-      <c r="AG16" s="205"/>
-      <c r="AH16" s="205"/>
-      <c r="AI16" s="206"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="220"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="222"/>
+      <c r="Z16" s="222"/>
+      <c r="AA16" s="222"/>
+      <c r="AB16" s="222"/>
+      <c r="AC16" s="222"/>
+      <c r="AD16" s="222"/>
+      <c r="AE16" s="223"/>
+      <c r="AF16" s="218"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="219"/>
+      <c r="AI16" s="220"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="205"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="205"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="207"/>
-      <c r="R17" s="208"/>
-      <c r="S17" s="208"/>
-      <c r="T17" s="208"/>
-      <c r="U17" s="208"/>
-      <c r="V17" s="208"/>
-      <c r="W17" s="208"/>
-      <c r="X17" s="208"/>
-      <c r="Y17" s="208"/>
-      <c r="Z17" s="208"/>
-      <c r="AA17" s="208"/>
-      <c r="AB17" s="208"/>
-      <c r="AC17" s="208"/>
-      <c r="AD17" s="208"/>
-      <c r="AE17" s="209"/>
-      <c r="AF17" s="204"/>
-      <c r="AG17" s="205"/>
-      <c r="AH17" s="205"/>
-      <c r="AI17" s="206"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="220"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="222"/>
+      <c r="S17" s="222"/>
+      <c r="T17" s="222"/>
+      <c r="U17" s="222"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
+      <c r="X17" s="222"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="222"/>
+      <c r="AA17" s="222"/>
+      <c r="AB17" s="222"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="222"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="218"/>
+      <c r="AG17" s="219"/>
+      <c r="AH17" s="219"/>
+      <c r="AI17" s="220"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="208"/>
-      <c r="S18" s="208"/>
-      <c r="T18" s="208"/>
-      <c r="U18" s="208"/>
-      <c r="V18" s="208"/>
-      <c r="W18" s="208"/>
-      <c r="X18" s="208"/>
-      <c r="Y18" s="208"/>
-      <c r="Z18" s="208"/>
-      <c r="AA18" s="208"/>
-      <c r="AB18" s="208"/>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="208"/>
-      <c r="AE18" s="209"/>
-      <c r="AF18" s="204"/>
-      <c r="AG18" s="205"/>
-      <c r="AH18" s="205"/>
-      <c r="AI18" s="206"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
+      <c r="U18" s="222"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
+      <c r="X18" s="222"/>
+      <c r="Y18" s="222"/>
+      <c r="Z18" s="222"/>
+      <c r="AA18" s="222"/>
+      <c r="AB18" s="222"/>
+      <c r="AC18" s="222"/>
+      <c r="AD18" s="222"/>
+      <c r="AE18" s="223"/>
+      <c r="AF18" s="218"/>
+      <c r="AG18" s="219"/>
+      <c r="AH18" s="219"/>
+      <c r="AI18" s="220"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="207"/>
-      <c r="R19" s="208"/>
-      <c r="S19" s="208"/>
-      <c r="T19" s="208"/>
-      <c r="U19" s="208"/>
-      <c r="V19" s="208"/>
-      <c r="W19" s="208"/>
-      <c r="X19" s="208"/>
-      <c r="Y19" s="208"/>
-      <c r="Z19" s="208"/>
-      <c r="AA19" s="208"/>
-      <c r="AB19" s="208"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="208"/>
-      <c r="AE19" s="209"/>
-      <c r="AF19" s="204"/>
-      <c r="AG19" s="205"/>
-      <c r="AH19" s="205"/>
-      <c r="AI19" s="206"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="222"/>
+      <c r="S19" s="222"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="222"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
+      <c r="X19" s="222"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="222"/>
+      <c r="AA19" s="222"/>
+      <c r="AB19" s="222"/>
+      <c r="AC19" s="222"/>
+      <c r="AD19" s="222"/>
+      <c r="AE19" s="223"/>
+      <c r="AF19" s="218"/>
+      <c r="AG19" s="219"/>
+      <c r="AH19" s="219"/>
+      <c r="AI19" s="220"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="206"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="208"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208"/>
-      <c r="U20" s="208"/>
-      <c r="V20" s="208"/>
-      <c r="W20" s="208"/>
-      <c r="X20" s="208"/>
-      <c r="Y20" s="208"/>
-      <c r="Z20" s="208"/>
-      <c r="AA20" s="208"/>
-      <c r="AB20" s="208"/>
-      <c r="AC20" s="208"/>
-      <c r="AD20" s="208"/>
-      <c r="AE20" s="209"/>
-      <c r="AF20" s="204"/>
-      <c r="AG20" s="205"/>
-      <c r="AH20" s="205"/>
-      <c r="AI20" s="206"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="221"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="222"/>
+      <c r="U20" s="222"/>
+      <c r="V20" s="222"/>
+      <c r="W20" s="222"/>
+      <c r="X20" s="222"/>
+      <c r="Y20" s="222"/>
+      <c r="Z20" s="222"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="222"/>
+      <c r="AC20" s="222"/>
+      <c r="AD20" s="222"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="218"/>
+      <c r="AG20" s="219"/>
+      <c r="AH20" s="219"/>
+      <c r="AI20" s="220"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="208"/>
-      <c r="S21" s="208"/>
-      <c r="T21" s="208"/>
-      <c r="U21" s="208"/>
-      <c r="V21" s="208"/>
-      <c r="W21" s="208"/>
-      <c r="X21" s="208"/>
-      <c r="Y21" s="208"/>
-      <c r="Z21" s="208"/>
-      <c r="AA21" s="208"/>
-      <c r="AB21" s="208"/>
-      <c r="AC21" s="208"/>
-      <c r="AD21" s="208"/>
-      <c r="AE21" s="209"/>
-      <c r="AF21" s="204"/>
-      <c r="AG21" s="205"/>
-      <c r="AH21" s="205"/>
-      <c r="AI21" s="206"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="219"/>
+      <c r="P21" s="220"/>
+      <c r="Q21" s="221"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
+      <c r="T21" s="222"/>
+      <c r="U21" s="222"/>
+      <c r="V21" s="222"/>
+      <c r="W21" s="222"/>
+      <c r="X21" s="222"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="222"/>
+      <c r="AA21" s="222"/>
+      <c r="AB21" s="222"/>
+      <c r="AC21" s="222"/>
+      <c r="AD21" s="222"/>
+      <c r="AE21" s="223"/>
+      <c r="AF21" s="218"/>
+      <c r="AG21" s="219"/>
+      <c r="AH21" s="219"/>
+      <c r="AI21" s="220"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="198"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
-      <c r="P22" s="206"/>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="208"/>
-      <c r="S22" s="208"/>
-      <c r="T22" s="208"/>
-      <c r="U22" s="208"/>
-      <c r="V22" s="208"/>
-      <c r="W22" s="208"/>
-      <c r="X22" s="208"/>
-      <c r="Y22" s="208"/>
-      <c r="Z22" s="208"/>
-      <c r="AA22" s="208"/>
-      <c r="AB22" s="208"/>
-      <c r="AC22" s="208"/>
-      <c r="AD22" s="208"/>
-      <c r="AE22" s="209"/>
-      <c r="AF22" s="204"/>
-      <c r="AG22" s="205"/>
-      <c r="AH22" s="205"/>
-      <c r="AI22" s="206"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="222"/>
+      <c r="S22" s="222"/>
+      <c r="T22" s="222"/>
+      <c r="U22" s="222"/>
+      <c r="V22" s="222"/>
+      <c r="W22" s="222"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="222"/>
+      <c r="Z22" s="222"/>
+      <c r="AA22" s="222"/>
+      <c r="AB22" s="222"/>
+      <c r="AC22" s="222"/>
+      <c r="AD22" s="222"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="218"/>
+      <c r="AG22" s="219"/>
+      <c r="AH22" s="219"/>
+      <c r="AI22" s="220"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="198"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="205"/>
-      <c r="O23" s="205"/>
-      <c r="P23" s="206"/>
-      <c r="Q23" s="207"/>
-      <c r="R23" s="208"/>
-      <c r="S23" s="208"/>
-      <c r="T23" s="208"/>
-      <c r="U23" s="208"/>
-      <c r="V23" s="208"/>
-      <c r="W23" s="208"/>
-      <c r="X23" s="208"/>
-      <c r="Y23" s="208"/>
-      <c r="Z23" s="208"/>
-      <c r="AA23" s="208"/>
-      <c r="AB23" s="208"/>
-      <c r="AC23" s="208"/>
-      <c r="AD23" s="208"/>
-      <c r="AE23" s="209"/>
-      <c r="AF23" s="204"/>
-      <c r="AG23" s="205"/>
-      <c r="AH23" s="205"/>
-      <c r="AI23" s="206"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="219"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="222"/>
+      <c r="S23" s="222"/>
+      <c r="T23" s="222"/>
+      <c r="U23" s="222"/>
+      <c r="V23" s="222"/>
+      <c r="W23" s="222"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="222"/>
+      <c r="Z23" s="222"/>
+      <c r="AA23" s="222"/>
+      <c r="AB23" s="222"/>
+      <c r="AC23" s="222"/>
+      <c r="AD23" s="222"/>
+      <c r="AE23" s="223"/>
+      <c r="AF23" s="218"/>
+      <c r="AG23" s="219"/>
+      <c r="AH23" s="219"/>
+      <c r="AI23" s="220"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="207"/>
-      <c r="R24" s="208"/>
-      <c r="S24" s="208"/>
-      <c r="T24" s="208"/>
-      <c r="U24" s="208"/>
-      <c r="V24" s="208"/>
-      <c r="W24" s="208"/>
-      <c r="X24" s="208"/>
-      <c r="Y24" s="208"/>
-      <c r="Z24" s="208"/>
-      <c r="AA24" s="208"/>
-      <c r="AB24" s="208"/>
-      <c r="AC24" s="208"/>
-      <c r="AD24" s="208"/>
-      <c r="AE24" s="209"/>
-      <c r="AF24" s="204"/>
-      <c r="AG24" s="205"/>
-      <c r="AH24" s="205"/>
-      <c r="AI24" s="206"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
+      <c r="P24" s="220"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
+      <c r="U24" s="222"/>
+      <c r="V24" s="222"/>
+      <c r="W24" s="222"/>
+      <c r="X24" s="222"/>
+      <c r="Y24" s="222"/>
+      <c r="Z24" s="222"/>
+      <c r="AA24" s="222"/>
+      <c r="AB24" s="222"/>
+      <c r="AC24" s="222"/>
+      <c r="AD24" s="222"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="218"/>
+      <c r="AG24" s="219"/>
+      <c r="AH24" s="219"/>
+      <c r="AI24" s="220"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="205"/>
-      <c r="N25" s="205"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="207"/>
-      <c r="R25" s="208"/>
-      <c r="S25" s="208"/>
-      <c r="T25" s="208"/>
-      <c r="U25" s="208"/>
-      <c r="V25" s="208"/>
-      <c r="W25" s="208"/>
-      <c r="X25" s="208"/>
-      <c r="Y25" s="208"/>
-      <c r="Z25" s="208"/>
-      <c r="AA25" s="208"/>
-      <c r="AB25" s="208"/>
-      <c r="AC25" s="208"/>
-      <c r="AD25" s="208"/>
-      <c r="AE25" s="209"/>
-      <c r="AF25" s="204"/>
-      <c r="AG25" s="205"/>
-      <c r="AH25" s="205"/>
-      <c r="AI25" s="206"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="222"/>
+      <c r="S25" s="222"/>
+      <c r="T25" s="222"/>
+      <c r="U25" s="222"/>
+      <c r="V25" s="222"/>
+      <c r="W25" s="222"/>
+      <c r="X25" s="222"/>
+      <c r="Y25" s="222"/>
+      <c r="Z25" s="222"/>
+      <c r="AA25" s="222"/>
+      <c r="AB25" s="222"/>
+      <c r="AC25" s="222"/>
+      <c r="AD25" s="222"/>
+      <c r="AE25" s="223"/>
+      <c r="AF25" s="218"/>
+      <c r="AG25" s="219"/>
+      <c r="AH25" s="219"/>
+      <c r="AI25" s="220"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="206"/>
-      <c r="Q26" s="207"/>
-      <c r="R26" s="208"/>
-      <c r="S26" s="208"/>
-      <c r="T26" s="208"/>
-      <c r="U26" s="208"/>
-      <c r="V26" s="208"/>
-      <c r="W26" s="208"/>
-      <c r="X26" s="208"/>
-      <c r="Y26" s="208"/>
-      <c r="Z26" s="208"/>
-      <c r="AA26" s="208"/>
-      <c r="AB26" s="208"/>
-      <c r="AC26" s="208"/>
-      <c r="AD26" s="208"/>
-      <c r="AE26" s="209"/>
-      <c r="AF26" s="204"/>
-      <c r="AG26" s="205"/>
-      <c r="AH26" s="205"/>
-      <c r="AI26" s="206"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="222"/>
+      <c r="S26" s="222"/>
+      <c r="T26" s="222"/>
+      <c r="U26" s="222"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="222"/>
+      <c r="Y26" s="222"/>
+      <c r="Z26" s="222"/>
+      <c r="AA26" s="222"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="222"/>
+      <c r="AD26" s="222"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="218"/>
+      <c r="AG26" s="219"/>
+      <c r="AH26" s="219"/>
+      <c r="AI26" s="220"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="205"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="208"/>
-      <c r="S27" s="208"/>
-      <c r="T27" s="208"/>
-      <c r="U27" s="208"/>
-      <c r="V27" s="208"/>
-      <c r="W27" s="208"/>
-      <c r="X27" s="208"/>
-      <c r="Y27" s="208"/>
-      <c r="Z27" s="208"/>
-      <c r="AA27" s="208"/>
-      <c r="AB27" s="208"/>
-      <c r="AC27" s="208"/>
-      <c r="AD27" s="208"/>
-      <c r="AE27" s="209"/>
-      <c r="AF27" s="204"/>
-      <c r="AG27" s="205"/>
-      <c r="AH27" s="205"/>
-      <c r="AI27" s="206"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="222"/>
+      <c r="U27" s="222"/>
+      <c r="V27" s="222"/>
+      <c r="W27" s="222"/>
+      <c r="X27" s="222"/>
+      <c r="Y27" s="222"/>
+      <c r="Z27" s="222"/>
+      <c r="AA27" s="222"/>
+      <c r="AB27" s="222"/>
+      <c r="AC27" s="222"/>
+      <c r="AD27" s="222"/>
+      <c r="AE27" s="223"/>
+      <c r="AF27" s="218"/>
+      <c r="AG27" s="219"/>
+      <c r="AH27" s="219"/>
+      <c r="AI27" s="220"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="207"/>
-      <c r="R28" s="208"/>
-      <c r="S28" s="208"/>
-      <c r="T28" s="208"/>
-      <c r="U28" s="208"/>
-      <c r="V28" s="208"/>
-      <c r="W28" s="208"/>
-      <c r="X28" s="208"/>
-      <c r="Y28" s="208"/>
-      <c r="Z28" s="208"/>
-      <c r="AA28" s="208"/>
-      <c r="AB28" s="208"/>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="208"/>
-      <c r="AE28" s="209"/>
-      <c r="AF28" s="204"/>
-      <c r="AG28" s="205"/>
-      <c r="AH28" s="205"/>
-      <c r="AI28" s="206"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
+      <c r="M28" s="219"/>
+      <c r="N28" s="219"/>
+      <c r="O28" s="219"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="222"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="222"/>
+      <c r="U28" s="222"/>
+      <c r="V28" s="222"/>
+      <c r="W28" s="222"/>
+      <c r="X28" s="222"/>
+      <c r="Y28" s="222"/>
+      <c r="Z28" s="222"/>
+      <c r="AA28" s="222"/>
+      <c r="AB28" s="222"/>
+      <c r="AC28" s="222"/>
+      <c r="AD28" s="222"/>
+      <c r="AE28" s="223"/>
+      <c r="AF28" s="218"/>
+      <c r="AG28" s="219"/>
+      <c r="AH28" s="219"/>
+      <c r="AI28" s="220"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="205"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="205"/>
-      <c r="O29" s="205"/>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="207"/>
-      <c r="R29" s="208"/>
-      <c r="S29" s="208"/>
-      <c r="T29" s="208"/>
-      <c r="U29" s="208"/>
-      <c r="V29" s="208"/>
-      <c r="W29" s="208"/>
-      <c r="X29" s="208"/>
-      <c r="Y29" s="208"/>
-      <c r="Z29" s="208"/>
-      <c r="AA29" s="208"/>
-      <c r="AB29" s="208"/>
-      <c r="AC29" s="208"/>
-      <c r="AD29" s="208"/>
-      <c r="AE29" s="209"/>
-      <c r="AF29" s="204"/>
-      <c r="AG29" s="205"/>
-      <c r="AH29" s="205"/>
-      <c r="AI29" s="206"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="219"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="220"/>
+      <c r="Q29" s="221"/>
+      <c r="R29" s="222"/>
+      <c r="S29" s="222"/>
+      <c r="T29" s="222"/>
+      <c r="U29" s="222"/>
+      <c r="V29" s="222"/>
+      <c r="W29" s="222"/>
+      <c r="X29" s="222"/>
+      <c r="Y29" s="222"/>
+      <c r="Z29" s="222"/>
+      <c r="AA29" s="222"/>
+      <c r="AB29" s="222"/>
+      <c r="AC29" s="222"/>
+      <c r="AD29" s="222"/>
+      <c r="AE29" s="223"/>
+      <c r="AF29" s="218"/>
+      <c r="AG29" s="219"/>
+      <c r="AH29" s="219"/>
+      <c r="AI29" s="220"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="205"/>
-      <c r="O30" s="205"/>
-      <c r="P30" s="206"/>
-      <c r="Q30" s="207"/>
-      <c r="R30" s="208"/>
-      <c r="S30" s="208"/>
-      <c r="T30" s="208"/>
-      <c r="U30" s="208"/>
-      <c r="V30" s="208"/>
-      <c r="W30" s="208"/>
-      <c r="X30" s="208"/>
-      <c r="Y30" s="208"/>
-      <c r="Z30" s="208"/>
-      <c r="AA30" s="208"/>
-      <c r="AB30" s="208"/>
-      <c r="AC30" s="208"/>
-      <c r="AD30" s="208"/>
-      <c r="AE30" s="209"/>
-      <c r="AF30" s="204"/>
-      <c r="AG30" s="205"/>
-      <c r="AH30" s="205"/>
-      <c r="AI30" s="206"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="219"/>
+      <c r="L30" s="219"/>
+      <c r="M30" s="219"/>
+      <c r="N30" s="219"/>
+      <c r="O30" s="219"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="221"/>
+      <c r="R30" s="222"/>
+      <c r="S30" s="222"/>
+      <c r="T30" s="222"/>
+      <c r="U30" s="222"/>
+      <c r="V30" s="222"/>
+      <c r="W30" s="222"/>
+      <c r="X30" s="222"/>
+      <c r="Y30" s="222"/>
+      <c r="Z30" s="222"/>
+      <c r="AA30" s="222"/>
+      <c r="AB30" s="222"/>
+      <c r="AC30" s="222"/>
+      <c r="AD30" s="222"/>
+      <c r="AE30" s="223"/>
+      <c r="AF30" s="218"/>
+      <c r="AG30" s="219"/>
+      <c r="AH30" s="219"/>
+      <c r="AI30" s="220"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="205"/>
-      <c r="O31" s="205"/>
-      <c r="P31" s="206"/>
-      <c r="Q31" s="207"/>
-      <c r="R31" s="208"/>
-      <c r="S31" s="208"/>
-      <c r="T31" s="208"/>
-      <c r="U31" s="208"/>
-      <c r="V31" s="208"/>
-      <c r="W31" s="208"/>
-      <c r="X31" s="208"/>
-      <c r="Y31" s="208"/>
-      <c r="Z31" s="208"/>
-      <c r="AA31" s="208"/>
-      <c r="AB31" s="208"/>
-      <c r="AC31" s="208"/>
-      <c r="AD31" s="208"/>
-      <c r="AE31" s="209"/>
-      <c r="AF31" s="204"/>
-      <c r="AG31" s="205"/>
-      <c r="AH31" s="205"/>
-      <c r="AI31" s="206"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="219"/>
+      <c r="L31" s="219"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="219"/>
+      <c r="O31" s="219"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="221"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="222"/>
+      <c r="W31" s="222"/>
+      <c r="X31" s="222"/>
+      <c r="Y31" s="222"/>
+      <c r="Z31" s="222"/>
+      <c r="AA31" s="222"/>
+      <c r="AB31" s="222"/>
+      <c r="AC31" s="222"/>
+      <c r="AD31" s="222"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="218"/>
+      <c r="AG31" s="219"/>
+      <c r="AH31" s="219"/>
+      <c r="AI31" s="220"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="205"/>
-      <c r="O32" s="205"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="207"/>
-      <c r="R32" s="208"/>
-      <c r="S32" s="208"/>
-      <c r="T32" s="208"/>
-      <c r="U32" s="208"/>
-      <c r="V32" s="208"/>
-      <c r="W32" s="208"/>
-      <c r="X32" s="208"/>
-      <c r="Y32" s="208"/>
-      <c r="Z32" s="208"/>
-      <c r="AA32" s="208"/>
-      <c r="AB32" s="208"/>
-      <c r="AC32" s="208"/>
-      <c r="AD32" s="208"/>
-      <c r="AE32" s="209"/>
-      <c r="AF32" s="204"/>
-      <c r="AG32" s="205"/>
-      <c r="AH32" s="205"/>
-      <c r="AI32" s="206"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="233"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
+      <c r="W32" s="222"/>
+      <c r="X32" s="222"/>
+      <c r="Y32" s="222"/>
+      <c r="Z32" s="222"/>
+      <c r="AA32" s="222"/>
+      <c r="AB32" s="222"/>
+      <c r="AC32" s="222"/>
+      <c r="AD32" s="222"/>
+      <c r="AE32" s="223"/>
+      <c r="AF32" s="218"/>
+      <c r="AG32" s="219"/>
+      <c r="AH32" s="219"/>
+      <c r="AI32" s="220"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="205"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="205"/>
-      <c r="O33" s="205"/>
-      <c r="P33" s="206"/>
-      <c r="Q33" s="207"/>
-      <c r="R33" s="208"/>
-      <c r="S33" s="208"/>
-      <c r="T33" s="208"/>
-      <c r="U33" s="208"/>
-      <c r="V33" s="208"/>
-      <c r="W33" s="208"/>
-      <c r="X33" s="208"/>
-      <c r="Y33" s="208"/>
-      <c r="Z33" s="208"/>
-      <c r="AA33" s="208"/>
-      <c r="AB33" s="208"/>
-      <c r="AC33" s="208"/>
-      <c r="AD33" s="208"/>
-      <c r="AE33" s="209"/>
-      <c r="AF33" s="204"/>
-      <c r="AG33" s="205"/>
-      <c r="AH33" s="205"/>
-      <c r="AI33" s="206"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
+      <c r="N33" s="219"/>
+      <c r="O33" s="219"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="221"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="223"/>
+      <c r="AF33" s="218"/>
+      <c r="AG33" s="219"/>
+      <c r="AH33" s="219"/>
+      <c r="AI33" s="220"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
@@ -11433,9 +11463,9 @@
   <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -11455,7 +11485,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11465,17 +11495,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>8</v>
@@ -11486,7 +11516,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>9</v>
@@ -12482,9 +12512,9 @@
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
       <c r="J36" s="64" t="s">
-        <v>502</v>
-      </c>
-      <c r="K36" s="222"/>
+        <v>500</v>
+      </c>
+      <c r="K36" s="160"/>
       <c r="L36" s="66"/>
       <c r="M36" s="67"/>
       <c r="N36" s="67"/>
@@ -12508,7 +12538,7 @@
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="D37" s="56"/>
-      <c r="E37" s="159"/>
+      <c r="E37" s="158"/>
       <c r="F37" s="51" t="s">
         <v>86</v>
       </c>
@@ -12516,9 +12546,9 @@
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="64" t="s">
-        <v>502</v>
-      </c>
-      <c r="K37" s="222"/>
+        <v>500</v>
+      </c>
+      <c r="K37" s="160"/>
       <c r="L37" s="66"/>
       <c r="M37" s="67"/>
       <c r="N37" s="67"/>
@@ -12542,7 +12572,7 @@
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="56"/>
-      <c r="E38" s="159"/>
+      <c r="E38" s="158"/>
       <c r="F38" s="42" t="s">
         <v>87</v>
       </c>
@@ -12550,12 +12580,12 @@
       <c r="H38" s="51"/>
       <c r="I38" s="64"/>
       <c r="J38" s="64" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K38" s="64"/>
       <c r="L38" s="66"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="223"/>
+      <c r="N38" s="161"/>
       <c r="O38" s="67"/>
       <c r="P38" s="67"/>
       <c r="Q38" s="67"/>
@@ -12577,24 +12607,24 @@
       <c r="C39" s="49"/>
       <c r="D39" s="53"/>
       <c r="E39" s="54"/>
-      <c r="F39" s="224" t="s">
+      <c r="F39" s="162" t="s">
         <v>88</v>
       </c>
       <c r="G39" s="64"/>
       <c r="H39" s="51"/>
       <c r="I39" s="64"/>
       <c r="J39" s="64" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K39" s="64"/>
       <c r="L39" s="66"/>
-      <c r="M39" s="225"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="223"/>
-      <c r="P39" s="225"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="161"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="163"/>
       <c r="Q39" s="67"/>
     </row>
-    <row r="40" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="40" spans="1:17" s="32" customFormat="1" ht="56.25">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -12620,25 +12650,33 @@
       </c>
       <c r="G40" s="141"/>
       <c r="H40" s="141" t="s">
+        <v>501</v>
+      </c>
+      <c r="I40" s="141" t="s">
+        <v>502</v>
+      </c>
+      <c r="J40" s="142" t="s">
         <v>503</v>
       </c>
-      <c r="I40" s="141" t="s">
-        <v>504</v>
-      </c>
-      <c r="J40" s="142" t="s">
-        <v>505</v>
-      </c>
       <c r="K40" s="143" t="s">
-        <v>511</v>
-      </c>
-      <c r="L40" s="144"/>
-      <c r="M40" s="145"/>
-      <c r="N40" s="146"/>
-      <c r="O40" s="147"/>
+        <v>509</v>
+      </c>
+      <c r="L40" s="144" t="s">
+        <v>548</v>
+      </c>
+      <c r="M40" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="N40" s="174">
+        <v>44858</v>
+      </c>
+      <c r="O40" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="P40" s="145"/>
       <c r="Q40" s="146"/>
     </row>
-    <row r="41" spans="1:17" s="32" customFormat="1" ht="56.25">
+    <row r="41" spans="1:17" s="32" customFormat="1" ht="67.5">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -12653,28 +12691,36 @@
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="68"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="149"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="141" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="141"/>
       <c r="H41" s="141" t="s">
+        <v>505</v>
+      </c>
+      <c r="I41" s="141" t="s">
+        <v>506</v>
+      </c>
+      <c r="J41" s="142" t="s">
         <v>507</v>
       </c>
-      <c r="I41" s="141" t="s">
-        <v>508</v>
-      </c>
-      <c r="J41" s="142" t="s">
-        <v>509</v>
-      </c>
       <c r="K41" s="143" t="s">
-        <v>512</v>
-      </c>
-      <c r="L41" s="144"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="146"/>
-      <c r="O41" s="147"/>
+        <v>510</v>
+      </c>
+      <c r="L41" s="144" t="s">
+        <v>549</v>
+      </c>
+      <c r="M41" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="N41" s="174">
+        <v>44858</v>
+      </c>
+      <c r="O41" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="P41" s="145"/>
       <c r="Q41" s="146"/>
     </row>
@@ -12706,8 +12752,8 @@
       <c r="F42" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="150" t="s">
-        <v>486</v>
+      <c r="G42" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
@@ -12740,8 +12786,8 @@
       <c r="F43" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="150" t="s">
-        <v>486</v>
+      <c r="G43" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
@@ -12774,8 +12820,8 @@
       <c r="F44" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="150" t="s">
-        <v>486</v>
+      <c r="G44" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
@@ -12810,8 +12856,8 @@
       <c r="F45" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="150" t="s">
-        <v>486</v>
+      <c r="G45" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
@@ -12844,8 +12890,8 @@
       <c r="F46" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="150" t="s">
-        <v>486</v>
+      <c r="G46" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
@@ -12878,8 +12924,8 @@
       <c r="F47" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="150" t="s">
-        <v>486</v>
+      <c r="G47" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -12914,8 +12960,8 @@
       <c r="F48" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="150" t="s">
-        <v>486</v>
+      <c r="G48" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
@@ -12948,8 +12994,8 @@
       <c r="F49" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="150" t="s">
-        <v>486</v>
+      <c r="G49" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
@@ -12984,8 +13030,8 @@
       <c r="F50" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="150" t="s">
-        <v>486</v>
+      <c r="G50" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
@@ -13018,8 +13064,8 @@
       <c r="F51" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="150" t="s">
-        <v>486</v>
+      <c r="G51" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H51" s="52"/>
       <c r="I51" s="52"/>
@@ -13052,8 +13098,8 @@
       <c r="F52" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="150" t="s">
-        <v>486</v>
+      <c r="G52" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
@@ -13086,8 +13132,8 @@
       <c r="F53" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="G53" s="150" t="s">
-        <v>486</v>
+      <c r="G53" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
@@ -13120,8 +13166,8 @@
       <c r="F54" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="150" t="s">
-        <v>486</v>
+      <c r="G54" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
@@ -13154,8 +13200,8 @@
       <c r="F55" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="150" t="s">
-        <v>486</v>
+      <c r="G55" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
@@ -13190,8 +13236,8 @@
       <c r="F56" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="150" t="s">
-        <v>486</v>
+      <c r="G56" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
@@ -13226,8 +13272,8 @@
       <c r="F57" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="150" t="s">
-        <v>486</v>
+      <c r="G57" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
@@ -13262,8 +13308,8 @@
       <c r="F58" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="150" t="s">
-        <v>486</v>
+      <c r="G58" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
@@ -13300,8 +13346,8 @@
       <c r="F59" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="150" t="s">
-        <v>486</v>
+      <c r="G59" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
@@ -13334,8 +13380,8 @@
       <c r="F60" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="150" t="s">
-        <v>486</v>
+      <c r="G60" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
@@ -13368,8 +13414,8 @@
       <c r="F61" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="G61" s="150" t="s">
-        <v>486</v>
+      <c r="G61" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
@@ -13402,8 +13448,8 @@
       <c r="F62" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="150" t="s">
-        <v>486</v>
+      <c r="G62" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
@@ -13436,8 +13482,8 @@
       <c r="F63" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="G63" s="150" t="s">
-        <v>486</v>
+      <c r="G63" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
@@ -13472,8 +13518,8 @@
       <c r="F64" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G64" s="150" t="s">
-        <v>486</v>
+      <c r="G64" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
@@ -13506,8 +13552,8 @@
       <c r="F65" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="G65" s="150" t="s">
-        <v>486</v>
+      <c r="G65" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
@@ -13540,8 +13586,8 @@
       <c r="F66" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="G66" s="150" t="s">
-        <v>486</v>
+      <c r="G66" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
@@ -13574,8 +13620,8 @@
       <c r="F67" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="150" t="s">
-        <v>486</v>
+      <c r="G67" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H67" s="52"/>
       <c r="I67" s="52"/>
@@ -13608,8 +13654,8 @@
       <c r="F68" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G68" s="150" t="s">
-        <v>486</v>
+      <c r="G68" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
@@ -13642,8 +13688,8 @@
       <c r="F69" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="150" t="s">
-        <v>486</v>
+      <c r="G69" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H69" s="52"/>
       <c r="I69" s="52"/>
@@ -13676,8 +13722,8 @@
       <c r="F70" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="G70" s="150" t="s">
-        <v>486</v>
+      <c r="G70" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H70" s="52"/>
       <c r="I70" s="52"/>
@@ -13710,8 +13756,8 @@
       <c r="F71" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="G71" s="150" t="s">
-        <v>486</v>
+      <c r="G71" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
@@ -13746,8 +13792,8 @@
       <c r="F72" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="G72" s="150" t="s">
-        <v>486</v>
+      <c r="G72" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
@@ -13782,8 +13828,8 @@
       <c r="F73" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="G73" s="150" t="s">
-        <v>486</v>
+      <c r="G73" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
@@ -13816,8 +13862,8 @@
       <c r="F74" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="G74" s="150" t="s">
-        <v>486</v>
+      <c r="G74" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
@@ -13850,8 +13896,8 @@
       <c r="F75" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="G75" s="150" t="s">
-        <v>486</v>
+      <c r="G75" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
@@ -13884,8 +13930,8 @@
       <c r="F76" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="150" t="s">
-        <v>486</v>
+      <c r="G76" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
@@ -13918,8 +13964,8 @@
       <c r="F77" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="150" t="s">
-        <v>486</v>
+      <c r="G77" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
@@ -13958,8 +14004,8 @@
       <c r="F78" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="G78" s="150" t="s">
-        <v>486</v>
+      <c r="G78" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
@@ -13992,8 +14038,8 @@
       <c r="F79" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="G79" s="150" t="s">
-        <v>486</v>
+      <c r="G79" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H79" s="52"/>
       <c r="I79" s="52"/>
@@ -14028,8 +14074,8 @@
       <c r="F80" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="G80" s="150" t="s">
-        <v>486</v>
+      <c r="G80" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H80" s="52"/>
       <c r="I80" s="52"/>
@@ -14064,8 +14110,8 @@
       <c r="F81" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="G81" s="150" t="s">
-        <v>486</v>
+      <c r="G81" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H81" s="52"/>
       <c r="I81" s="52"/>
@@ -14098,8 +14144,8 @@
       <c r="F82" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G82" s="150" t="s">
-        <v>486</v>
+      <c r="G82" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H82" s="52"/>
       <c r="I82" s="52"/>
@@ -14134,8 +14180,8 @@
       <c r="F83" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G83" s="150" t="s">
-        <v>486</v>
+      <c r="G83" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H83" s="52"/>
       <c r="I83" s="52"/>
@@ -14170,8 +14216,8 @@
       <c r="F84" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="G84" s="150" t="s">
-        <v>486</v>
+      <c r="G84" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H84" s="52"/>
       <c r="I84" s="52"/>
@@ -14210,8 +14256,8 @@
       <c r="F85" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G85" s="150" t="s">
-        <v>486</v>
+      <c r="G85" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H85" s="52"/>
       <c r="I85" s="52"/>
@@ -14246,8 +14292,8 @@
       <c r="F86" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G86" s="150" t="s">
-        <v>486</v>
+      <c r="G86" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H86" s="52"/>
       <c r="I86" s="52"/>
@@ -14282,8 +14328,8 @@
       <c r="F87" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G87" s="150" t="s">
-        <v>486</v>
+      <c r="G87" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
@@ -14322,8 +14368,8 @@
       <c r="F88" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G88" s="150" t="s">
-        <v>486</v>
+      <c r="G88" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
@@ -14356,8 +14402,8 @@
       <c r="F89" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="G89" s="150" t="s">
-        <v>486</v>
+      <c r="G89" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H89" s="52"/>
       <c r="I89" s="52"/>
@@ -14392,8 +14438,8 @@
       <c r="F90" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="G90" s="150" t="s">
-        <v>486</v>
+      <c r="G90" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
@@ -14428,8 +14474,8 @@
       <c r="F91" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G91" s="150" t="s">
-        <v>486</v>
+      <c r="G91" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
@@ -14462,8 +14508,8 @@
       <c r="F92" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="G92" s="150" t="s">
-        <v>486</v>
+      <c r="G92" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H92" s="52"/>
       <c r="I92" s="52"/>
@@ -14498,8 +14544,8 @@
       <c r="F93" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="G93" s="150" t="s">
-        <v>486</v>
+      <c r="G93" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
@@ -14538,8 +14584,8 @@
       <c r="F94" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="G94" s="150" t="s">
-        <v>486</v>
+      <c r="G94" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
@@ -14572,8 +14618,8 @@
       <c r="F95" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="G95" s="150" t="s">
-        <v>486</v>
+      <c r="G95" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H95" s="52"/>
       <c r="I95" s="52"/>
@@ -14606,8 +14652,8 @@
       <c r="F96" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="150" t="s">
-        <v>486</v>
+      <c r="G96" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
@@ -14640,8 +14686,8 @@
       <c r="F97" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="G97" s="150" t="s">
-        <v>486</v>
+      <c r="G97" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
@@ -14674,8 +14720,8 @@
       <c r="F98" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="G98" s="150" t="s">
-        <v>486</v>
+      <c r="G98" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H98" s="52"/>
       <c r="I98" s="52"/>
@@ -14710,8 +14756,8 @@
       <c r="F99" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="G99" s="150" t="s">
-        <v>486</v>
+      <c r="G99" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
@@ -14744,8 +14790,8 @@
       <c r="F100" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G100" s="150" t="s">
-        <v>486</v>
+      <c r="G100" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
@@ -14778,8 +14824,8 @@
       <c r="F101" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="G101" s="150" t="s">
-        <v>486</v>
+      <c r="G101" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H101" s="52"/>
       <c r="I101" s="52"/>
@@ -14812,8 +14858,8 @@
       <c r="F102" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="G102" s="150" t="s">
-        <v>486</v>
+      <c r="G102" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H102" s="52"/>
       <c r="I102" s="52"/>
@@ -14846,8 +14892,8 @@
       <c r="F103" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="G103" s="150" t="s">
-        <v>486</v>
+      <c r="G103" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H103" s="52"/>
       <c r="I103" s="52"/>
@@ -14882,8 +14928,8 @@
       <c r="F104" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G104" s="150" t="s">
-        <v>486</v>
+      <c r="G104" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H104" s="52"/>
       <c r="I104" s="52"/>
@@ -14924,8 +14970,8 @@
       <c r="F105" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="G105" s="150" t="s">
-        <v>486</v>
+      <c r="G105" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H105" s="52"/>
       <c r="I105" s="52"/>
@@ -14964,8 +15010,8 @@
       <c r="F106" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G106" s="150" t="s">
-        <v>486</v>
+      <c r="G106" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
@@ -14998,8 +15044,8 @@
       <c r="F107" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="G107" s="150" t="s">
-        <v>486</v>
+      <c r="G107" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H107" s="52"/>
       <c r="I107" s="52"/>
@@ -15038,8 +15084,8 @@
       <c r="F108" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="G108" s="150" t="s">
-        <v>486</v>
+      <c r="G108" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H108" s="52"/>
       <c r="I108" s="52"/>
@@ -15078,8 +15124,8 @@
       <c r="F109" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="G109" s="150" t="s">
-        <v>486</v>
+      <c r="G109" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H109" s="52"/>
       <c r="I109" s="52"/>
@@ -15112,8 +15158,8 @@
       <c r="F110" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="G110" s="150" t="s">
-        <v>486</v>
+      <c r="G110" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H110" s="52"/>
       <c r="I110" s="52"/>
@@ -15155,7 +15201,7 @@
         <v>194</v>
       </c>
       <c r="G111" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H111" s="51"/>
       <c r="I111" s="51"/>
@@ -15181,7 +15227,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="220" t="s">
+      <c r="B112" s="234" t="s">
         <v>195</v>
       </c>
       <c r="C112" s="56"/>
@@ -15191,7 +15237,7 @@
         <v>196</v>
       </c>
       <c r="G112" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H112" s="51"/>
       <c r="I112" s="51"/>
@@ -15217,7 +15263,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="220"/>
+      <c r="B113" s="234"/>
       <c r="C113" s="56"/>
       <c r="D113" s="43"/>
       <c r="E113" s="86"/>
@@ -15225,7 +15271,7 @@
         <v>197</v>
       </c>
       <c r="G113" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H113" s="51"/>
       <c r="I113" s="51"/>
@@ -15259,7 +15305,7 @@
         <v>198</v>
       </c>
       <c r="G114" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H114" s="51"/>
       <c r="I114" s="51"/>
@@ -15295,7 +15341,7 @@
         <v>199</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H115" s="51"/>
       <c r="I115" s="51"/>
@@ -15329,7 +15375,7 @@
         <v>200</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H116" s="51"/>
       <c r="I116" s="51"/>
@@ -15363,7 +15409,7 @@
         <v>201</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H117" s="51"/>
       <c r="I117" s="51"/>
@@ -15397,7 +15443,7 @@
         <v>202</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H118" s="51"/>
       <c r="I118" s="51"/>
@@ -15431,7 +15477,7 @@
         <v>203</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H119" s="51"/>
       <c r="I119" s="51"/>
@@ -15467,7 +15513,7 @@
         <v>206</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H120" s="51"/>
       <c r="I120" s="51"/>
@@ -15501,7 +15547,7 @@
         <v>207</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
@@ -15535,7 +15581,7 @@
         <v>208</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
@@ -15569,7 +15615,7 @@
         <v>209</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H123" s="51"/>
       <c r="I123" s="51"/>
@@ -15603,7 +15649,7 @@
         <v>210</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H124" s="51"/>
       <c r="I124" s="51"/>
@@ -15639,7 +15685,7 @@
         <v>212</v>
       </c>
       <c r="G125" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H125" s="51"/>
       <c r="I125" s="51"/>
@@ -15677,7 +15723,7 @@
         <v>213</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H126" s="51"/>
       <c r="I126" s="51"/>
@@ -15717,7 +15763,7 @@
         <v>216</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H127" s="51"/>
       <c r="I127" s="51"/>
@@ -15753,7 +15799,7 @@
         <v>218</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H128" s="51"/>
       <c r="I128" s="51"/>
@@ -15787,7 +15833,7 @@
         <v>219</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H129" s="51"/>
       <c r="I129" s="51"/>
@@ -15821,7 +15867,7 @@
         <v>220</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H130" s="51"/>
       <c r="I130" s="51"/>
@@ -15863,7 +15909,7 @@
         <v>222</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H131" s="51"/>
       <c r="I131" s="51"/>
@@ -15889,7 +15935,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="220" t="s">
+      <c r="B132" s="234" t="s">
         <v>223</v>
       </c>
       <c r="C132" s="56"/>
@@ -15899,7 +15945,7 @@
         <v>224</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H132" s="51"/>
       <c r="I132" s="51"/>
@@ -15925,7 +15971,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="220"/>
+      <c r="B133" s="234"/>
       <c r="C133" s="56"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
@@ -15933,7 +15979,7 @@
         <v>225</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H133" s="51"/>
       <c r="I133" s="51"/>
@@ -15967,7 +16013,7 @@
         <v>226</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H134" s="51"/>
       <c r="I134" s="51"/>
@@ -16003,7 +16049,7 @@
         <v>228</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H135" s="51"/>
       <c r="I135" s="51"/>
@@ -16037,7 +16083,7 @@
         <v>229</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
@@ -16075,7 +16121,7 @@
         <v>230</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
@@ -16115,7 +16161,7 @@
         <v>233</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H138" s="51"/>
       <c r="I138" s="51"/>
@@ -16151,7 +16197,7 @@
         <v>235</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H139" s="51"/>
       <c r="I139" s="51"/>
@@ -16187,7 +16233,7 @@
         <v>237</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
@@ -16223,7 +16269,7 @@
         <v>238</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
@@ -16259,7 +16305,7 @@
         <v>241</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
@@ -16295,7 +16341,7 @@
         <v>243</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
@@ -16329,7 +16375,7 @@
         <v>245</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
@@ -16363,7 +16409,7 @@
         <v>246</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
@@ -16397,7 +16443,7 @@
         <v>247</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
@@ -16431,7 +16477,7 @@
         <v>248</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
@@ -16465,7 +16511,7 @@
         <v>249</v>
       </c>
       <c r="G148" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
@@ -16503,7 +16549,7 @@
         <v>251</v>
       </c>
       <c r="G149" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
@@ -16537,7 +16583,7 @@
         <v>252</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
@@ -16573,7 +16619,7 @@
         <v>253</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H151" s="51"/>
       <c r="I151" s="51"/>
@@ -16607,7 +16653,7 @@
         <v>254</v>
       </c>
       <c r="G152" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
@@ -16641,7 +16687,7 @@
         <v>255</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H153" s="51"/>
       <c r="I153" s="51"/>
@@ -16675,7 +16721,7 @@
         <v>256</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H154" s="51"/>
       <c r="I154" s="51"/>
@@ -16709,7 +16755,7 @@
         <v>257</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H155" s="51"/>
       <c r="I155" s="51"/>
@@ -16743,7 +16789,7 @@
         <v>258</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H156" s="51"/>
       <c r="I156" s="51"/>
@@ -16777,7 +16823,7 @@
         <v>259</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H157" s="51"/>
       <c r="I157" s="51"/>
@@ -16811,7 +16857,7 @@
         <v>260</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H158" s="51"/>
       <c r="I158" s="51"/>
@@ -16845,7 +16891,7 @@
         <v>261</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H159" s="51"/>
       <c r="I159" s="51"/>
@@ -16879,7 +16925,7 @@
         <v>262</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H160" s="51"/>
       <c r="I160" s="51"/>
@@ -16913,7 +16959,7 @@
         <v>263</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H161" s="51"/>
       <c r="I161" s="51"/>
@@ -16949,7 +16995,7 @@
         <v>264</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H162" s="51"/>
       <c r="I162" s="51"/>
@@ -16983,7 +17029,7 @@
         <v>265</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H163" s="51"/>
       <c r="I163" s="51"/>
@@ -17017,7 +17063,7 @@
         <v>266</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H164" s="51"/>
       <c r="I164" s="51"/>
@@ -17051,7 +17097,7 @@
         <v>267</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H165" s="51"/>
       <c r="I165" s="51"/>
@@ -17085,7 +17131,7 @@
         <v>268</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H166" s="51"/>
       <c r="I166" s="51"/>
@@ -17119,7 +17165,7 @@
         <v>269</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H167" s="51"/>
       <c r="I167" s="51"/>
@@ -17153,7 +17199,7 @@
         <v>270</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H168" s="51"/>
       <c r="I168" s="51"/>
@@ -17189,7 +17235,7 @@
         <v>271</v>
       </c>
       <c r="G169" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H169" s="51"/>
       <c r="I169" s="51"/>
@@ -17223,7 +17269,7 @@
         <v>272</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H170" s="51"/>
       <c r="I170" s="51"/>
@@ -17257,7 +17303,7 @@
         <v>273</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H171" s="51"/>
       <c r="I171" s="51"/>
@@ -17291,7 +17337,7 @@
         <v>274</v>
       </c>
       <c r="G172" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H172" s="51"/>
       <c r="I172" s="51"/>
@@ -17325,7 +17371,7 @@
         <v>275</v>
       </c>
       <c r="G173" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H173" s="51"/>
       <c r="I173" s="51"/>
@@ -17359,7 +17405,7 @@
         <v>276</v>
       </c>
       <c r="G174" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H174" s="51"/>
       <c r="I174" s="51"/>
@@ -17393,7 +17439,7 @@
         <v>277</v>
       </c>
       <c r="G175" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H175" s="51"/>
       <c r="I175" s="51"/>
@@ -17427,7 +17473,7 @@
         <v>278</v>
       </c>
       <c r="G176" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H176" s="51"/>
       <c r="I176" s="51"/>
@@ -17461,7 +17507,7 @@
         <v>279</v>
       </c>
       <c r="G177" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H177" s="51"/>
       <c r="I177" s="51"/>
@@ -17497,7 +17543,7 @@
         <v>280</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H178" s="51"/>
       <c r="I178" s="51"/>
@@ -17533,7 +17579,7 @@
         <v>282</v>
       </c>
       <c r="G179" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H179" s="51"/>
       <c r="I179" s="51"/>
@@ -19329,7 +19375,7 @@
         <v>349</v>
       </c>
       <c r="G230" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H230" s="52"/>
       <c r="I230" s="52"/>
@@ -19365,7 +19411,7 @@
         <v>350</v>
       </c>
       <c r="G231" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H231" s="52"/>
       <c r="I231" s="52"/>
@@ -19399,7 +19445,7 @@
         <v>351</v>
       </c>
       <c r="G232" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H232" s="52"/>
       <c r="I232" s="52"/>
@@ -19433,7 +19479,7 @@
         <v>352</v>
       </c>
       <c r="G233" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H233" s="52"/>
       <c r="I233" s="52"/>
@@ -19467,7 +19513,7 @@
         <v>353</v>
       </c>
       <c r="G234" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H234" s="52"/>
       <c r="I234" s="52"/>
@@ -19501,7 +19547,7 @@
         <v>354</v>
       </c>
       <c r="G235" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H235" s="52"/>
       <c r="I235" s="52"/>
@@ -19537,7 +19583,7 @@
         <v>355</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H236" s="52"/>
       <c r="I236" s="52"/>
@@ -19571,7 +19617,7 @@
         <v>356</v>
       </c>
       <c r="G237" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H237" s="52"/>
       <c r="I237" s="52"/>
@@ -19605,7 +19651,7 @@
         <v>357</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H238" s="52"/>
       <c r="I238" s="52"/>
@@ -19639,7 +19685,7 @@
         <v>358</v>
       </c>
       <c r="G239" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H239" s="52"/>
       <c r="I239" s="52"/>
@@ -19673,7 +19719,7 @@
         <v>359</v>
       </c>
       <c r="G240" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H240" s="52"/>
       <c r="I240" s="52"/>
@@ -19709,7 +19755,7 @@
         <v>360</v>
       </c>
       <c r="G241" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H241" s="52"/>
       <c r="I241" s="52"/>
@@ -19749,7 +19795,7 @@
         <v>361</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H242" s="52"/>
       <c r="I242" s="52"/>
@@ -19791,7 +19837,7 @@
         <v>364</v>
       </c>
       <c r="G243" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H243" s="52"/>
       <c r="I243" s="52"/>
@@ -19825,7 +19871,7 @@
         <v>365</v>
       </c>
       <c r="G244" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H244" s="52"/>
       <c r="I244" s="52"/>
@@ -19863,7 +19909,7 @@
         <v>366</v>
       </c>
       <c r="G245" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H245" s="52"/>
       <c r="I245" s="52"/>
@@ -19897,7 +19943,7 @@
         <v>367</v>
       </c>
       <c r="G246" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H246" s="52"/>
       <c r="I246" s="52"/>
@@ -19937,7 +19983,7 @@
         <v>369</v>
       </c>
       <c r="G247" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H247" s="52"/>
       <c r="I247" s="52"/>
@@ -19973,7 +20019,7 @@
         <v>370</v>
       </c>
       <c r="G248" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H248" s="52"/>
       <c r="I248" s="52"/>
@@ -20009,7 +20055,7 @@
         <v>371</v>
       </c>
       <c r="G249" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H249" s="52"/>
       <c r="I249" s="52"/>
@@ -20045,7 +20091,7 @@
         <v>372</v>
       </c>
       <c r="G250" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H250" s="52"/>
       <c r="I250" s="52"/>
@@ -20083,7 +20129,7 @@
         <v>373</v>
       </c>
       <c r="G251" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H251" s="52"/>
       <c r="I251" s="52"/>
@@ -20117,7 +20163,7 @@
         <v>374</v>
       </c>
       <c r="G252" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H252" s="52"/>
       <c r="I252" s="52"/>
@@ -20153,7 +20199,7 @@
         <v>375</v>
       </c>
       <c r="G253" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H253" s="52"/>
       <c r="I253" s="52"/>
@@ -20187,7 +20233,7 @@
         <v>376</v>
       </c>
       <c r="G254" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H254" s="52"/>
       <c r="I254" s="52"/>
@@ -20221,7 +20267,7 @@
         <v>377</v>
       </c>
       <c r="G255" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H255" s="52"/>
       <c r="I255" s="52"/>
@@ -20255,7 +20301,7 @@
         <v>378</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H256" s="52"/>
       <c r="I256" s="52"/>
@@ -20289,7 +20335,7 @@
         <v>379</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H257" s="52"/>
       <c r="I257" s="52"/>
@@ -20323,7 +20369,7 @@
         <v>380</v>
       </c>
       <c r="G258" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H258" s="52"/>
       <c r="I258" s="52"/>
@@ -20357,7 +20403,7 @@
         <v>381</v>
       </c>
       <c r="G259" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H259" s="52"/>
       <c r="I259" s="52"/>
@@ -20391,7 +20437,7 @@
         <v>382</v>
       </c>
       <c r="G260" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H260" s="52"/>
       <c r="I260" s="52"/>
@@ -20425,7 +20471,7 @@
         <v>383</v>
       </c>
       <c r="G261" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H261" s="52"/>
       <c r="I261" s="52"/>
@@ -20459,7 +20505,7 @@
         <v>384</v>
       </c>
       <c r="G262" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H262" s="52"/>
       <c r="I262" s="52"/>
@@ -20493,7 +20539,7 @@
         <v>385</v>
       </c>
       <c r="G263" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H263" s="52"/>
       <c r="I263" s="52"/>
@@ -20529,7 +20575,7 @@
         <v>386</v>
       </c>
       <c r="G264" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H264" s="52"/>
       <c r="I264" s="52"/>
@@ -20563,7 +20609,7 @@
         <v>387</v>
       </c>
       <c r="G265" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H265" s="52"/>
       <c r="I265" s="52"/>
@@ -20597,7 +20643,7 @@
         <v>388</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H266" s="52"/>
       <c r="I266" s="52"/>
@@ -20631,7 +20677,7 @@
         <v>389</v>
       </c>
       <c r="G267" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H267" s="52"/>
       <c r="I267" s="52"/>
@@ -20665,7 +20711,7 @@
         <v>390</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H268" s="52"/>
       <c r="I268" s="52"/>
@@ -20699,7 +20745,7 @@
         <v>391</v>
       </c>
       <c r="G269" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H269" s="52"/>
       <c r="I269" s="52"/>
@@ -20735,7 +20781,7 @@
         <v>392</v>
       </c>
       <c r="G270" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H270" s="52"/>
       <c r="I270" s="52"/>
@@ -20769,7 +20815,7 @@
         <v>393</v>
       </c>
       <c r="G271" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H271" s="52"/>
       <c r="I271" s="52"/>
@@ -20803,7 +20849,7 @@
         <v>394</v>
       </c>
       <c r="G272" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H272" s="52"/>
       <c r="I272" s="52"/>
@@ -20837,7 +20883,7 @@
         <v>395</v>
       </c>
       <c r="G273" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H273" s="52"/>
       <c r="I273" s="52"/>
@@ -20871,7 +20917,7 @@
         <v>396</v>
       </c>
       <c r="G274" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H274" s="52"/>
       <c r="I274" s="52"/>
@@ -20905,7 +20951,7 @@
         <v>397</v>
       </c>
       <c r="G275" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H275" s="52"/>
       <c r="I275" s="52"/>
@@ -20939,7 +20985,7 @@
         <v>398</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H276" s="52"/>
       <c r="I276" s="52"/>
@@ -20973,7 +21019,7 @@
         <v>399</v>
       </c>
       <c r="G277" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H277" s="52"/>
       <c r="I277" s="52"/>
@@ -21009,7 +21055,7 @@
         <v>400</v>
       </c>
       <c r="G278" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H278" s="52"/>
       <c r="I278" s="52"/>
@@ -21054,7 +21100,7 @@
       <c r="H279" s="51"/>
       <c r="I279" s="51"/>
       <c r="J279" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K279" s="67"/>
       <c r="L279" s="66"/>
@@ -21079,8 +21125,8 @@
       </c>
       <c r="B280" s="50"/>
       <c r="C280" s="58"/>
-      <c r="D280" s="159"/>
-      <c r="E280" s="159"/>
+      <c r="D280" s="158"/>
+      <c r="E280" s="158"/>
       <c r="F280" s="51" t="s">
         <v>404</v>
       </c>
@@ -21088,7 +21134,7 @@
       <c r="H280" s="51"/>
       <c r="I280" s="51"/>
       <c r="J280" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K280" s="67"/>
       <c r="L280" s="66"/>
@@ -21113,8 +21159,8 @@
       </c>
       <c r="B281" s="50"/>
       <c r="C281" s="58"/>
-      <c r="D281" s="159"/>
-      <c r="E281" s="159"/>
+      <c r="D281" s="158"/>
+      <c r="E281" s="158"/>
       <c r="F281" s="51" t="s">
         <v>405</v>
       </c>
@@ -21122,7 +21168,7 @@
       <c r="H281" s="51"/>
       <c r="I281" s="51"/>
       <c r="J281" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K281" s="67"/>
       <c r="L281" s="66"/>
@@ -21146,7 +21192,7 @@
         <v>95-4-1</v>
       </c>
       <c r="B282" s="50"/>
-      <c r="C282" s="226"/>
+      <c r="C282" s="164"/>
       <c r="D282" s="54"/>
       <c r="E282" s="54"/>
       <c r="F282" s="51" t="s">
@@ -21156,7 +21202,7 @@
       <c r="H282" s="51"/>
       <c r="I282" s="51"/>
       <c r="J282" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K282" s="67"/>
       <c r="L282" s="66"/>
@@ -21180,10 +21226,10 @@
         <v>96-1-1</v>
       </c>
       <c r="B283" s="50"/>
-      <c r="C283" s="159" t="s">
+      <c r="C283" s="158" t="s">
         <v>407</v>
       </c>
-      <c r="D283" s="159" t="s">
+      <c r="D283" s="158" t="s">
         <v>214</v>
       </c>
       <c r="E283" s="51" t="s">
@@ -21196,7 +21242,7 @@
       <c r="H283" s="51"/>
       <c r="I283" s="51"/>
       <c r="J283" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K283" s="67"/>
       <c r="L283" s="66"/>
@@ -21221,7 +21267,7 @@
       </c>
       <c r="B284" s="50"/>
       <c r="C284" s="58"/>
-      <c r="D284" s="159"/>
+      <c r="D284" s="158"/>
       <c r="E284" s="54" t="s">
         <v>234</v>
       </c>
@@ -21232,7 +21278,7 @@
       <c r="H284" s="51"/>
       <c r="I284" s="51"/>
       <c r="J284" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K284" s="67"/>
       <c r="L284" s="66"/>
@@ -21257,7 +21303,7 @@
       </c>
       <c r="B285" s="50"/>
       <c r="C285" s="58"/>
-      <c r="D285" s="159"/>
+      <c r="D285" s="158"/>
       <c r="E285" s="51" t="s">
         <v>236</v>
       </c>
@@ -21268,7 +21314,7 @@
       <c r="H285" s="51"/>
       <c r="I285" s="51"/>
       <c r="J285" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K285" s="67"/>
       <c r="L285" s="66"/>
@@ -21304,7 +21350,7 @@
       <c r="H286" s="51"/>
       <c r="I286" s="51"/>
       <c r="J286" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K286" s="67"/>
       <c r="L286" s="66"/>
@@ -21329,10 +21375,10 @@
       </c>
       <c r="B287" s="50"/>
       <c r="C287" s="50"/>
-      <c r="D287" s="159" t="s">
+      <c r="D287" s="158" t="s">
         <v>412</v>
       </c>
-      <c r="E287" s="159" t="s">
+      <c r="E287" s="158" t="s">
         <v>413</v>
       </c>
       <c r="F287" s="51" t="s">
@@ -21342,7 +21388,7 @@
       <c r="H287" s="51"/>
       <c r="I287" s="51"/>
       <c r="J287" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K287" s="67"/>
       <c r="L287" s="66"/>
@@ -21368,7 +21414,7 @@
       <c r="B288" s="50"/>
       <c r="C288" s="50"/>
       <c r="D288" s="56"/>
-      <c r="E288" s="159"/>
+      <c r="E288" s="158"/>
       <c r="F288" s="51" t="s">
         <v>415</v>
       </c>
@@ -21376,7 +21422,7 @@
       <c r="H288" s="51"/>
       <c r="I288" s="51"/>
       <c r="J288" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K288" s="67"/>
       <c r="L288" s="66"/>
@@ -21402,7 +21448,7 @@
       <c r="B289" s="50"/>
       <c r="C289" s="50"/>
       <c r="D289" s="56"/>
-      <c r="E289" s="159"/>
+      <c r="E289" s="158"/>
       <c r="F289" s="51" t="s">
         <v>416</v>
       </c>
@@ -21410,7 +21456,7 @@
       <c r="H289" s="51"/>
       <c r="I289" s="51"/>
       <c r="J289" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K289" s="67"/>
       <c r="L289" s="66"/>
@@ -21436,7 +21482,7 @@
       <c r="B290" s="50"/>
       <c r="C290" s="50"/>
       <c r="D290" s="56"/>
-      <c r="E290" s="159"/>
+      <c r="E290" s="158"/>
       <c r="F290" s="51" t="s">
         <v>254</v>
       </c>
@@ -21444,7 +21490,7 @@
       <c r="H290" s="51"/>
       <c r="I290" s="51"/>
       <c r="J290" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K290" s="67"/>
       <c r="L290" s="66"/>
@@ -21470,7 +21516,7 @@
       <c r="B291" s="50"/>
       <c r="C291" s="50"/>
       <c r="D291" s="56"/>
-      <c r="E291" s="159"/>
+      <c r="E291" s="158"/>
       <c r="F291" s="51" t="s">
         <v>255</v>
       </c>
@@ -21478,7 +21524,7 @@
       <c r="H291" s="51"/>
       <c r="I291" s="51"/>
       <c r="J291" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K291" s="67"/>
       <c r="L291" s="66"/>
@@ -21504,7 +21550,7 @@
       <c r="B292" s="50"/>
       <c r="C292" s="50"/>
       <c r="D292" s="56"/>
-      <c r="E292" s="159"/>
+      <c r="E292" s="158"/>
       <c r="F292" s="51" t="s">
         <v>256</v>
       </c>
@@ -21512,7 +21558,7 @@
       <c r="H292" s="51"/>
       <c r="I292" s="51"/>
       <c r="J292" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K292" s="67"/>
       <c r="L292" s="66"/>
@@ -21538,7 +21584,7 @@
       <c r="B293" s="50"/>
       <c r="C293" s="50"/>
       <c r="D293" s="56"/>
-      <c r="E293" s="159"/>
+      <c r="E293" s="158"/>
       <c r="F293" s="51" t="s">
         <v>417</v>
       </c>
@@ -21546,7 +21592,7 @@
       <c r="H293" s="51"/>
       <c r="I293" s="51"/>
       <c r="J293" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K293" s="67"/>
       <c r="L293" s="66"/>
@@ -21572,7 +21618,7 @@
       <c r="B294" s="50"/>
       <c r="C294" s="50"/>
       <c r="D294" s="56"/>
-      <c r="E294" s="159"/>
+      <c r="E294" s="158"/>
       <c r="F294" s="51" t="s">
         <v>418</v>
       </c>
@@ -21580,7 +21626,7 @@
       <c r="H294" s="51"/>
       <c r="I294" s="51"/>
       <c r="J294" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K294" s="67"/>
       <c r="L294" s="66"/>
@@ -21603,8 +21649,8 @@
 )</f>
         <v>100-9-1</v>
       </c>
-      <c r="B295" s="227"/>
-      <c r="C295" s="227"/>
+      <c r="B295" s="165"/>
+      <c r="C295" s="165"/>
       <c r="D295" s="53"/>
       <c r="E295" s="54"/>
       <c r="F295" s="51" t="s">
@@ -21614,7 +21660,7 @@
       <c r="H295" s="51"/>
       <c r="I295" s="51"/>
       <c r="J295" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K295" s="67"/>
       <c r="L295" s="66"/>
@@ -21656,7 +21702,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -21675,7 +21721,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -21685,17 +21731,17 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>8</v>
@@ -21706,7 +21752,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>9</v>
@@ -21771,10 +21817,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>421</v>
+        <v>28</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>422</v>
+        <v>555</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -21805,8 +21851,8 @@
 )</f>
         <v>1-1-1</v>
       </c>
-      <c r="B11" s="157" t="s">
-        <v>423</v>
+      <c r="B11" s="156" t="s">
+        <v>421</v>
       </c>
       <c r="C11" s="97" t="s">
         <v>40</v>
@@ -21821,7 +21867,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -21848,7 +21894,7 @@
 )</f>
         <v>2-1-1</v>
       </c>
-      <c r="B12" s="153"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="102"/>
       <c r="D12" s="103"/>
       <c r="E12" s="103" t="s">
@@ -21858,7 +21904,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -21885,7 +21931,7 @@
 )</f>
         <v>3-1-1</v>
       </c>
-      <c r="B13" s="153"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="102"/>
       <c r="D13" s="98" t="s">
         <v>47</v>
@@ -21897,7 +21943,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -21924,7 +21970,7 @@
 )</f>
         <v>3-2-1</v>
       </c>
-      <c r="B14" s="153"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="102"/>
       <c r="D14" s="98"/>
       <c r="E14" s="104"/>
@@ -21932,7 +21978,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
@@ -21959,7 +22005,7 @@
 )</f>
         <v>3-3-1</v>
       </c>
-      <c r="B15" s="153"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="102"/>
       <c r="D15" s="98"/>
       <c r="E15" s="104"/>
@@ -21967,7 +22013,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
@@ -21994,7 +22040,7 @@
 )</f>
         <v>3-4-1</v>
       </c>
-      <c r="B16" s="153"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="102"/>
       <c r="D16" s="98"/>
       <c r="E16" s="104"/>
@@ -22002,7 +22048,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
@@ -22029,7 +22075,7 @@
 )</f>
         <v>3-5-1</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="102"/>
       <c r="D17" s="105"/>
       <c r="E17" s="103"/>
@@ -22037,7 +22083,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
@@ -22064,7 +22110,7 @@
 )</f>
         <v>4-1-1</v>
       </c>
-      <c r="B18" s="153"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="102"/>
       <c r="D18" s="104" t="s">
         <v>54</v>
@@ -22076,7 +22122,7 @@
         <v>56</v>
       </c>
       <c r="G18" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
@@ -22103,7 +22149,7 @@
 )</f>
         <v>4-2-1</v>
       </c>
-      <c r="B19" s="153"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="102"/>
       <c r="D19" s="104"/>
       <c r="E19" s="104"/>
@@ -22111,7 +22157,7 @@
         <v>57</v>
       </c>
       <c r="G19" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
@@ -22138,7 +22184,7 @@
 )</f>
         <v>4-3-1</v>
       </c>
-      <c r="B20" s="153"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="102"/>
       <c r="D20" s="104"/>
       <c r="E20" s="103"/>
@@ -22146,7 +22192,7 @@
         <v>58</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
@@ -22173,7 +22219,7 @@
 )</f>
         <v>5-1-1</v>
       </c>
-      <c r="B21" s="153"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="102"/>
       <c r="D21" s="104"/>
       <c r="E21" s="104" t="s">
@@ -22183,7 +22229,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
@@ -22210,7 +22256,7 @@
 )</f>
         <v>5-2-1</v>
       </c>
-      <c r="B22" s="153"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="102"/>
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
@@ -22218,7 +22264,7 @@
         <v>61</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
@@ -22245,15 +22291,15 @@
 )</f>
         <v>5-3-1</v>
       </c>
-      <c r="B23" s="153"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="102"/>
       <c r="D23" s="104"/>
       <c r="E23" s="104"/>
       <c r="F23" s="99" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G23" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
@@ -22280,15 +22326,15 @@
 )</f>
         <v>5-4-1</v>
       </c>
-      <c r="B24" s="153"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="102"/>
       <c r="D24" s="105"/>
       <c r="E24" s="103"/>
       <c r="F24" s="99" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
@@ -22315,7 +22361,7 @@
 )</f>
         <v>6-1-1</v>
       </c>
-      <c r="B25" s="153"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="102"/>
       <c r="D25" s="104" t="s">
         <v>64</v>
@@ -22327,7 +22373,7 @@
         <v>65</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
@@ -22354,7 +22400,7 @@
 )</f>
         <v>6-2-1</v>
       </c>
-      <c r="B26" s="153"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="102"/>
       <c r="D26" s="105"/>
       <c r="E26" s="103"/>
@@ -22362,7 +22408,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
@@ -22389,7 +22435,7 @@
 )</f>
         <v>7-1-1</v>
       </c>
-      <c r="B27" s="153"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="102"/>
       <c r="D27" s="104" t="s">
         <v>67</v>
@@ -22401,7 +22447,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
@@ -22428,7 +22474,7 @@
 )</f>
         <v>7-2-1</v>
       </c>
-      <c r="B28" s="153"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="102"/>
       <c r="D28" s="104"/>
       <c r="E28" s="103"/>
@@ -22436,7 +22482,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
@@ -22463,7 +22509,7 @@
 )</f>
         <v>8-1-1</v>
       </c>
-      <c r="B29" s="153"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="102"/>
       <c r="D29" s="98"/>
       <c r="E29" s="104" t="s">
@@ -22473,7 +22519,7 @@
         <v>72</v>
       </c>
       <c r="G29" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
@@ -22500,7 +22546,7 @@
 )</f>
         <v>8-2-1</v>
       </c>
-      <c r="B30" s="153"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="102"/>
       <c r="D30" s="104"/>
       <c r="E30" s="104"/>
@@ -22508,7 +22554,7 @@
         <v>73</v>
       </c>
       <c r="G30" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
@@ -22535,7 +22581,7 @@
 )</f>
         <v>8-3-1</v>
       </c>
-      <c r="B31" s="153"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="102"/>
       <c r="D31" s="104"/>
       <c r="E31" s="104"/>
@@ -22543,7 +22589,7 @@
         <v>74</v>
       </c>
       <c r="G31" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
@@ -22570,7 +22616,7 @@
 )</f>
         <v>8-4-1</v>
       </c>
-      <c r="B32" s="153"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="102"/>
       <c r="D32" s="104"/>
       <c r="E32" s="103"/>
@@ -22578,7 +22624,7 @@
         <v>75</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
@@ -22605,17 +22651,17 @@
 )</f>
         <v>9-1-1</v>
       </c>
-      <c r="B33" s="153"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="102"/>
       <c r="D33" s="104"/>
       <c r="E33" s="104" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F33" s="99" t="s">
         <v>77</v>
       </c>
       <c r="G33" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
@@ -22642,7 +22688,7 @@
 )</f>
         <v>9-2-1</v>
       </c>
-      <c r="B34" s="153"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="102"/>
       <c r="D34" s="104"/>
       <c r="E34" s="103"/>
@@ -22650,7 +22696,7 @@
         <v>78</v>
       </c>
       <c r="G34" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
@@ -22677,17 +22723,17 @@
 )</f>
         <v>10-1-1</v>
       </c>
-      <c r="B35" s="153"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="98"/>
       <c r="D35" s="104"/>
       <c r="E35" s="98" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="99" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G35" s="66" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -22714,21 +22760,21 @@
 )</f>
         <v>11-1-1</v>
       </c>
-      <c r="B36" s="153"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="129" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="129" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E36" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F36" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="151" t="s">
-        <v>490</v>
+      <c r="G36" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
@@ -22755,15 +22801,15 @@
 )</f>
         <v>11-2-1</v>
       </c>
-      <c r="B37" s="153"/>
+      <c r="B37" s="152"/>
       <c r="C37" s="98"/>
       <c r="D37" s="104"/>
       <c r="E37" s="98"/>
       <c r="F37" s="99" t="s">
-        <v>431</v>
-      </c>
-      <c r="G37" s="151" t="s">
-        <v>490</v>
+        <v>429</v>
+      </c>
+      <c r="G37" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
@@ -22790,15 +22836,15 @@
 )</f>
         <v>11-3-1</v>
       </c>
-      <c r="B38" s="153"/>
+      <c r="B38" s="152"/>
       <c r="C38" s="98"/>
       <c r="D38" s="104"/>
       <c r="E38" s="98"/>
       <c r="F38" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="151" t="s">
-        <v>490</v>
+      <c r="G38" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
@@ -22825,15 +22871,15 @@
 )</f>
         <v>11-4-1</v>
       </c>
-      <c r="B39" s="153"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="98"/>
       <c r="D39" s="105"/>
       <c r="E39" s="103"/>
       <c r="F39" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="151" t="s">
-        <v>490</v>
+      <c r="G39" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
@@ -22860,7 +22906,7 @@
 )</f>
         <v>12-1-1</v>
       </c>
-      <c r="B40" s="153"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="98"/>
       <c r="D40" s="104" t="s">
         <v>89</v>
@@ -22869,10 +22915,10 @@
         <v>48</v>
       </c>
       <c r="F40" s="99" t="s">
-        <v>432</v>
-      </c>
-      <c r="G40" s="151" t="s">
-        <v>490</v>
+        <v>430</v>
+      </c>
+      <c r="G40" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
@@ -22899,15 +22945,15 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="153"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="98"/>
       <c r="D41" s="104"/>
       <c r="E41" s="98"/>
       <c r="F41" s="99" t="s">
-        <v>433</v>
-      </c>
-      <c r="G41" s="151" t="s">
-        <v>490</v>
+        <v>431</v>
+      </c>
+      <c r="G41" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
@@ -22934,41 +22980,49 @@
 )</f>
         <v>13-1-1</v>
       </c>
-      <c r="B42" s="153"/>
-      <c r="C42" s="157" t="s">
-        <v>491</v>
-      </c>
-      <c r="D42" s="157" t="s">
+      <c r="B42" s="152"/>
+      <c r="C42" s="156" t="s">
+        <v>489</v>
+      </c>
+      <c r="D42" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="157" t="s">
+      <c r="E42" s="156" t="s">
+        <v>490</v>
+      </c>
+      <c r="F42" s="153" t="s">
         <v>492</v>
       </c>
-      <c r="F42" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="G42" s="155"/>
+      <c r="G42" s="154"/>
       <c r="H42" s="146" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I42" s="146" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J42" s="144" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K42" s="144" t="s">
-        <v>516</v>
-      </c>
-      <c r="L42" s="146"/>
+        <v>514</v>
+      </c>
+      <c r="L42" s="146" t="s">
+        <v>552</v>
+      </c>
       <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
-      <c r="O42" s="146"/>
-      <c r="P42" s="146"/>
-      <c r="Q42" s="156"/>
+      <c r="N42" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O42" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P42" s="174" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q42" s="155"/>
       <c r="R42" s="144"/>
     </row>
-    <row r="43" spans="1:18" ht="33.75">
+    <row r="43" spans="1:18" ht="45">
       <c r="A43" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -22981,32 +23035,40 @@
 )</f>
         <v>13-2-1</v>
       </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="154" t="s">
-        <v>495</v>
-      </c>
-      <c r="G43" s="155"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="153" t="s">
+        <v>493</v>
+      </c>
+      <c r="G43" s="154"/>
       <c r="H43" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="I43" s="146" t="s">
+        <v>502</v>
+      </c>
+      <c r="J43" s="144" t="s">
         <v>503</v>
       </c>
-      <c r="I43" s="146" t="s">
+      <c r="K43" s="144" t="s">
         <v>504</v>
       </c>
-      <c r="J43" s="144" t="s">
-        <v>505</v>
-      </c>
-      <c r="K43" s="144" t="s">
-        <v>506</v>
-      </c>
-      <c r="L43" s="146"/>
+      <c r="L43" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="156"/>
+      <c r="N43" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O43" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P43" s="174" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q43" s="155"/>
       <c r="R43" s="144"/>
     </row>
     <row r="44" spans="1:18" ht="67.5">
@@ -23022,39 +23084,47 @@
 )</f>
         <v>14-1-1</v>
       </c>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="157" t="s">
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="157" t="s">
-        <v>493</v>
-      </c>
-      <c r="F44" s="154" t="s">
-        <v>496</v>
-      </c>
-      <c r="G44" s="155"/>
+      <c r="E44" s="156" t="s">
+        <v>491</v>
+      </c>
+      <c r="F44" s="153" t="s">
+        <v>494</v>
+      </c>
+      <c r="G44" s="154"/>
       <c r="H44" s="146" t="s">
+        <v>505</v>
+      </c>
+      <c r="I44" s="146" t="s">
+        <v>506</v>
+      </c>
+      <c r="J44" s="144" t="s">
         <v>507</v>
       </c>
-      <c r="I44" s="146" t="s">
+      <c r="K44" s="144" t="s">
         <v>508</v>
       </c>
-      <c r="J44" s="144" t="s">
-        <v>509</v>
-      </c>
-      <c r="K44" s="144" t="s">
-        <v>510</v>
-      </c>
-      <c r="L44" s="146"/>
+      <c r="L44" s="146" t="s">
+        <v>554</v>
+      </c>
       <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
-      <c r="O44" s="146"/>
-      <c r="P44" s="146"/>
-      <c r="Q44" s="156"/>
+      <c r="N44" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O44" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P44" s="174" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q44" s="155"/>
       <c r="R44" s="144"/>
     </row>
-    <row r="45" spans="1:18" ht="33.75">
+    <row r="45" spans="1:18" ht="45">
       <c r="A45" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -23067,32 +23137,40 @@
 )</f>
         <v>14-2-1</v>
       </c>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="154" t="s">
-        <v>497</v>
-      </c>
-      <c r="G45" s="155"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="153" t="s">
+        <v>495</v>
+      </c>
+      <c r="G45" s="154"/>
       <c r="H45" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="I45" s="146" t="s">
+        <v>502</v>
+      </c>
+      <c r="J45" s="144" t="s">
         <v>503</v>
       </c>
-      <c r="I45" s="146" t="s">
+      <c r="K45" s="144" t="s">
         <v>504</v>
       </c>
-      <c r="J45" s="144" t="s">
-        <v>505</v>
-      </c>
-      <c r="K45" s="144" t="s">
-        <v>506</v>
-      </c>
-      <c r="L45" s="146"/>
+      <c r="L45" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="146"/>
-      <c r="P45" s="146"/>
-      <c r="Q45" s="156"/>
+      <c r="N45" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O45" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P45" s="174" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q45" s="155"/>
       <c r="R45" s="144"/>
     </row>
     <row r="46" spans="1:18" ht="45">
@@ -23125,22 +23203,30 @@
       </c>
       <c r="G46" s="62"/>
       <c r="H46" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="I46" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="J46" s="144" t="s">
+        <v>503</v>
+      </c>
+      <c r="K46" s="144" t="s">
         <v>517</v>
       </c>
-      <c r="I46" s="61" t="s">
-        <v>518</v>
-      </c>
-      <c r="J46" s="144" t="s">
-        <v>505</v>
-      </c>
-      <c r="K46" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="L46" s="63"/>
+      <c r="L46" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
+      <c r="N46" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O46" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P46" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q46" s="108"/>
       <c r="R46" s="62"/>
     </row>
@@ -23166,22 +23252,30 @@
       </c>
       <c r="G47" s="62"/>
       <c r="H47" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J47" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="I47" s="61" t="s">
+      <c r="K47" s="112" t="s">
         <v>508</v>
       </c>
-      <c r="J47" s="112" t="s">
-        <v>509</v>
-      </c>
-      <c r="K47" s="112" t="s">
-        <v>510</v>
-      </c>
-      <c r="L47" s="63"/>
+      <c r="L47" s="146" t="s">
+        <v>554</v>
+      </c>
       <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
+      <c r="N47" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O47" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P47" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q47" s="108"/>
       <c r="R47" s="62"/>
     </row>
@@ -23209,7 +23303,7 @@
       <c r="H48" s="42"/>
       <c r="I48" s="51"/>
       <c r="J48" s="65" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K48" s="65"/>
       <c r="L48" s="67"/>
@@ -23245,8 +23339,8 @@
       <c r="G49" s="66"/>
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
-      <c r="J49" s="228" t="s">
-        <v>521</v>
+      <c r="J49" s="166" t="s">
+        <v>519</v>
       </c>
       <c r="K49" s="66"/>
       <c r="L49" s="67"/>
@@ -23280,8 +23374,8 @@
       <c r="G50" s="66"/>
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
-      <c r="J50" s="228" t="s">
-        <v>521</v>
+      <c r="J50" s="166" t="s">
+        <v>519</v>
       </c>
       <c r="K50" s="66"/>
       <c r="L50" s="67"/>
@@ -23315,8 +23409,8 @@
       <c r="G51" s="66"/>
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
-      <c r="J51" s="228" t="s">
-        <v>521</v>
+      <c r="J51" s="166" t="s">
+        <v>519</v>
       </c>
       <c r="K51" s="66"/>
       <c r="L51" s="67"/>
@@ -23351,22 +23445,30 @@
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="I52" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="J52" s="112" t="s">
+        <v>503</v>
+      </c>
+      <c r="K52" s="112" t="s">
         <v>517</v>
       </c>
-      <c r="I52" s="61" t="s">
-        <v>518</v>
-      </c>
-      <c r="J52" s="112" t="s">
-        <v>505</v>
-      </c>
-      <c r="K52" s="112" t="s">
-        <v>519</v>
-      </c>
-      <c r="L52" s="63"/>
+      <c r="L52" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
+      <c r="N52" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O52" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P52" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q52" s="108"/>
       <c r="R52" s="62"/>
     </row>
@@ -23392,22 +23494,30 @@
       </c>
       <c r="G53" s="62"/>
       <c r="H53" s="61" t="s">
+        <v>505</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J53" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="I53" s="61" t="s">
+      <c r="K53" s="112" t="s">
         <v>508</v>
       </c>
-      <c r="J53" s="112" t="s">
-        <v>509</v>
-      </c>
-      <c r="K53" s="112" t="s">
-        <v>510</v>
-      </c>
-      <c r="L53" s="63"/>
+      <c r="L53" s="146" t="s">
+        <v>554</v>
+      </c>
       <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
+      <c r="N53" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O53" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P53" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q53" s="108"/>
       <c r="R53" s="62"/>
     </row>
@@ -23437,7 +23547,7 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K54" s="66"/>
       <c r="L54" s="67"/>
@@ -23472,7 +23582,7 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K55" s="66"/>
       <c r="L55" s="67"/>
@@ -23507,7 +23617,7 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K56" s="66"/>
       <c r="L56" s="67"/>
@@ -23542,7 +23652,7 @@
       <c r="H57" s="67"/>
       <c r="I57" s="67"/>
       <c r="J57" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K57" s="66"/>
       <c r="L57" s="67"/>
@@ -23577,7 +23687,7 @@
       <c r="H58" s="67"/>
       <c r="I58" s="67"/>
       <c r="J58" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K58" s="66"/>
       <c r="L58" s="67"/>
@@ -23612,7 +23722,7 @@
       <c r="H59" s="67"/>
       <c r="I59" s="67"/>
       <c r="J59" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K59" s="66"/>
       <c r="L59" s="67"/>
@@ -23649,7 +23759,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="65" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K60" s="65"/>
       <c r="L60" s="67"/>
@@ -23677,7 +23787,7 @@
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
       <c r="E61" s="99" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F61" s="99" t="s">
         <v>115</v>
@@ -23686,7 +23796,7 @@
       <c r="H61" s="67"/>
       <c r="I61" s="67"/>
       <c r="J61" s="66" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K61" s="66"/>
       <c r="L61" s="67"/>
@@ -23723,7 +23833,7 @@
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
       <c r="J62" s="66" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K62" s="66"/>
       <c r="L62" s="67"/>
@@ -23749,20 +23859,20 @@
       </c>
       <c r="B63" s="101"/>
       <c r="C63" s="101"/>
-      <c r="D63" s="160" t="s">
+      <c r="D63" s="159" t="s">
         <v>118</v>
       </c>
       <c r="E63" s="104" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F63" s="99" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G63" s="66"/>
       <c r="H63" s="67"/>
       <c r="I63" s="67"/>
       <c r="J63" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K63" s="66"/>
       <c r="L63" s="67"/>
@@ -23788,16 +23898,16 @@
       </c>
       <c r="B64" s="101"/>
       <c r="C64" s="114"/>
-      <c r="D64" s="160"/>
+      <c r="D64" s="159"/>
       <c r="E64" s="104"/>
       <c r="F64" s="97" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G64" s="66"/>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K64" s="65"/>
       <c r="L64" s="67"/>
@@ -23823,16 +23933,16 @@
       </c>
       <c r="B65" s="101"/>
       <c r="C65" s="114"/>
-      <c r="D65" s="160"/>
+      <c r="D65" s="159"/>
       <c r="E65" s="104"/>
       <c r="F65" s="99" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G65" s="66"/>
       <c r="H65" s="67"/>
       <c r="I65" s="67"/>
       <c r="J65" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K65" s="66"/>
       <c r="L65" s="67"/>
@@ -23858,16 +23968,16 @@
       </c>
       <c r="B66" s="101"/>
       <c r="C66" s="114"/>
-      <c r="D66" s="160"/>
+      <c r="D66" s="159"/>
       <c r="E66" s="104"/>
       <c r="F66" s="99" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G66" s="66"/>
       <c r="H66" s="67"/>
       <c r="I66" s="67"/>
       <c r="J66" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K66" s="66"/>
       <c r="L66" s="67"/>
@@ -23893,7 +24003,7 @@
       </c>
       <c r="B67" s="101"/>
       <c r="C67" s="114"/>
-      <c r="D67" s="160"/>
+      <c r="D67" s="159"/>
       <c r="E67" s="103"/>
       <c r="F67" s="99" t="s">
         <v>123</v>
@@ -23902,7 +24012,7 @@
       <c r="H67" s="67"/>
       <c r="I67" s="67"/>
       <c r="J67" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K67" s="66"/>
       <c r="L67" s="67"/>
@@ -23928,7 +24038,7 @@
       </c>
       <c r="B68" s="101"/>
       <c r="C68" s="114"/>
-      <c r="D68" s="160"/>
+      <c r="D68" s="159"/>
       <c r="E68" s="104" t="s">
         <v>124</v>
       </c>
@@ -23939,7 +24049,7 @@
       <c r="H68" s="67"/>
       <c r="I68" s="67"/>
       <c r="J68" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K68" s="66"/>
       <c r="L68" s="67"/>
@@ -23965,7 +24075,7 @@
       </c>
       <c r="B69" s="101"/>
       <c r="C69" s="114"/>
-      <c r="D69" s="160"/>
+      <c r="D69" s="159"/>
       <c r="E69" s="104"/>
       <c r="F69" s="99" t="s">
         <v>126</v>
@@ -23974,7 +24084,7 @@
       <c r="H69" s="67"/>
       <c r="I69" s="67"/>
       <c r="J69" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K69" s="66"/>
       <c r="L69" s="67"/>
@@ -24000,7 +24110,7 @@
       </c>
       <c r="B70" s="101"/>
       <c r="C70" s="114"/>
-      <c r="D70" s="160"/>
+      <c r="D70" s="159"/>
       <c r="E70" s="104"/>
       <c r="F70" s="99" t="s">
         <v>127</v>
@@ -24009,7 +24119,7 @@
       <c r="H70" s="67"/>
       <c r="I70" s="67"/>
       <c r="J70" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K70" s="66"/>
       <c r="L70" s="67"/>
@@ -24035,7 +24145,7 @@
       </c>
       <c r="B71" s="101"/>
       <c r="C71" s="114"/>
-      <c r="D71" s="160"/>
+      <c r="D71" s="159"/>
       <c r="E71" s="104"/>
       <c r="F71" s="99" t="s">
         <v>128</v>
@@ -24044,7 +24154,7 @@
       <c r="H71" s="67"/>
       <c r="I71" s="67"/>
       <c r="J71" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K71" s="66"/>
       <c r="L71" s="67"/>
@@ -24070,7 +24180,7 @@
       </c>
       <c r="B72" s="101"/>
       <c r="C72" s="114"/>
-      <c r="D72" s="160"/>
+      <c r="D72" s="159"/>
       <c r="E72" s="104"/>
       <c r="F72" s="99" t="s">
         <v>129</v>
@@ -24079,7 +24189,7 @@
       <c r="H72" s="67"/>
       <c r="I72" s="67"/>
       <c r="J72" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K72" s="66"/>
       <c r="L72" s="67"/>
@@ -24105,7 +24215,7 @@
       </c>
       <c r="B73" s="101"/>
       <c r="C73" s="114"/>
-      <c r="D73" s="160"/>
+      <c r="D73" s="159"/>
       <c r="E73" s="104"/>
       <c r="F73" s="99" t="s">
         <v>130</v>
@@ -24114,7 +24224,7 @@
       <c r="H73" s="67"/>
       <c r="I73" s="67"/>
       <c r="J73" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K73" s="66"/>
       <c r="L73" s="67"/>
@@ -24140,7 +24250,7 @@
       </c>
       <c r="B74" s="101"/>
       <c r="C74" s="114"/>
-      <c r="D74" s="160"/>
+      <c r="D74" s="159"/>
       <c r="E74" s="104"/>
       <c r="F74" s="99" t="s">
         <v>131</v>
@@ -24149,7 +24259,7 @@
       <c r="H74" s="67"/>
       <c r="I74" s="67"/>
       <c r="J74" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K74" s="66"/>
       <c r="L74" s="67"/>
@@ -24175,7 +24285,7 @@
       </c>
       <c r="B75" s="101"/>
       <c r="C75" s="114"/>
-      <c r="D75" s="160"/>
+      <c r="D75" s="159"/>
       <c r="E75" s="103"/>
       <c r="F75" s="99" t="s">
         <v>132</v>
@@ -24184,7 +24294,7 @@
       <c r="H75" s="67"/>
       <c r="I75" s="67"/>
       <c r="J75" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K75" s="66"/>
       <c r="L75" s="67"/>
@@ -24210,24 +24320,24 @@
       </c>
       <c r="B76" s="101"/>
       <c r="C76" s="114"/>
-      <c r="D76" s="160"/>
-      <c r="E76" s="229" t="s">
+      <c r="D76" s="159"/>
+      <c r="E76" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="F76" s="230" t="s">
+      <c r="F76" s="168" t="s">
         <v>134</v>
       </c>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
       <c r="I76" s="51"/>
       <c r="J76" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K76" s="65"/>
-      <c r="L76" s="223"/>
-      <c r="M76" s="223"/>
+      <c r="L76" s="161"/>
+      <c r="M76" s="161"/>
       <c r="N76" s="67"/>
-      <c r="O76" s="225"/>
+      <c r="O76" s="163"/>
       <c r="P76" s="67"/>
       <c r="Q76" s="100"/>
       <c r="R76" s="66"/>
@@ -24247,7 +24357,7 @@
       </c>
       <c r="B77" s="101"/>
       <c r="C77" s="115"/>
-      <c r="D77" s="160"/>
+      <c r="D77" s="159"/>
       <c r="E77" s="104" t="s">
         <v>135</v>
       </c>
@@ -24258,7 +24368,7 @@
       <c r="H77" s="67"/>
       <c r="I77" s="67"/>
       <c r="J77" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K77" s="66"/>
       <c r="L77" s="67"/>
@@ -24284,7 +24394,7 @@
       </c>
       <c r="B78" s="101"/>
       <c r="C78" s="115"/>
-      <c r="D78" s="160"/>
+      <c r="D78" s="159"/>
       <c r="E78" s="104"/>
       <c r="F78" s="99" t="s">
         <v>137</v>
@@ -24293,7 +24403,7 @@
       <c r="H78" s="67"/>
       <c r="I78" s="67"/>
       <c r="J78" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K78" s="66"/>
       <c r="L78" s="67"/>
@@ -24319,7 +24429,7 @@
       </c>
       <c r="B79" s="101"/>
       <c r="C79" s="115"/>
-      <c r="D79" s="160"/>
+      <c r="D79" s="159"/>
       <c r="E79" s="104"/>
       <c r="F79" s="99" t="s">
         <v>138</v>
@@ -24328,7 +24438,7 @@
       <c r="H79" s="67"/>
       <c r="I79" s="67"/>
       <c r="J79" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K79" s="66"/>
       <c r="L79" s="67"/>
@@ -24354,7 +24464,7 @@
       </c>
       <c r="B80" s="101"/>
       <c r="C80" s="115"/>
-      <c r="D80" s="160"/>
+      <c r="D80" s="159"/>
       <c r="E80" s="104"/>
       <c r="F80" s="99" t="s">
         <v>139</v>
@@ -24363,7 +24473,7 @@
       <c r="H80" s="67"/>
       <c r="I80" s="67"/>
       <c r="J80" s="66" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K80" s="66"/>
       <c r="L80" s="67"/>
@@ -24436,22 +24546,30 @@
       </c>
       <c r="G82" s="62"/>
       <c r="H82" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="I82" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="J82" s="112" t="s">
+        <v>503</v>
+      </c>
+      <c r="K82" s="112" t="s">
         <v>517</v>
       </c>
-      <c r="I82" s="61" t="s">
-        <v>518</v>
-      </c>
-      <c r="J82" s="112" t="s">
-        <v>505</v>
-      </c>
-      <c r="K82" s="112" t="s">
-        <v>519</v>
-      </c>
-      <c r="L82" s="63"/>
+      <c r="L82" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="63"/>
+      <c r="N82" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O82" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P82" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q82" s="108"/>
       <c r="R82" s="62"/>
     </row>
@@ -24477,22 +24595,32 @@
       </c>
       <c r="G83" s="62"/>
       <c r="H83" s="61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I83" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J83" s="61" t="s">
+        <v>525</v>
+      </c>
+      <c r="K83" s="112" t="s">
         <v>508</v>
       </c>
-      <c r="J83" s="61" t="s">
-        <v>527</v>
-      </c>
-      <c r="K83" s="112" t="s">
-        <v>510</v>
-      </c>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
-      <c r="O83" s="63"/>
-      <c r="P83" s="63"/>
+      <c r="L83" s="63" t="s">
+        <v>556</v>
+      </c>
+      <c r="M83" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="N83" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O83" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P83" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q83" s="108"/>
       <c r="R83" s="62"/>
     </row>
@@ -24520,22 +24648,30 @@
       </c>
       <c r="G84" s="62"/>
       <c r="H84" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="I84" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J84" s="113" t="s">
+        <v>503</v>
+      </c>
+      <c r="K84" s="62" t="s">
         <v>517</v>
       </c>
-      <c r="I84" s="63" t="s">
-        <v>518</v>
-      </c>
-      <c r="J84" s="113" t="s">
-        <v>505</v>
-      </c>
-      <c r="K84" s="62" t="s">
-        <v>519</v>
-      </c>
-      <c r="L84" s="63"/>
+      <c r="L84" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M84" s="63"/>
-      <c r="N84" s="63"/>
-      <c r="O84" s="63"/>
-      <c r="P84" s="63"/>
+      <c r="N84" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O84" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P84" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q84" s="108"/>
       <c r="R84" s="62"/>
     </row>
@@ -24559,22 +24695,30 @@
       <c r="F85" s="107"/>
       <c r="G85" s="62"/>
       <c r="H85" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="I85" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J85" s="138" t="s">
         <v>507</v>
       </c>
-      <c r="I85" s="63" t="s">
+      <c r="K85" s="62" t="s">
         <v>508</v>
       </c>
-      <c r="J85" s="138" t="s">
-        <v>509</v>
-      </c>
-      <c r="K85" s="62" t="s">
-        <v>510</v>
-      </c>
-      <c r="L85" s="63"/>
+      <c r="L85" s="146" t="s">
+        <v>554</v>
+      </c>
       <c r="M85" s="63"/>
-      <c r="N85" s="63"/>
-      <c r="O85" s="63"/>
-      <c r="P85" s="63"/>
+      <c r="N85" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O85" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P85" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q85" s="108"/>
       <c r="R85" s="62"/>
     </row>
@@ -24604,7 +24748,7 @@
       <c r="H86" s="67"/>
       <c r="I86" s="67"/>
       <c r="J86" s="66" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K86" s="66"/>
       <c r="L86" s="67"/>
@@ -24639,7 +24783,7 @@
       <c r="H87" s="67"/>
       <c r="I87" s="67"/>
       <c r="J87" s="66" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K87" s="66"/>
       <c r="L87" s="67"/>
@@ -24676,7 +24820,7 @@
       <c r="H88" s="67"/>
       <c r="I88" s="67"/>
       <c r="J88" s="66" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K88" s="66"/>
       <c r="L88" s="67"/>
@@ -24713,7 +24857,7 @@
       <c r="H89" s="67"/>
       <c r="I89" s="67"/>
       <c r="J89" s="66" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K89" s="66"/>
       <c r="L89" s="67"/>
@@ -24738,14 +24882,14 @@
         <v>31-1-1</v>
       </c>
       <c r="B90" s="101"/>
-      <c r="C90" s="160" t="s">
+      <c r="C90" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="160" t="s">
+      <c r="D90" s="159" t="s">
         <v>143</v>
       </c>
       <c r="E90" s="99" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F90" s="99" t="s">
         <v>156</v>
@@ -24754,7 +24898,7 @@
       <c r="H90" s="67"/>
       <c r="I90" s="67"/>
       <c r="J90" s="66" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K90" s="66"/>
       <c r="L90" s="67"/>
@@ -24780,7 +24924,7 @@
       </c>
       <c r="B91" s="101"/>
       <c r="C91" s="104"/>
-      <c r="D91" s="160"/>
+      <c r="D91" s="159"/>
       <c r="E91" s="99" t="s">
         <v>146</v>
       </c>
@@ -24791,7 +24935,7 @@
       <c r="H91" s="67"/>
       <c r="I91" s="67"/>
       <c r="J91" s="66" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K91" s="66"/>
       <c r="L91" s="67"/>
@@ -24819,7 +24963,7 @@
       <c r="C92" s="103"/>
       <c r="D92" s="103"/>
       <c r="E92" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F92" s="99" t="s">
         <v>159</v>
@@ -24828,7 +24972,7 @@
       <c r="H92" s="67"/>
       <c r="I92" s="67"/>
       <c r="J92" s="66" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K92" s="66"/>
       <c r="L92" s="67"/>
@@ -24856,11 +25000,11 @@
       <c r="C93" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="D93" s="160" t="s">
+      <c r="D93" s="159" t="s">
         <v>143</v>
       </c>
       <c r="E93" s="104" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F93" s="97" t="s">
         <v>161</v>
@@ -24869,7 +25013,7 @@
       <c r="H93" s="51"/>
       <c r="I93" s="51"/>
       <c r="J93" s="65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K93" s="67"/>
       <c r="L93" s="67"/>
@@ -24895,7 +25039,7 @@
       </c>
       <c r="B94" s="101"/>
       <c r="C94" s="104"/>
-      <c r="D94" s="160"/>
+      <c r="D94" s="159"/>
       <c r="E94" s="103"/>
       <c r="F94" s="99" t="s">
         <v>162</v>
@@ -24904,7 +25048,7 @@
       <c r="H94" s="67"/>
       <c r="I94" s="67"/>
       <c r="J94" s="65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K94" s="66"/>
       <c r="L94" s="67"/>
@@ -24930,7 +25074,7 @@
       </c>
       <c r="B95" s="101"/>
       <c r="C95" s="104"/>
-      <c r="D95" s="160"/>
+      <c r="D95" s="159"/>
       <c r="E95" s="99" t="s">
         <v>146</v>
       </c>
@@ -24941,7 +25085,7 @@
       <c r="H95" s="67"/>
       <c r="I95" s="67"/>
       <c r="J95" s="65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K95" s="66"/>
       <c r="L95" s="67"/>
@@ -24967,7 +25111,7 @@
       </c>
       <c r="B96" s="101"/>
       <c r="C96" s="104"/>
-      <c r="D96" s="160"/>
+      <c r="D96" s="159"/>
       <c r="E96" s="104" t="s">
         <v>148</v>
       </c>
@@ -24978,7 +25122,7 @@
       <c r="H96" s="67"/>
       <c r="I96" s="67"/>
       <c r="J96" s="65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K96" s="66"/>
       <c r="L96" s="67"/>
@@ -25004,7 +25148,7 @@
       </c>
       <c r="B97" s="101"/>
       <c r="C97" s="104"/>
-      <c r="D97" s="160"/>
+      <c r="D97" s="159"/>
       <c r="E97" s="103"/>
       <c r="F97" s="99" t="s">
         <v>165</v>
@@ -25013,7 +25157,7 @@
       <c r="H97" s="67"/>
       <c r="I97" s="67"/>
       <c r="J97" s="65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K97" s="66"/>
       <c r="L97" s="67"/>
@@ -25041,7 +25185,7 @@
       <c r="C98" s="103"/>
       <c r="D98" s="103"/>
       <c r="E98" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F98" s="99" t="s">
         <v>166</v>
@@ -25050,7 +25194,7 @@
       <c r="H98" s="67"/>
       <c r="I98" s="67"/>
       <c r="J98" s="65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K98" s="66"/>
       <c r="L98" s="67"/>
@@ -25091,7 +25235,7 @@
       <c r="H99" s="67"/>
       <c r="I99" s="67"/>
       <c r="J99" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K99" s="66"/>
       <c r="L99" s="67"/>
@@ -25117,7 +25261,7 @@
       </c>
       <c r="B100" s="101"/>
       <c r="C100" s="102"/>
-      <c r="D100" s="160"/>
+      <c r="D100" s="159"/>
       <c r="E100" s="104"/>
       <c r="F100" s="99" t="s">
         <v>170</v>
@@ -25126,7 +25270,7 @@
       <c r="H100" s="67"/>
       <c r="I100" s="67"/>
       <c r="J100" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K100" s="66"/>
       <c r="L100" s="67"/>
@@ -25152,7 +25296,7 @@
       </c>
       <c r="B101" s="101"/>
       <c r="C101" s="102"/>
-      <c r="D101" s="160"/>
+      <c r="D101" s="159"/>
       <c r="E101" s="104"/>
       <c r="F101" s="99" t="s">
         <v>171</v>
@@ -25161,7 +25305,7 @@
       <c r="H101" s="67"/>
       <c r="I101" s="67"/>
       <c r="J101" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K101" s="66"/>
       <c r="L101" s="67"/>
@@ -25187,7 +25331,7 @@
       </c>
       <c r="B102" s="101"/>
       <c r="C102" s="104"/>
-      <c r="D102" s="160"/>
+      <c r="D102" s="159"/>
       <c r="E102" s="104"/>
       <c r="F102" s="99" t="s">
         <v>172</v>
@@ -25196,7 +25340,7 @@
       <c r="H102" s="67"/>
       <c r="I102" s="67"/>
       <c r="J102" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K102" s="66"/>
       <c r="L102" s="67"/>
@@ -25222,7 +25366,7 @@
       </c>
       <c r="B103" s="101"/>
       <c r="C103" s="104"/>
-      <c r="D103" s="160"/>
+      <c r="D103" s="159"/>
       <c r="E103" s="103"/>
       <c r="F103" s="99" t="s">
         <v>173</v>
@@ -25231,7 +25375,7 @@
       <c r="H103" s="67"/>
       <c r="I103" s="67"/>
       <c r="J103" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K103" s="66"/>
       <c r="L103" s="67"/>
@@ -25257,7 +25401,7 @@
       </c>
       <c r="B104" s="101"/>
       <c r="C104" s="102"/>
-      <c r="D104" s="160"/>
+      <c r="D104" s="159"/>
       <c r="E104" s="104" t="s">
         <v>174</v>
       </c>
@@ -25268,7 +25412,7 @@
       <c r="H104" s="67"/>
       <c r="I104" s="67"/>
       <c r="J104" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K104" s="66"/>
       <c r="L104" s="67"/>
@@ -25293,8 +25437,8 @@
         <v>39-2-1</v>
       </c>
       <c r="B105" s="101"/>
-      <c r="C105" s="160"/>
-      <c r="D105" s="160"/>
+      <c r="C105" s="159"/>
+      <c r="D105" s="159"/>
       <c r="E105" s="104"/>
       <c r="F105" s="99" t="s">
         <v>176</v>
@@ -25303,7 +25447,7 @@
       <c r="H105" s="67"/>
       <c r="I105" s="67"/>
       <c r="J105" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K105" s="66"/>
       <c r="L105" s="67"/>
@@ -25328,8 +25472,8 @@
         <v>39-3-1</v>
       </c>
       <c r="B106" s="101"/>
-      <c r="C106" s="160"/>
-      <c r="D106" s="160"/>
+      <c r="C106" s="159"/>
+      <c r="D106" s="159"/>
       <c r="E106" s="104"/>
       <c r="F106" s="99" t="s">
         <v>177</v>
@@ -25338,7 +25482,7 @@
       <c r="H106" s="67"/>
       <c r="I106" s="67"/>
       <c r="J106" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K106" s="66"/>
       <c r="L106" s="67"/>
@@ -25364,7 +25508,7 @@
       </c>
       <c r="B107" s="101"/>
       <c r="C107" s="104"/>
-      <c r="D107" s="160"/>
+      <c r="D107" s="159"/>
       <c r="E107" s="104"/>
       <c r="F107" s="99" t="s">
         <v>178</v>
@@ -25373,7 +25517,7 @@
       <c r="H107" s="67"/>
       <c r="I107" s="67"/>
       <c r="J107" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K107" s="66"/>
       <c r="L107" s="67"/>
@@ -25399,7 +25543,7 @@
       </c>
       <c r="B108" s="101"/>
       <c r="C108" s="104"/>
-      <c r="D108" s="160"/>
+      <c r="D108" s="159"/>
       <c r="E108" s="103"/>
       <c r="F108" s="99" t="s">
         <v>179</v>
@@ -25408,7 +25552,7 @@
       <c r="H108" s="67"/>
       <c r="I108" s="67"/>
       <c r="J108" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K108" s="66"/>
       <c r="L108" s="67"/>
@@ -25434,9 +25578,9 @@
       </c>
       <c r="B109" s="101"/>
       <c r="C109" s="103"/>
-      <c r="D109" s="160"/>
+      <c r="D109" s="159"/>
       <c r="E109" s="105" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F109" s="99" t="s">
         <v>180</v>
@@ -25445,7 +25589,7 @@
       <c r="H109" s="67"/>
       <c r="I109" s="67"/>
       <c r="J109" s="66" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K109" s="66"/>
       <c r="L109" s="67"/>
@@ -25488,7 +25632,7 @@
       <c r="H110" s="67"/>
       <c r="I110" s="67"/>
       <c r="J110" s="66" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K110" s="66"/>
       <c r="L110" s="67"/>
@@ -25512,7 +25656,7 @@
 )</f>
         <v>42-1-1</v>
       </c>
-      <c r="B111" s="160"/>
+      <c r="B111" s="159"/>
       <c r="C111" s="97" t="s">
         <v>184</v>
       </c>
@@ -25529,7 +25673,7 @@
       <c r="H111" s="67"/>
       <c r="I111" s="67"/>
       <c r="J111" s="66" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K111" s="66"/>
       <c r="L111" s="67"/>
@@ -25553,7 +25697,7 @@
 )</f>
         <v>42-2-1</v>
       </c>
-      <c r="B112" s="160"/>
+      <c r="B112" s="159"/>
       <c r="C112" s="103"/>
       <c r="D112" s="103"/>
       <c r="E112" s="103"/>
@@ -25564,7 +25708,7 @@
       <c r="H112" s="67"/>
       <c r="I112" s="67"/>
       <c r="J112" s="66" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K112" s="66"/>
       <c r="L112" s="67"/>
@@ -25588,9 +25732,9 @@
 )</f>
         <v>43-1-1</v>
       </c>
-      <c r="B113" s="160"/>
+      <c r="B113" s="159"/>
       <c r="C113" s="99" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D113" s="99" t="s">
         <v>48</v>
@@ -25605,7 +25749,7 @@
       <c r="H113" s="67"/>
       <c r="I113" s="67"/>
       <c r="J113" s="66" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K113" s="66"/>
       <c r="L113" s="67"/>
@@ -25629,11 +25773,11 @@
 )</f>
         <v>44-1-1</v>
       </c>
-      <c r="B114" s="160"/>
-      <c r="C114" s="160" t="s">
-        <v>441</v>
-      </c>
-      <c r="D114" s="160" t="s">
+      <c r="B114" s="159"/>
+      <c r="C114" s="159" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="159" t="s">
         <v>48</v>
       </c>
       <c r="E114" s="104" t="s">
@@ -25646,7 +25790,7 @@
       <c r="H114" s="67"/>
       <c r="I114" s="67"/>
       <c r="J114" s="66" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K114" s="66"/>
       <c r="L114" s="67"/>
@@ -25681,7 +25825,7 @@
       <c r="H115" s="67"/>
       <c r="I115" s="67"/>
       <c r="J115" s="66" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K115" s="66"/>
       <c r="L115" s="67"/>
@@ -25712,16 +25856,16 @@
         <v>193</v>
       </c>
       <c r="D116" s="97" t="s">
-        <v>430</v>
-      </c>
-      <c r="E116" s="152" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="E116" s="151" t="s">
+        <v>428</v>
       </c>
       <c r="F116" s="99" t="s">
         <v>194</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H116" s="67"/>
       <c r="I116" s="67"/>
@@ -25748,8 +25892,8 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B117" s="221" t="s">
-        <v>442</v>
+      <c r="B117" s="235" t="s">
+        <v>440</v>
       </c>
       <c r="C117" s="104"/>
       <c r="D117" s="98"/>
@@ -25758,7 +25902,7 @@
         <v>196</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H117" s="67"/>
       <c r="I117" s="67"/>
@@ -25785,7 +25929,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B118" s="221"/>
+      <c r="B118" s="235"/>
       <c r="C118" s="104"/>
       <c r="D118" s="98"/>
       <c r="E118" s="116"/>
@@ -25793,7 +25937,7 @@
         <v>197</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H118" s="67"/>
       <c r="I118" s="67"/>
@@ -25828,7 +25972,7 @@
         <v>198</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H119" s="67"/>
       <c r="I119" s="67"/>
@@ -25865,7 +26009,7 @@
         <v>199</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H120" s="67"/>
       <c r="I120" s="67"/>
@@ -25900,7 +26044,7 @@
         <v>200</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H121" s="67"/>
       <c r="I121" s="67"/>
@@ -25935,7 +26079,7 @@
         <v>201</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H122" s="67"/>
       <c r="I122" s="67"/>
@@ -25970,7 +26114,7 @@
         <v>202</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H123" s="67"/>
       <c r="I123" s="67"/>
@@ -26005,7 +26149,7 @@
         <v>203</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H124" s="67"/>
       <c r="I124" s="67"/>
@@ -26042,7 +26186,7 @@
         <v>206</v>
       </c>
       <c r="G125" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H125" s="67"/>
       <c r="I125" s="67"/>
@@ -26077,7 +26221,7 @@
         <v>207</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H126" s="67"/>
       <c r="I126" s="67"/>
@@ -26112,7 +26256,7 @@
         <v>208</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H127" s="67"/>
       <c r="I127" s="67"/>
@@ -26147,7 +26291,7 @@
         <v>209</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H128" s="67"/>
       <c r="I128" s="67"/>
@@ -26182,7 +26326,7 @@
         <v>210</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H129" s="67"/>
       <c r="I129" s="67"/>
@@ -26213,13 +26357,13 @@
       <c r="C130" s="104"/>
       <c r="D130" s="103"/>
       <c r="E130" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F130" s="99" t="s">
         <v>212</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H130" s="67"/>
       <c r="I130" s="67"/>
@@ -26249,16 +26393,16 @@
       <c r="B131" s="98"/>
       <c r="C131" s="105"/>
       <c r="D131" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E131" s="103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F131" s="99" t="s">
         <v>213</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H131" s="67"/>
       <c r="I131" s="67"/>
@@ -26287,7 +26431,7 @@
       </c>
       <c r="B132" s="98"/>
       <c r="C132" s="98" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D132" s="98" t="s">
         <v>214</v>
@@ -26299,7 +26443,7 @@
         <v>216</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H132" s="67"/>
       <c r="I132" s="67"/>
@@ -26330,13 +26474,13 @@
       <c r="C133" s="98"/>
       <c r="D133" s="98"/>
       <c r="E133" s="104" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F133" s="99" t="s">
         <v>218</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H133" s="67"/>
       <c r="I133" s="67"/>
@@ -26371,7 +26515,7 @@
         <v>219</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H134" s="67"/>
       <c r="I134" s="67"/>
@@ -26406,7 +26550,7 @@
         <v>220</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H135" s="67"/>
       <c r="I135" s="67"/>
@@ -26440,16 +26584,16 @@
         <v>193</v>
       </c>
       <c r="D136" s="97" t="s">
-        <v>430</v>
-      </c>
-      <c r="E136" s="152" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="E136" s="151" t="s">
+        <v>428</v>
       </c>
       <c r="F136" s="99" t="s">
         <v>222</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H136" s="67"/>
       <c r="I136" s="67"/>
@@ -26476,7 +26620,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B137" s="221" t="s">
+      <c r="B137" s="235" t="s">
         <v>223</v>
       </c>
       <c r="C137" s="104"/>
@@ -26486,7 +26630,7 @@
         <v>224</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H137" s="67"/>
       <c r="I137" s="67"/>
@@ -26513,7 +26657,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B138" s="221"/>
+      <c r="B138" s="235"/>
       <c r="C138" s="104"/>
       <c r="D138" s="98"/>
       <c r="E138" s="104"/>
@@ -26521,7 +26665,7 @@
         <v>225</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H138" s="67"/>
       <c r="I138" s="67"/>
@@ -26556,7 +26700,7 @@
         <v>226</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H139" s="67"/>
       <c r="I139" s="67"/>
@@ -26593,7 +26737,7 @@
         <v>228</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H140" s="67"/>
       <c r="I140" s="67"/>
@@ -26628,7 +26772,7 @@
         <v>229</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H141" s="67"/>
       <c r="I141" s="67"/>
@@ -26658,16 +26802,16 @@
       <c r="B142" s="98"/>
       <c r="C142" s="105"/>
       <c r="D142" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E142" s="103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F142" s="99" t="s">
         <v>230</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H142" s="67"/>
       <c r="I142" s="67"/>
@@ -26708,7 +26852,7 @@
         <v>233</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H143" s="67"/>
       <c r="I143" s="67"/>
@@ -26745,7 +26889,7 @@
         <v>235</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H144" s="67"/>
       <c r="I144" s="67"/>
@@ -26782,7 +26926,7 @@
         <v>237</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H145" s="67"/>
       <c r="I145" s="67"/>
@@ -26850,13 +26994,13 @@
       <c r="C147" s="104"/>
       <c r="D147" s="98"/>
       <c r="E147" s="99" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F147" s="99" t="s">
         <v>241</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H147" s="67"/>
       <c r="I147" s="67"/>
@@ -26887,7 +27031,7 @@
       <c r="C148" s="104"/>
       <c r="D148" s="98"/>
       <c r="E148" s="116" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F148" s="99" t="s">
         <v>243</v>
@@ -27101,13 +27245,13 @@
         <v>250</v>
       </c>
       <c r="E154" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F154" s="99" t="s">
         <v>251</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H154" s="67"/>
       <c r="I154" s="67"/>
@@ -27142,7 +27286,7 @@
         <v>252</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H155" s="67"/>
       <c r="I155" s="67"/>
@@ -27179,7 +27323,7 @@
         <v>253</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H156" s="67"/>
       <c r="I156" s="67"/>
@@ -27214,7 +27358,7 @@
         <v>254</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H157" s="67"/>
       <c r="I157" s="67"/>
@@ -27246,10 +27390,10 @@
       <c r="D158" s="98"/>
       <c r="E158" s="116"/>
       <c r="F158" s="99" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H158" s="67"/>
       <c r="I158" s="67"/>
@@ -27281,10 +27425,10 @@
       <c r="D159" s="98"/>
       <c r="E159" s="116"/>
       <c r="F159" s="99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H159" s="67"/>
       <c r="I159" s="67"/>
@@ -27319,7 +27463,7 @@
         <v>257</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H160" s="67"/>
       <c r="I160" s="67"/>
@@ -27354,7 +27498,7 @@
         <v>258</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H161" s="67"/>
       <c r="I161" s="67"/>
@@ -27389,7 +27533,7 @@
         <v>259</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H162" s="67"/>
       <c r="I162" s="67"/>
@@ -27424,7 +27568,7 @@
         <v>260</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H163" s="67"/>
       <c r="I163" s="67"/>
@@ -27459,7 +27603,7 @@
         <v>261</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H164" s="67"/>
       <c r="I164" s="67"/>
@@ -27494,7 +27638,7 @@
         <v>262</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H165" s="67"/>
       <c r="I165" s="67"/>
@@ -27529,7 +27673,7 @@
         <v>263</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H166" s="67"/>
       <c r="I166" s="67"/>
@@ -27566,7 +27710,7 @@
         <v>264</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H167" s="67"/>
       <c r="I167" s="67"/>
@@ -27601,7 +27745,7 @@
         <v>265</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H168" s="67"/>
       <c r="I168" s="67"/>
@@ -27636,7 +27780,7 @@
         <v>266</v>
       </c>
       <c r="G169" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H169" s="67"/>
       <c r="I169" s="67"/>
@@ -27671,7 +27815,7 @@
         <v>267</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H170" s="67"/>
       <c r="I170" s="67"/>
@@ -27706,7 +27850,7 @@
         <v>268</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H171" s="67"/>
       <c r="I171" s="67"/>
@@ -27741,7 +27885,7 @@
         <v>269</v>
       </c>
       <c r="G172" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H172" s="67"/>
       <c r="I172" s="67"/>
@@ -27813,7 +27957,7 @@
         <v>271</v>
       </c>
       <c r="G174" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H174" s="67"/>
       <c r="I174" s="67"/>
@@ -27848,7 +27992,7 @@
         <v>272</v>
       </c>
       <c r="G175" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H175" s="67"/>
       <c r="I175" s="67"/>
@@ -27883,7 +28027,7 @@
         <v>273</v>
       </c>
       <c r="G176" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H176" s="67"/>
       <c r="I176" s="67"/>
@@ -27918,7 +28062,7 @@
         <v>274</v>
       </c>
       <c r="G177" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H177" s="67"/>
       <c r="I177" s="67"/>
@@ -27953,7 +28097,7 @@
         <v>275</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H178" s="67"/>
       <c r="I178" s="67"/>
@@ -27988,7 +28132,7 @@
         <v>276</v>
       </c>
       <c r="G179" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H179" s="67"/>
       <c r="I179" s="67"/>
@@ -28130,7 +28274,7 @@
         <v>280</v>
       </c>
       <c r="G183" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H183" s="67"/>
       <c r="I183" s="67"/>
@@ -28279,7 +28423,7 @@
       <c r="B187" s="103"/>
       <c r="C187" s="105"/>
       <c r="D187" s="105" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E187" s="105" t="s">
         <v>48</v>
@@ -28322,7 +28466,7 @@
         <v>193</v>
       </c>
       <c r="D188" s="117" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E188" s="118" t="s">
         <v>293</v>
@@ -28331,7 +28475,7 @@
         <v>294</v>
       </c>
       <c r="G188" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H188" s="48"/>
       <c r="I188" s="48"/>
@@ -28368,7 +28512,7 @@
         <v>296</v>
       </c>
       <c r="G189" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H189" s="48"/>
       <c r="I189" s="48"/>
@@ -28403,7 +28547,7 @@
         <v>297</v>
       </c>
       <c r="G190" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H190" s="48"/>
       <c r="I190" s="48"/>
@@ -28440,7 +28584,7 @@
         <v>299</v>
       </c>
       <c r="G191" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H191" s="48"/>
       <c r="I191" s="48"/>
@@ -28475,7 +28619,7 @@
         <v>300</v>
       </c>
       <c r="G192" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H192" s="48"/>
       <c r="I192" s="48"/>
@@ -28505,16 +28649,16 @@
       <c r="B193" s="120"/>
       <c r="C193" s="124"/>
       <c r="D193" s="124" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E193" s="124" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F193" s="118" t="s">
         <v>301</v>
       </c>
       <c r="G193" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H193" s="48"/>
       <c r="I193" s="48"/>
@@ -28546,7 +28690,7 @@
         <v>302</v>
       </c>
       <c r="D194" s="120" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E194" s="122" t="s">
         <v>304</v>
@@ -28555,7 +28699,7 @@
         <v>305</v>
       </c>
       <c r="G194" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H194" s="48"/>
       <c r="I194" s="48"/>
@@ -28590,7 +28734,7 @@
         <v>306</v>
       </c>
       <c r="G195" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H195" s="48"/>
       <c r="I195" s="48"/>
@@ -28625,7 +28769,7 @@
         <v>307</v>
       </c>
       <c r="G196" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H196" s="48"/>
       <c r="I196" s="48"/>
@@ -28660,7 +28804,7 @@
         <v>308</v>
       </c>
       <c r="G197" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H197" s="48"/>
       <c r="I197" s="48"/>
@@ -28695,7 +28839,7 @@
         <v>309</v>
       </c>
       <c r="G198" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H198" s="48"/>
       <c r="I198" s="48"/>
@@ -28730,7 +28874,7 @@
         <v>310</v>
       </c>
       <c r="G199" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H199" s="48"/>
       <c r="I199" s="48"/>
@@ -28765,7 +28909,7 @@
         <v>311</v>
       </c>
       <c r="G200" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H200" s="48"/>
       <c r="I200" s="48"/>
@@ -28799,10 +28943,10 @@
         <v>312</v>
       </c>
       <c r="F201" s="118" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G201" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H201" s="48"/>
       <c r="I201" s="48"/>
@@ -28841,7 +28985,7 @@
         <v>315</v>
       </c>
       <c r="G202" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H202" s="48"/>
       <c r="I202" s="48"/>
@@ -28876,7 +29020,7 @@
         <v>316</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H203" s="48"/>
       <c r="I203" s="48"/>
@@ -28911,7 +29055,7 @@
         <v>317</v>
       </c>
       <c r="G204" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H204" s="48"/>
       <c r="I204" s="48"/>
@@ -28946,7 +29090,7 @@
         <v>318</v>
       </c>
       <c r="G205" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H205" s="48"/>
       <c r="I205" s="48"/>
@@ -28981,7 +29125,7 @@
         <v>319</v>
       </c>
       <c r="G206" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H206" s="48"/>
       <c r="I206" s="48"/>
@@ -29016,7 +29160,7 @@
         <v>320</v>
       </c>
       <c r="G207" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H207" s="48"/>
       <c r="I207" s="48"/>
@@ -29048,10 +29192,10 @@
       <c r="D208" s="120"/>
       <c r="E208" s="122"/>
       <c r="F208" s="118" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G208" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H208" s="48"/>
       <c r="I208" s="48"/>
@@ -29086,7 +29230,7 @@
         <v>322</v>
       </c>
       <c r="G209" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H209" s="48"/>
       <c r="I209" s="48"/>
@@ -29121,7 +29265,7 @@
         <v>323</v>
       </c>
       <c r="G210" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H210" s="48"/>
       <c r="I210" s="48"/>
@@ -29156,7 +29300,7 @@
         <v>324</v>
       </c>
       <c r="G211" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H211" s="48"/>
       <c r="I211" s="48"/>
@@ -29191,7 +29335,7 @@
         <v>325</v>
       </c>
       <c r="G212" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H212" s="48"/>
       <c r="I212" s="48"/>
@@ -29226,7 +29370,7 @@
         <v>326</v>
       </c>
       <c r="G213" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H213" s="48"/>
       <c r="I213" s="48"/>
@@ -29261,7 +29405,7 @@
         <v>327</v>
       </c>
       <c r="G214" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H214" s="48"/>
       <c r="I214" s="48"/>
@@ -29291,7 +29435,7 @@
       <c r="B215" s="120"/>
       <c r="C215" s="121"/>
       <c r="D215" s="117" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E215" s="127" t="s">
         <v>124</v>
@@ -29300,7 +29444,7 @@
         <v>329</v>
       </c>
       <c r="G215" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H215" s="48"/>
       <c r="I215" s="48"/>
@@ -29335,7 +29479,7 @@
         <v>330</v>
       </c>
       <c r="G216" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H216" s="48"/>
       <c r="I216" s="48"/>
@@ -29370,7 +29514,7 @@
         <v>331</v>
       </c>
       <c r="G217" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H217" s="48"/>
       <c r="I217" s="48"/>
@@ -29405,7 +29549,7 @@
         <v>317</v>
       </c>
       <c r="G218" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H218" s="48"/>
       <c r="I218" s="48"/>
@@ -29440,7 +29584,7 @@
         <v>318</v>
       </c>
       <c r="G219" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H219" s="48"/>
       <c r="I219" s="48"/>
@@ -29475,7 +29619,7 @@
         <v>332</v>
       </c>
       <c r="G220" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H220" s="48"/>
       <c r="I220" s="48"/>
@@ -29510,7 +29654,7 @@
         <v>333</v>
       </c>
       <c r="G221" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H221" s="48"/>
       <c r="I221" s="48"/>
@@ -29542,10 +29686,10 @@
       <c r="D222" s="120"/>
       <c r="E222" s="122"/>
       <c r="F222" s="118" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G222" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H222" s="48"/>
       <c r="I222" s="48"/>
@@ -29577,10 +29721,10 @@
       <c r="D223" s="120"/>
       <c r="E223" s="122"/>
       <c r="F223" s="118" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G223" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H223" s="48"/>
       <c r="I223" s="48"/>
@@ -29615,7 +29759,7 @@
         <v>336</v>
       </c>
       <c r="G224" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H224" s="48"/>
       <c r="I224" s="48"/>
@@ -29650,7 +29794,7 @@
         <v>337</v>
       </c>
       <c r="G225" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H225" s="48"/>
       <c r="I225" s="48"/>
@@ -29685,7 +29829,7 @@
         <v>338</v>
       </c>
       <c r="G226" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H226" s="48"/>
       <c r="I226" s="48"/>
@@ -29720,7 +29864,7 @@
         <v>339</v>
       </c>
       <c r="G227" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H227" s="48"/>
       <c r="I227" s="48"/>
@@ -29755,7 +29899,7 @@
         <v>340</v>
       </c>
       <c r="G228" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H228" s="48"/>
       <c r="I228" s="48"/>
@@ -29790,7 +29934,7 @@
         <v>327</v>
       </c>
       <c r="G229" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H229" s="48"/>
       <c r="I229" s="48"/>
@@ -29827,7 +29971,7 @@
         <v>342</v>
       </c>
       <c r="G230" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H230" s="48"/>
       <c r="I230" s="48"/>
@@ -29862,7 +30006,7 @@
         <v>343</v>
       </c>
       <c r="G231" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H231" s="48"/>
       <c r="I231" s="48"/>
@@ -29897,7 +30041,7 @@
         <v>344</v>
       </c>
       <c r="G232" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H232" s="48"/>
       <c r="I232" s="48"/>
@@ -29931,10 +30075,10 @@
         <v>151</v>
       </c>
       <c r="F233" s="118" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G233" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H233" s="48"/>
       <c r="I233" s="48"/>
@@ -29971,7 +30115,7 @@
         <v>347</v>
       </c>
       <c r="G234" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H234" s="48"/>
       <c r="I234" s="48"/>
@@ -30005,16 +30149,16 @@
         <v>193</v>
       </c>
       <c r="D235" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E235" s="99" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F235" s="99" t="s">
         <v>349</v>
       </c>
       <c r="G235" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H235" s="67"/>
       <c r="I235" s="67"/>
@@ -30051,7 +30195,7 @@
         <v>350</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H236" s="67"/>
       <c r="I236" s="67"/>
@@ -30086,7 +30230,7 @@
         <v>351</v>
       </c>
       <c r="G237" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H237" s="67"/>
       <c r="I237" s="67"/>
@@ -30121,7 +30265,7 @@
         <v>352</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H238" s="67"/>
       <c r="I238" s="67"/>
@@ -30156,7 +30300,7 @@
         <v>353</v>
       </c>
       <c r="G239" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H239" s="67"/>
       <c r="I239" s="67"/>
@@ -30191,7 +30335,7 @@
         <v>354</v>
       </c>
       <c r="G240" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H240" s="67"/>
       <c r="I240" s="67"/>
@@ -30228,7 +30372,7 @@
         <v>355</v>
       </c>
       <c r="G241" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H241" s="67"/>
       <c r="I241" s="67"/>
@@ -30263,7 +30407,7 @@
         <v>356</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H242" s="67"/>
       <c r="I242" s="67"/>
@@ -30298,7 +30442,7 @@
         <v>357</v>
       </c>
       <c r="G243" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H243" s="67"/>
       <c r="I243" s="67"/>
@@ -30333,7 +30477,7 @@
         <v>358</v>
       </c>
       <c r="G244" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H244" s="67"/>
       <c r="I244" s="67"/>
@@ -30368,7 +30512,7 @@
         <v>359</v>
       </c>
       <c r="G245" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H245" s="67"/>
       <c r="I245" s="67"/>
@@ -30399,13 +30543,13 @@
       <c r="C246" s="103"/>
       <c r="D246" s="103"/>
       <c r="E246" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F246" s="99" t="s">
         <v>360</v>
       </c>
       <c r="G246" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H246" s="67"/>
       <c r="I246" s="67"/>
@@ -30434,7 +30578,7 @@
       </c>
       <c r="B247" s="103"/>
       <c r="C247" s="103" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D247" s="103" t="s">
         <v>214</v>
@@ -30446,7 +30590,7 @@
         <v>361</v>
       </c>
       <c r="G247" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H247" s="67"/>
       <c r="I247" s="67"/>
@@ -30480,16 +30624,16 @@
         <v>363</v>
       </c>
       <c r="D248" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E248" s="129" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F248" s="99" t="s">
         <v>364</v>
       </c>
       <c r="G248" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H248" s="67"/>
       <c r="I248" s="67"/>
@@ -30524,7 +30668,7 @@
         <v>365</v>
       </c>
       <c r="G249" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H249" s="67"/>
       <c r="I249" s="67"/>
@@ -30554,16 +30698,16 @@
       <c r="B250" s="98"/>
       <c r="C250" s="98"/>
       <c r="D250" s="98" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E250" s="104" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F250" s="99" t="s">
         <v>366</v>
       </c>
       <c r="G250" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H250" s="67"/>
       <c r="I250" s="67"/>
@@ -30598,7 +30742,7 @@
         <v>367</v>
       </c>
       <c r="G251" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H251" s="67"/>
       <c r="I251" s="67"/>
@@ -30639,7 +30783,7 @@
         <v>369</v>
       </c>
       <c r="G252" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H252" s="67"/>
       <c r="I252" s="67"/>
@@ -30676,7 +30820,7 @@
         <v>370</v>
       </c>
       <c r="G253" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H253" s="67"/>
       <c r="I253" s="67"/>
@@ -30713,7 +30857,7 @@
         <v>371</v>
       </c>
       <c r="G254" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H254" s="67"/>
       <c r="I254" s="67"/>
@@ -30750,7 +30894,7 @@
         <v>372</v>
       </c>
       <c r="G255" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H255" s="67"/>
       <c r="I255" s="67"/>
@@ -30783,13 +30927,13 @@
         <v>250</v>
       </c>
       <c r="E256" s="116" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F256" s="99" t="s">
         <v>373</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H256" s="67"/>
       <c r="I256" s="67"/>
@@ -30824,7 +30968,7 @@
         <v>374</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H257" s="67"/>
       <c r="I257" s="67"/>
@@ -30861,7 +31005,7 @@
         <v>375</v>
       </c>
       <c r="G258" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H258" s="67"/>
       <c r="I258" s="67"/>
@@ -30896,7 +31040,7 @@
         <v>376</v>
       </c>
       <c r="G259" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H259" s="67"/>
       <c r="I259" s="67"/>
@@ -30928,10 +31072,10 @@
       <c r="D260" s="104"/>
       <c r="E260" s="104"/>
       <c r="F260" s="99" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G260" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H260" s="67"/>
       <c r="I260" s="67"/>
@@ -30966,7 +31110,7 @@
         <v>378</v>
       </c>
       <c r="G261" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H261" s="67"/>
       <c r="I261" s="67"/>
@@ -31001,7 +31145,7 @@
         <v>379</v>
       </c>
       <c r="G262" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H262" s="67"/>
       <c r="I262" s="67"/>
@@ -31036,7 +31180,7 @@
         <v>380</v>
       </c>
       <c r="G263" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H263" s="67"/>
       <c r="I263" s="67"/>
@@ -31071,7 +31215,7 @@
         <v>381</v>
       </c>
       <c r="G264" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H264" s="67"/>
       <c r="I264" s="67"/>
@@ -31106,7 +31250,7 @@
         <v>382</v>
       </c>
       <c r="G265" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H265" s="67"/>
       <c r="I265" s="67"/>
@@ -31141,7 +31285,7 @@
         <v>383</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H266" s="67"/>
       <c r="I266" s="67"/>
@@ -31176,7 +31320,7 @@
         <v>384</v>
       </c>
       <c r="G267" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H267" s="67"/>
       <c r="I267" s="67"/>
@@ -31211,7 +31355,7 @@
         <v>385</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H268" s="67"/>
       <c r="I268" s="67"/>
@@ -31248,7 +31392,7 @@
         <v>386</v>
       </c>
       <c r="G269" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H269" s="67"/>
       <c r="I269" s="67"/>
@@ -31283,7 +31427,7 @@
         <v>387</v>
       </c>
       <c r="G270" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H270" s="67"/>
       <c r="I270" s="67"/>
@@ -31318,7 +31462,7 @@
         <v>388</v>
       </c>
       <c r="G271" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H271" s="67"/>
       <c r="I271" s="67"/>
@@ -31353,7 +31497,7 @@
         <v>389</v>
       </c>
       <c r="G272" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H272" s="67"/>
       <c r="I272" s="67"/>
@@ -31388,7 +31532,7 @@
         <v>390</v>
       </c>
       <c r="G273" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H273" s="67"/>
       <c r="I273" s="67"/>
@@ -31423,7 +31567,7 @@
         <v>391</v>
       </c>
       <c r="G274" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H274" s="67"/>
       <c r="I274" s="67"/>
@@ -31460,7 +31604,7 @@
         <v>392</v>
       </c>
       <c r="G275" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H275" s="67"/>
       <c r="I275" s="67"/>
@@ -31495,7 +31639,7 @@
         <v>393</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H276" s="67"/>
       <c r="I276" s="67"/>
@@ -31530,7 +31674,7 @@
         <v>394</v>
       </c>
       <c r="G277" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H277" s="67"/>
       <c r="I277" s="67"/>
@@ -31565,7 +31709,7 @@
         <v>395</v>
       </c>
       <c r="G278" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H278" s="67"/>
       <c r="I278" s="67"/>
@@ -31600,7 +31744,7 @@
         <v>396</v>
       </c>
       <c r="G279" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H279" s="67"/>
       <c r="I279" s="67"/>
@@ -31635,7 +31779,7 @@
         <v>397</v>
       </c>
       <c r="G280" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H280" s="67"/>
       <c r="I280" s="67"/>
@@ -31670,7 +31814,7 @@
         <v>398</v>
       </c>
       <c r="G281" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H281" s="67"/>
       <c r="I281" s="67"/>
@@ -31705,7 +31849,7 @@
         <v>399</v>
       </c>
       <c r="G282" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H282" s="67"/>
       <c r="I282" s="67"/>
@@ -31742,7 +31886,7 @@
         <v>400</v>
       </c>
       <c r="G283" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H283" s="67"/>
       <c r="I283" s="67"/>
@@ -31776,10 +31920,10 @@
         <v>402</v>
       </c>
       <c r="D284" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E284" s="129" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F284" s="99" t="s">
         <v>403</v>
@@ -31787,8 +31931,8 @@
       <c r="G284" s="66"/>
       <c r="H284" s="67"/>
       <c r="I284" s="67"/>
-      <c r="J284" s="228" t="s">
-        <v>535</v>
+      <c r="J284" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K284" s="66"/>
       <c r="L284" s="67"/>
@@ -31812,9 +31956,9 @@
 )</f>
         <v>97-2-1</v>
       </c>
-      <c r="B285" s="160"/>
-      <c r="C285" s="160"/>
-      <c r="D285" s="160"/>
+      <c r="B285" s="159"/>
+      <c r="C285" s="159"/>
+      <c r="D285" s="159"/>
       <c r="E285" s="104"/>
       <c r="F285" s="99" t="s">
         <v>404</v>
@@ -31822,8 +31966,8 @@
       <c r="G285" s="66"/>
       <c r="H285" s="67"/>
       <c r="I285" s="67"/>
-      <c r="J285" s="228" t="s">
-        <v>535</v>
+      <c r="J285" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K285" s="66"/>
       <c r="L285" s="67"/>
@@ -31847,9 +31991,9 @@
 )</f>
         <v>97-3-1</v>
       </c>
-      <c r="B286" s="160"/>
-      <c r="C286" s="160"/>
-      <c r="D286" s="160"/>
+      <c r="B286" s="159"/>
+      <c r="C286" s="159"/>
+      <c r="D286" s="159"/>
       <c r="E286" s="104"/>
       <c r="F286" s="99" t="s">
         <v>405</v>
@@ -31857,8 +32001,8 @@
       <c r="G286" s="66"/>
       <c r="H286" s="67"/>
       <c r="I286" s="67"/>
-      <c r="J286" s="228" t="s">
-        <v>535</v>
+      <c r="J286" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K286" s="66"/>
       <c r="L286" s="67"/>
@@ -31882,7 +32026,7 @@
 )</f>
         <v>97-4-1</v>
       </c>
-      <c r="B287" s="160"/>
+      <c r="B287" s="159"/>
       <c r="C287" s="103"/>
       <c r="D287" s="103"/>
       <c r="E287" s="103"/>
@@ -31892,8 +32036,8 @@
       <c r="G287" s="66"/>
       <c r="H287" s="67"/>
       <c r="I287" s="67"/>
-      <c r="J287" s="228" t="s">
-        <v>535</v>
+      <c r="J287" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K287" s="66"/>
       <c r="L287" s="67"/>
@@ -31917,11 +32061,11 @@
 )</f>
         <v>98-1-1</v>
       </c>
-      <c r="B288" s="160"/>
-      <c r="C288" s="160" t="s">
+      <c r="B288" s="159"/>
+      <c r="C288" s="159" t="s">
         <v>407</v>
       </c>
-      <c r="D288" s="160" t="s">
+      <c r="D288" s="159" t="s">
         <v>214</v>
       </c>
       <c r="E288" s="103" t="s">
@@ -31933,8 +32077,8 @@
       <c r="G288" s="66"/>
       <c r="H288" s="67"/>
       <c r="I288" s="67"/>
-      <c r="J288" s="228" t="s">
-        <v>535</v>
+      <c r="J288" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K288" s="66"/>
       <c r="L288" s="67"/>
@@ -31958,9 +32102,9 @@
 )</f>
         <v>99-1-1</v>
       </c>
-      <c r="B289" s="160"/>
-      <c r="C289" s="160"/>
-      <c r="D289" s="160"/>
+      <c r="B289" s="159"/>
+      <c r="C289" s="159"/>
+      <c r="D289" s="159"/>
       <c r="E289" s="103" t="s">
         <v>234</v>
       </c>
@@ -31970,8 +32114,8 @@
       <c r="G289" s="66"/>
       <c r="H289" s="67"/>
       <c r="I289" s="67"/>
-      <c r="J289" s="228" t="s">
-        <v>535</v>
+      <c r="J289" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K289" s="66"/>
       <c r="L289" s="67"/>
@@ -31995,9 +32139,9 @@
 )</f>
         <v>100-1-1</v>
       </c>
-      <c r="B290" s="160"/>
-      <c r="C290" s="160"/>
-      <c r="D290" s="160"/>
+      <c r="B290" s="159"/>
+      <c r="C290" s="159"/>
+      <c r="D290" s="159"/>
       <c r="E290" s="103" t="s">
         <v>236</v>
       </c>
@@ -32007,8 +32151,8 @@
       <c r="G290" s="66"/>
       <c r="H290" s="67"/>
       <c r="I290" s="67"/>
-      <c r="J290" s="228" t="s">
-        <v>535</v>
+      <c r="J290" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K290" s="66"/>
       <c r="L290" s="67"/>
@@ -32032,8 +32176,8 @@
 )</f>
         <v>101-1-1</v>
       </c>
-      <c r="B291" s="160"/>
-      <c r="C291" s="160"/>
+      <c r="B291" s="159"/>
+      <c r="C291" s="159"/>
       <c r="D291" s="103"/>
       <c r="E291" s="103" t="s">
         <v>151</v>
@@ -32044,8 +32188,8 @@
       <c r="G291" s="66"/>
       <c r="H291" s="67"/>
       <c r="I291" s="67"/>
-      <c r="J291" s="228" t="s">
-        <v>535</v>
+      <c r="J291" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K291" s="66"/>
       <c r="L291" s="67"/>
@@ -32069,9 +32213,9 @@
 )</f>
         <v>102-1-1</v>
       </c>
-      <c r="B292" s="160"/>
+      <c r="B292" s="159"/>
       <c r="C292" s="102"/>
-      <c r="D292" s="160" t="s">
+      <c r="D292" s="159" t="s">
         <v>412</v>
       </c>
       <c r="E292" s="104" t="s">
@@ -32083,8 +32227,8 @@
       <c r="G292" s="66"/>
       <c r="H292" s="67"/>
       <c r="I292" s="67"/>
-      <c r="J292" s="228" t="s">
-        <v>535</v>
+      <c r="J292" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K292" s="66"/>
       <c r="L292" s="67"/>
@@ -32108,7 +32252,7 @@
 )</f>
         <v>102-2-1</v>
       </c>
-      <c r="B293" s="160"/>
+      <c r="B293" s="159"/>
       <c r="C293" s="102"/>
       <c r="D293" s="104"/>
       <c r="E293" s="104"/>
@@ -32118,8 +32262,8 @@
       <c r="G293" s="66"/>
       <c r="H293" s="67"/>
       <c r="I293" s="67"/>
-      <c r="J293" s="228" t="s">
-        <v>535</v>
+      <c r="J293" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K293" s="66"/>
       <c r="L293" s="67"/>
@@ -32143,7 +32287,7 @@
 )</f>
         <v>102-3-1</v>
       </c>
-      <c r="B294" s="160"/>
+      <c r="B294" s="159"/>
       <c r="C294" s="102"/>
       <c r="D294" s="104"/>
       <c r="E294" s="104"/>
@@ -32153,8 +32297,8 @@
       <c r="G294" s="66"/>
       <c r="H294" s="67"/>
       <c r="I294" s="67"/>
-      <c r="J294" s="228" t="s">
-        <v>535</v>
+      <c r="J294" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K294" s="66"/>
       <c r="L294" s="67"/>
@@ -32178,18 +32322,18 @@
 )</f>
         <v>102-4-1</v>
       </c>
-      <c r="B295" s="160"/>
+      <c r="B295" s="159"/>
       <c r="C295" s="102"/>
       <c r="D295" s="104"/>
       <c r="E295" s="104"/>
       <c r="F295" s="99" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G295" s="66"/>
       <c r="H295" s="67"/>
       <c r="I295" s="67"/>
-      <c r="J295" s="228" t="s">
-        <v>535</v>
+      <c r="J295" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K295" s="66"/>
       <c r="L295" s="67"/>
@@ -32213,18 +32357,18 @@
 )</f>
         <v>102-5-1</v>
       </c>
-      <c r="B296" s="160"/>
+      <c r="B296" s="159"/>
       <c r="C296" s="102"/>
       <c r="D296" s="104"/>
       <c r="E296" s="104"/>
       <c r="F296" s="99" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G296" s="66"/>
       <c r="H296" s="67"/>
       <c r="I296" s="67"/>
-      <c r="J296" s="228" t="s">
-        <v>535</v>
+      <c r="J296" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K296" s="66"/>
       <c r="L296" s="67"/>
@@ -32248,18 +32392,18 @@
 )</f>
         <v>102-6-1</v>
       </c>
-      <c r="B297" s="160"/>
+      <c r="B297" s="159"/>
       <c r="C297" s="102"/>
       <c r="D297" s="104"/>
       <c r="E297" s="104"/>
       <c r="F297" s="99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G297" s="66"/>
       <c r="H297" s="67"/>
       <c r="I297" s="67"/>
-      <c r="J297" s="228" t="s">
-        <v>535</v>
+      <c r="J297" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K297" s="66"/>
       <c r="L297" s="67"/>
@@ -32283,18 +32427,18 @@
 )</f>
         <v>102-7-1</v>
       </c>
-      <c r="B298" s="160"/>
+      <c r="B298" s="159"/>
       <c r="C298" s="102"/>
       <c r="D298" s="104"/>
       <c r="E298" s="104"/>
       <c r="F298" s="99" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G298" s="66"/>
       <c r="H298" s="67"/>
       <c r="I298" s="67"/>
-      <c r="J298" s="228" t="s">
-        <v>535</v>
+      <c r="J298" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K298" s="66"/>
       <c r="L298" s="67"/>
@@ -32318,7 +32462,7 @@
 )</f>
         <v>102-8-1</v>
       </c>
-      <c r="B299" s="160"/>
+      <c r="B299" s="159"/>
       <c r="C299" s="102"/>
       <c r="D299" s="104"/>
       <c r="E299" s="104"/>
@@ -32328,8 +32472,8 @@
       <c r="G299" s="66"/>
       <c r="H299" s="67"/>
       <c r="I299" s="67"/>
-      <c r="J299" s="228" t="s">
-        <v>535</v>
+      <c r="J299" s="166" t="s">
+        <v>533</v>
       </c>
       <c r="K299" s="66"/>
       <c r="L299" s="67"/>
@@ -32353,29 +32497,29 @@
 )</f>
         <v>102-9-1</v>
       </c>
-      <c r="B300" s="160"/>
+      <c r="B300" s="159"/>
       <c r="C300" s="102"/>
       <c r="D300" s="104"/>
       <c r="E300" s="104"/>
       <c r="F300" s="97" t="s">
         <v>419</v>
       </c>
-      <c r="G300" s="231"/>
-      <c r="H300" s="232"/>
-      <c r="I300" s="232"/>
-      <c r="J300" s="228" t="s">
-        <v>535</v>
-      </c>
-      <c r="K300" s="231"/>
-      <c r="L300" s="232"/>
-      <c r="M300" s="232"/>
-      <c r="N300" s="232"/>
-      <c r="O300" s="232"/>
-      <c r="P300" s="232"/>
-      <c r="Q300" s="233"/>
-      <c r="R300" s="231"/>
-    </row>
-    <row r="301" spans="1:18" ht="33.75">
+      <c r="G300" s="169"/>
+      <c r="H300" s="170"/>
+      <c r="I300" s="170"/>
+      <c r="J300" s="166" t="s">
+        <v>533</v>
+      </c>
+      <c r="K300" s="169"/>
+      <c r="L300" s="170"/>
+      <c r="M300" s="170"/>
+      <c r="N300" s="170"/>
+      <c r="O300" s="170"/>
+      <c r="P300" s="170"/>
+      <c r="Q300" s="171"/>
+      <c r="R300" s="169"/>
+    </row>
+    <row r="301" spans="1:18" ht="45">
       <c r="A301" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -32389,7 +32533,7 @@
         <v>103-1-1</v>
       </c>
       <c r="B301" s="131" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C301" s="131" t="s">
         <v>142</v>
@@ -32401,26 +32545,34 @@
         <v>48</v>
       </c>
       <c r="F301" s="62" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G301" s="62"/>
       <c r="H301" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I301" s="63" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J301" s="63" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K301" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="L301" s="63"/>
+        <v>504</v>
+      </c>
+      <c r="L301" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M301" s="63"/>
-      <c r="N301" s="63"/>
-      <c r="O301" s="63"/>
-      <c r="P301" s="63"/>
+      <c r="N301" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O301" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P301" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q301" s="63"/>
       <c r="R301" s="63"/>
     </row>
@@ -32440,36 +32592,44 @@
       <c r="B302" s="133"/>
       <c r="C302" s="133"/>
       <c r="D302" s="132" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E302" s="132" t="s">
         <v>48</v>
       </c>
       <c r="F302" s="132" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G302" s="62"/>
       <c r="H302" s="131" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I302" s="131" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J302" s="63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K302" s="63" t="s">
-        <v>538</v>
-      </c>
-      <c r="L302" s="63"/>
+        <v>536</v>
+      </c>
+      <c r="L302" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M302" s="63"/>
-      <c r="N302" s="63"/>
-      <c r="O302" s="63"/>
-      <c r="P302" s="63"/>
+      <c r="N302" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O302" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P302" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q302" s="63"/>
       <c r="R302" s="63"/>
     </row>
-    <row r="303" spans="1:18" ht="45">
+    <row r="303" spans="1:18" ht="56.25">
       <c r="A303" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
@@ -32489,26 +32649,34 @@
       <c r="F303" s="134"/>
       <c r="G303" s="62"/>
       <c r="H303" s="131" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I303" s="131" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J303" s="63" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K303" s="63" t="s">
-        <v>540</v>
-      </c>
-      <c r="L303" s="63"/>
+        <v>538</v>
+      </c>
+      <c r="L303" s="63" t="s">
+        <v>558</v>
+      </c>
       <c r="M303" s="63"/>
-      <c r="N303" s="63"/>
-      <c r="O303" s="63"/>
-      <c r="P303" s="63"/>
+      <c r="N303" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O303" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P303" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q303" s="63"/>
       <c r="R303" s="63"/>
     </row>
-    <row r="304" spans="1:18" ht="45">
+    <row r="304" spans="1:18" ht="56.25">
       <c r="A304" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
@@ -32528,22 +32696,30 @@
       <c r="F304" s="135"/>
       <c r="G304" s="62"/>
       <c r="H304" s="131" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I304" s="131" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J304" s="63" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K304" s="63" t="s">
-        <v>542</v>
-      </c>
-      <c r="L304" s="63"/>
+        <v>540</v>
+      </c>
+      <c r="L304" s="146" t="s">
+        <v>554</v>
+      </c>
       <c r="M304" s="63"/>
-      <c r="N304" s="63"/>
-      <c r="O304" s="63"/>
-      <c r="P304" s="63"/>
+      <c r="N304" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O304" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P304" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q304" s="63"/>
       <c r="R304" s="63"/>
     </row>
@@ -32563,32 +32739,40 @@
       <c r="B305" s="133"/>
       <c r="C305" s="133"/>
       <c r="D305" s="132" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E305" s="132" t="s">
         <v>48</v>
       </c>
       <c r="F305" s="62" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G305" s="62"/>
       <c r="H305" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="I305" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J305" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="K305" s="63" t="s">
         <v>517</v>
       </c>
-      <c r="I305" s="63" t="s">
-        <v>518</v>
-      </c>
-      <c r="J305" s="63" t="s">
-        <v>505</v>
-      </c>
-      <c r="K305" s="63" t="s">
-        <v>519</v>
-      </c>
-      <c r="L305" s="63"/>
+      <c r="L305" s="146" t="s">
+        <v>553</v>
+      </c>
       <c r="M305" s="63"/>
-      <c r="N305" s="63"/>
-      <c r="O305" s="63"/>
-      <c r="P305" s="63"/>
+      <c r="N305" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O305" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P305" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q305" s="63"/>
       <c r="R305" s="63"/>
     </row>
@@ -32610,26 +32794,34 @@
       <c r="D306" s="134"/>
       <c r="E306" s="134"/>
       <c r="F306" s="132" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G306" s="62"/>
       <c r="H306" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I306" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J306" s="63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K306" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="J306" s="63" t="s">
-        <v>541</v>
-      </c>
-      <c r="K306" s="63" t="s">
-        <v>510</v>
-      </c>
-      <c r="L306" s="63"/>
+      <c r="L306" s="146" t="s">
+        <v>554</v>
+      </c>
       <c r="M306" s="63"/>
-      <c r="N306" s="63"/>
-      <c r="O306" s="63"/>
-      <c r="P306" s="63"/>
+      <c r="N306" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O306" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P306" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q306" s="63"/>
       <c r="R306" s="63"/>
     </row>
@@ -32653,22 +32845,30 @@
       <c r="F307" s="135"/>
       <c r="G307" s="62"/>
       <c r="H307" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I307" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J307" s="63" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K307" s="63" t="s">
-        <v>543</v>
-      </c>
-      <c r="L307" s="63"/>
+        <v>541</v>
+      </c>
+      <c r="L307" s="63" t="s">
+        <v>558</v>
+      </c>
       <c r="M307" s="63"/>
-      <c r="N307" s="63"/>
-      <c r="O307" s="63"/>
-      <c r="P307" s="63"/>
+      <c r="N307" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O307" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P307" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q307" s="63"/>
       <c r="R307" s="63"/>
     </row>
@@ -32690,13 +32890,13 @@
       <c r="D308" s="135"/>
       <c r="E308" s="135"/>
       <c r="F308" s="66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G308" s="66"/>
       <c r="H308" s="67"/>
       <c r="I308" s="67"/>
       <c r="J308" s="67" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K308" s="67"/>
       <c r="L308" s="67"/>
@@ -32722,20 +32922,20 @@
       </c>
       <c r="B309" s="133"/>
       <c r="C309" s="133"/>
-      <c r="D309" s="231" t="s">
-        <v>476</v>
+      <c r="D309" s="169" t="s">
+        <v>474</v>
       </c>
       <c r="E309" s="66" t="s">
         <v>48</v>
       </c>
       <c r="F309" s="66" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G309" s="66"/>
       <c r="H309" s="67"/>
       <c r="I309" s="67"/>
       <c r="J309" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K309" s="67"/>
       <c r="L309" s="67"/>
@@ -32761,18 +32961,18 @@
       </c>
       <c r="B310" s="133"/>
       <c r="C310" s="133"/>
-      <c r="D310" s="234"/>
+      <c r="D310" s="172"/>
       <c r="E310" s="66" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F310" s="66" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G310" s="66"/>
       <c r="H310" s="67"/>
       <c r="I310" s="67"/>
       <c r="J310" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K310" s="67"/>
       <c r="L310" s="67"/>
@@ -32805,26 +33005,34 @@
         <v>48</v>
       </c>
       <c r="F311" s="132" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G311" s="62"/>
       <c r="H311" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I311" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J311" s="63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K311" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="J311" s="63" t="s">
-        <v>541</v>
-      </c>
-      <c r="K311" s="63" t="s">
-        <v>510</v>
-      </c>
-      <c r="L311" s="63"/>
+      <c r="L311" s="146" t="s">
+        <v>554</v>
+      </c>
       <c r="M311" s="63"/>
-      <c r="N311" s="63"/>
-      <c r="O311" s="63"/>
-      <c r="P311" s="63"/>
+      <c r="N311" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O311" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P311" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q311" s="63"/>
       <c r="R311" s="63"/>
     </row>
@@ -32848,22 +33056,30 @@
       <c r="F312" s="135"/>
       <c r="G312" s="62"/>
       <c r="H312" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I312" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J312" s="63" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K312" s="63" t="s">
-        <v>543</v>
-      </c>
-      <c r="L312" s="63"/>
+        <v>541</v>
+      </c>
+      <c r="L312" s="63" t="s">
+        <v>558</v>
+      </c>
       <c r="M312" s="63"/>
-      <c r="N312" s="63"/>
-      <c r="O312" s="63"/>
-      <c r="P312" s="63"/>
+      <c r="N312" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="O312" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P312" s="174" t="s">
+        <v>551</v>
+      </c>
       <c r="Q312" s="63"/>
       <c r="R312" s="63"/>
     </row>
@@ -32885,13 +33101,13 @@
       <c r="D313" s="134"/>
       <c r="E313" s="134"/>
       <c r="F313" s="66" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G313" s="66"/>
       <c r="H313" s="67"/>
       <c r="I313" s="67"/>
       <c r="J313" s="67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K313" s="67"/>
       <c r="L313" s="67"/>
@@ -32920,13 +33136,13 @@
       <c r="D314" s="134"/>
       <c r="E314" s="134"/>
       <c r="F314" s="66" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G314" s="66"/>
       <c r="H314" s="67"/>
       <c r="I314" s="67"/>
       <c r="J314" s="67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K314" s="67"/>
       <c r="L314" s="67"/>
@@ -32955,13 +33171,13 @@
       <c r="D315" s="134"/>
       <c r="E315" s="134"/>
       <c r="F315" s="66" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G315" s="66"/>
       <c r="H315" s="67"/>
       <c r="I315" s="67"/>
       <c r="J315" s="67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K315" s="67"/>
       <c r="L315" s="67"/>
@@ -32990,13 +33206,13 @@
       <c r="D316" s="134"/>
       <c r="E316" s="134"/>
       <c r="F316" s="66" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G316" s="66"/>
       <c r="H316" s="67"/>
       <c r="I316" s="67"/>
       <c r="J316" s="67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K316" s="67"/>
       <c r="L316" s="67"/>
@@ -33025,13 +33241,13 @@
       <c r="D317" s="134"/>
       <c r="E317" s="134"/>
       <c r="F317" s="66" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G317" s="66"/>
       <c r="H317" s="67"/>
       <c r="I317" s="67"/>
       <c r="J317" s="67" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K317" s="67"/>
       <c r="L317" s="67"/>
@@ -33060,13 +33276,13 @@
       <c r="D318" s="134"/>
       <c r="E318" s="134"/>
       <c r="F318" s="66" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G318" s="66"/>
       <c r="H318" s="67"/>
       <c r="I318" s="67"/>
       <c r="J318" s="67" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K318" s="67"/>
       <c r="L318" s="67"/>
@@ -33095,13 +33311,13 @@
       <c r="D319" s="135"/>
       <c r="E319" s="135"/>
       <c r="F319" s="66" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G319" s="66"/>
       <c r="H319" s="67"/>
       <c r="I319" s="67"/>
       <c r="J319" s="67" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K319" s="67"/>
       <c r="L319" s="67"/>
@@ -33120,7 +33336,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P11:Q300" xr:uid="{F3017212-E498-4A3A-B13C-7310AB81317B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P11:Q300 P301:P307 P311:P312" xr:uid="{F3017212-E498-4A3A-B13C-7310AB81317B}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904F92A-C400-4B8F-985A-16F628A86066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348BC2C-0892-4393-AEED-A80BDC957B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8388,6 +8388,72 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8494,72 +8560,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10067,57 +10067,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="185" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="207" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="191" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="200" t="s">
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="222" t="s">
         <v>496</v>
       </c>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="209" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="231" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="176" t="str">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="198" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10125,53 +10125,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="207" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="188" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="210" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="198" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10179,45 +10179,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="207"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="210"/>
-      <c r="AE3" s="210"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="231"/>
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="198"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10254,85 +10254,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="179" t="s">
+      <c r="C7" s="202"/>
+      <c r="D7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="179" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="181"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="179" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="179" t="s">
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="181"/>
-      <c r="S7" s="181"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="179" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="181"/>
-      <c r="AI7" s="180"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="202"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="231"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="232"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="196"/>
+      <c r="X8" s="196"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="196"/>
+      <c r="AD8" s="196"/>
+      <c r="AE8" s="197"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10340,1089 +10340,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="219"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="222"/>
-      <c r="V9" s="222"/>
-      <c r="W9" s="222"/>
-      <c r="X9" s="222"/>
-      <c r="Y9" s="222"/>
-      <c r="Z9" s="222"/>
-      <c r="AA9" s="222"/>
-      <c r="AB9" s="222"/>
-      <c r="AC9" s="222"/>
-      <c r="AD9" s="222"/>
-      <c r="AE9" s="223"/>
-      <c r="AF9" s="218"/>
-      <c r="AG9" s="219"/>
-      <c r="AH9" s="219"/>
-      <c r="AI9" s="220"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="187"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="183"/>
+      <c r="AH9" s="183"/>
+      <c r="AI9" s="184"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="222"/>
-      <c r="S10" s="222"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="222"/>
-      <c r="V10" s="222"/>
-      <c r="W10" s="222"/>
-      <c r="X10" s="222"/>
-      <c r="Y10" s="222"/>
-      <c r="Z10" s="222"/>
-      <c r="AA10" s="222"/>
-      <c r="AB10" s="222"/>
-      <c r="AC10" s="222"/>
-      <c r="AD10" s="222"/>
-      <c r="AE10" s="223"/>
-      <c r="AF10" s="218"/>
-      <c r="AG10" s="219"/>
-      <c r="AH10" s="219"/>
-      <c r="AI10" s="220"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="187"/>
+      <c r="AF10" s="182"/>
+      <c r="AG10" s="183"/>
+      <c r="AH10" s="183"/>
+      <c r="AI10" s="184"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="212"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="221"/>
-      <c r="R11" s="222"/>
-      <c r="S11" s="222"/>
-      <c r="T11" s="222"/>
-      <c r="U11" s="222"/>
-      <c r="V11" s="222"/>
-      <c r="W11" s="222"/>
-      <c r="X11" s="222"/>
-      <c r="Y11" s="222"/>
-      <c r="Z11" s="222"/>
-      <c r="AA11" s="222"/>
-      <c r="AB11" s="222"/>
-      <c r="AC11" s="222"/>
-      <c r="AD11" s="222"/>
-      <c r="AE11" s="223"/>
-      <c r="AF11" s="218"/>
-      <c r="AG11" s="219"/>
-      <c r="AH11" s="219"/>
-      <c r="AI11" s="220"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="186"/>
+      <c r="Y11" s="186"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="186"/>
+      <c r="AB11" s="186"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="186"/>
+      <c r="AE11" s="187"/>
+      <c r="AF11" s="182"/>
+      <c r="AG11" s="183"/>
+      <c r="AH11" s="183"/>
+      <c r="AI11" s="184"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="212"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="221"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="222"/>
-      <c r="V12" s="222"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="222"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="222"/>
-      <c r="AB12" s="222"/>
-      <c r="AC12" s="222"/>
-      <c r="AD12" s="222"/>
-      <c r="AE12" s="223"/>
-      <c r="AF12" s="218"/>
-      <c r="AG12" s="219"/>
-      <c r="AH12" s="219"/>
-      <c r="AI12" s="220"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="186"/>
+      <c r="Z12" s="186"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="186"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="187"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="183"/>
+      <c r="AH12" s="183"/>
+      <c r="AI12" s="184"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="221"/>
-      <c r="R13" s="222"/>
-      <c r="S13" s="222"/>
-      <c r="T13" s="222"/>
-      <c r="U13" s="222"/>
-      <c r="V13" s="222"/>
-      <c r="W13" s="222"/>
-      <c r="X13" s="222"/>
-      <c r="Y13" s="222"/>
-      <c r="Z13" s="222"/>
-      <c r="AA13" s="222"/>
-      <c r="AB13" s="222"/>
-      <c r="AC13" s="222"/>
-      <c r="AD13" s="222"/>
-      <c r="AE13" s="223"/>
-      <c r="AF13" s="218"/>
-      <c r="AG13" s="219"/>
-      <c r="AH13" s="219"/>
-      <c r="AI13" s="220"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="183"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="186"/>
+      <c r="AA13" s="186"/>
+      <c r="AB13" s="186"/>
+      <c r="AC13" s="186"/>
+      <c r="AD13" s="186"/>
+      <c r="AE13" s="187"/>
+      <c r="AF13" s="182"/>
+      <c r="AG13" s="183"/>
+      <c r="AH13" s="183"/>
+      <c r="AI13" s="184"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="222"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
-      <c r="U14" s="222"/>
-      <c r="V14" s="222"/>
-      <c r="W14" s="222"/>
-      <c r="X14" s="222"/>
-      <c r="Y14" s="222"/>
-      <c r="Z14" s="222"/>
-      <c r="AA14" s="222"/>
-      <c r="AB14" s="222"/>
-      <c r="AC14" s="222"/>
-      <c r="AD14" s="222"/>
-      <c r="AE14" s="223"/>
-      <c r="AF14" s="218"/>
-      <c r="AG14" s="219"/>
-      <c r="AH14" s="219"/>
-      <c r="AI14" s="220"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="186"/>
+      <c r="S14" s="186"/>
+      <c r="T14" s="186"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="186"/>
+      <c r="X14" s="186"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="186"/>
+      <c r="AA14" s="186"/>
+      <c r="AB14" s="186"/>
+      <c r="AC14" s="186"/>
+      <c r="AD14" s="186"/>
+      <c r="AE14" s="187"/>
+      <c r="AF14" s="182"/>
+      <c r="AG14" s="183"/>
+      <c r="AH14" s="183"/>
+      <c r="AI14" s="184"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="222"/>
-      <c r="T15" s="222"/>
-      <c r="U15" s="222"/>
-      <c r="V15" s="222"/>
-      <c r="W15" s="222"/>
-      <c r="X15" s="222"/>
-      <c r="Y15" s="222"/>
-      <c r="Z15" s="222"/>
-      <c r="AA15" s="222"/>
-      <c r="AB15" s="222"/>
-      <c r="AC15" s="222"/>
-      <c r="AD15" s="222"/>
-      <c r="AE15" s="223"/>
-      <c r="AF15" s="218"/>
-      <c r="AG15" s="219"/>
-      <c r="AH15" s="219"/>
-      <c r="AI15" s="220"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="186"/>
+      <c r="AA15" s="186"/>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="187"/>
+      <c r="AF15" s="182"/>
+      <c r="AG15" s="183"/>
+      <c r="AH15" s="183"/>
+      <c r="AI15" s="184"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="221"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="222"/>
-      <c r="Z16" s="222"/>
-      <c r="AA16" s="222"/>
-      <c r="AB16" s="222"/>
-      <c r="AC16" s="222"/>
-      <c r="AD16" s="222"/>
-      <c r="AE16" s="223"/>
-      <c r="AF16" s="218"/>
-      <c r="AG16" s="219"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="220"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="184"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="186"/>
+      <c r="AC16" s="186"/>
+      <c r="AD16" s="186"/>
+      <c r="AE16" s="187"/>
+      <c r="AF16" s="182"/>
+      <c r="AG16" s="183"/>
+      <c r="AH16" s="183"/>
+      <c r="AI16" s="184"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="219"/>
-      <c r="M17" s="219"/>
-      <c r="N17" s="219"/>
-      <c r="O17" s="219"/>
-      <c r="P17" s="220"/>
-      <c r="Q17" s="221"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="222"/>
-      <c r="U17" s="222"/>
-      <c r="V17" s="222"/>
-      <c r="W17" s="222"/>
-      <c r="X17" s="222"/>
-      <c r="Y17" s="222"/>
-      <c r="Z17" s="222"/>
-      <c r="AA17" s="222"/>
-      <c r="AB17" s="222"/>
-      <c r="AC17" s="222"/>
-      <c r="AD17" s="222"/>
-      <c r="AE17" s="223"/>
-      <c r="AF17" s="218"/>
-      <c r="AG17" s="219"/>
-      <c r="AH17" s="219"/>
-      <c r="AI17" s="220"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="186"/>
+      <c r="S17" s="186"/>
+      <c r="T17" s="186"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="186"/>
+      <c r="X17" s="186"/>
+      <c r="Y17" s="186"/>
+      <c r="Z17" s="186"/>
+      <c r="AA17" s="186"/>
+      <c r="AB17" s="186"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="186"/>
+      <c r="AE17" s="187"/>
+      <c r="AF17" s="182"/>
+      <c r="AG17" s="183"/>
+      <c r="AH17" s="183"/>
+      <c r="AI17" s="184"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="219"/>
-      <c r="N18" s="219"/>
-      <c r="O18" s="219"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="221"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222"/>
-      <c r="U18" s="222"/>
-      <c r="V18" s="222"/>
-      <c r="W18" s="222"/>
-      <c r="X18" s="222"/>
-      <c r="Y18" s="222"/>
-      <c r="Z18" s="222"/>
-      <c r="AA18" s="222"/>
-      <c r="AB18" s="222"/>
-      <c r="AC18" s="222"/>
-      <c r="AD18" s="222"/>
-      <c r="AE18" s="223"/>
-      <c r="AF18" s="218"/>
-      <c r="AG18" s="219"/>
-      <c r="AH18" s="219"/>
-      <c r="AI18" s="220"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="186"/>
+      <c r="U18" s="186"/>
+      <c r="V18" s="186"/>
+      <c r="W18" s="186"/>
+      <c r="X18" s="186"/>
+      <c r="Y18" s="186"/>
+      <c r="Z18" s="186"/>
+      <c r="AA18" s="186"/>
+      <c r="AB18" s="186"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="187"/>
+      <c r="AF18" s="182"/>
+      <c r="AG18" s="183"/>
+      <c r="AH18" s="183"/>
+      <c r="AI18" s="184"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="219"/>
-      <c r="N19" s="219"/>
-      <c r="O19" s="219"/>
-      <c r="P19" s="220"/>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="222"/>
-      <c r="V19" s="222"/>
-      <c r="W19" s="222"/>
-      <c r="X19" s="222"/>
-      <c r="Y19" s="222"/>
-      <c r="Z19" s="222"/>
-      <c r="AA19" s="222"/>
-      <c r="AB19" s="222"/>
-      <c r="AC19" s="222"/>
-      <c r="AD19" s="222"/>
-      <c r="AE19" s="223"/>
-      <c r="AF19" s="218"/>
-      <c r="AG19" s="219"/>
-      <c r="AH19" s="219"/>
-      <c r="AI19" s="220"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="186"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="186"/>
+      <c r="AA19" s="186"/>
+      <c r="AB19" s="186"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="187"/>
+      <c r="AF19" s="182"/>
+      <c r="AG19" s="183"/>
+      <c r="AH19" s="183"/>
+      <c r="AI19" s="184"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="219"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="219"/>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="221"/>
-      <c r="R20" s="222"/>
-      <c r="S20" s="222"/>
-      <c r="T20" s="222"/>
-      <c r="U20" s="222"/>
-      <c r="V20" s="222"/>
-      <c r="W20" s="222"/>
-      <c r="X20" s="222"/>
-      <c r="Y20" s="222"/>
-      <c r="Z20" s="222"/>
-      <c r="AA20" s="222"/>
-      <c r="AB20" s="222"/>
-      <c r="AC20" s="222"/>
-      <c r="AD20" s="222"/>
-      <c r="AE20" s="223"/>
-      <c r="AF20" s="218"/>
-      <c r="AG20" s="219"/>
-      <c r="AH20" s="219"/>
-      <c r="AI20" s="220"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="184"/>
+      <c r="Q20" s="185"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="186"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="186"/>
+      <c r="Z20" s="186"/>
+      <c r="AA20" s="186"/>
+      <c r="AB20" s="186"/>
+      <c r="AC20" s="186"/>
+      <c r="AD20" s="186"/>
+      <c r="AE20" s="187"/>
+      <c r="AF20" s="182"/>
+      <c r="AG20" s="183"/>
+      <c r="AH20" s="183"/>
+      <c r="AI20" s="184"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="219"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="219"/>
-      <c r="P21" s="220"/>
-      <c r="Q21" s="221"/>
-      <c r="R21" s="222"/>
-      <c r="S21" s="222"/>
-      <c r="T21" s="222"/>
-      <c r="U21" s="222"/>
-      <c r="V21" s="222"/>
-      <c r="W21" s="222"/>
-      <c r="X21" s="222"/>
-      <c r="Y21" s="222"/>
-      <c r="Z21" s="222"/>
-      <c r="AA21" s="222"/>
-      <c r="AB21" s="222"/>
-      <c r="AC21" s="222"/>
-      <c r="AD21" s="222"/>
-      <c r="AE21" s="223"/>
-      <c r="AF21" s="218"/>
-      <c r="AG21" s="219"/>
-      <c r="AH21" s="219"/>
-      <c r="AI21" s="220"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="185"/>
+      <c r="R21" s="186"/>
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
+      <c r="U21" s="186"/>
+      <c r="V21" s="186"/>
+      <c r="W21" s="186"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="186"/>
+      <c r="Z21" s="186"/>
+      <c r="AA21" s="186"/>
+      <c r="AB21" s="186"/>
+      <c r="AC21" s="186"/>
+      <c r="AD21" s="186"/>
+      <c r="AE21" s="187"/>
+      <c r="AF21" s="182"/>
+      <c r="AG21" s="183"/>
+      <c r="AH21" s="183"/>
+      <c r="AI21" s="184"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="212"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="222"/>
-      <c r="S22" s="222"/>
-      <c r="T22" s="222"/>
-      <c r="U22" s="222"/>
-      <c r="V22" s="222"/>
-      <c r="W22" s="222"/>
-      <c r="X22" s="222"/>
-      <c r="Y22" s="222"/>
-      <c r="Z22" s="222"/>
-      <c r="AA22" s="222"/>
-      <c r="AB22" s="222"/>
-      <c r="AC22" s="222"/>
-      <c r="AD22" s="222"/>
-      <c r="AE22" s="223"/>
-      <c r="AF22" s="218"/>
-      <c r="AG22" s="219"/>
-      <c r="AH22" s="219"/>
-      <c r="AI22" s="220"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="185"/>
+      <c r="R22" s="186"/>
+      <c r="S22" s="186"/>
+      <c r="T22" s="186"/>
+      <c r="U22" s="186"/>
+      <c r="V22" s="186"/>
+      <c r="W22" s="186"/>
+      <c r="X22" s="186"/>
+      <c r="Y22" s="186"/>
+      <c r="Z22" s="186"/>
+      <c r="AA22" s="186"/>
+      <c r="AB22" s="186"/>
+      <c r="AC22" s="186"/>
+      <c r="AD22" s="186"/>
+      <c r="AE22" s="187"/>
+      <c r="AF22" s="182"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="183"/>
+      <c r="AI22" s="184"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="219"/>
-      <c r="O23" s="219"/>
-      <c r="P23" s="220"/>
-      <c r="Q23" s="221"/>
-      <c r="R23" s="222"/>
-      <c r="S23" s="222"/>
-      <c r="T23" s="222"/>
-      <c r="U23" s="222"/>
-      <c r="V23" s="222"/>
-      <c r="W23" s="222"/>
-      <c r="X23" s="222"/>
-      <c r="Y23" s="222"/>
-      <c r="Z23" s="222"/>
-      <c r="AA23" s="222"/>
-      <c r="AB23" s="222"/>
-      <c r="AC23" s="222"/>
-      <c r="AD23" s="222"/>
-      <c r="AE23" s="223"/>
-      <c r="AF23" s="218"/>
-      <c r="AG23" s="219"/>
-      <c r="AH23" s="219"/>
-      <c r="AI23" s="220"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="186"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
+      <c r="U23" s="186"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="186"/>
+      <c r="X23" s="186"/>
+      <c r="Y23" s="186"/>
+      <c r="Z23" s="186"/>
+      <c r="AA23" s="186"/>
+      <c r="AB23" s="186"/>
+      <c r="AC23" s="186"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="187"/>
+      <c r="AF23" s="182"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="183"/>
+      <c r="AI23" s="184"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
-      <c r="P24" s="220"/>
-      <c r="Q24" s="221"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="222"/>
-      <c r="U24" s="222"/>
-      <c r="V24" s="222"/>
-      <c r="W24" s="222"/>
-      <c r="X24" s="222"/>
-      <c r="Y24" s="222"/>
-      <c r="Z24" s="222"/>
-      <c r="AA24" s="222"/>
-      <c r="AB24" s="222"/>
-      <c r="AC24" s="222"/>
-      <c r="AD24" s="222"/>
-      <c r="AE24" s="223"/>
-      <c r="AF24" s="218"/>
-      <c r="AG24" s="219"/>
-      <c r="AH24" s="219"/>
-      <c r="AI24" s="220"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="186"/>
+      <c r="U24" s="186"/>
+      <c r="V24" s="186"/>
+      <c r="W24" s="186"/>
+      <c r="X24" s="186"/>
+      <c r="Y24" s="186"/>
+      <c r="Z24" s="186"/>
+      <c r="AA24" s="186"/>
+      <c r="AB24" s="186"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="186"/>
+      <c r="AE24" s="187"/>
+      <c r="AF24" s="182"/>
+      <c r="AG24" s="183"/>
+      <c r="AH24" s="183"/>
+      <c r="AI24" s="184"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="218"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="219"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="219"/>
-      <c r="O25" s="219"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="222"/>
-      <c r="S25" s="222"/>
-      <c r="T25" s="222"/>
-      <c r="U25" s="222"/>
-      <c r="V25" s="222"/>
-      <c r="W25" s="222"/>
-      <c r="X25" s="222"/>
-      <c r="Y25" s="222"/>
-      <c r="Z25" s="222"/>
-      <c r="AA25" s="222"/>
-      <c r="AB25" s="222"/>
-      <c r="AC25" s="222"/>
-      <c r="AD25" s="222"/>
-      <c r="AE25" s="223"/>
-      <c r="AF25" s="218"/>
-      <c r="AG25" s="219"/>
-      <c r="AH25" s="219"/>
-      <c r="AI25" s="220"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="186"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="186"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="186"/>
+      <c r="W25" s="186"/>
+      <c r="X25" s="186"/>
+      <c r="Y25" s="186"/>
+      <c r="Z25" s="186"/>
+      <c r="AA25" s="186"/>
+      <c r="AB25" s="186"/>
+      <c r="AC25" s="186"/>
+      <c r="AD25" s="186"/>
+      <c r="AE25" s="187"/>
+      <c r="AF25" s="182"/>
+      <c r="AG25" s="183"/>
+      <c r="AH25" s="183"/>
+      <c r="AI25" s="184"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
-      <c r="N26" s="219"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="220"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="222"/>
-      <c r="S26" s="222"/>
-      <c r="T26" s="222"/>
-      <c r="U26" s="222"/>
-      <c r="V26" s="222"/>
-      <c r="W26" s="222"/>
-      <c r="X26" s="222"/>
-      <c r="Y26" s="222"/>
-      <c r="Z26" s="222"/>
-      <c r="AA26" s="222"/>
-      <c r="AB26" s="222"/>
-      <c r="AC26" s="222"/>
-      <c r="AD26" s="222"/>
-      <c r="AE26" s="223"/>
-      <c r="AF26" s="218"/>
-      <c r="AG26" s="219"/>
-      <c r="AH26" s="219"/>
-      <c r="AI26" s="220"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="186"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="186"/>
+      <c r="U26" s="186"/>
+      <c r="V26" s="186"/>
+      <c r="W26" s="186"/>
+      <c r="X26" s="186"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="186"/>
+      <c r="AA26" s="186"/>
+      <c r="AB26" s="186"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="187"/>
+      <c r="AF26" s="182"/>
+      <c r="AG26" s="183"/>
+      <c r="AH26" s="183"/>
+      <c r="AI26" s="184"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="218"/>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="220"/>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="222"/>
-      <c r="S27" s="222"/>
-      <c r="T27" s="222"/>
-      <c r="U27" s="222"/>
-      <c r="V27" s="222"/>
-      <c r="W27" s="222"/>
-      <c r="X27" s="222"/>
-      <c r="Y27" s="222"/>
-      <c r="Z27" s="222"/>
-      <c r="AA27" s="222"/>
-      <c r="AB27" s="222"/>
-      <c r="AC27" s="222"/>
-      <c r="AD27" s="222"/>
-      <c r="AE27" s="223"/>
-      <c r="AF27" s="218"/>
-      <c r="AG27" s="219"/>
-      <c r="AH27" s="219"/>
-      <c r="AI27" s="220"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="187"/>
+      <c r="AF27" s="182"/>
+      <c r="AG27" s="183"/>
+      <c r="AH27" s="183"/>
+      <c r="AI27" s="184"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="218"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
-      <c r="N28" s="219"/>
-      <c r="O28" s="219"/>
-      <c r="P28" s="220"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="222"/>
-      <c r="S28" s="222"/>
-      <c r="T28" s="222"/>
-      <c r="U28" s="222"/>
-      <c r="V28" s="222"/>
-      <c r="W28" s="222"/>
-      <c r="X28" s="222"/>
-      <c r="Y28" s="222"/>
-      <c r="Z28" s="222"/>
-      <c r="AA28" s="222"/>
-      <c r="AB28" s="222"/>
-      <c r="AC28" s="222"/>
-      <c r="AD28" s="222"/>
-      <c r="AE28" s="223"/>
-      <c r="AF28" s="218"/>
-      <c r="AG28" s="219"/>
-      <c r="AH28" s="219"/>
-      <c r="AI28" s="220"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="186"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="186"/>
+      <c r="U28" s="186"/>
+      <c r="V28" s="186"/>
+      <c r="W28" s="186"/>
+      <c r="X28" s="186"/>
+      <c r="Y28" s="186"/>
+      <c r="Z28" s="186"/>
+      <c r="AA28" s="186"/>
+      <c r="AB28" s="186"/>
+      <c r="AC28" s="186"/>
+      <c r="AD28" s="186"/>
+      <c r="AE28" s="187"/>
+      <c r="AF28" s="182"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="183"/>
+      <c r="AI28" s="184"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="219"/>
-      <c r="P29" s="220"/>
-      <c r="Q29" s="221"/>
-      <c r="R29" s="222"/>
-      <c r="S29" s="222"/>
-      <c r="T29" s="222"/>
-      <c r="U29" s="222"/>
-      <c r="V29" s="222"/>
-      <c r="W29" s="222"/>
-      <c r="X29" s="222"/>
-      <c r="Y29" s="222"/>
-      <c r="Z29" s="222"/>
-      <c r="AA29" s="222"/>
-      <c r="AB29" s="222"/>
-      <c r="AC29" s="222"/>
-      <c r="AD29" s="222"/>
-      <c r="AE29" s="223"/>
-      <c r="AF29" s="218"/>
-      <c r="AG29" s="219"/>
-      <c r="AH29" s="219"/>
-      <c r="AI29" s="220"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="186"/>
+      <c r="S29" s="186"/>
+      <c r="T29" s="186"/>
+      <c r="U29" s="186"/>
+      <c r="V29" s="186"/>
+      <c r="W29" s="186"/>
+      <c r="X29" s="186"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="186"/>
+      <c r="AA29" s="186"/>
+      <c r="AB29" s="186"/>
+      <c r="AC29" s="186"/>
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="187"/>
+      <c r="AF29" s="182"/>
+      <c r="AG29" s="183"/>
+      <c r="AH29" s="183"/>
+      <c r="AI29" s="184"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="218"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="219"/>
-      <c r="M30" s="219"/>
-      <c r="N30" s="219"/>
-      <c r="O30" s="219"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="221"/>
-      <c r="R30" s="222"/>
-      <c r="S30" s="222"/>
-      <c r="T30" s="222"/>
-      <c r="U30" s="222"/>
-      <c r="V30" s="222"/>
-      <c r="W30" s="222"/>
-      <c r="X30" s="222"/>
-      <c r="Y30" s="222"/>
-      <c r="Z30" s="222"/>
-      <c r="AA30" s="222"/>
-      <c r="AB30" s="222"/>
-      <c r="AC30" s="222"/>
-      <c r="AD30" s="222"/>
-      <c r="AE30" s="223"/>
-      <c r="AF30" s="218"/>
-      <c r="AG30" s="219"/>
-      <c r="AH30" s="219"/>
-      <c r="AI30" s="220"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="186"/>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="186"/>
+      <c r="X30" s="186"/>
+      <c r="Y30" s="186"/>
+      <c r="Z30" s="186"/>
+      <c r="AA30" s="186"/>
+      <c r="AB30" s="186"/>
+      <c r="AC30" s="186"/>
+      <c r="AD30" s="186"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="182"/>
+      <c r="AG30" s="183"/>
+      <c r="AH30" s="183"/>
+      <c r="AI30" s="184"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="219"/>
-      <c r="O31" s="219"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="221"/>
-      <c r="R31" s="222"/>
-      <c r="S31" s="222"/>
-      <c r="T31" s="222"/>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222"/>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222"/>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222"/>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222"/>
-      <c r="AC31" s="222"/>
-      <c r="AD31" s="222"/>
-      <c r="AE31" s="223"/>
-      <c r="AF31" s="218"/>
-      <c r="AG31" s="219"/>
-      <c r="AH31" s="219"/>
-      <c r="AI31" s="220"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="186"/>
+      <c r="Y31" s="186"/>
+      <c r="Z31" s="186"/>
+      <c r="AA31" s="186"/>
+      <c r="AB31" s="186"/>
+      <c r="AC31" s="186"/>
+      <c r="AD31" s="186"/>
+      <c r="AE31" s="187"/>
+      <c r="AF31" s="182"/>
+      <c r="AG31" s="183"/>
+      <c r="AH31" s="183"/>
+      <c r="AI31" s="184"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="212"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="222"/>
-      <c r="W32" s="222"/>
-      <c r="X32" s="222"/>
-      <c r="Y32" s="222"/>
-      <c r="Z32" s="222"/>
-      <c r="AA32" s="222"/>
-      <c r="AB32" s="222"/>
-      <c r="AC32" s="222"/>
-      <c r="AD32" s="222"/>
-      <c r="AE32" s="223"/>
-      <c r="AF32" s="218"/>
-      <c r="AG32" s="219"/>
-      <c r="AH32" s="219"/>
-      <c r="AI32" s="220"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="186"/>
+      <c r="U32" s="186"/>
+      <c r="V32" s="186"/>
+      <c r="W32" s="186"/>
+      <c r="X32" s="186"/>
+      <c r="Y32" s="186"/>
+      <c r="Z32" s="186"/>
+      <c r="AA32" s="186"/>
+      <c r="AB32" s="186"/>
+      <c r="AC32" s="186"/>
+      <c r="AD32" s="186"/>
+      <c r="AE32" s="187"/>
+      <c r="AF32" s="182"/>
+      <c r="AG32" s="183"/>
+      <c r="AH32" s="183"/>
+      <c r="AI32" s="184"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="218"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="219"/>
-      <c r="N33" s="219"/>
-      <c r="O33" s="219"/>
-      <c r="P33" s="220"/>
-      <c r="Q33" s="221"/>
-      <c r="R33" s="222"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="222"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="222"/>
-      <c r="W33" s="222"/>
-      <c r="X33" s="222"/>
-      <c r="Y33" s="222"/>
-      <c r="Z33" s="222"/>
-      <c r="AA33" s="222"/>
-      <c r="AB33" s="222"/>
-      <c r="AC33" s="222"/>
-      <c r="AD33" s="222"/>
-      <c r="AE33" s="223"/>
-      <c r="AF33" s="218"/>
-      <c r="AG33" s="219"/>
-      <c r="AH33" s="219"/>
-      <c r="AI33" s="220"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="185"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="186"/>
+      <c r="V33" s="186"/>
+      <c r="W33" s="186"/>
+      <c r="X33" s="186"/>
+      <c r="Y33" s="186"/>
+      <c r="Z33" s="186"/>
+      <c r="AA33" s="186"/>
+      <c r="AB33" s="186"/>
+      <c r="AC33" s="186"/>
+      <c r="AD33" s="186"/>
+      <c r="AE33" s="187"/>
+      <c r="AF33" s="182"/>
+      <c r="AG33" s="183"/>
+      <c r="AH33" s="183"/>
+      <c r="AI33" s="184"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11446,6 +11291,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11463,9 +11463,9 @@
   <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40:O40"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348BC2C-0892-4393-AEED-A80BDC957B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A76A5-5641-4B38-A2B4-FD357476FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="560">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -6840,23 +6840,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下の条件でリクエストを送信する。
-・顧客ID: "aaa"</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>以下のレスポンスが返される。
 ・ステータスコード：400
 ・障害コード：FB1999901
@@ -7203,10 +7186,134 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>リクエストに想定外の項目を加えた場合の実行結果は定義されていない</t>
+    <rPh sb="6" eb="9">
+      <t>ソウテイガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時実行数の制限はない</t>
+    <rPh sb="0" eb="5">
+      <t>ドウジジッコウスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単項目バリデーションが1つだけなので対象外</t>
+    <rPh sb="0" eb="3">
+      <t>タンコウモク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相関バリデーションを行っていないため対象外</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="10" eb="18">
+      <t>オコ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBとの相関バリデーションは1件のみのため対象外</t>
+    <rPh sb="4" eb="6">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアウトについては定義されていない</t>
+    <rPh sb="11" eb="18">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientById()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShow()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShowNotExistsClient()</t>
+  </si>
+  <si>
+    <t>テストデータシート名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm2()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientByIdThrowsNoDataException()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の条件でリクエストを送信する。
+・顧客ID: "test"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>以下のレスポンスが返される。
 ・ステータスコード：400
 ・障害コード：FB1999901
-・メッセージ：不正なリクエストです。</t>
+・メッセージ：clientId:数値を入力してください。clientId:数値を入力してください。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
     </rPh>
@@ -7216,123 +7323,49 @@
     <rPh sb="30" eb="32">
       <t>ショウガイ</t>
     </rPh>
-    <rPh sb="53" eb="55">
-      <t>フセイ</t>
+    <rPh sb="62" eb="64">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リクエストに想定外の項目を加えた場合の実行結果は定義されていない</t>
-    <rPh sb="6" eb="9">
-      <t>ソウテイガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ジッコウケッカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイギ</t>
+    <t>以下のレスポンスが返される。
+・ステータスコード：400
+・障害コード：FB1999901
+・メッセージ：clientId:数値を入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>同時実行数の制限はない</t>
-    <rPh sb="0" eb="5">
-      <t>ドウジジッコウスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単項目バリデーションが1つだけなので対象外</t>
-    <rPh sb="0" eb="3">
-      <t>タンコウモク</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>タイショウガイ</t>
-    </rPh>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShowWithEmptyClientTable()</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>相関バリデーションを行っていないため対象外</t>
-    <rPh sb="0" eb="2">
-      <t>ソウカン</t>
-    </rPh>
-    <rPh sb="10" eb="18">
-      <t>オコ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBとの相関バリデーションは1件のみのため対象外</t>
-    <rPh sb="4" eb="6">
-      <t>ソウカン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムアウトについては定義されていない</t>
-    <rPh sb="11" eb="18">
-      <t>テ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientById()</t>
+    <t>testShowWithEmptyClientTable</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientByIdForNoDataException()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm()</t>
-  </si>
-  <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShow()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShowNotExistsClient()</t>
-  </si>
-  <si>
-    <t>テストデータシート名</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShowNoDataNotExistsClient()</t>
-  </si>
-  <si>
-    <t>testShowNoDataNotExistsClient</t>
-  </si>
-  <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm2()</t>
   </si>
 </sst>
 </file>
@@ -8388,72 +8421,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8560,6 +8527,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10067,57 +10100,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="207" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="185" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="222" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="200" t="s">
         <v>496</v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="231" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="209" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="198" t="str">
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="176" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10125,53 +10158,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="207" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="210" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="188" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="176" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10179,45 +10212,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="211"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10254,85 +10287,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="201" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="201" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="201" t="s">
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="201" t="s">
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="202"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="180"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="196"/>
-      <c r="Z8" s="196"/>
-      <c r="AA8" s="196"/>
-      <c r="AB8" s="196"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="196"/>
-      <c r="AE8" s="197"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="232"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10340,934 +10373,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="186"/>
-      <c r="Y9" s="186"/>
-      <c r="Z9" s="186"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="186"/>
-      <c r="AE9" s="187"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="183"/>
-      <c r="AH9" s="183"/>
-      <c r="AI9" s="184"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="222"/>
+      <c r="X9" s="222"/>
+      <c r="Y9" s="222"/>
+      <c r="Z9" s="222"/>
+      <c r="AA9" s="222"/>
+      <c r="AB9" s="222"/>
+      <c r="AC9" s="222"/>
+      <c r="AD9" s="222"/>
+      <c r="AE9" s="223"/>
+      <c r="AF9" s="218"/>
+      <c r="AG9" s="219"/>
+      <c r="AH9" s="219"/>
+      <c r="AI9" s="220"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="186"/>
-      <c r="Y10" s="186"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="187"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="183"/>
-      <c r="AI10" s="184"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="219"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="222"/>
+      <c r="AE10" s="223"/>
+      <c r="AF10" s="218"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="219"/>
+      <c r="AI10" s="220"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="184"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="186"/>
-      <c r="Y11" s="186"/>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="186"/>
-      <c r="AB11" s="186"/>
-      <c r="AC11" s="186"/>
-      <c r="AD11" s="186"/>
-      <c r="AE11" s="187"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="183"/>
-      <c r="AH11" s="183"/>
-      <c r="AI11" s="184"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="219"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="221"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="222"/>
+      <c r="X11" s="222"/>
+      <c r="Y11" s="222"/>
+      <c r="Z11" s="222"/>
+      <c r="AA11" s="222"/>
+      <c r="AB11" s="222"/>
+      <c r="AC11" s="222"/>
+      <c r="AD11" s="222"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="218"/>
+      <c r="AG11" s="219"/>
+      <c r="AH11" s="219"/>
+      <c r="AI11" s="220"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="184"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="187"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="183"/>
-      <c r="AH12" s="183"/>
-      <c r="AI12" s="184"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="219"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="219"/>
+      <c r="P12" s="220"/>
+      <c r="Q12" s="221"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="222"/>
+      <c r="V12" s="222"/>
+      <c r="W12" s="222"/>
+      <c r="X12" s="222"/>
+      <c r="Y12" s="222"/>
+      <c r="Z12" s="222"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="222"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="222"/>
+      <c r="AE12" s="223"/>
+      <c r="AF12" s="218"/>
+      <c r="AG12" s="219"/>
+      <c r="AH12" s="219"/>
+      <c r="AI12" s="220"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="184"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="186"/>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
-      <c r="AD13" s="186"/>
-      <c r="AE13" s="187"/>
-      <c r="AF13" s="182"/>
-      <c r="AG13" s="183"/>
-      <c r="AH13" s="183"/>
-      <c r="AI13" s="184"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="219"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="219"/>
+      <c r="N13" s="219"/>
+      <c r="O13" s="219"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="222"/>
+      <c r="S13" s="222"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222"/>
+      <c r="Y13" s="222"/>
+      <c r="Z13" s="222"/>
+      <c r="AA13" s="222"/>
+      <c r="AB13" s="222"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="222"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="218"/>
+      <c r="AG13" s="219"/>
+      <c r="AH13" s="219"/>
+      <c r="AI13" s="220"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="186"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="186"/>
-      <c r="AA14" s="186"/>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="186"/>
-      <c r="AE14" s="187"/>
-      <c r="AF14" s="182"/>
-      <c r="AG14" s="183"/>
-      <c r="AH14" s="183"/>
-      <c r="AI14" s="184"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="222"/>
+      <c r="W14" s="222"/>
+      <c r="X14" s="222"/>
+      <c r="Y14" s="222"/>
+      <c r="Z14" s="222"/>
+      <c r="AA14" s="222"/>
+      <c r="AB14" s="222"/>
+      <c r="AC14" s="222"/>
+      <c r="AD14" s="222"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="218"/>
+      <c r="AG14" s="219"/>
+      <c r="AH14" s="219"/>
+      <c r="AI14" s="220"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="186"/>
-      <c r="S15" s="186"/>
-      <c r="T15" s="186"/>
-      <c r="U15" s="186"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="186"/>
-      <c r="X15" s="186"/>
-      <c r="Y15" s="186"/>
-      <c r="Z15" s="186"/>
-      <c r="AA15" s="186"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="187"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="183"/>
-      <c r="AH15" s="183"/>
-      <c r="AI15" s="184"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="221"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="222"/>
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="222"/>
+      <c r="Y15" s="222"/>
+      <c r="Z15" s="222"/>
+      <c r="AA15" s="222"/>
+      <c r="AB15" s="222"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="218"/>
+      <c r="AG15" s="219"/>
+      <c r="AH15" s="219"/>
+      <c r="AI15" s="220"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="184"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="187"/>
-      <c r="AF16" s="182"/>
-      <c r="AG16" s="183"/>
-      <c r="AH16" s="183"/>
-      <c r="AI16" s="184"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="220"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="222"/>
+      <c r="Z16" s="222"/>
+      <c r="AA16" s="222"/>
+      <c r="AB16" s="222"/>
+      <c r="AC16" s="222"/>
+      <c r="AD16" s="222"/>
+      <c r="AE16" s="223"/>
+      <c r="AF16" s="218"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="219"/>
+      <c r="AI16" s="220"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="186"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="186"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="186"/>
-      <c r="W17" s="186"/>
-      <c r="X17" s="186"/>
-      <c r="Y17" s="186"/>
-      <c r="Z17" s="186"/>
-      <c r="AA17" s="186"/>
-      <c r="AB17" s="186"/>
-      <c r="AC17" s="186"/>
-      <c r="AD17" s="186"/>
-      <c r="AE17" s="187"/>
-      <c r="AF17" s="182"/>
-      <c r="AG17" s="183"/>
-      <c r="AH17" s="183"/>
-      <c r="AI17" s="184"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="220"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="222"/>
+      <c r="S17" s="222"/>
+      <c r="T17" s="222"/>
+      <c r="U17" s="222"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
+      <c r="X17" s="222"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="222"/>
+      <c r="AA17" s="222"/>
+      <c r="AB17" s="222"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="222"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="218"/>
+      <c r="AG17" s="219"/>
+      <c r="AH17" s="219"/>
+      <c r="AI17" s="220"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="186"/>
-      <c r="T18" s="186"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="186"/>
-      <c r="W18" s="186"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="186"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="186"/>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="186"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="187"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="183"/>
-      <c r="AH18" s="183"/>
-      <c r="AI18" s="184"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
+      <c r="U18" s="222"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
+      <c r="X18" s="222"/>
+      <c r="Y18" s="222"/>
+      <c r="Z18" s="222"/>
+      <c r="AA18" s="222"/>
+      <c r="AB18" s="222"/>
+      <c r="AC18" s="222"/>
+      <c r="AD18" s="222"/>
+      <c r="AE18" s="223"/>
+      <c r="AF18" s="218"/>
+      <c r="AG18" s="219"/>
+      <c r="AH18" s="219"/>
+      <c r="AI18" s="220"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="184"/>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="186"/>
-      <c r="AA19" s="186"/>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="186"/>
-      <c r="AE19" s="187"/>
-      <c r="AF19" s="182"/>
-      <c r="AG19" s="183"/>
-      <c r="AH19" s="183"/>
-      <c r="AI19" s="184"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="222"/>
+      <c r="S19" s="222"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="222"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
+      <c r="X19" s="222"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="222"/>
+      <c r="AA19" s="222"/>
+      <c r="AB19" s="222"/>
+      <c r="AC19" s="222"/>
+      <c r="AD19" s="222"/>
+      <c r="AE19" s="223"/>
+      <c r="AF19" s="218"/>
+      <c r="AG19" s="219"/>
+      <c r="AH19" s="219"/>
+      <c r="AI19" s="220"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="184"/>
-      <c r="Q20" s="185"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="186"/>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="186"/>
-      <c r="Z20" s="186"/>
-      <c r="AA20" s="186"/>
-      <c r="AB20" s="186"/>
-      <c r="AC20" s="186"/>
-      <c r="AD20" s="186"/>
-      <c r="AE20" s="187"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="183"/>
-      <c r="AH20" s="183"/>
-      <c r="AI20" s="184"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="221"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="222"/>
+      <c r="U20" s="222"/>
+      <c r="V20" s="222"/>
+      <c r="W20" s="222"/>
+      <c r="X20" s="222"/>
+      <c r="Y20" s="222"/>
+      <c r="Z20" s="222"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="222"/>
+      <c r="AC20" s="222"/>
+      <c r="AD20" s="222"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="218"/>
+      <c r="AG20" s="219"/>
+      <c r="AH20" s="219"/>
+      <c r="AI20" s="220"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="185"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="186"/>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
-      <c r="AD21" s="186"/>
-      <c r="AE21" s="187"/>
-      <c r="AF21" s="182"/>
-      <c r="AG21" s="183"/>
-      <c r="AH21" s="183"/>
-      <c r="AI21" s="184"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="219"/>
+      <c r="P21" s="220"/>
+      <c r="Q21" s="221"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
+      <c r="T21" s="222"/>
+      <c r="U21" s="222"/>
+      <c r="V21" s="222"/>
+      <c r="W21" s="222"/>
+      <c r="X21" s="222"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="222"/>
+      <c r="AA21" s="222"/>
+      <c r="AB21" s="222"/>
+      <c r="AC21" s="222"/>
+      <c r="AD21" s="222"/>
+      <c r="AE21" s="223"/>
+      <c r="AF21" s="218"/>
+      <c r="AG21" s="219"/>
+      <c r="AH21" s="219"/>
+      <c r="AI21" s="220"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="185"/>
-      <c r="R22" s="186"/>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
-      <c r="U22" s="186"/>
-      <c r="V22" s="186"/>
-      <c r="W22" s="186"/>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="186"/>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
-      <c r="AD22" s="186"/>
-      <c r="AE22" s="187"/>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="183"/>
-      <c r="AI22" s="184"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="222"/>
+      <c r="S22" s="222"/>
+      <c r="T22" s="222"/>
+      <c r="U22" s="222"/>
+      <c r="V22" s="222"/>
+      <c r="W22" s="222"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="222"/>
+      <c r="Z22" s="222"/>
+      <c r="AA22" s="222"/>
+      <c r="AB22" s="222"/>
+      <c r="AC22" s="222"/>
+      <c r="AD22" s="222"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="218"/>
+      <c r="AG22" s="219"/>
+      <c r="AH22" s="219"/>
+      <c r="AI22" s="220"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="186"/>
-      <c r="X23" s="186"/>
-      <c r="Y23" s="186"/>
-      <c r="Z23" s="186"/>
-      <c r="AA23" s="186"/>
-      <c r="AB23" s="186"/>
-      <c r="AC23" s="186"/>
-      <c r="AD23" s="186"/>
-      <c r="AE23" s="187"/>
-      <c r="AF23" s="182"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="183"/>
-      <c r="AI23" s="184"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="219"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="222"/>
+      <c r="S23" s="222"/>
+      <c r="T23" s="222"/>
+      <c r="U23" s="222"/>
+      <c r="V23" s="222"/>
+      <c r="W23" s="222"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="222"/>
+      <c r="Z23" s="222"/>
+      <c r="AA23" s="222"/>
+      <c r="AB23" s="222"/>
+      <c r="AC23" s="222"/>
+      <c r="AD23" s="222"/>
+      <c r="AE23" s="223"/>
+      <c r="AF23" s="218"/>
+      <c r="AG23" s="219"/>
+      <c r="AH23" s="219"/>
+      <c r="AI23" s="220"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="185"/>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-      <c r="V24" s="186"/>
-      <c r="W24" s="186"/>
-      <c r="X24" s="186"/>
-      <c r="Y24" s="186"/>
-      <c r="Z24" s="186"/>
-      <c r="AA24" s="186"/>
-      <c r="AB24" s="186"/>
-      <c r="AC24" s="186"/>
-      <c r="AD24" s="186"/>
-      <c r="AE24" s="187"/>
-      <c r="AF24" s="182"/>
-      <c r="AG24" s="183"/>
-      <c r="AH24" s="183"/>
-      <c r="AI24" s="184"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
+      <c r="P24" s="220"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
+      <c r="U24" s="222"/>
+      <c r="V24" s="222"/>
+      <c r="W24" s="222"/>
+      <c r="X24" s="222"/>
+      <c r="Y24" s="222"/>
+      <c r="Z24" s="222"/>
+      <c r="AA24" s="222"/>
+      <c r="AB24" s="222"/>
+      <c r="AC24" s="222"/>
+      <c r="AD24" s="222"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="218"/>
+      <c r="AG24" s="219"/>
+      <c r="AH24" s="219"/>
+      <c r="AI24" s="220"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="186"/>
-      <c r="AB25" s="186"/>
-      <c r="AC25" s="186"/>
-      <c r="AD25" s="186"/>
-      <c r="AE25" s="187"/>
-      <c r="AF25" s="182"/>
-      <c r="AG25" s="183"/>
-      <c r="AH25" s="183"/>
-      <c r="AI25" s="184"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="222"/>
+      <c r="S25" s="222"/>
+      <c r="T25" s="222"/>
+      <c r="U25" s="222"/>
+      <c r="V25" s="222"/>
+      <c r="W25" s="222"/>
+      <c r="X25" s="222"/>
+      <c r="Y25" s="222"/>
+      <c r="Z25" s="222"/>
+      <c r="AA25" s="222"/>
+      <c r="AB25" s="222"/>
+      <c r="AC25" s="222"/>
+      <c r="AD25" s="222"/>
+      <c r="AE25" s="223"/>
+      <c r="AF25" s="218"/>
+      <c r="AG25" s="219"/>
+      <c r="AH25" s="219"/>
+      <c r="AI25" s="220"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="186"/>
-      <c r="X26" s="186"/>
-      <c r="Y26" s="186"/>
-      <c r="Z26" s="186"/>
-      <c r="AA26" s="186"/>
-      <c r="AB26" s="186"/>
-      <c r="AC26" s="186"/>
-      <c r="AD26" s="186"/>
-      <c r="AE26" s="187"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="183"/>
-      <c r="AH26" s="183"/>
-      <c r="AI26" s="184"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="222"/>
+      <c r="S26" s="222"/>
+      <c r="T26" s="222"/>
+      <c r="U26" s="222"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="222"/>
+      <c r="Y26" s="222"/>
+      <c r="Z26" s="222"/>
+      <c r="AA26" s="222"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="222"/>
+      <c r="AD26" s="222"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="218"/>
+      <c r="AG26" s="219"/>
+      <c r="AH26" s="219"/>
+      <c r="AI26" s="220"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="185"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="186"/>
-      <c r="Z27" s="186"/>
-      <c r="AA27" s="186"/>
-      <c r="AB27" s="186"/>
-      <c r="AC27" s="186"/>
-      <c r="AD27" s="186"/>
-      <c r="AE27" s="187"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="184"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="222"/>
+      <c r="U27" s="222"/>
+      <c r="V27" s="222"/>
+      <c r="W27" s="222"/>
+      <c r="X27" s="222"/>
+      <c r="Y27" s="222"/>
+      <c r="Z27" s="222"/>
+      <c r="AA27" s="222"/>
+      <c r="AB27" s="222"/>
+      <c r="AC27" s="222"/>
+      <c r="AD27" s="222"/>
+      <c r="AE27" s="223"/>
+      <c r="AF27" s="218"/>
+      <c r="AG27" s="219"/>
+      <c r="AH27" s="219"/>
+      <c r="AI27" s="220"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="186"/>
-      <c r="S28" s="186"/>
-      <c r="T28" s="186"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="186"/>
-      <c r="W28" s="186"/>
-      <c r="X28" s="186"/>
-      <c r="Y28" s="186"/>
-      <c r="Z28" s="186"/>
-      <c r="AA28" s="186"/>
-      <c r="AB28" s="186"/>
-      <c r="AC28" s="186"/>
-      <c r="AD28" s="186"/>
-      <c r="AE28" s="187"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="183"/>
-      <c r="AH28" s="183"/>
-      <c r="AI28" s="184"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
+      <c r="M28" s="219"/>
+      <c r="N28" s="219"/>
+      <c r="O28" s="219"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="222"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="222"/>
+      <c r="U28" s="222"/>
+      <c r="V28" s="222"/>
+      <c r="W28" s="222"/>
+      <c r="X28" s="222"/>
+      <c r="Y28" s="222"/>
+      <c r="Z28" s="222"/>
+      <c r="AA28" s="222"/>
+      <c r="AB28" s="222"/>
+      <c r="AC28" s="222"/>
+      <c r="AD28" s="222"/>
+      <c r="AE28" s="223"/>
+      <c r="AF28" s="218"/>
+      <c r="AG28" s="219"/>
+      <c r="AH28" s="219"/>
+      <c r="AI28" s="220"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="186"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="186"/>
-      <c r="V29" s="186"/>
-      <c r="W29" s="186"/>
-      <c r="X29" s="186"/>
-      <c r="Y29" s="186"/>
-      <c r="Z29" s="186"/>
-      <c r="AA29" s="186"/>
-      <c r="AB29" s="186"/>
-      <c r="AC29" s="186"/>
-      <c r="AD29" s="186"/>
-      <c r="AE29" s="187"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="183"/>
-      <c r="AH29" s="183"/>
-      <c r="AI29" s="184"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="219"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="220"/>
+      <c r="Q29" s="221"/>
+      <c r="R29" s="222"/>
+      <c r="S29" s="222"/>
+      <c r="T29" s="222"/>
+      <c r="U29" s="222"/>
+      <c r="V29" s="222"/>
+      <c r="W29" s="222"/>
+      <c r="X29" s="222"/>
+      <c r="Y29" s="222"/>
+      <c r="Z29" s="222"/>
+      <c r="AA29" s="222"/>
+      <c r="AB29" s="222"/>
+      <c r="AC29" s="222"/>
+      <c r="AD29" s="222"/>
+      <c r="AE29" s="223"/>
+      <c r="AF29" s="218"/>
+      <c r="AG29" s="219"/>
+      <c r="AH29" s="219"/>
+      <c r="AI29" s="220"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="185"/>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="186"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="186"/>
-      <c r="AA30" s="186"/>
-      <c r="AB30" s="186"/>
-      <c r="AC30" s="186"/>
-      <c r="AD30" s="186"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="183"/>
-      <c r="AH30" s="183"/>
-      <c r="AI30" s="184"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="219"/>
+      <c r="L30" s="219"/>
+      <c r="M30" s="219"/>
+      <c r="N30" s="219"/>
+      <c r="O30" s="219"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="221"/>
+      <c r="R30" s="222"/>
+      <c r="S30" s="222"/>
+      <c r="T30" s="222"/>
+      <c r="U30" s="222"/>
+      <c r="V30" s="222"/>
+      <c r="W30" s="222"/>
+      <c r="X30" s="222"/>
+      <c r="Y30" s="222"/>
+      <c r="Z30" s="222"/>
+      <c r="AA30" s="222"/>
+      <c r="AB30" s="222"/>
+      <c r="AC30" s="222"/>
+      <c r="AD30" s="222"/>
+      <c r="AE30" s="223"/>
+      <c r="AF30" s="218"/>
+      <c r="AG30" s="219"/>
+      <c r="AH30" s="219"/>
+      <c r="AI30" s="220"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="185"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186"/>
-      <c r="V31" s="186"/>
-      <c r="W31" s="186"/>
-      <c r="X31" s="186"/>
-      <c r="Y31" s="186"/>
-      <c r="Z31" s="186"/>
-      <c r="AA31" s="186"/>
-      <c r="AB31" s="186"/>
-      <c r="AC31" s="186"/>
-      <c r="AD31" s="186"/>
-      <c r="AE31" s="187"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="183"/>
-      <c r="AH31" s="183"/>
-      <c r="AI31" s="184"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="219"/>
+      <c r="L31" s="219"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="219"/>
+      <c r="O31" s="219"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="221"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="222"/>
+      <c r="W31" s="222"/>
+      <c r="X31" s="222"/>
+      <c r="Y31" s="222"/>
+      <c r="Z31" s="222"/>
+      <c r="AA31" s="222"/>
+      <c r="AB31" s="222"/>
+      <c r="AC31" s="222"/>
+      <c r="AD31" s="222"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="218"/>
+      <c r="AG31" s="219"/>
+      <c r="AH31" s="219"/>
+      <c r="AI31" s="220"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="183"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="186"/>
-      <c r="U32" s="186"/>
-      <c r="V32" s="186"/>
-      <c r="W32" s="186"/>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="186"/>
-      <c r="Z32" s="186"/>
-      <c r="AA32" s="186"/>
-      <c r="AB32" s="186"/>
-      <c r="AC32" s="186"/>
-      <c r="AD32" s="186"/>
-      <c r="AE32" s="187"/>
-      <c r="AF32" s="182"/>
-      <c r="AG32" s="183"/>
-      <c r="AH32" s="183"/>
-      <c r="AI32" s="184"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="233"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
+      <c r="W32" s="222"/>
+      <c r="X32" s="222"/>
+      <c r="Y32" s="222"/>
+      <c r="Z32" s="222"/>
+      <c r="AA32" s="222"/>
+      <c r="AB32" s="222"/>
+      <c r="AC32" s="222"/>
+      <c r="AD32" s="222"/>
+      <c r="AE32" s="223"/>
+      <c r="AF32" s="218"/>
+      <c r="AG32" s="219"/>
+      <c r="AH32" s="219"/>
+      <c r="AI32" s="220"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="186"/>
-      <c r="U33" s="186"/>
-      <c r="V33" s="186"/>
-      <c r="W33" s="186"/>
-      <c r="X33" s="186"/>
-      <c r="Y33" s="186"/>
-      <c r="Z33" s="186"/>
-      <c r="AA33" s="186"/>
-      <c r="AB33" s="186"/>
-      <c r="AC33" s="186"/>
-      <c r="AD33" s="186"/>
-      <c r="AE33" s="187"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="183"/>
-      <c r="AH33" s="183"/>
-      <c r="AI33" s="184"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
+      <c r="N33" s="219"/>
+      <c r="O33" s="219"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="221"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="223"/>
+      <c r="AF33" s="218"/>
+      <c r="AG33" s="219"/>
+      <c r="AH33" s="219"/>
+      <c r="AI33" s="220"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11291,161 +11479,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11463,9 +11496,9 @@
   <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -12662,21 +12695,21 @@
         <v>509</v>
       </c>
       <c r="L40" s="144" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M40" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N40" s="174">
         <v>44858</v>
       </c>
       <c r="O40" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P40" s="145"/>
       <c r="Q40" s="146"/>
     </row>
-    <row r="41" spans="1:17" s="32" customFormat="1" ht="67.5">
+    <row r="41" spans="1:17" s="32" customFormat="1" ht="78.75">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -12710,16 +12743,16 @@
         <v>510</v>
       </c>
       <c r="L41" s="144" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M41" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N41" s="174">
         <v>44858</v>
       </c>
       <c r="O41" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P41" s="145"/>
       <c r="Q41" s="146"/>
@@ -21820,7 +21853,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -23001,23 +23034,23 @@
         <v>506</v>
       </c>
       <c r="J42" s="144" t="s">
+        <v>555</v>
+      </c>
+      <c r="K42" s="144" t="s">
         <v>513</v>
       </c>
-      <c r="K42" s="144" t="s">
-        <v>514</v>
-      </c>
       <c r="L42" s="146" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M42" s="146"/>
       <c r="N42" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O42" s="174">
         <v>44858</v>
       </c>
       <c r="P42" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q42" s="155"/>
       <c r="R42" s="144"/>
@@ -23056,17 +23089,17 @@
         <v>504</v>
       </c>
       <c r="L43" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M43" s="146"/>
       <c r="N43" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O43" s="174">
         <v>44858</v>
       </c>
       <c r="P43" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q43" s="155"/>
       <c r="R43" s="144"/>
@@ -23109,17 +23142,17 @@
         <v>508</v>
       </c>
       <c r="L44" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M44" s="146"/>
       <c r="N44" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O44" s="174">
         <v>44858</v>
       </c>
       <c r="P44" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q44" s="155"/>
       <c r="R44" s="144"/>
@@ -23158,17 +23191,17 @@
         <v>504</v>
       </c>
       <c r="L45" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M45" s="146"/>
       <c r="N45" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O45" s="174">
         <v>44858</v>
       </c>
       <c r="P45" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q45" s="155"/>
       <c r="R45" s="144"/>
@@ -23203,29 +23236,29 @@
       </c>
       <c r="G46" s="62"/>
       <c r="H46" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="I46" s="61" t="s">
         <v>515</v>
-      </c>
-      <c r="I46" s="61" t="s">
-        <v>516</v>
       </c>
       <c r="J46" s="144" t="s">
         <v>503</v>
       </c>
       <c r="K46" s="144" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L46" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M46" s="63"/>
       <c r="N46" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O46" s="174">
         <v>44858</v>
       </c>
       <c r="P46" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q46" s="108"/>
       <c r="R46" s="62"/>
@@ -23264,17 +23297,17 @@
         <v>508</v>
       </c>
       <c r="L47" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M47" s="63"/>
       <c r="N47" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O47" s="174">
         <v>44858</v>
       </c>
       <c r="P47" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q47" s="108"/>
       <c r="R47" s="62"/>
@@ -23303,7 +23336,7 @@
       <c r="H48" s="42"/>
       <c r="I48" s="51"/>
       <c r="J48" s="65" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K48" s="65"/>
       <c r="L48" s="67"/>
@@ -23340,7 +23373,7 @@
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
       <c r="J49" s="166" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K49" s="66"/>
       <c r="L49" s="67"/>
@@ -23375,7 +23408,7 @@
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
       <c r="J50" s="166" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K50" s="66"/>
       <c r="L50" s="67"/>
@@ -23410,7 +23443,7 @@
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
       <c r="J51" s="166" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K51" s="66"/>
       <c r="L51" s="67"/>
@@ -23445,29 +23478,29 @@
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="I52" s="61" t="s">
         <v>515</v>
-      </c>
-      <c r="I52" s="61" t="s">
-        <v>516</v>
       </c>
       <c r="J52" s="112" t="s">
         <v>503</v>
       </c>
       <c r="K52" s="112" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L52" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M52" s="63"/>
       <c r="N52" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O52" s="174">
         <v>44858</v>
       </c>
       <c r="P52" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q52" s="108"/>
       <c r="R52" s="62"/>
@@ -23506,17 +23539,17 @@
         <v>508</v>
       </c>
       <c r="L53" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M53" s="63"/>
       <c r="N53" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O53" s="174">
         <v>44858</v>
       </c>
       <c r="P53" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q53" s="108"/>
       <c r="R53" s="62"/>
@@ -23547,7 +23580,7 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K54" s="66"/>
       <c r="L54" s="67"/>
@@ -23582,7 +23615,7 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K55" s="66"/>
       <c r="L55" s="67"/>
@@ -23617,7 +23650,7 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K56" s="66"/>
       <c r="L56" s="67"/>
@@ -23652,7 +23685,7 @@
       <c r="H57" s="67"/>
       <c r="I57" s="67"/>
       <c r="J57" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K57" s="66"/>
       <c r="L57" s="67"/>
@@ -23687,7 +23720,7 @@
       <c r="H58" s="67"/>
       <c r="I58" s="67"/>
       <c r="J58" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K58" s="66"/>
       <c r="L58" s="67"/>
@@ -23722,7 +23755,7 @@
       <c r="H59" s="67"/>
       <c r="I59" s="67"/>
       <c r="J59" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K59" s="66"/>
       <c r="L59" s="67"/>
@@ -23759,7 +23792,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K60" s="65"/>
       <c r="L60" s="67"/>
@@ -23796,7 +23829,7 @@
       <c r="H61" s="67"/>
       <c r="I61" s="67"/>
       <c r="J61" s="66" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K61" s="66"/>
       <c r="L61" s="67"/>
@@ -23833,7 +23866,7 @@
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
       <c r="J62" s="66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K62" s="66"/>
       <c r="L62" s="67"/>
@@ -23872,7 +23905,7 @@
       <c r="H63" s="67"/>
       <c r="I63" s="67"/>
       <c r="J63" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K63" s="66"/>
       <c r="L63" s="67"/>
@@ -23907,7 +23940,7 @@
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K64" s="65"/>
       <c r="L64" s="67"/>
@@ -23942,7 +23975,7 @@
       <c r="H65" s="67"/>
       <c r="I65" s="67"/>
       <c r="J65" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K65" s="66"/>
       <c r="L65" s="67"/>
@@ -23977,7 +24010,7 @@
       <c r="H66" s="67"/>
       <c r="I66" s="67"/>
       <c r="J66" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K66" s="66"/>
       <c r="L66" s="67"/>
@@ -24012,7 +24045,7 @@
       <c r="H67" s="67"/>
       <c r="I67" s="67"/>
       <c r="J67" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K67" s="66"/>
       <c r="L67" s="67"/>
@@ -24049,7 +24082,7 @@
       <c r="H68" s="67"/>
       <c r="I68" s="67"/>
       <c r="J68" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K68" s="66"/>
       <c r="L68" s="67"/>
@@ -24084,7 +24117,7 @@
       <c r="H69" s="67"/>
       <c r="I69" s="67"/>
       <c r="J69" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K69" s="66"/>
       <c r="L69" s="67"/>
@@ -24119,7 +24152,7 @@
       <c r="H70" s="67"/>
       <c r="I70" s="67"/>
       <c r="J70" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K70" s="66"/>
       <c r="L70" s="67"/>
@@ -24154,7 +24187,7 @@
       <c r="H71" s="67"/>
       <c r="I71" s="67"/>
       <c r="J71" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K71" s="66"/>
       <c r="L71" s="67"/>
@@ -24189,7 +24222,7 @@
       <c r="H72" s="67"/>
       <c r="I72" s="67"/>
       <c r="J72" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K72" s="66"/>
       <c r="L72" s="67"/>
@@ -24224,7 +24257,7 @@
       <c r="H73" s="67"/>
       <c r="I73" s="67"/>
       <c r="J73" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K73" s="66"/>
       <c r="L73" s="67"/>
@@ -24259,7 +24292,7 @@
       <c r="H74" s="67"/>
       <c r="I74" s="67"/>
       <c r="J74" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K74" s="66"/>
       <c r="L74" s="67"/>
@@ -24294,7 +24327,7 @@
       <c r="H75" s="67"/>
       <c r="I75" s="67"/>
       <c r="J75" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K75" s="66"/>
       <c r="L75" s="67"/>
@@ -24331,7 +24364,7 @@
       <c r="H76" s="51"/>
       <c r="I76" s="51"/>
       <c r="J76" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K76" s="65"/>
       <c r="L76" s="161"/>
@@ -24368,7 +24401,7 @@
       <c r="H77" s="67"/>
       <c r="I77" s="67"/>
       <c r="J77" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K77" s="66"/>
       <c r="L77" s="67"/>
@@ -24403,7 +24436,7 @@
       <c r="H78" s="67"/>
       <c r="I78" s="67"/>
       <c r="J78" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K78" s="66"/>
       <c r="L78" s="67"/>
@@ -24438,7 +24471,7 @@
       <c r="H79" s="67"/>
       <c r="I79" s="67"/>
       <c r="J79" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K79" s="66"/>
       <c r="L79" s="67"/>
@@ -24473,7 +24506,7 @@
       <c r="H80" s="67"/>
       <c r="I80" s="67"/>
       <c r="J80" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K80" s="66"/>
       <c r="L80" s="67"/>
@@ -24546,29 +24579,29 @@
       </c>
       <c r="G82" s="62"/>
       <c r="H82" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="I82" s="61" t="s">
         <v>515</v>
-      </c>
-      <c r="I82" s="61" t="s">
-        <v>516</v>
       </c>
       <c r="J82" s="112" t="s">
         <v>503</v>
       </c>
       <c r="K82" s="112" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L82" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M82" s="63"/>
       <c r="N82" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O82" s="174">
         <v>44858</v>
       </c>
       <c r="P82" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q82" s="108"/>
       <c r="R82" s="62"/>
@@ -24601,25 +24634,25 @@
         <v>506</v>
       </c>
       <c r="J83" s="61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K83" s="112" t="s">
         <v>508</v>
       </c>
       <c r="L83" s="63" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M83" s="63" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N83" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O83" s="174">
         <v>44858</v>
       </c>
       <c r="P83" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q83" s="108"/>
       <c r="R83" s="62"/>
@@ -24648,29 +24681,29 @@
       </c>
       <c r="G84" s="62"/>
       <c r="H84" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="I84" s="63" t="s">
         <v>515</v>
-      </c>
-      <c r="I84" s="63" t="s">
-        <v>516</v>
       </c>
       <c r="J84" s="113" t="s">
         <v>503</v>
       </c>
       <c r="K84" s="62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L84" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M84" s="63"/>
       <c r="N84" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O84" s="174">
         <v>44858</v>
       </c>
       <c r="P84" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q84" s="108"/>
       <c r="R84" s="62"/>
@@ -24707,17 +24740,17 @@
         <v>508</v>
       </c>
       <c r="L85" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M85" s="63"/>
       <c r="N85" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O85" s="174">
         <v>44858</v>
       </c>
       <c r="P85" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q85" s="108"/>
       <c r="R85" s="62"/>
@@ -24748,7 +24781,7 @@
       <c r="H86" s="67"/>
       <c r="I86" s="67"/>
       <c r="J86" s="66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K86" s="66"/>
       <c r="L86" s="67"/>
@@ -24783,7 +24816,7 @@
       <c r="H87" s="67"/>
       <c r="I87" s="67"/>
       <c r="J87" s="66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K87" s="66"/>
       <c r="L87" s="67"/>
@@ -24820,7 +24853,7 @@
       <c r="H88" s="67"/>
       <c r="I88" s="67"/>
       <c r="J88" s="66" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K88" s="66"/>
       <c r="L88" s="67"/>
@@ -24857,7 +24890,7 @@
       <c r="H89" s="67"/>
       <c r="I89" s="67"/>
       <c r="J89" s="66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K89" s="66"/>
       <c r="L89" s="67"/>
@@ -24898,7 +24931,7 @@
       <c r="H90" s="67"/>
       <c r="I90" s="67"/>
       <c r="J90" s="66" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K90" s="66"/>
       <c r="L90" s="67"/>
@@ -24935,7 +24968,7 @@
       <c r="H91" s="67"/>
       <c r="I91" s="67"/>
       <c r="J91" s="66" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K91" s="66"/>
       <c r="L91" s="67"/>
@@ -24972,7 +25005,7 @@
       <c r="H92" s="67"/>
       <c r="I92" s="67"/>
       <c r="J92" s="66" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K92" s="66"/>
       <c r="L92" s="67"/>
@@ -25013,7 +25046,7 @@
       <c r="H93" s="51"/>
       <c r="I93" s="51"/>
       <c r="J93" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K93" s="67"/>
       <c r="L93" s="67"/>
@@ -25048,7 +25081,7 @@
       <c r="H94" s="67"/>
       <c r="I94" s="67"/>
       <c r="J94" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K94" s="66"/>
       <c r="L94" s="67"/>
@@ -25085,7 +25118,7 @@
       <c r="H95" s="67"/>
       <c r="I95" s="67"/>
       <c r="J95" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K95" s="66"/>
       <c r="L95" s="67"/>
@@ -25122,7 +25155,7 @@
       <c r="H96" s="67"/>
       <c r="I96" s="67"/>
       <c r="J96" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K96" s="66"/>
       <c r="L96" s="67"/>
@@ -25157,7 +25190,7 @@
       <c r="H97" s="67"/>
       <c r="I97" s="67"/>
       <c r="J97" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K97" s="66"/>
       <c r="L97" s="67"/>
@@ -25194,7 +25227,7 @@
       <c r="H98" s="67"/>
       <c r="I98" s="67"/>
       <c r="J98" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K98" s="66"/>
       <c r="L98" s="67"/>
@@ -25235,7 +25268,7 @@
       <c r="H99" s="67"/>
       <c r="I99" s="67"/>
       <c r="J99" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K99" s="66"/>
       <c r="L99" s="67"/>
@@ -25270,7 +25303,7 @@
       <c r="H100" s="67"/>
       <c r="I100" s="67"/>
       <c r="J100" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K100" s="66"/>
       <c r="L100" s="67"/>
@@ -25305,7 +25338,7 @@
       <c r="H101" s="67"/>
       <c r="I101" s="67"/>
       <c r="J101" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K101" s="66"/>
       <c r="L101" s="67"/>
@@ -25340,7 +25373,7 @@
       <c r="H102" s="67"/>
       <c r="I102" s="67"/>
       <c r="J102" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K102" s="66"/>
       <c r="L102" s="67"/>
@@ -25375,7 +25408,7 @@
       <c r="H103" s="67"/>
       <c r="I103" s="67"/>
       <c r="J103" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K103" s="66"/>
       <c r="L103" s="67"/>
@@ -25412,7 +25445,7 @@
       <c r="H104" s="67"/>
       <c r="I104" s="67"/>
       <c r="J104" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K104" s="66"/>
       <c r="L104" s="67"/>
@@ -25447,7 +25480,7 @@
       <c r="H105" s="67"/>
       <c r="I105" s="67"/>
       <c r="J105" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K105" s="66"/>
       <c r="L105" s="67"/>
@@ -25482,7 +25515,7 @@
       <c r="H106" s="67"/>
       <c r="I106" s="67"/>
       <c r="J106" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K106" s="66"/>
       <c r="L106" s="67"/>
@@ -25517,7 +25550,7 @@
       <c r="H107" s="67"/>
       <c r="I107" s="67"/>
       <c r="J107" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K107" s="66"/>
       <c r="L107" s="67"/>
@@ -25552,7 +25585,7 @@
       <c r="H108" s="67"/>
       <c r="I108" s="67"/>
       <c r="J108" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K108" s="66"/>
       <c r="L108" s="67"/>
@@ -25589,7 +25622,7 @@
       <c r="H109" s="67"/>
       <c r="I109" s="67"/>
       <c r="J109" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K109" s="66"/>
       <c r="L109" s="67"/>
@@ -25632,7 +25665,7 @@
       <c r="H110" s="67"/>
       <c r="I110" s="67"/>
       <c r="J110" s="66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K110" s="66"/>
       <c r="L110" s="67"/>
@@ -25673,7 +25706,7 @@
       <c r="H111" s="67"/>
       <c r="I111" s="67"/>
       <c r="J111" s="66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K111" s="66"/>
       <c r="L111" s="67"/>
@@ -25708,7 +25741,7 @@
       <c r="H112" s="67"/>
       <c r="I112" s="67"/>
       <c r="J112" s="66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K112" s="66"/>
       <c r="L112" s="67"/>
@@ -25749,7 +25782,7 @@
       <c r="H113" s="67"/>
       <c r="I113" s="67"/>
       <c r="J113" s="66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K113" s="66"/>
       <c r="L113" s="67"/>
@@ -25790,7 +25823,7 @@
       <c r="H114" s="67"/>
       <c r="I114" s="67"/>
       <c r="J114" s="66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K114" s="66"/>
       <c r="L114" s="67"/>
@@ -25825,7 +25858,7 @@
       <c r="H115" s="67"/>
       <c r="I115" s="67"/>
       <c r="J115" s="66" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K115" s="66"/>
       <c r="L115" s="67"/>
@@ -31932,7 +31965,7 @@
       <c r="H284" s="67"/>
       <c r="I284" s="67"/>
       <c r="J284" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K284" s="66"/>
       <c r="L284" s="67"/>
@@ -31967,7 +32000,7 @@
       <c r="H285" s="67"/>
       <c r="I285" s="67"/>
       <c r="J285" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K285" s="66"/>
       <c r="L285" s="67"/>
@@ -32002,7 +32035,7 @@
       <c r="H286" s="67"/>
       <c r="I286" s="67"/>
       <c r="J286" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K286" s="66"/>
       <c r="L286" s="67"/>
@@ -32037,7 +32070,7 @@
       <c r="H287" s="67"/>
       <c r="I287" s="67"/>
       <c r="J287" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K287" s="66"/>
       <c r="L287" s="67"/>
@@ -32078,7 +32111,7 @@
       <c r="H288" s="67"/>
       <c r="I288" s="67"/>
       <c r="J288" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K288" s="66"/>
       <c r="L288" s="67"/>
@@ -32115,7 +32148,7 @@
       <c r="H289" s="67"/>
       <c r="I289" s="67"/>
       <c r="J289" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K289" s="66"/>
       <c r="L289" s="67"/>
@@ -32152,7 +32185,7 @@
       <c r="H290" s="67"/>
       <c r="I290" s="67"/>
       <c r="J290" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K290" s="66"/>
       <c r="L290" s="67"/>
@@ -32189,7 +32222,7 @@
       <c r="H291" s="67"/>
       <c r="I291" s="67"/>
       <c r="J291" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K291" s="66"/>
       <c r="L291" s="67"/>
@@ -32228,7 +32261,7 @@
       <c r="H292" s="67"/>
       <c r="I292" s="67"/>
       <c r="J292" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K292" s="66"/>
       <c r="L292" s="67"/>
@@ -32263,7 +32296,7 @@
       <c r="H293" s="67"/>
       <c r="I293" s="67"/>
       <c r="J293" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K293" s="66"/>
       <c r="L293" s="67"/>
@@ -32298,7 +32331,7 @@
       <c r="H294" s="67"/>
       <c r="I294" s="67"/>
       <c r="J294" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K294" s="66"/>
       <c r="L294" s="67"/>
@@ -32333,7 +32366,7 @@
       <c r="H295" s="67"/>
       <c r="I295" s="67"/>
       <c r="J295" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K295" s="66"/>
       <c r="L295" s="67"/>
@@ -32368,7 +32401,7 @@
       <c r="H296" s="67"/>
       <c r="I296" s="67"/>
       <c r="J296" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K296" s="66"/>
       <c r="L296" s="67"/>
@@ -32403,7 +32436,7 @@
       <c r="H297" s="67"/>
       <c r="I297" s="67"/>
       <c r="J297" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K297" s="66"/>
       <c r="L297" s="67"/>
@@ -32438,7 +32471,7 @@
       <c r="H298" s="67"/>
       <c r="I298" s="67"/>
       <c r="J298" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K298" s="66"/>
       <c r="L298" s="67"/>
@@ -32473,7 +32506,7 @@
       <c r="H299" s="67"/>
       <c r="I299" s="67"/>
       <c r="J299" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K299" s="66"/>
       <c r="L299" s="67"/>
@@ -32508,7 +32541,7 @@
       <c r="H300" s="170"/>
       <c r="I300" s="170"/>
       <c r="J300" s="166" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K300" s="169"/>
       <c r="L300" s="170"/>
@@ -32552,26 +32585,26 @@
         <v>501</v>
       </c>
       <c r="I301" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="J301" s="63" t="s">
         <v>534</v>
-      </c>
-      <c r="J301" s="63" t="s">
-        <v>535</v>
       </c>
       <c r="K301" s="63" t="s">
         <v>504</v>
       </c>
       <c r="L301" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M301" s="63"/>
       <c r="N301" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O301" s="174">
         <v>44858</v>
       </c>
       <c r="P301" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q301" s="63"/>
       <c r="R301" s="63"/>
@@ -32602,29 +32635,29 @@
       </c>
       <c r="G302" s="62"/>
       <c r="H302" s="131" t="s">
+        <v>514</v>
+      </c>
+      <c r="I302" s="131" t="s">
         <v>515</v>
-      </c>
-      <c r="I302" s="131" t="s">
-        <v>516</v>
       </c>
       <c r="J302" s="63" t="s">
         <v>503</v>
       </c>
       <c r="K302" s="63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L302" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M302" s="63"/>
       <c r="N302" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O302" s="174">
         <v>44858</v>
       </c>
       <c r="P302" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q302" s="63"/>
       <c r="R302" s="63"/>
@@ -32649,29 +32682,29 @@
       <c r="F303" s="134"/>
       <c r="G303" s="62"/>
       <c r="H303" s="131" t="s">
+        <v>514</v>
+      </c>
+      <c r="I303" s="131" t="s">
         <v>515</v>
       </c>
-      <c r="I303" s="131" t="s">
-        <v>516</v>
-      </c>
       <c r="J303" s="63" t="s">
+        <v>536</v>
+      </c>
+      <c r="K303" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="K303" s="63" t="s">
-        <v>538</v>
-      </c>
       <c r="L303" s="63" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M303" s="63"/>
       <c r="N303" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O303" s="174">
         <v>44858</v>
       </c>
       <c r="P303" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q303" s="63"/>
       <c r="R303" s="63"/>
@@ -32696,29 +32729,29 @@
       <c r="F304" s="135"/>
       <c r="G304" s="62"/>
       <c r="H304" s="131" t="s">
+        <v>514</v>
+      </c>
+      <c r="I304" s="131" t="s">
         <v>515</v>
       </c>
-      <c r="I304" s="131" t="s">
-        <v>516</v>
-      </c>
       <c r="J304" s="63" t="s">
+        <v>538</v>
+      </c>
+      <c r="K304" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="K304" s="63" t="s">
-        <v>540</v>
-      </c>
       <c r="L304" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M304" s="63"/>
       <c r="N304" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O304" s="174">
         <v>44858</v>
       </c>
       <c r="P304" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q304" s="63"/>
       <c r="R304" s="63"/>
@@ -32749,29 +32782,29 @@
       </c>
       <c r="G305" s="62"/>
       <c r="H305" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="I305" s="63" t="s">
         <v>515</v>
-      </c>
-      <c r="I305" s="63" t="s">
-        <v>516</v>
       </c>
       <c r="J305" s="63" t="s">
         <v>503</v>
       </c>
       <c r="K305" s="63" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L305" s="146" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M305" s="63"/>
       <c r="N305" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O305" s="174">
         <v>44858</v>
       </c>
       <c r="P305" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q305" s="63"/>
       <c r="R305" s="63"/>
@@ -32804,23 +32837,23 @@
         <v>506</v>
       </c>
       <c r="J306" s="63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K306" s="63" t="s">
         <v>508</v>
       </c>
       <c r="L306" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M306" s="63"/>
       <c r="N306" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O306" s="174">
         <v>44858</v>
       </c>
       <c r="P306" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q306" s="63"/>
       <c r="R306" s="63"/>
@@ -32851,23 +32884,23 @@
         <v>506</v>
       </c>
       <c r="J307" s="63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K307" s="63" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="L307" s="63" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M307" s="63"/>
       <c r="N307" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O307" s="174">
         <v>44858</v>
       </c>
       <c r="P307" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q307" s="63"/>
       <c r="R307" s="63"/>
@@ -32896,7 +32929,7 @@
       <c r="H308" s="67"/>
       <c r="I308" s="67"/>
       <c r="J308" s="67" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K308" s="67"/>
       <c r="L308" s="67"/>
@@ -32935,7 +32968,7 @@
       <c r="H309" s="67"/>
       <c r="I309" s="67"/>
       <c r="J309" s="67" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K309" s="67"/>
       <c r="L309" s="67"/>
@@ -32972,7 +33005,7 @@
       <c r="H310" s="67"/>
       <c r="I310" s="67"/>
       <c r="J310" s="67" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K310" s="67"/>
       <c r="L310" s="67"/>
@@ -33015,23 +33048,23 @@
         <v>506</v>
       </c>
       <c r="J311" s="63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K311" s="63" t="s">
         <v>508</v>
       </c>
       <c r="L311" s="146" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M311" s="63"/>
       <c r="N311" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O311" s="174">
         <v>44858</v>
       </c>
       <c r="P311" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q311" s="63"/>
       <c r="R311" s="63"/>
@@ -33062,23 +33095,23 @@
         <v>506</v>
       </c>
       <c r="J312" s="63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K312" s="63" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="L312" s="63" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M312" s="63"/>
       <c r="N312" s="173" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O312" s="174">
         <v>44858</v>
       </c>
       <c r="P312" s="174" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q312" s="63"/>
       <c r="R312" s="63"/>
@@ -33107,7 +33140,7 @@
       <c r="H313" s="67"/>
       <c r="I313" s="67"/>
       <c r="J313" s="67" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K313" s="67"/>
       <c r="L313" s="67"/>
@@ -33142,7 +33175,7 @@
       <c r="H314" s="67"/>
       <c r="I314" s="67"/>
       <c r="J314" s="67" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K314" s="67"/>
       <c r="L314" s="67"/>
@@ -33177,7 +33210,7 @@
       <c r="H315" s="67"/>
       <c r="I315" s="67"/>
       <c r="J315" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K315" s="67"/>
       <c r="L315" s="67"/>
@@ -33212,7 +33245,7 @@
       <c r="H316" s="67"/>
       <c r="I316" s="67"/>
       <c r="J316" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K316" s="67"/>
       <c r="L316" s="67"/>
@@ -33247,7 +33280,7 @@
       <c r="H317" s="67"/>
       <c r="I317" s="67"/>
       <c r="J317" s="67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K317" s="67"/>
       <c r="L317" s="67"/>
@@ -33282,7 +33315,7 @@
       <c r="H318" s="67"/>
       <c r="I318" s="67"/>
       <c r="J318" s="67" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K318" s="67"/>
       <c r="L318" s="67"/>
@@ -33317,7 +33350,7 @@
       <c r="H319" s="67"/>
       <c r="I319" s="67"/>
       <c r="J319" s="67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K319" s="67"/>
       <c r="L319" s="67"/>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A76A5-5641-4B38-A2B4-FD357476FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88ABB3F-A673-43ED-A613-9DA41AEFD254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7286,9 +7286,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm2()</t>
-  </si>
-  <si>
     <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientByIdThrowsNoDataException()</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7365,6 +7362,10 @@
   </si>
   <si>
     <t>testShowWithEmptyClientTable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm()</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8421,6 +8422,72 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8527,72 +8594,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10100,57 +10101,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="185" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="207" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="191" t="s">
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="200" t="s">
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="222" t="s">
         <v>496</v>
       </c>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="209" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="231" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="176" t="str">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="198" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10158,53 +10159,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="207" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="188" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="210" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="198" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10212,45 +10213,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="207"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="210"/>
-      <c r="AE3" s="210"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="231"/>
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="198"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10287,85 +10288,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="179" t="s">
+      <c r="C7" s="202"/>
+      <c r="D7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="179" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="181"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="179" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="179" t="s">
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="181"/>
-      <c r="S7" s="181"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="179" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="181"/>
-      <c r="AI7" s="180"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="202"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="231"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="232"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="196"/>
+      <c r="X8" s="196"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="196"/>
+      <c r="AD8" s="196"/>
+      <c r="AE8" s="197"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10373,1089 +10374,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="219"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="222"/>
-      <c r="V9" s="222"/>
-      <c r="W9" s="222"/>
-      <c r="X9" s="222"/>
-      <c r="Y9" s="222"/>
-      <c r="Z9" s="222"/>
-      <c r="AA9" s="222"/>
-      <c r="AB9" s="222"/>
-      <c r="AC9" s="222"/>
-      <c r="AD9" s="222"/>
-      <c r="AE9" s="223"/>
-      <c r="AF9" s="218"/>
-      <c r="AG9" s="219"/>
-      <c r="AH9" s="219"/>
-      <c r="AI9" s="220"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="187"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="183"/>
+      <c r="AH9" s="183"/>
+      <c r="AI9" s="184"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="222"/>
-      <c r="S10" s="222"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="222"/>
-      <c r="V10" s="222"/>
-      <c r="W10" s="222"/>
-      <c r="X10" s="222"/>
-      <c r="Y10" s="222"/>
-      <c r="Z10" s="222"/>
-      <c r="AA10" s="222"/>
-      <c r="AB10" s="222"/>
-      <c r="AC10" s="222"/>
-      <c r="AD10" s="222"/>
-      <c r="AE10" s="223"/>
-      <c r="AF10" s="218"/>
-      <c r="AG10" s="219"/>
-      <c r="AH10" s="219"/>
-      <c r="AI10" s="220"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="187"/>
+      <c r="AF10" s="182"/>
+      <c r="AG10" s="183"/>
+      <c r="AH10" s="183"/>
+      <c r="AI10" s="184"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="212"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="221"/>
-      <c r="R11" s="222"/>
-      <c r="S11" s="222"/>
-      <c r="T11" s="222"/>
-      <c r="U11" s="222"/>
-      <c r="V11" s="222"/>
-      <c r="W11" s="222"/>
-      <c r="X11" s="222"/>
-      <c r="Y11" s="222"/>
-      <c r="Z11" s="222"/>
-      <c r="AA11" s="222"/>
-      <c r="AB11" s="222"/>
-      <c r="AC11" s="222"/>
-      <c r="AD11" s="222"/>
-      <c r="AE11" s="223"/>
-      <c r="AF11" s="218"/>
-      <c r="AG11" s="219"/>
-      <c r="AH11" s="219"/>
-      <c r="AI11" s="220"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="186"/>
+      <c r="Y11" s="186"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="186"/>
+      <c r="AB11" s="186"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="186"/>
+      <c r="AE11" s="187"/>
+      <c r="AF11" s="182"/>
+      <c r="AG11" s="183"/>
+      <c r="AH11" s="183"/>
+      <c r="AI11" s="184"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="212"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="221"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="222"/>
-      <c r="V12" s="222"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="222"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="222"/>
-      <c r="AB12" s="222"/>
-      <c r="AC12" s="222"/>
-      <c r="AD12" s="222"/>
-      <c r="AE12" s="223"/>
-      <c r="AF12" s="218"/>
-      <c r="AG12" s="219"/>
-      <c r="AH12" s="219"/>
-      <c r="AI12" s="220"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="186"/>
+      <c r="Z12" s="186"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="186"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="187"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="183"/>
+      <c r="AH12" s="183"/>
+      <c r="AI12" s="184"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="221"/>
-      <c r="R13" s="222"/>
-      <c r="S13" s="222"/>
-      <c r="T13" s="222"/>
-      <c r="U13" s="222"/>
-      <c r="V13" s="222"/>
-      <c r="W13" s="222"/>
-      <c r="X13" s="222"/>
-      <c r="Y13" s="222"/>
-      <c r="Z13" s="222"/>
-      <c r="AA13" s="222"/>
-      <c r="AB13" s="222"/>
-      <c r="AC13" s="222"/>
-      <c r="AD13" s="222"/>
-      <c r="AE13" s="223"/>
-      <c r="AF13" s="218"/>
-      <c r="AG13" s="219"/>
-      <c r="AH13" s="219"/>
-      <c r="AI13" s="220"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="183"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="186"/>
+      <c r="AA13" s="186"/>
+      <c r="AB13" s="186"/>
+      <c r="AC13" s="186"/>
+      <c r="AD13" s="186"/>
+      <c r="AE13" s="187"/>
+      <c r="AF13" s="182"/>
+      <c r="AG13" s="183"/>
+      <c r="AH13" s="183"/>
+      <c r="AI13" s="184"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="222"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
-      <c r="U14" s="222"/>
-      <c r="V14" s="222"/>
-      <c r="W14" s="222"/>
-      <c r="X14" s="222"/>
-      <c r="Y14" s="222"/>
-      <c r="Z14" s="222"/>
-      <c r="AA14" s="222"/>
-      <c r="AB14" s="222"/>
-      <c r="AC14" s="222"/>
-      <c r="AD14" s="222"/>
-      <c r="AE14" s="223"/>
-      <c r="AF14" s="218"/>
-      <c r="AG14" s="219"/>
-      <c r="AH14" s="219"/>
-      <c r="AI14" s="220"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="186"/>
+      <c r="S14" s="186"/>
+      <c r="T14" s="186"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="186"/>
+      <c r="X14" s="186"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="186"/>
+      <c r="AA14" s="186"/>
+      <c r="AB14" s="186"/>
+      <c r="AC14" s="186"/>
+      <c r="AD14" s="186"/>
+      <c r="AE14" s="187"/>
+      <c r="AF14" s="182"/>
+      <c r="AG14" s="183"/>
+      <c r="AH14" s="183"/>
+      <c r="AI14" s="184"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="222"/>
-      <c r="T15" s="222"/>
-      <c r="U15" s="222"/>
-      <c r="V15" s="222"/>
-      <c r="W15" s="222"/>
-      <c r="X15" s="222"/>
-      <c r="Y15" s="222"/>
-      <c r="Z15" s="222"/>
-      <c r="AA15" s="222"/>
-      <c r="AB15" s="222"/>
-      <c r="AC15" s="222"/>
-      <c r="AD15" s="222"/>
-      <c r="AE15" s="223"/>
-      <c r="AF15" s="218"/>
-      <c r="AG15" s="219"/>
-      <c r="AH15" s="219"/>
-      <c r="AI15" s="220"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="186"/>
+      <c r="AA15" s="186"/>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="187"/>
+      <c r="AF15" s="182"/>
+      <c r="AG15" s="183"/>
+      <c r="AH15" s="183"/>
+      <c r="AI15" s="184"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="221"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="222"/>
-      <c r="Z16" s="222"/>
-      <c r="AA16" s="222"/>
-      <c r="AB16" s="222"/>
-      <c r="AC16" s="222"/>
-      <c r="AD16" s="222"/>
-      <c r="AE16" s="223"/>
-      <c r="AF16" s="218"/>
-      <c r="AG16" s="219"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="220"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="184"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="186"/>
+      <c r="AC16" s="186"/>
+      <c r="AD16" s="186"/>
+      <c r="AE16" s="187"/>
+      <c r="AF16" s="182"/>
+      <c r="AG16" s="183"/>
+      <c r="AH16" s="183"/>
+      <c r="AI16" s="184"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="219"/>
-      <c r="M17" s="219"/>
-      <c r="N17" s="219"/>
-      <c r="O17" s="219"/>
-      <c r="P17" s="220"/>
-      <c r="Q17" s="221"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="222"/>
-      <c r="U17" s="222"/>
-      <c r="V17" s="222"/>
-      <c r="W17" s="222"/>
-      <c r="X17" s="222"/>
-      <c r="Y17" s="222"/>
-      <c r="Z17" s="222"/>
-      <c r="AA17" s="222"/>
-      <c r="AB17" s="222"/>
-      <c r="AC17" s="222"/>
-      <c r="AD17" s="222"/>
-      <c r="AE17" s="223"/>
-      <c r="AF17" s="218"/>
-      <c r="AG17" s="219"/>
-      <c r="AH17" s="219"/>
-      <c r="AI17" s="220"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="186"/>
+      <c r="S17" s="186"/>
+      <c r="T17" s="186"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="186"/>
+      <c r="X17" s="186"/>
+      <c r="Y17" s="186"/>
+      <c r="Z17" s="186"/>
+      <c r="AA17" s="186"/>
+      <c r="AB17" s="186"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="186"/>
+      <c r="AE17" s="187"/>
+      <c r="AF17" s="182"/>
+      <c r="AG17" s="183"/>
+      <c r="AH17" s="183"/>
+      <c r="AI17" s="184"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="219"/>
-      <c r="N18" s="219"/>
-      <c r="O18" s="219"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="221"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222"/>
-      <c r="U18" s="222"/>
-      <c r="V18" s="222"/>
-      <c r="W18" s="222"/>
-      <c r="X18" s="222"/>
-      <c r="Y18" s="222"/>
-      <c r="Z18" s="222"/>
-      <c r="AA18" s="222"/>
-      <c r="AB18" s="222"/>
-      <c r="AC18" s="222"/>
-      <c r="AD18" s="222"/>
-      <c r="AE18" s="223"/>
-      <c r="AF18" s="218"/>
-      <c r="AG18" s="219"/>
-      <c r="AH18" s="219"/>
-      <c r="AI18" s="220"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="186"/>
+      <c r="U18" s="186"/>
+      <c r="V18" s="186"/>
+      <c r="W18" s="186"/>
+      <c r="X18" s="186"/>
+      <c r="Y18" s="186"/>
+      <c r="Z18" s="186"/>
+      <c r="AA18" s="186"/>
+      <c r="AB18" s="186"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="187"/>
+      <c r="AF18" s="182"/>
+      <c r="AG18" s="183"/>
+      <c r="AH18" s="183"/>
+      <c r="AI18" s="184"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="219"/>
-      <c r="N19" s="219"/>
-      <c r="O19" s="219"/>
-      <c r="P19" s="220"/>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="222"/>
-      <c r="V19" s="222"/>
-      <c r="W19" s="222"/>
-      <c r="X19" s="222"/>
-      <c r="Y19" s="222"/>
-      <c r="Z19" s="222"/>
-      <c r="AA19" s="222"/>
-      <c r="AB19" s="222"/>
-      <c r="AC19" s="222"/>
-      <c r="AD19" s="222"/>
-      <c r="AE19" s="223"/>
-      <c r="AF19" s="218"/>
-      <c r="AG19" s="219"/>
-      <c r="AH19" s="219"/>
-      <c r="AI19" s="220"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="186"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="186"/>
+      <c r="AA19" s="186"/>
+      <c r="AB19" s="186"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="187"/>
+      <c r="AF19" s="182"/>
+      <c r="AG19" s="183"/>
+      <c r="AH19" s="183"/>
+      <c r="AI19" s="184"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="219"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="219"/>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="221"/>
-      <c r="R20" s="222"/>
-      <c r="S20" s="222"/>
-      <c r="T20" s="222"/>
-      <c r="U20" s="222"/>
-      <c r="V20" s="222"/>
-      <c r="W20" s="222"/>
-      <c r="X20" s="222"/>
-      <c r="Y20" s="222"/>
-      <c r="Z20" s="222"/>
-      <c r="AA20" s="222"/>
-      <c r="AB20" s="222"/>
-      <c r="AC20" s="222"/>
-      <c r="AD20" s="222"/>
-      <c r="AE20" s="223"/>
-      <c r="AF20" s="218"/>
-      <c r="AG20" s="219"/>
-      <c r="AH20" s="219"/>
-      <c r="AI20" s="220"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="184"/>
+      <c r="Q20" s="185"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="186"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="186"/>
+      <c r="Z20" s="186"/>
+      <c r="AA20" s="186"/>
+      <c r="AB20" s="186"/>
+      <c r="AC20" s="186"/>
+      <c r="AD20" s="186"/>
+      <c r="AE20" s="187"/>
+      <c r="AF20" s="182"/>
+      <c r="AG20" s="183"/>
+      <c r="AH20" s="183"/>
+      <c r="AI20" s="184"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="219"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="219"/>
-      <c r="P21" s="220"/>
-      <c r="Q21" s="221"/>
-      <c r="R21" s="222"/>
-      <c r="S21" s="222"/>
-      <c r="T21" s="222"/>
-      <c r="U21" s="222"/>
-      <c r="V21" s="222"/>
-      <c r="W21" s="222"/>
-      <c r="X21" s="222"/>
-      <c r="Y21" s="222"/>
-      <c r="Z21" s="222"/>
-      <c r="AA21" s="222"/>
-      <c r="AB21" s="222"/>
-      <c r="AC21" s="222"/>
-      <c r="AD21" s="222"/>
-      <c r="AE21" s="223"/>
-      <c r="AF21" s="218"/>
-      <c r="AG21" s="219"/>
-      <c r="AH21" s="219"/>
-      <c r="AI21" s="220"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="185"/>
+      <c r="R21" s="186"/>
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
+      <c r="U21" s="186"/>
+      <c r="V21" s="186"/>
+      <c r="W21" s="186"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="186"/>
+      <c r="Z21" s="186"/>
+      <c r="AA21" s="186"/>
+      <c r="AB21" s="186"/>
+      <c r="AC21" s="186"/>
+      <c r="AD21" s="186"/>
+      <c r="AE21" s="187"/>
+      <c r="AF21" s="182"/>
+      <c r="AG21" s="183"/>
+      <c r="AH21" s="183"/>
+      <c r="AI21" s="184"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="212"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="222"/>
-      <c r="S22" s="222"/>
-      <c r="T22" s="222"/>
-      <c r="U22" s="222"/>
-      <c r="V22" s="222"/>
-      <c r="W22" s="222"/>
-      <c r="X22" s="222"/>
-      <c r="Y22" s="222"/>
-      <c r="Z22" s="222"/>
-      <c r="AA22" s="222"/>
-      <c r="AB22" s="222"/>
-      <c r="AC22" s="222"/>
-      <c r="AD22" s="222"/>
-      <c r="AE22" s="223"/>
-      <c r="AF22" s="218"/>
-      <c r="AG22" s="219"/>
-      <c r="AH22" s="219"/>
-      <c r="AI22" s="220"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="185"/>
+      <c r="R22" s="186"/>
+      <c r="S22" s="186"/>
+      <c r="T22" s="186"/>
+      <c r="U22" s="186"/>
+      <c r="V22" s="186"/>
+      <c r="W22" s="186"/>
+      <c r="X22" s="186"/>
+      <c r="Y22" s="186"/>
+      <c r="Z22" s="186"/>
+      <c r="AA22" s="186"/>
+      <c r="AB22" s="186"/>
+      <c r="AC22" s="186"/>
+      <c r="AD22" s="186"/>
+      <c r="AE22" s="187"/>
+      <c r="AF22" s="182"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="183"/>
+      <c r="AI22" s="184"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="219"/>
-      <c r="O23" s="219"/>
-      <c r="P23" s="220"/>
-      <c r="Q23" s="221"/>
-      <c r="R23" s="222"/>
-      <c r="S23" s="222"/>
-      <c r="T23" s="222"/>
-      <c r="U23" s="222"/>
-      <c r="V23" s="222"/>
-      <c r="W23" s="222"/>
-      <c r="X23" s="222"/>
-      <c r="Y23" s="222"/>
-      <c r="Z23" s="222"/>
-      <c r="AA23" s="222"/>
-      <c r="AB23" s="222"/>
-      <c r="AC23" s="222"/>
-      <c r="AD23" s="222"/>
-      <c r="AE23" s="223"/>
-      <c r="AF23" s="218"/>
-      <c r="AG23" s="219"/>
-      <c r="AH23" s="219"/>
-      <c r="AI23" s="220"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="186"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
+      <c r="U23" s="186"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="186"/>
+      <c r="X23" s="186"/>
+      <c r="Y23" s="186"/>
+      <c r="Z23" s="186"/>
+      <c r="AA23" s="186"/>
+      <c r="AB23" s="186"/>
+      <c r="AC23" s="186"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="187"/>
+      <c r="AF23" s="182"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="183"/>
+      <c r="AI23" s="184"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
-      <c r="P24" s="220"/>
-      <c r="Q24" s="221"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="222"/>
-      <c r="U24" s="222"/>
-      <c r="V24" s="222"/>
-      <c r="W24" s="222"/>
-      <c r="X24" s="222"/>
-      <c r="Y24" s="222"/>
-      <c r="Z24" s="222"/>
-      <c r="AA24" s="222"/>
-      <c r="AB24" s="222"/>
-      <c r="AC24" s="222"/>
-      <c r="AD24" s="222"/>
-      <c r="AE24" s="223"/>
-      <c r="AF24" s="218"/>
-      <c r="AG24" s="219"/>
-      <c r="AH24" s="219"/>
-      <c r="AI24" s="220"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="186"/>
+      <c r="U24" s="186"/>
+      <c r="V24" s="186"/>
+      <c r="W24" s="186"/>
+      <c r="X24" s="186"/>
+      <c r="Y24" s="186"/>
+      <c r="Z24" s="186"/>
+      <c r="AA24" s="186"/>
+      <c r="AB24" s="186"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="186"/>
+      <c r="AE24" s="187"/>
+      <c r="AF24" s="182"/>
+      <c r="AG24" s="183"/>
+      <c r="AH24" s="183"/>
+      <c r="AI24" s="184"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="218"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="219"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="219"/>
-      <c r="O25" s="219"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="222"/>
-      <c r="S25" s="222"/>
-      <c r="T25" s="222"/>
-      <c r="U25" s="222"/>
-      <c r="V25" s="222"/>
-      <c r="W25" s="222"/>
-      <c r="X25" s="222"/>
-      <c r="Y25" s="222"/>
-      <c r="Z25" s="222"/>
-      <c r="AA25" s="222"/>
-      <c r="AB25" s="222"/>
-      <c r="AC25" s="222"/>
-      <c r="AD25" s="222"/>
-      <c r="AE25" s="223"/>
-      <c r="AF25" s="218"/>
-      <c r="AG25" s="219"/>
-      <c r="AH25" s="219"/>
-      <c r="AI25" s="220"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="186"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="186"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="186"/>
+      <c r="W25" s="186"/>
+      <c r="X25" s="186"/>
+      <c r="Y25" s="186"/>
+      <c r="Z25" s="186"/>
+      <c r="AA25" s="186"/>
+      <c r="AB25" s="186"/>
+      <c r="AC25" s="186"/>
+      <c r="AD25" s="186"/>
+      <c r="AE25" s="187"/>
+      <c r="AF25" s="182"/>
+      <c r="AG25" s="183"/>
+      <c r="AH25" s="183"/>
+      <c r="AI25" s="184"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
-      <c r="N26" s="219"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="220"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="222"/>
-      <c r="S26" s="222"/>
-      <c r="T26" s="222"/>
-      <c r="U26" s="222"/>
-      <c r="V26" s="222"/>
-      <c r="W26" s="222"/>
-      <c r="X26" s="222"/>
-      <c r="Y26" s="222"/>
-      <c r="Z26" s="222"/>
-      <c r="AA26" s="222"/>
-      <c r="AB26" s="222"/>
-      <c r="AC26" s="222"/>
-      <c r="AD26" s="222"/>
-      <c r="AE26" s="223"/>
-      <c r="AF26" s="218"/>
-      <c r="AG26" s="219"/>
-      <c r="AH26" s="219"/>
-      <c r="AI26" s="220"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="186"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="186"/>
+      <c r="U26" s="186"/>
+      <c r="V26" s="186"/>
+      <c r="W26" s="186"/>
+      <c r="X26" s="186"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="186"/>
+      <c r="AA26" s="186"/>
+      <c r="AB26" s="186"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="187"/>
+      <c r="AF26" s="182"/>
+      <c r="AG26" s="183"/>
+      <c r="AH26" s="183"/>
+      <c r="AI26" s="184"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="218"/>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="220"/>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="222"/>
-      <c r="S27" s="222"/>
-      <c r="T27" s="222"/>
-      <c r="U27" s="222"/>
-      <c r="V27" s="222"/>
-      <c r="W27" s="222"/>
-      <c r="X27" s="222"/>
-      <c r="Y27" s="222"/>
-      <c r="Z27" s="222"/>
-      <c r="AA27" s="222"/>
-      <c r="AB27" s="222"/>
-      <c r="AC27" s="222"/>
-      <c r="AD27" s="222"/>
-      <c r="AE27" s="223"/>
-      <c r="AF27" s="218"/>
-      <c r="AG27" s="219"/>
-      <c r="AH27" s="219"/>
-      <c r="AI27" s="220"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="187"/>
+      <c r="AF27" s="182"/>
+      <c r="AG27" s="183"/>
+      <c r="AH27" s="183"/>
+      <c r="AI27" s="184"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="218"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
-      <c r="N28" s="219"/>
-      <c r="O28" s="219"/>
-      <c r="P28" s="220"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="222"/>
-      <c r="S28" s="222"/>
-      <c r="T28" s="222"/>
-      <c r="U28" s="222"/>
-      <c r="V28" s="222"/>
-      <c r="W28" s="222"/>
-      <c r="X28" s="222"/>
-      <c r="Y28" s="222"/>
-      <c r="Z28" s="222"/>
-      <c r="AA28" s="222"/>
-      <c r="AB28" s="222"/>
-      <c r="AC28" s="222"/>
-      <c r="AD28" s="222"/>
-      <c r="AE28" s="223"/>
-      <c r="AF28" s="218"/>
-      <c r="AG28" s="219"/>
-      <c r="AH28" s="219"/>
-      <c r="AI28" s="220"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="186"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="186"/>
+      <c r="U28" s="186"/>
+      <c r="V28" s="186"/>
+      <c r="W28" s="186"/>
+      <c r="X28" s="186"/>
+      <c r="Y28" s="186"/>
+      <c r="Z28" s="186"/>
+      <c r="AA28" s="186"/>
+      <c r="AB28" s="186"/>
+      <c r="AC28" s="186"/>
+      <c r="AD28" s="186"/>
+      <c r="AE28" s="187"/>
+      <c r="AF28" s="182"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="183"/>
+      <c r="AI28" s="184"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="219"/>
-      <c r="P29" s="220"/>
-      <c r="Q29" s="221"/>
-      <c r="R29" s="222"/>
-      <c r="S29" s="222"/>
-      <c r="T29" s="222"/>
-      <c r="U29" s="222"/>
-      <c r="V29" s="222"/>
-      <c r="W29" s="222"/>
-      <c r="X29" s="222"/>
-      <c r="Y29" s="222"/>
-      <c r="Z29" s="222"/>
-      <c r="AA29" s="222"/>
-      <c r="AB29" s="222"/>
-      <c r="AC29" s="222"/>
-      <c r="AD29" s="222"/>
-      <c r="AE29" s="223"/>
-      <c r="AF29" s="218"/>
-      <c r="AG29" s="219"/>
-      <c r="AH29" s="219"/>
-      <c r="AI29" s="220"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="186"/>
+      <c r="S29" s="186"/>
+      <c r="T29" s="186"/>
+      <c r="U29" s="186"/>
+      <c r="V29" s="186"/>
+      <c r="W29" s="186"/>
+      <c r="X29" s="186"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="186"/>
+      <c r="AA29" s="186"/>
+      <c r="AB29" s="186"/>
+      <c r="AC29" s="186"/>
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="187"/>
+      <c r="AF29" s="182"/>
+      <c r="AG29" s="183"/>
+      <c r="AH29" s="183"/>
+      <c r="AI29" s="184"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="218"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="219"/>
-      <c r="M30" s="219"/>
-      <c r="N30" s="219"/>
-      <c r="O30" s="219"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="221"/>
-      <c r="R30" s="222"/>
-      <c r="S30" s="222"/>
-      <c r="T30" s="222"/>
-      <c r="U30" s="222"/>
-      <c r="V30" s="222"/>
-      <c r="W30" s="222"/>
-      <c r="X30" s="222"/>
-      <c r="Y30" s="222"/>
-      <c r="Z30" s="222"/>
-      <c r="AA30" s="222"/>
-      <c r="AB30" s="222"/>
-      <c r="AC30" s="222"/>
-      <c r="AD30" s="222"/>
-      <c r="AE30" s="223"/>
-      <c r="AF30" s="218"/>
-      <c r="AG30" s="219"/>
-      <c r="AH30" s="219"/>
-      <c r="AI30" s="220"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="186"/>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="186"/>
+      <c r="X30" s="186"/>
+      <c r="Y30" s="186"/>
+      <c r="Z30" s="186"/>
+      <c r="AA30" s="186"/>
+      <c r="AB30" s="186"/>
+      <c r="AC30" s="186"/>
+      <c r="AD30" s="186"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="182"/>
+      <c r="AG30" s="183"/>
+      <c r="AH30" s="183"/>
+      <c r="AI30" s="184"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="219"/>
-      <c r="O31" s="219"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="221"/>
-      <c r="R31" s="222"/>
-      <c r="S31" s="222"/>
-      <c r="T31" s="222"/>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222"/>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222"/>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222"/>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222"/>
-      <c r="AC31" s="222"/>
-      <c r="AD31" s="222"/>
-      <c r="AE31" s="223"/>
-      <c r="AF31" s="218"/>
-      <c r="AG31" s="219"/>
-      <c r="AH31" s="219"/>
-      <c r="AI31" s="220"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="186"/>
+      <c r="Y31" s="186"/>
+      <c r="Z31" s="186"/>
+      <c r="AA31" s="186"/>
+      <c r="AB31" s="186"/>
+      <c r="AC31" s="186"/>
+      <c r="AD31" s="186"/>
+      <c r="AE31" s="187"/>
+      <c r="AF31" s="182"/>
+      <c r="AG31" s="183"/>
+      <c r="AH31" s="183"/>
+      <c r="AI31" s="184"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="212"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="222"/>
-      <c r="W32" s="222"/>
-      <c r="X32" s="222"/>
-      <c r="Y32" s="222"/>
-      <c r="Z32" s="222"/>
-      <c r="AA32" s="222"/>
-      <c r="AB32" s="222"/>
-      <c r="AC32" s="222"/>
-      <c r="AD32" s="222"/>
-      <c r="AE32" s="223"/>
-      <c r="AF32" s="218"/>
-      <c r="AG32" s="219"/>
-      <c r="AH32" s="219"/>
-      <c r="AI32" s="220"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="186"/>
+      <c r="U32" s="186"/>
+      <c r="V32" s="186"/>
+      <c r="W32" s="186"/>
+      <c r="X32" s="186"/>
+      <c r="Y32" s="186"/>
+      <c r="Z32" s="186"/>
+      <c r="AA32" s="186"/>
+      <c r="AB32" s="186"/>
+      <c r="AC32" s="186"/>
+      <c r="AD32" s="186"/>
+      <c r="AE32" s="187"/>
+      <c r="AF32" s="182"/>
+      <c r="AG32" s="183"/>
+      <c r="AH32" s="183"/>
+      <c r="AI32" s="184"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="218"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="219"/>
-      <c r="N33" s="219"/>
-      <c r="O33" s="219"/>
-      <c r="P33" s="220"/>
-      <c r="Q33" s="221"/>
-      <c r="R33" s="222"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="222"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="222"/>
-      <c r="W33" s="222"/>
-      <c r="X33" s="222"/>
-      <c r="Y33" s="222"/>
-      <c r="Z33" s="222"/>
-      <c r="AA33" s="222"/>
-      <c r="AB33" s="222"/>
-      <c r="AC33" s="222"/>
-      <c r="AD33" s="222"/>
-      <c r="AE33" s="223"/>
-      <c r="AF33" s="218"/>
-      <c r="AG33" s="219"/>
-      <c r="AH33" s="219"/>
-      <c r="AI33" s="220"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="185"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="186"/>
+      <c r="V33" s="186"/>
+      <c r="W33" s="186"/>
+      <c r="X33" s="186"/>
+      <c r="Y33" s="186"/>
+      <c r="Z33" s="186"/>
+      <c r="AA33" s="186"/>
+      <c r="AB33" s="186"/>
+      <c r="AC33" s="186"/>
+      <c r="AD33" s="186"/>
+      <c r="AE33" s="187"/>
+      <c r="AF33" s="182"/>
+      <c r="AG33" s="183"/>
+      <c r="AH33" s="183"/>
+      <c r="AI33" s="184"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11479,6 +11325,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -12743,7 +12744,7 @@
         <v>510</v>
       </c>
       <c r="L41" s="144" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M41" s="173" t="s">
         <v>547</v>
@@ -23034,7 +23035,7 @@
         <v>506</v>
       </c>
       <c r="J42" s="144" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K42" s="144" t="s">
         <v>513</v>
@@ -24640,10 +24641,10 @@
         <v>508</v>
       </c>
       <c r="L83" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="M83" s="63" t="s">
         <v>558</v>
-      </c>
-      <c r="M83" s="63" t="s">
-        <v>559</v>
       </c>
       <c r="N83" s="173" t="s">
         <v>547</v>
@@ -32694,7 +32695,7 @@
         <v>537</v>
       </c>
       <c r="L303" s="63" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M303" s="63"/>
       <c r="N303" s="173" t="s">
@@ -32887,10 +32888,10 @@
         <v>536</v>
       </c>
       <c r="K307" s="63" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L307" s="63" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M307" s="63"/>
       <c r="N307" s="173" t="s">
@@ -33098,10 +33099,10 @@
         <v>536</v>
       </c>
       <c r="K312" s="63" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L312" s="63" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M312" s="63"/>
       <c r="N312" s="173" t="s">

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88ABB3F-A673-43ED-A613-9DA41AEFD254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6B883-77D3-4B74-B447-4EE8E625FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="559">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -7305,34 +7305,6 @@
       <t>コキャク</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以下のレスポンスが返される。
-・ステータスコード：400
-・障害コード：FB1999901
-・メッセージ：clientId:数値を入力してください。clientId:数値を入力してください。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウガイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>以下のレスポンスが返される。
@@ -8422,72 +8394,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8594,6 +8500,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10101,57 +10073,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="207" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="185" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="222" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="200" t="s">
         <v>496</v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="231" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="209" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="198" t="str">
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="176" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10159,53 +10131,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="207" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="210" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="188" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="176" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10213,45 +10185,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="211"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10288,85 +10260,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="201" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="201" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="201" t="s">
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="201" t="s">
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="202"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="180"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="196"/>
-      <c r="Z8" s="196"/>
-      <c r="AA8" s="196"/>
-      <c r="AB8" s="196"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="196"/>
-      <c r="AE8" s="197"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="232"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10374,934 +10346,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="186"/>
-      <c r="Y9" s="186"/>
-      <c r="Z9" s="186"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="186"/>
-      <c r="AE9" s="187"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="183"/>
-      <c r="AH9" s="183"/>
-      <c r="AI9" s="184"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="222"/>
+      <c r="X9" s="222"/>
+      <c r="Y9" s="222"/>
+      <c r="Z9" s="222"/>
+      <c r="AA9" s="222"/>
+      <c r="AB9" s="222"/>
+      <c r="AC9" s="222"/>
+      <c r="AD9" s="222"/>
+      <c r="AE9" s="223"/>
+      <c r="AF9" s="218"/>
+      <c r="AG9" s="219"/>
+      <c r="AH9" s="219"/>
+      <c r="AI9" s="220"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="186"/>
-      <c r="Y10" s="186"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="187"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="183"/>
-      <c r="AI10" s="184"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="219"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="222"/>
+      <c r="AE10" s="223"/>
+      <c r="AF10" s="218"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="219"/>
+      <c r="AI10" s="220"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="184"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="186"/>
-      <c r="Y11" s="186"/>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="186"/>
-      <c r="AB11" s="186"/>
-      <c r="AC11" s="186"/>
-      <c r="AD11" s="186"/>
-      <c r="AE11" s="187"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="183"/>
-      <c r="AH11" s="183"/>
-      <c r="AI11" s="184"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="219"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="221"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="222"/>
+      <c r="X11" s="222"/>
+      <c r="Y11" s="222"/>
+      <c r="Z11" s="222"/>
+      <c r="AA11" s="222"/>
+      <c r="AB11" s="222"/>
+      <c r="AC11" s="222"/>
+      <c r="AD11" s="222"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="218"/>
+      <c r="AG11" s="219"/>
+      <c r="AH11" s="219"/>
+      <c r="AI11" s="220"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="184"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="187"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="183"/>
-      <c r="AH12" s="183"/>
-      <c r="AI12" s="184"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="219"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="219"/>
+      <c r="P12" s="220"/>
+      <c r="Q12" s="221"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="222"/>
+      <c r="V12" s="222"/>
+      <c r="W12" s="222"/>
+      <c r="X12" s="222"/>
+      <c r="Y12" s="222"/>
+      <c r="Z12" s="222"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="222"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="222"/>
+      <c r="AE12" s="223"/>
+      <c r="AF12" s="218"/>
+      <c r="AG12" s="219"/>
+      <c r="AH12" s="219"/>
+      <c r="AI12" s="220"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="184"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="186"/>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
-      <c r="AD13" s="186"/>
-      <c r="AE13" s="187"/>
-      <c r="AF13" s="182"/>
-      <c r="AG13" s="183"/>
-      <c r="AH13" s="183"/>
-      <c r="AI13" s="184"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="219"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="219"/>
+      <c r="N13" s="219"/>
+      <c r="O13" s="219"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="222"/>
+      <c r="S13" s="222"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222"/>
+      <c r="Y13" s="222"/>
+      <c r="Z13" s="222"/>
+      <c r="AA13" s="222"/>
+      <c r="AB13" s="222"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="222"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="218"/>
+      <c r="AG13" s="219"/>
+      <c r="AH13" s="219"/>
+      <c r="AI13" s="220"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="186"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="186"/>
-      <c r="AA14" s="186"/>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="186"/>
-      <c r="AE14" s="187"/>
-      <c r="AF14" s="182"/>
-      <c r="AG14" s="183"/>
-      <c r="AH14" s="183"/>
-      <c r="AI14" s="184"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="222"/>
+      <c r="W14" s="222"/>
+      <c r="X14" s="222"/>
+      <c r="Y14" s="222"/>
+      <c r="Z14" s="222"/>
+      <c r="AA14" s="222"/>
+      <c r="AB14" s="222"/>
+      <c r="AC14" s="222"/>
+      <c r="AD14" s="222"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="218"/>
+      <c r="AG14" s="219"/>
+      <c r="AH14" s="219"/>
+      <c r="AI14" s="220"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="186"/>
-      <c r="S15" s="186"/>
-      <c r="T15" s="186"/>
-      <c r="U15" s="186"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="186"/>
-      <c r="X15" s="186"/>
-      <c r="Y15" s="186"/>
-      <c r="Z15" s="186"/>
-      <c r="AA15" s="186"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="187"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="183"/>
-      <c r="AH15" s="183"/>
-      <c r="AI15" s="184"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="221"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="222"/>
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="222"/>
+      <c r="Y15" s="222"/>
+      <c r="Z15" s="222"/>
+      <c r="AA15" s="222"/>
+      <c r="AB15" s="222"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="218"/>
+      <c r="AG15" s="219"/>
+      <c r="AH15" s="219"/>
+      <c r="AI15" s="220"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="184"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="187"/>
-      <c r="AF16" s="182"/>
-      <c r="AG16" s="183"/>
-      <c r="AH16" s="183"/>
-      <c r="AI16" s="184"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="220"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="222"/>
+      <c r="Z16" s="222"/>
+      <c r="AA16" s="222"/>
+      <c r="AB16" s="222"/>
+      <c r="AC16" s="222"/>
+      <c r="AD16" s="222"/>
+      <c r="AE16" s="223"/>
+      <c r="AF16" s="218"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="219"/>
+      <c r="AI16" s="220"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="186"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="186"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="186"/>
-      <c r="W17" s="186"/>
-      <c r="X17" s="186"/>
-      <c r="Y17" s="186"/>
-      <c r="Z17" s="186"/>
-      <c r="AA17" s="186"/>
-      <c r="AB17" s="186"/>
-      <c r="AC17" s="186"/>
-      <c r="AD17" s="186"/>
-      <c r="AE17" s="187"/>
-      <c r="AF17" s="182"/>
-      <c r="AG17" s="183"/>
-      <c r="AH17" s="183"/>
-      <c r="AI17" s="184"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="220"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="222"/>
+      <c r="S17" s="222"/>
+      <c r="T17" s="222"/>
+      <c r="U17" s="222"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
+      <c r="X17" s="222"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="222"/>
+      <c r="AA17" s="222"/>
+      <c r="AB17" s="222"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="222"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="218"/>
+      <c r="AG17" s="219"/>
+      <c r="AH17" s="219"/>
+      <c r="AI17" s="220"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="186"/>
-      <c r="T18" s="186"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="186"/>
-      <c r="W18" s="186"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="186"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="186"/>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="186"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="187"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="183"/>
-      <c r="AH18" s="183"/>
-      <c r="AI18" s="184"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
+      <c r="U18" s="222"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
+      <c r="X18" s="222"/>
+      <c r="Y18" s="222"/>
+      <c r="Z18" s="222"/>
+      <c r="AA18" s="222"/>
+      <c r="AB18" s="222"/>
+      <c r="AC18" s="222"/>
+      <c r="AD18" s="222"/>
+      <c r="AE18" s="223"/>
+      <c r="AF18" s="218"/>
+      <c r="AG18" s="219"/>
+      <c r="AH18" s="219"/>
+      <c r="AI18" s="220"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="184"/>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="186"/>
-      <c r="AA19" s="186"/>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="186"/>
-      <c r="AE19" s="187"/>
-      <c r="AF19" s="182"/>
-      <c r="AG19" s="183"/>
-      <c r="AH19" s="183"/>
-      <c r="AI19" s="184"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="222"/>
+      <c r="S19" s="222"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="222"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
+      <c r="X19" s="222"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="222"/>
+      <c r="AA19" s="222"/>
+      <c r="AB19" s="222"/>
+      <c r="AC19" s="222"/>
+      <c r="AD19" s="222"/>
+      <c r="AE19" s="223"/>
+      <c r="AF19" s="218"/>
+      <c r="AG19" s="219"/>
+      <c r="AH19" s="219"/>
+      <c r="AI19" s="220"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="184"/>
-      <c r="Q20" s="185"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="186"/>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="186"/>
-      <c r="Z20" s="186"/>
-      <c r="AA20" s="186"/>
-      <c r="AB20" s="186"/>
-      <c r="AC20" s="186"/>
-      <c r="AD20" s="186"/>
-      <c r="AE20" s="187"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="183"/>
-      <c r="AH20" s="183"/>
-      <c r="AI20" s="184"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="221"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="222"/>
+      <c r="U20" s="222"/>
+      <c r="V20" s="222"/>
+      <c r="W20" s="222"/>
+      <c r="X20" s="222"/>
+      <c r="Y20" s="222"/>
+      <c r="Z20" s="222"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="222"/>
+      <c r="AC20" s="222"/>
+      <c r="AD20" s="222"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="218"/>
+      <c r="AG20" s="219"/>
+      <c r="AH20" s="219"/>
+      <c r="AI20" s="220"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="185"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="186"/>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
-      <c r="AD21" s="186"/>
-      <c r="AE21" s="187"/>
-      <c r="AF21" s="182"/>
-      <c r="AG21" s="183"/>
-      <c r="AH21" s="183"/>
-      <c r="AI21" s="184"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="219"/>
+      <c r="P21" s="220"/>
+      <c r="Q21" s="221"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
+      <c r="T21" s="222"/>
+      <c r="U21" s="222"/>
+      <c r="V21" s="222"/>
+      <c r="W21" s="222"/>
+      <c r="X21" s="222"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="222"/>
+      <c r="AA21" s="222"/>
+      <c r="AB21" s="222"/>
+      <c r="AC21" s="222"/>
+      <c r="AD21" s="222"/>
+      <c r="AE21" s="223"/>
+      <c r="AF21" s="218"/>
+      <c r="AG21" s="219"/>
+      <c r="AH21" s="219"/>
+      <c r="AI21" s="220"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="185"/>
-      <c r="R22" s="186"/>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
-      <c r="U22" s="186"/>
-      <c r="V22" s="186"/>
-      <c r="W22" s="186"/>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="186"/>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
-      <c r="AD22" s="186"/>
-      <c r="AE22" s="187"/>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="183"/>
-      <c r="AI22" s="184"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="222"/>
+      <c r="S22" s="222"/>
+      <c r="T22" s="222"/>
+      <c r="U22" s="222"/>
+      <c r="V22" s="222"/>
+      <c r="W22" s="222"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="222"/>
+      <c r="Z22" s="222"/>
+      <c r="AA22" s="222"/>
+      <c r="AB22" s="222"/>
+      <c r="AC22" s="222"/>
+      <c r="AD22" s="222"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="218"/>
+      <c r="AG22" s="219"/>
+      <c r="AH22" s="219"/>
+      <c r="AI22" s="220"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="186"/>
-      <c r="X23" s="186"/>
-      <c r="Y23" s="186"/>
-      <c r="Z23" s="186"/>
-      <c r="AA23" s="186"/>
-      <c r="AB23" s="186"/>
-      <c r="AC23" s="186"/>
-      <c r="AD23" s="186"/>
-      <c r="AE23" s="187"/>
-      <c r="AF23" s="182"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="183"/>
-      <c r="AI23" s="184"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="219"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="222"/>
+      <c r="S23" s="222"/>
+      <c r="T23" s="222"/>
+      <c r="U23" s="222"/>
+      <c r="V23" s="222"/>
+      <c r="W23" s="222"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="222"/>
+      <c r="Z23" s="222"/>
+      <c r="AA23" s="222"/>
+      <c r="AB23" s="222"/>
+      <c r="AC23" s="222"/>
+      <c r="AD23" s="222"/>
+      <c r="AE23" s="223"/>
+      <c r="AF23" s="218"/>
+      <c r="AG23" s="219"/>
+      <c r="AH23" s="219"/>
+      <c r="AI23" s="220"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="185"/>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-      <c r="V24" s="186"/>
-      <c r="W24" s="186"/>
-      <c r="X24" s="186"/>
-      <c r="Y24" s="186"/>
-      <c r="Z24" s="186"/>
-      <c r="AA24" s="186"/>
-      <c r="AB24" s="186"/>
-      <c r="AC24" s="186"/>
-      <c r="AD24" s="186"/>
-      <c r="AE24" s="187"/>
-      <c r="AF24" s="182"/>
-      <c r="AG24" s="183"/>
-      <c r="AH24" s="183"/>
-      <c r="AI24" s="184"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
+      <c r="P24" s="220"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
+      <c r="U24" s="222"/>
+      <c r="V24" s="222"/>
+      <c r="W24" s="222"/>
+      <c r="X24" s="222"/>
+      <c r="Y24" s="222"/>
+      <c r="Z24" s="222"/>
+      <c r="AA24" s="222"/>
+      <c r="AB24" s="222"/>
+      <c r="AC24" s="222"/>
+      <c r="AD24" s="222"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="218"/>
+      <c r="AG24" s="219"/>
+      <c r="AH24" s="219"/>
+      <c r="AI24" s="220"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="186"/>
-      <c r="AB25" s="186"/>
-      <c r="AC25" s="186"/>
-      <c r="AD25" s="186"/>
-      <c r="AE25" s="187"/>
-      <c r="AF25" s="182"/>
-      <c r="AG25" s="183"/>
-      <c r="AH25" s="183"/>
-      <c r="AI25" s="184"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="222"/>
+      <c r="S25" s="222"/>
+      <c r="T25" s="222"/>
+      <c r="U25" s="222"/>
+      <c r="V25" s="222"/>
+      <c r="W25" s="222"/>
+      <c r="X25" s="222"/>
+      <c r="Y25" s="222"/>
+      <c r="Z25" s="222"/>
+      <c r="AA25" s="222"/>
+      <c r="AB25" s="222"/>
+      <c r="AC25" s="222"/>
+      <c r="AD25" s="222"/>
+      <c r="AE25" s="223"/>
+      <c r="AF25" s="218"/>
+      <c r="AG25" s="219"/>
+      <c r="AH25" s="219"/>
+      <c r="AI25" s="220"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="186"/>
-      <c r="X26" s="186"/>
-      <c r="Y26" s="186"/>
-      <c r="Z26" s="186"/>
-      <c r="AA26" s="186"/>
-      <c r="AB26" s="186"/>
-      <c r="AC26" s="186"/>
-      <c r="AD26" s="186"/>
-      <c r="AE26" s="187"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="183"/>
-      <c r="AH26" s="183"/>
-      <c r="AI26" s="184"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="222"/>
+      <c r="S26" s="222"/>
+      <c r="T26" s="222"/>
+      <c r="U26" s="222"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="222"/>
+      <c r="Y26" s="222"/>
+      <c r="Z26" s="222"/>
+      <c r="AA26" s="222"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="222"/>
+      <c r="AD26" s="222"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="218"/>
+      <c r="AG26" s="219"/>
+      <c r="AH26" s="219"/>
+      <c r="AI26" s="220"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="185"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="186"/>
-      <c r="Z27" s="186"/>
-      <c r="AA27" s="186"/>
-      <c r="AB27" s="186"/>
-      <c r="AC27" s="186"/>
-      <c r="AD27" s="186"/>
-      <c r="AE27" s="187"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="184"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="222"/>
+      <c r="U27" s="222"/>
+      <c r="V27" s="222"/>
+      <c r="W27" s="222"/>
+      <c r="X27" s="222"/>
+      <c r="Y27" s="222"/>
+      <c r="Z27" s="222"/>
+      <c r="AA27" s="222"/>
+      <c r="AB27" s="222"/>
+      <c r="AC27" s="222"/>
+      <c r="AD27" s="222"/>
+      <c r="AE27" s="223"/>
+      <c r="AF27" s="218"/>
+      <c r="AG27" s="219"/>
+      <c r="AH27" s="219"/>
+      <c r="AI27" s="220"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="186"/>
-      <c r="S28" s="186"/>
-      <c r="T28" s="186"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="186"/>
-      <c r="W28" s="186"/>
-      <c r="X28" s="186"/>
-      <c r="Y28" s="186"/>
-      <c r="Z28" s="186"/>
-      <c r="AA28" s="186"/>
-      <c r="AB28" s="186"/>
-      <c r="AC28" s="186"/>
-      <c r="AD28" s="186"/>
-      <c r="AE28" s="187"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="183"/>
-      <c r="AH28" s="183"/>
-      <c r="AI28" s="184"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
+      <c r="M28" s="219"/>
+      <c r="N28" s="219"/>
+      <c r="O28" s="219"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="222"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="222"/>
+      <c r="U28" s="222"/>
+      <c r="V28" s="222"/>
+      <c r="W28" s="222"/>
+      <c r="X28" s="222"/>
+      <c r="Y28" s="222"/>
+      <c r="Z28" s="222"/>
+      <c r="AA28" s="222"/>
+      <c r="AB28" s="222"/>
+      <c r="AC28" s="222"/>
+      <c r="AD28" s="222"/>
+      <c r="AE28" s="223"/>
+      <c r="AF28" s="218"/>
+      <c r="AG28" s="219"/>
+      <c r="AH28" s="219"/>
+      <c r="AI28" s="220"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="186"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="186"/>
-      <c r="V29" s="186"/>
-      <c r="W29" s="186"/>
-      <c r="X29" s="186"/>
-      <c r="Y29" s="186"/>
-      <c r="Z29" s="186"/>
-      <c r="AA29" s="186"/>
-      <c r="AB29" s="186"/>
-      <c r="AC29" s="186"/>
-      <c r="AD29" s="186"/>
-      <c r="AE29" s="187"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="183"/>
-      <c r="AH29" s="183"/>
-      <c r="AI29" s="184"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="219"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="220"/>
+      <c r="Q29" s="221"/>
+      <c r="R29" s="222"/>
+      <c r="S29" s="222"/>
+      <c r="T29" s="222"/>
+      <c r="U29" s="222"/>
+      <c r="V29" s="222"/>
+      <c r="W29" s="222"/>
+      <c r="X29" s="222"/>
+      <c r="Y29" s="222"/>
+      <c r="Z29" s="222"/>
+      <c r="AA29" s="222"/>
+      <c r="AB29" s="222"/>
+      <c r="AC29" s="222"/>
+      <c r="AD29" s="222"/>
+      <c r="AE29" s="223"/>
+      <c r="AF29" s="218"/>
+      <c r="AG29" s="219"/>
+      <c r="AH29" s="219"/>
+      <c r="AI29" s="220"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="185"/>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="186"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="186"/>
-      <c r="AA30" s="186"/>
-      <c r="AB30" s="186"/>
-      <c r="AC30" s="186"/>
-      <c r="AD30" s="186"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="183"/>
-      <c r="AH30" s="183"/>
-      <c r="AI30" s="184"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="219"/>
+      <c r="L30" s="219"/>
+      <c r="M30" s="219"/>
+      <c r="N30" s="219"/>
+      <c r="O30" s="219"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="221"/>
+      <c r="R30" s="222"/>
+      <c r="S30" s="222"/>
+      <c r="T30" s="222"/>
+      <c r="U30" s="222"/>
+      <c r="V30" s="222"/>
+      <c r="W30" s="222"/>
+      <c r="X30" s="222"/>
+      <c r="Y30" s="222"/>
+      <c r="Z30" s="222"/>
+      <c r="AA30" s="222"/>
+      <c r="AB30" s="222"/>
+      <c r="AC30" s="222"/>
+      <c r="AD30" s="222"/>
+      <c r="AE30" s="223"/>
+      <c r="AF30" s="218"/>
+      <c r="AG30" s="219"/>
+      <c r="AH30" s="219"/>
+      <c r="AI30" s="220"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="185"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186"/>
-      <c r="V31" s="186"/>
-      <c r="W31" s="186"/>
-      <c r="X31" s="186"/>
-      <c r="Y31" s="186"/>
-      <c r="Z31" s="186"/>
-      <c r="AA31" s="186"/>
-      <c r="AB31" s="186"/>
-      <c r="AC31" s="186"/>
-      <c r="AD31" s="186"/>
-      <c r="AE31" s="187"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="183"/>
-      <c r="AH31" s="183"/>
-      <c r="AI31" s="184"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="219"/>
+      <c r="L31" s="219"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="219"/>
+      <c r="O31" s="219"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="221"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="222"/>
+      <c r="W31" s="222"/>
+      <c r="X31" s="222"/>
+      <c r="Y31" s="222"/>
+      <c r="Z31" s="222"/>
+      <c r="AA31" s="222"/>
+      <c r="AB31" s="222"/>
+      <c r="AC31" s="222"/>
+      <c r="AD31" s="222"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="218"/>
+      <c r="AG31" s="219"/>
+      <c r="AH31" s="219"/>
+      <c r="AI31" s="220"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="183"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="186"/>
-      <c r="U32" s="186"/>
-      <c r="V32" s="186"/>
-      <c r="W32" s="186"/>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="186"/>
-      <c r="Z32" s="186"/>
-      <c r="AA32" s="186"/>
-      <c r="AB32" s="186"/>
-      <c r="AC32" s="186"/>
-      <c r="AD32" s="186"/>
-      <c r="AE32" s="187"/>
-      <c r="AF32" s="182"/>
-      <c r="AG32" s="183"/>
-      <c r="AH32" s="183"/>
-      <c r="AI32" s="184"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="233"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
+      <c r="W32" s="222"/>
+      <c r="X32" s="222"/>
+      <c r="Y32" s="222"/>
+      <c r="Z32" s="222"/>
+      <c r="AA32" s="222"/>
+      <c r="AB32" s="222"/>
+      <c r="AC32" s="222"/>
+      <c r="AD32" s="222"/>
+      <c r="AE32" s="223"/>
+      <c r="AF32" s="218"/>
+      <c r="AG32" s="219"/>
+      <c r="AH32" s="219"/>
+      <c r="AI32" s="220"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="186"/>
-      <c r="U33" s="186"/>
-      <c r="V33" s="186"/>
-      <c r="W33" s="186"/>
-      <c r="X33" s="186"/>
-      <c r="Y33" s="186"/>
-      <c r="Z33" s="186"/>
-      <c r="AA33" s="186"/>
-      <c r="AB33" s="186"/>
-      <c r="AC33" s="186"/>
-      <c r="AD33" s="186"/>
-      <c r="AE33" s="187"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="183"/>
-      <c r="AH33" s="183"/>
-      <c r="AI33" s="184"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
+      <c r="N33" s="219"/>
+      <c r="O33" s="219"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="221"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="223"/>
+      <c r="AF33" s="218"/>
+      <c r="AG33" s="219"/>
+      <c r="AH33" s="219"/>
+      <c r="AI33" s="220"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11325,161 +11452,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -24641,10 +24613,10 @@
         <v>508</v>
       </c>
       <c r="L83" s="63" t="s">
+        <v>556</v>
+      </c>
+      <c r="M83" s="63" t="s">
         <v>557</v>
-      </c>
-      <c r="M83" s="63" t="s">
-        <v>558</v>
       </c>
       <c r="N83" s="173" t="s">
         <v>547</v>
@@ -32695,7 +32667,7 @@
         <v>537</v>
       </c>
       <c r="L303" s="63" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M303" s="63"/>
       <c r="N303" s="173" t="s">
@@ -32891,7 +32863,7 @@
         <v>555</v>
       </c>
       <c r="L307" s="63" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M307" s="63"/>
       <c r="N307" s="173" t="s">
@@ -33099,10 +33071,10 @@
         <v>536</v>
       </c>
       <c r="K312" s="63" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L312" s="63" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M312" s="63"/>
       <c r="N312" s="173" t="s">

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A516A6B7-4919-4F2A-B8AA-501C04886EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6B883-77D3-4B74-B447-4EE8E625FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="559">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -5936,17 +5936,6 @@
     <rPh sb="14" eb="16">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テストデータシート名</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データNo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -6851,23 +6840,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下の条件でリクエストを送信する。
-・顧客ID: "aaa"</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>以下のレスポンスが返される。
 ・ステータスコード：400
 ・障害コード：FB1999901
@@ -7214,10 +7186,131 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>リクエストに想定外の項目を加えた場合の実行結果は定義されていない</t>
+    <rPh sb="6" eb="9">
+      <t>ソウテイガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時実行数の制限はない</t>
+    <rPh sb="0" eb="5">
+      <t>ドウジジッコウスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単項目バリデーションが1つだけなので対象外</t>
+    <rPh sb="0" eb="3">
+      <t>タンコウモク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相関バリデーションを行っていないため対象外</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="10" eb="18">
+      <t>オコ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBとの相関バリデーションは1件のみのため対象外</t>
+    <rPh sb="4" eb="6">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアウトについては定義されていない</t>
+    <rPh sb="11" eb="18">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientById()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm()</t>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShow()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShowNotExistsClient()</t>
+  </si>
+  <si>
+    <t>テストデータシート名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientServiceTest#testFindClientByIdThrowsNoDataException()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の条件でリクエストを送信する。
+・顧客ID: "test"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>以下のレスポンスが返される。
 ・ステータスコード：400
 ・障害コード：FB1999901
-・メッセージ：不正なリクエストです。</t>
+・メッセージ：clientId:数値を入力してください。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
     </rPh>
@@ -7227,85 +7320,25 @@
     <rPh sb="30" eb="32">
       <t>ショウガイ</t>
     </rPh>
-    <rPh sb="53" eb="55">
-      <t>フセイ</t>
+    <rPh sb="62" eb="64">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リクエストに想定外の項目を加えた場合の実行結果は定義されていない</t>
-    <rPh sb="6" eb="9">
-      <t>ソウテイガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ジッコウケッカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同時実行数の制限はない</t>
-    <rPh sb="0" eb="5">
-      <t>ドウジジッコウスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単項目バリデーションが1つだけなので対象外</t>
-    <rPh sb="0" eb="3">
-      <t>タンコウモク</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>タイショウガイ</t>
-    </rPh>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testShowWithEmptyClientTable()</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>相関バリデーションを行っていないため対象外</t>
-    <rPh sb="0" eb="2">
-      <t>ソウカン</t>
-    </rPh>
-    <rPh sb="10" eb="18">
-      <t>オコ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBとの相関バリデーションは1件のみのため対象外</t>
-    <rPh sb="4" eb="6">
-      <t>ソウカン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムアウトについては定義されていない</t>
-    <rPh sb="11" eb="18">
-      <t>テ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>testShowWithEmptyClientTable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.nablarch.example.climan.rest.client.ClientActionTest#testInvalidClientGetForm()</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -7862,7 +7895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -8274,9 +8307,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8315,6 +8345,51 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8498,45 +8573,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9472,12 +9508,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="161" t="str">
+      <c r="I25" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10037,57 +10073,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="171" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="177" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="185" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="186" t="s">
-        <v>498</v>
-      </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="168" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="200" t="s">
+        <v>496</v>
+      </c>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="209" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="162" t="str">
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="176" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10095,53 +10131,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171" t="s">
-        <v>465</v>
-      </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="168" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="188" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="162" t="str">
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="176" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10149,45 +10185,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171" t="s">
-        <v>466</v>
-      </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185" t="s">
+        <v>464</v>
+      </c>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="211"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10224,85 +10260,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="165" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="165" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="165" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="165" t="s">
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="165" t="s">
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="166"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="180"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
-      <c r="O8" s="217"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="216"/>
-      <c r="R8" s="217"/>
-      <c r="S8" s="217"/>
-      <c r="T8" s="217"/>
-      <c r="U8" s="217"/>
-      <c r="V8" s="217"/>
-      <c r="W8" s="217"/>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="217"/>
-      <c r="Z8" s="217"/>
-      <c r="AA8" s="217"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="218"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="232"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10310,928 +10346,928 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="205"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208"/>
-      <c r="U9" s="208"/>
-      <c r="V9" s="208"/>
-      <c r="W9" s="208"/>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="208"/>
-      <c r="Z9" s="208"/>
-      <c r="AA9" s="208"/>
-      <c r="AB9" s="208"/>
-      <c r="AC9" s="208"/>
-      <c r="AD9" s="208"/>
-      <c r="AE9" s="209"/>
-      <c r="AF9" s="204"/>
-      <c r="AG9" s="205"/>
-      <c r="AH9" s="205"/>
-      <c r="AI9" s="206"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="222"/>
+      <c r="X9" s="222"/>
+      <c r="Y9" s="222"/>
+      <c r="Z9" s="222"/>
+      <c r="AA9" s="222"/>
+      <c r="AB9" s="222"/>
+      <c r="AC9" s="222"/>
+      <c r="AD9" s="222"/>
+      <c r="AE9" s="223"/>
+      <c r="AF9" s="218"/>
+      <c r="AG9" s="219"/>
+      <c r="AH9" s="219"/>
+      <c r="AI9" s="220"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="208"/>
-      <c r="T10" s="208"/>
-      <c r="U10" s="208"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="208"/>
-      <c r="Y10" s="208"/>
-      <c r="Z10" s="208"/>
-      <c r="AA10" s="208"/>
-      <c r="AB10" s="208"/>
-      <c r="AC10" s="208"/>
-      <c r="AD10" s="208"/>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="205"/>
-      <c r="AI10" s="206"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="219"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="222"/>
+      <c r="AE10" s="223"/>
+      <c r="AF10" s="218"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="219"/>
+      <c r="AI10" s="220"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="206"/>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="208"/>
-      <c r="S11" s="208"/>
-      <c r="T11" s="208"/>
-      <c r="U11" s="208"/>
-      <c r="V11" s="208"/>
-      <c r="W11" s="208"/>
-      <c r="X11" s="208"/>
-      <c r="Y11" s="208"/>
-      <c r="Z11" s="208"/>
-      <c r="AA11" s="208"/>
-      <c r="AB11" s="208"/>
-      <c r="AC11" s="208"/>
-      <c r="AD11" s="208"/>
-      <c r="AE11" s="209"/>
-      <c r="AF11" s="204"/>
-      <c r="AG11" s="205"/>
-      <c r="AH11" s="205"/>
-      <c r="AI11" s="206"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="219"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="221"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="222"/>
+      <c r="X11" s="222"/>
+      <c r="Y11" s="222"/>
+      <c r="Z11" s="222"/>
+      <c r="AA11" s="222"/>
+      <c r="AB11" s="222"/>
+      <c r="AC11" s="222"/>
+      <c r="AD11" s="222"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="218"/>
+      <c r="AG11" s="219"/>
+      <c r="AH11" s="219"/>
+      <c r="AI11" s="220"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="205"/>
-      <c r="N12" s="205"/>
-      <c r="O12" s="205"/>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="207"/>
-      <c r="R12" s="208"/>
-      <c r="S12" s="208"/>
-      <c r="T12" s="208"/>
-      <c r="U12" s="208"/>
-      <c r="V12" s="208"/>
-      <c r="W12" s="208"/>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="208"/>
-      <c r="Z12" s="208"/>
-      <c r="AA12" s="208"/>
-      <c r="AB12" s="208"/>
-      <c r="AC12" s="208"/>
-      <c r="AD12" s="208"/>
-      <c r="AE12" s="209"/>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="205"/>
-      <c r="AH12" s="205"/>
-      <c r="AI12" s="206"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="219"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="219"/>
+      <c r="P12" s="220"/>
+      <c r="Q12" s="221"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="222"/>
+      <c r="V12" s="222"/>
+      <c r="W12" s="222"/>
+      <c r="X12" s="222"/>
+      <c r="Y12" s="222"/>
+      <c r="Z12" s="222"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="222"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="222"/>
+      <c r="AE12" s="223"/>
+      <c r="AF12" s="218"/>
+      <c r="AG12" s="219"/>
+      <c r="AH12" s="219"/>
+      <c r="AI12" s="220"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="205"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="205"/>
-      <c r="N13" s="205"/>
-      <c r="O13" s="205"/>
-      <c r="P13" s="206"/>
-      <c r="Q13" s="207"/>
-      <c r="R13" s="208"/>
-      <c r="S13" s="208"/>
-      <c r="T13" s="208"/>
-      <c r="U13" s="208"/>
-      <c r="V13" s="208"/>
-      <c r="W13" s="208"/>
-      <c r="X13" s="208"/>
-      <c r="Y13" s="208"/>
-      <c r="Z13" s="208"/>
-      <c r="AA13" s="208"/>
-      <c r="AB13" s="208"/>
-      <c r="AC13" s="208"/>
-      <c r="AD13" s="208"/>
-      <c r="AE13" s="209"/>
-      <c r="AF13" s="204"/>
-      <c r="AG13" s="205"/>
-      <c r="AH13" s="205"/>
-      <c r="AI13" s="206"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="219"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="219"/>
+      <c r="N13" s="219"/>
+      <c r="O13" s="219"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="222"/>
+      <c r="S13" s="222"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222"/>
+      <c r="Y13" s="222"/>
+      <c r="Z13" s="222"/>
+      <c r="AA13" s="222"/>
+      <c r="AB13" s="222"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="222"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="218"/>
+      <c r="AG13" s="219"/>
+      <c r="AH13" s="219"/>
+      <c r="AI13" s="220"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="205"/>
-      <c r="O14" s="205"/>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="207"/>
-      <c r="R14" s="208"/>
-      <c r="S14" s="208"/>
-      <c r="T14" s="208"/>
-      <c r="U14" s="208"/>
-      <c r="V14" s="208"/>
-      <c r="W14" s="208"/>
-      <c r="X14" s="208"/>
-      <c r="Y14" s="208"/>
-      <c r="Z14" s="208"/>
-      <c r="AA14" s="208"/>
-      <c r="AB14" s="208"/>
-      <c r="AC14" s="208"/>
-      <c r="AD14" s="208"/>
-      <c r="AE14" s="209"/>
-      <c r="AF14" s="204"/>
-      <c r="AG14" s="205"/>
-      <c r="AH14" s="205"/>
-      <c r="AI14" s="206"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="222"/>
+      <c r="W14" s="222"/>
+      <c r="X14" s="222"/>
+      <c r="Y14" s="222"/>
+      <c r="Z14" s="222"/>
+      <c r="AA14" s="222"/>
+      <c r="AB14" s="222"/>
+      <c r="AC14" s="222"/>
+      <c r="AD14" s="222"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="218"/>
+      <c r="AG14" s="219"/>
+      <c r="AH14" s="219"/>
+      <c r="AI14" s="220"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="205"/>
-      <c r="N15" s="205"/>
-      <c r="O15" s="205"/>
-      <c r="P15" s="206"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="208"/>
-      <c r="S15" s="208"/>
-      <c r="T15" s="208"/>
-      <c r="U15" s="208"/>
-      <c r="V15" s="208"/>
-      <c r="W15" s="208"/>
-      <c r="X15" s="208"/>
-      <c r="Y15" s="208"/>
-      <c r="Z15" s="208"/>
-      <c r="AA15" s="208"/>
-      <c r="AB15" s="208"/>
-      <c r="AC15" s="208"/>
-      <c r="AD15" s="208"/>
-      <c r="AE15" s="209"/>
-      <c r="AF15" s="204"/>
-      <c r="AG15" s="205"/>
-      <c r="AH15" s="205"/>
-      <c r="AI15" s="206"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="221"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="222"/>
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="222"/>
+      <c r="Y15" s="222"/>
+      <c r="Z15" s="222"/>
+      <c r="AA15" s="222"/>
+      <c r="AB15" s="222"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="218"/>
+      <c r="AG15" s="219"/>
+      <c r="AH15" s="219"/>
+      <c r="AI15" s="220"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="207"/>
-      <c r="R16" s="208"/>
-      <c r="S16" s="208"/>
-      <c r="T16" s="208"/>
-      <c r="U16" s="208"/>
-      <c r="V16" s="208"/>
-      <c r="W16" s="208"/>
-      <c r="X16" s="208"/>
-      <c r="Y16" s="208"/>
-      <c r="Z16" s="208"/>
-      <c r="AA16" s="208"/>
-      <c r="AB16" s="208"/>
-      <c r="AC16" s="208"/>
-      <c r="AD16" s="208"/>
-      <c r="AE16" s="209"/>
-      <c r="AF16" s="204"/>
-      <c r="AG16" s="205"/>
-      <c r="AH16" s="205"/>
-      <c r="AI16" s="206"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="220"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="222"/>
+      <c r="Z16" s="222"/>
+      <c r="AA16" s="222"/>
+      <c r="AB16" s="222"/>
+      <c r="AC16" s="222"/>
+      <c r="AD16" s="222"/>
+      <c r="AE16" s="223"/>
+      <c r="AF16" s="218"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="219"/>
+      <c r="AI16" s="220"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="205"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="205"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="207"/>
-      <c r="R17" s="208"/>
-      <c r="S17" s="208"/>
-      <c r="T17" s="208"/>
-      <c r="U17" s="208"/>
-      <c r="V17" s="208"/>
-      <c r="W17" s="208"/>
-      <c r="X17" s="208"/>
-      <c r="Y17" s="208"/>
-      <c r="Z17" s="208"/>
-      <c r="AA17" s="208"/>
-      <c r="AB17" s="208"/>
-      <c r="AC17" s="208"/>
-      <c r="AD17" s="208"/>
-      <c r="AE17" s="209"/>
-      <c r="AF17" s="204"/>
-      <c r="AG17" s="205"/>
-      <c r="AH17" s="205"/>
-      <c r="AI17" s="206"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="220"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="222"/>
+      <c r="S17" s="222"/>
+      <c r="T17" s="222"/>
+      <c r="U17" s="222"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
+      <c r="X17" s="222"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="222"/>
+      <c r="AA17" s="222"/>
+      <c r="AB17" s="222"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="222"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="218"/>
+      <c r="AG17" s="219"/>
+      <c r="AH17" s="219"/>
+      <c r="AI17" s="220"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="208"/>
-      <c r="S18" s="208"/>
-      <c r="T18" s="208"/>
-      <c r="U18" s="208"/>
-      <c r="V18" s="208"/>
-      <c r="W18" s="208"/>
-      <c r="X18" s="208"/>
-      <c r="Y18" s="208"/>
-      <c r="Z18" s="208"/>
-      <c r="AA18" s="208"/>
-      <c r="AB18" s="208"/>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="208"/>
-      <c r="AE18" s="209"/>
-      <c r="AF18" s="204"/>
-      <c r="AG18" s="205"/>
-      <c r="AH18" s="205"/>
-      <c r="AI18" s="206"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
+      <c r="U18" s="222"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
+      <c r="X18" s="222"/>
+      <c r="Y18" s="222"/>
+      <c r="Z18" s="222"/>
+      <c r="AA18" s="222"/>
+      <c r="AB18" s="222"/>
+      <c r="AC18" s="222"/>
+      <c r="AD18" s="222"/>
+      <c r="AE18" s="223"/>
+      <c r="AF18" s="218"/>
+      <c r="AG18" s="219"/>
+      <c r="AH18" s="219"/>
+      <c r="AI18" s="220"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="207"/>
-      <c r="R19" s="208"/>
-      <c r="S19" s="208"/>
-      <c r="T19" s="208"/>
-      <c r="U19" s="208"/>
-      <c r="V19" s="208"/>
-      <c r="W19" s="208"/>
-      <c r="X19" s="208"/>
-      <c r="Y19" s="208"/>
-      <c r="Z19" s="208"/>
-      <c r="AA19" s="208"/>
-      <c r="AB19" s="208"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="208"/>
-      <c r="AE19" s="209"/>
-      <c r="AF19" s="204"/>
-      <c r="AG19" s="205"/>
-      <c r="AH19" s="205"/>
-      <c r="AI19" s="206"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="222"/>
+      <c r="S19" s="222"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="222"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
+      <c r="X19" s="222"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="222"/>
+      <c r="AA19" s="222"/>
+      <c r="AB19" s="222"/>
+      <c r="AC19" s="222"/>
+      <c r="AD19" s="222"/>
+      <c r="AE19" s="223"/>
+      <c r="AF19" s="218"/>
+      <c r="AG19" s="219"/>
+      <c r="AH19" s="219"/>
+      <c r="AI19" s="220"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="206"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="208"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208"/>
-      <c r="U20" s="208"/>
-      <c r="V20" s="208"/>
-      <c r="W20" s="208"/>
-      <c r="X20" s="208"/>
-      <c r="Y20" s="208"/>
-      <c r="Z20" s="208"/>
-      <c r="AA20" s="208"/>
-      <c r="AB20" s="208"/>
-      <c r="AC20" s="208"/>
-      <c r="AD20" s="208"/>
-      <c r="AE20" s="209"/>
-      <c r="AF20" s="204"/>
-      <c r="AG20" s="205"/>
-      <c r="AH20" s="205"/>
-      <c r="AI20" s="206"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="221"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="222"/>
+      <c r="U20" s="222"/>
+      <c r="V20" s="222"/>
+      <c r="W20" s="222"/>
+      <c r="X20" s="222"/>
+      <c r="Y20" s="222"/>
+      <c r="Z20" s="222"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="222"/>
+      <c r="AC20" s="222"/>
+      <c r="AD20" s="222"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="218"/>
+      <c r="AG20" s="219"/>
+      <c r="AH20" s="219"/>
+      <c r="AI20" s="220"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="208"/>
-      <c r="S21" s="208"/>
-      <c r="T21" s="208"/>
-      <c r="U21" s="208"/>
-      <c r="V21" s="208"/>
-      <c r="W21" s="208"/>
-      <c r="X21" s="208"/>
-      <c r="Y21" s="208"/>
-      <c r="Z21" s="208"/>
-      <c r="AA21" s="208"/>
-      <c r="AB21" s="208"/>
-      <c r="AC21" s="208"/>
-      <c r="AD21" s="208"/>
-      <c r="AE21" s="209"/>
-      <c r="AF21" s="204"/>
-      <c r="AG21" s="205"/>
-      <c r="AH21" s="205"/>
-      <c r="AI21" s="206"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="219"/>
+      <c r="P21" s="220"/>
+      <c r="Q21" s="221"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
+      <c r="T21" s="222"/>
+      <c r="U21" s="222"/>
+      <c r="V21" s="222"/>
+      <c r="W21" s="222"/>
+      <c r="X21" s="222"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="222"/>
+      <c r="AA21" s="222"/>
+      <c r="AB21" s="222"/>
+      <c r="AC21" s="222"/>
+      <c r="AD21" s="222"/>
+      <c r="AE21" s="223"/>
+      <c r="AF21" s="218"/>
+      <c r="AG21" s="219"/>
+      <c r="AH21" s="219"/>
+      <c r="AI21" s="220"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="198"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
-      <c r="P22" s="206"/>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="208"/>
-      <c r="S22" s="208"/>
-      <c r="T22" s="208"/>
-      <c r="U22" s="208"/>
-      <c r="V22" s="208"/>
-      <c r="W22" s="208"/>
-      <c r="X22" s="208"/>
-      <c r="Y22" s="208"/>
-      <c r="Z22" s="208"/>
-      <c r="AA22" s="208"/>
-      <c r="AB22" s="208"/>
-      <c r="AC22" s="208"/>
-      <c r="AD22" s="208"/>
-      <c r="AE22" s="209"/>
-      <c r="AF22" s="204"/>
-      <c r="AG22" s="205"/>
-      <c r="AH22" s="205"/>
-      <c r="AI22" s="206"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="222"/>
+      <c r="S22" s="222"/>
+      <c r="T22" s="222"/>
+      <c r="U22" s="222"/>
+      <c r="V22" s="222"/>
+      <c r="W22" s="222"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="222"/>
+      <c r="Z22" s="222"/>
+      <c r="AA22" s="222"/>
+      <c r="AB22" s="222"/>
+      <c r="AC22" s="222"/>
+      <c r="AD22" s="222"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="218"/>
+      <c r="AG22" s="219"/>
+      <c r="AH22" s="219"/>
+      <c r="AI22" s="220"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="198"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="205"/>
-      <c r="O23" s="205"/>
-      <c r="P23" s="206"/>
-      <c r="Q23" s="207"/>
-      <c r="R23" s="208"/>
-      <c r="S23" s="208"/>
-      <c r="T23" s="208"/>
-      <c r="U23" s="208"/>
-      <c r="V23" s="208"/>
-      <c r="W23" s="208"/>
-      <c r="X23" s="208"/>
-      <c r="Y23" s="208"/>
-      <c r="Z23" s="208"/>
-      <c r="AA23" s="208"/>
-      <c r="AB23" s="208"/>
-      <c r="AC23" s="208"/>
-      <c r="AD23" s="208"/>
-      <c r="AE23" s="209"/>
-      <c r="AF23" s="204"/>
-      <c r="AG23" s="205"/>
-      <c r="AH23" s="205"/>
-      <c r="AI23" s="206"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="219"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="222"/>
+      <c r="S23" s="222"/>
+      <c r="T23" s="222"/>
+      <c r="U23" s="222"/>
+      <c r="V23" s="222"/>
+      <c r="W23" s="222"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="222"/>
+      <c r="Z23" s="222"/>
+      <c r="AA23" s="222"/>
+      <c r="AB23" s="222"/>
+      <c r="AC23" s="222"/>
+      <c r="AD23" s="222"/>
+      <c r="AE23" s="223"/>
+      <c r="AF23" s="218"/>
+      <c r="AG23" s="219"/>
+      <c r="AH23" s="219"/>
+      <c r="AI23" s="220"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="207"/>
-      <c r="R24" s="208"/>
-      <c r="S24" s="208"/>
-      <c r="T24" s="208"/>
-      <c r="U24" s="208"/>
-      <c r="V24" s="208"/>
-      <c r="W24" s="208"/>
-      <c r="X24" s="208"/>
-      <c r="Y24" s="208"/>
-      <c r="Z24" s="208"/>
-      <c r="AA24" s="208"/>
-      <c r="AB24" s="208"/>
-      <c r="AC24" s="208"/>
-      <c r="AD24" s="208"/>
-      <c r="AE24" s="209"/>
-      <c r="AF24" s="204"/>
-      <c r="AG24" s="205"/>
-      <c r="AH24" s="205"/>
-      <c r="AI24" s="206"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
+      <c r="P24" s="220"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
+      <c r="U24" s="222"/>
+      <c r="V24" s="222"/>
+      <c r="W24" s="222"/>
+      <c r="X24" s="222"/>
+      <c r="Y24" s="222"/>
+      <c r="Z24" s="222"/>
+      <c r="AA24" s="222"/>
+      <c r="AB24" s="222"/>
+      <c r="AC24" s="222"/>
+      <c r="AD24" s="222"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="218"/>
+      <c r="AG24" s="219"/>
+      <c r="AH24" s="219"/>
+      <c r="AI24" s="220"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="205"/>
-      <c r="N25" s="205"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="207"/>
-      <c r="R25" s="208"/>
-      <c r="S25" s="208"/>
-      <c r="T25" s="208"/>
-      <c r="U25" s="208"/>
-      <c r="V25" s="208"/>
-      <c r="W25" s="208"/>
-      <c r="X25" s="208"/>
-      <c r="Y25" s="208"/>
-      <c r="Z25" s="208"/>
-      <c r="AA25" s="208"/>
-      <c r="AB25" s="208"/>
-      <c r="AC25" s="208"/>
-      <c r="AD25" s="208"/>
-      <c r="AE25" s="209"/>
-      <c r="AF25" s="204"/>
-      <c r="AG25" s="205"/>
-      <c r="AH25" s="205"/>
-      <c r="AI25" s="206"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="222"/>
+      <c r="S25" s="222"/>
+      <c r="T25" s="222"/>
+      <c r="U25" s="222"/>
+      <c r="V25" s="222"/>
+      <c r="W25" s="222"/>
+      <c r="X25" s="222"/>
+      <c r="Y25" s="222"/>
+      <c r="Z25" s="222"/>
+      <c r="AA25" s="222"/>
+      <c r="AB25" s="222"/>
+      <c r="AC25" s="222"/>
+      <c r="AD25" s="222"/>
+      <c r="AE25" s="223"/>
+      <c r="AF25" s="218"/>
+      <c r="AG25" s="219"/>
+      <c r="AH25" s="219"/>
+      <c r="AI25" s="220"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="206"/>
-      <c r="Q26" s="207"/>
-      <c r="R26" s="208"/>
-      <c r="S26" s="208"/>
-      <c r="T26" s="208"/>
-      <c r="U26" s="208"/>
-      <c r="V26" s="208"/>
-      <c r="W26" s="208"/>
-      <c r="X26" s="208"/>
-      <c r="Y26" s="208"/>
-      <c r="Z26" s="208"/>
-      <c r="AA26" s="208"/>
-      <c r="AB26" s="208"/>
-      <c r="AC26" s="208"/>
-      <c r="AD26" s="208"/>
-      <c r="AE26" s="209"/>
-      <c r="AF26" s="204"/>
-      <c r="AG26" s="205"/>
-      <c r="AH26" s="205"/>
-      <c r="AI26" s="206"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="222"/>
+      <c r="S26" s="222"/>
+      <c r="T26" s="222"/>
+      <c r="U26" s="222"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="222"/>
+      <c r="Y26" s="222"/>
+      <c r="Z26" s="222"/>
+      <c r="AA26" s="222"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="222"/>
+      <c r="AD26" s="222"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="218"/>
+      <c r="AG26" s="219"/>
+      <c r="AH26" s="219"/>
+      <c r="AI26" s="220"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="205"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="208"/>
-      <c r="S27" s="208"/>
-      <c r="T27" s="208"/>
-      <c r="U27" s="208"/>
-      <c r="V27" s="208"/>
-      <c r="W27" s="208"/>
-      <c r="X27" s="208"/>
-      <c r="Y27" s="208"/>
-      <c r="Z27" s="208"/>
-      <c r="AA27" s="208"/>
-      <c r="AB27" s="208"/>
-      <c r="AC27" s="208"/>
-      <c r="AD27" s="208"/>
-      <c r="AE27" s="209"/>
-      <c r="AF27" s="204"/>
-      <c r="AG27" s="205"/>
-      <c r="AH27" s="205"/>
-      <c r="AI27" s="206"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="222"/>
+      <c r="U27" s="222"/>
+      <c r="V27" s="222"/>
+      <c r="W27" s="222"/>
+      <c r="X27" s="222"/>
+      <c r="Y27" s="222"/>
+      <c r="Z27" s="222"/>
+      <c r="AA27" s="222"/>
+      <c r="AB27" s="222"/>
+      <c r="AC27" s="222"/>
+      <c r="AD27" s="222"/>
+      <c r="AE27" s="223"/>
+      <c r="AF27" s="218"/>
+      <c r="AG27" s="219"/>
+      <c r="AH27" s="219"/>
+      <c r="AI27" s="220"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="207"/>
-      <c r="R28" s="208"/>
-      <c r="S28" s="208"/>
-      <c r="T28" s="208"/>
-      <c r="U28" s="208"/>
-      <c r="V28" s="208"/>
-      <c r="W28" s="208"/>
-      <c r="X28" s="208"/>
-      <c r="Y28" s="208"/>
-      <c r="Z28" s="208"/>
-      <c r="AA28" s="208"/>
-      <c r="AB28" s="208"/>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="208"/>
-      <c r="AE28" s="209"/>
-      <c r="AF28" s="204"/>
-      <c r="AG28" s="205"/>
-      <c r="AH28" s="205"/>
-      <c r="AI28" s="206"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
+      <c r="M28" s="219"/>
+      <c r="N28" s="219"/>
+      <c r="O28" s="219"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="222"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="222"/>
+      <c r="U28" s="222"/>
+      <c r="V28" s="222"/>
+      <c r="W28" s="222"/>
+      <c r="X28" s="222"/>
+      <c r="Y28" s="222"/>
+      <c r="Z28" s="222"/>
+      <c r="AA28" s="222"/>
+      <c r="AB28" s="222"/>
+      <c r="AC28" s="222"/>
+      <c r="AD28" s="222"/>
+      <c r="AE28" s="223"/>
+      <c r="AF28" s="218"/>
+      <c r="AG28" s="219"/>
+      <c r="AH28" s="219"/>
+      <c r="AI28" s="220"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="205"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="205"/>
-      <c r="N29" s="205"/>
-      <c r="O29" s="205"/>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="207"/>
-      <c r="R29" s="208"/>
-      <c r="S29" s="208"/>
-      <c r="T29" s="208"/>
-      <c r="U29" s="208"/>
-      <c r="V29" s="208"/>
-      <c r="W29" s="208"/>
-      <c r="X29" s="208"/>
-      <c r="Y29" s="208"/>
-      <c r="Z29" s="208"/>
-      <c r="AA29" s="208"/>
-      <c r="AB29" s="208"/>
-      <c r="AC29" s="208"/>
-      <c r="AD29" s="208"/>
-      <c r="AE29" s="209"/>
-      <c r="AF29" s="204"/>
-      <c r="AG29" s="205"/>
-      <c r="AH29" s="205"/>
-      <c r="AI29" s="206"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="219"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="220"/>
+      <c r="Q29" s="221"/>
+      <c r="R29" s="222"/>
+      <c r="S29" s="222"/>
+      <c r="T29" s="222"/>
+      <c r="U29" s="222"/>
+      <c r="V29" s="222"/>
+      <c r="W29" s="222"/>
+      <c r="X29" s="222"/>
+      <c r="Y29" s="222"/>
+      <c r="Z29" s="222"/>
+      <c r="AA29" s="222"/>
+      <c r="AB29" s="222"/>
+      <c r="AC29" s="222"/>
+      <c r="AD29" s="222"/>
+      <c r="AE29" s="223"/>
+      <c r="AF29" s="218"/>
+      <c r="AG29" s="219"/>
+      <c r="AH29" s="219"/>
+      <c r="AI29" s="220"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="205"/>
-      <c r="O30" s="205"/>
-      <c r="P30" s="206"/>
-      <c r="Q30" s="207"/>
-      <c r="R30" s="208"/>
-      <c r="S30" s="208"/>
-      <c r="T30" s="208"/>
-      <c r="U30" s="208"/>
-      <c r="V30" s="208"/>
-      <c r="W30" s="208"/>
-      <c r="X30" s="208"/>
-      <c r="Y30" s="208"/>
-      <c r="Z30" s="208"/>
-      <c r="AA30" s="208"/>
-      <c r="AB30" s="208"/>
-      <c r="AC30" s="208"/>
-      <c r="AD30" s="208"/>
-      <c r="AE30" s="209"/>
-      <c r="AF30" s="204"/>
-      <c r="AG30" s="205"/>
-      <c r="AH30" s="205"/>
-      <c r="AI30" s="206"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="219"/>
+      <c r="L30" s="219"/>
+      <c r="M30" s="219"/>
+      <c r="N30" s="219"/>
+      <c r="O30" s="219"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="221"/>
+      <c r="R30" s="222"/>
+      <c r="S30" s="222"/>
+      <c r="T30" s="222"/>
+      <c r="U30" s="222"/>
+      <c r="V30" s="222"/>
+      <c r="W30" s="222"/>
+      <c r="X30" s="222"/>
+      <c r="Y30" s="222"/>
+      <c r="Z30" s="222"/>
+      <c r="AA30" s="222"/>
+      <c r="AB30" s="222"/>
+      <c r="AC30" s="222"/>
+      <c r="AD30" s="222"/>
+      <c r="AE30" s="223"/>
+      <c r="AF30" s="218"/>
+      <c r="AG30" s="219"/>
+      <c r="AH30" s="219"/>
+      <c r="AI30" s="220"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="205"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="205"/>
-      <c r="N31" s="205"/>
-      <c r="O31" s="205"/>
-      <c r="P31" s="206"/>
-      <c r="Q31" s="207"/>
-      <c r="R31" s="208"/>
-      <c r="S31" s="208"/>
-      <c r="T31" s="208"/>
-      <c r="U31" s="208"/>
-      <c r="V31" s="208"/>
-      <c r="W31" s="208"/>
-      <c r="X31" s="208"/>
-      <c r="Y31" s="208"/>
-      <c r="Z31" s="208"/>
-      <c r="AA31" s="208"/>
-      <c r="AB31" s="208"/>
-      <c r="AC31" s="208"/>
-      <c r="AD31" s="208"/>
-      <c r="AE31" s="209"/>
-      <c r="AF31" s="204"/>
-      <c r="AG31" s="205"/>
-      <c r="AH31" s="205"/>
-      <c r="AI31" s="206"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="219"/>
+      <c r="L31" s="219"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="219"/>
+      <c r="O31" s="219"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="221"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="222"/>
+      <c r="W31" s="222"/>
+      <c r="X31" s="222"/>
+      <c r="Y31" s="222"/>
+      <c r="Z31" s="222"/>
+      <c r="AA31" s="222"/>
+      <c r="AB31" s="222"/>
+      <c r="AC31" s="222"/>
+      <c r="AD31" s="222"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="218"/>
+      <c r="AG31" s="219"/>
+      <c r="AH31" s="219"/>
+      <c r="AI31" s="220"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="205"/>
-      <c r="O32" s="205"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="207"/>
-      <c r="R32" s="208"/>
-      <c r="S32" s="208"/>
-      <c r="T32" s="208"/>
-      <c r="U32" s="208"/>
-      <c r="V32" s="208"/>
-      <c r="W32" s="208"/>
-      <c r="X32" s="208"/>
-      <c r="Y32" s="208"/>
-      <c r="Z32" s="208"/>
-      <c r="AA32" s="208"/>
-      <c r="AB32" s="208"/>
-      <c r="AC32" s="208"/>
-      <c r="AD32" s="208"/>
-      <c r="AE32" s="209"/>
-      <c r="AF32" s="204"/>
-      <c r="AG32" s="205"/>
-      <c r="AH32" s="205"/>
-      <c r="AI32" s="206"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="233"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
+      <c r="W32" s="222"/>
+      <c r="X32" s="222"/>
+      <c r="Y32" s="222"/>
+      <c r="Z32" s="222"/>
+      <c r="AA32" s="222"/>
+      <c r="AB32" s="222"/>
+      <c r="AC32" s="222"/>
+      <c r="AD32" s="222"/>
+      <c r="AE32" s="223"/>
+      <c r="AF32" s="218"/>
+      <c r="AG32" s="219"/>
+      <c r="AH32" s="219"/>
+      <c r="AI32" s="220"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="205"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="205"/>
-      <c r="O33" s="205"/>
-      <c r="P33" s="206"/>
-      <c r="Q33" s="207"/>
-      <c r="R33" s="208"/>
-      <c r="S33" s="208"/>
-      <c r="T33" s="208"/>
-      <c r="U33" s="208"/>
-      <c r="V33" s="208"/>
-      <c r="W33" s="208"/>
-      <c r="X33" s="208"/>
-      <c r="Y33" s="208"/>
-      <c r="Z33" s="208"/>
-      <c r="AA33" s="208"/>
-      <c r="AB33" s="208"/>
-      <c r="AC33" s="208"/>
-      <c r="AD33" s="208"/>
-      <c r="AE33" s="209"/>
-      <c r="AF33" s="204"/>
-      <c r="AG33" s="205"/>
-      <c r="AH33" s="205"/>
-      <c r="AI33" s="206"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
+      <c r="N33" s="219"/>
+      <c r="O33" s="219"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="221"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="223"/>
+      <c r="AF33" s="218"/>
+      <c r="AG33" s="219"/>
+      <c r="AH33" s="219"/>
+      <c r="AI33" s="220"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
@@ -11433,9 +11469,9 @@
   <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -11455,7 +11491,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11465,17 +11501,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>8</v>
@@ -11486,7 +11522,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>9</v>
@@ -12482,9 +12518,9 @@
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
       <c r="J36" s="64" t="s">
-        <v>502</v>
-      </c>
-      <c r="K36" s="222"/>
+        <v>500</v>
+      </c>
+      <c r="K36" s="160"/>
       <c r="L36" s="66"/>
       <c r="M36" s="67"/>
       <c r="N36" s="67"/>
@@ -12508,7 +12544,7 @@
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="D37" s="56"/>
-      <c r="E37" s="159"/>
+      <c r="E37" s="158"/>
       <c r="F37" s="51" t="s">
         <v>86</v>
       </c>
@@ -12516,9 +12552,9 @@
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="64" t="s">
-        <v>502</v>
-      </c>
-      <c r="K37" s="222"/>
+        <v>500</v>
+      </c>
+      <c r="K37" s="160"/>
       <c r="L37" s="66"/>
       <c r="M37" s="67"/>
       <c r="N37" s="67"/>
@@ -12542,7 +12578,7 @@
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="56"/>
-      <c r="E38" s="159"/>
+      <c r="E38" s="158"/>
       <c r="F38" s="42" t="s">
         <v>87</v>
       </c>
@@ -12550,12 +12586,12 @@
       <c r="H38" s="51"/>
       <c r="I38" s="64"/>
       <c r="J38" s="64" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K38" s="64"/>
       <c r="L38" s="66"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="223"/>
+      <c r="N38" s="161"/>
       <c r="O38" s="67"/>
       <c r="P38" s="67"/>
       <c r="Q38" s="67"/>
@@ -12577,24 +12613,24 @@
       <c r="C39" s="49"/>
       <c r="D39" s="53"/>
       <c r="E39" s="54"/>
-      <c r="F39" s="224" t="s">
+      <c r="F39" s="162" t="s">
         <v>88</v>
       </c>
       <c r="G39" s="64"/>
       <c r="H39" s="51"/>
       <c r="I39" s="64"/>
       <c r="J39" s="64" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K39" s="64"/>
       <c r="L39" s="66"/>
-      <c r="M39" s="225"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="223"/>
-      <c r="P39" s="225"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="161"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="163"/>
       <c r="Q39" s="67"/>
     </row>
-    <row r="40" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="40" spans="1:17" s="32" customFormat="1" ht="56.25">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -12620,25 +12656,33 @@
       </c>
       <c r="G40" s="141"/>
       <c r="H40" s="141" t="s">
+        <v>501</v>
+      </c>
+      <c r="I40" s="141" t="s">
+        <v>502</v>
+      </c>
+      <c r="J40" s="142" t="s">
         <v>503</v>
       </c>
-      <c r="I40" s="141" t="s">
-        <v>504</v>
-      </c>
-      <c r="J40" s="142" t="s">
-        <v>505</v>
-      </c>
       <c r="K40" s="143" t="s">
-        <v>511</v>
-      </c>
-      <c r="L40" s="144"/>
-      <c r="M40" s="145"/>
-      <c r="N40" s="146"/>
-      <c r="O40" s="147"/>
+        <v>509</v>
+      </c>
+      <c r="L40" s="144" t="s">
+        <v>546</v>
+      </c>
+      <c r="M40" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="N40" s="174">
+        <v>44858</v>
+      </c>
+      <c r="O40" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="P40" s="145"/>
       <c r="Q40" s="146"/>
     </row>
-    <row r="41" spans="1:17" s="32" customFormat="1" ht="56.25">
+    <row r="41" spans="1:17" s="32" customFormat="1" ht="78.75">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -12653,28 +12697,36 @@
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="68"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="149"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="141" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="141"/>
       <c r="H41" s="141" t="s">
+        <v>505</v>
+      </c>
+      <c r="I41" s="141" t="s">
+        <v>506</v>
+      </c>
+      <c r="J41" s="142" t="s">
         <v>507</v>
       </c>
-      <c r="I41" s="141" t="s">
-        <v>508</v>
-      </c>
-      <c r="J41" s="142" t="s">
-        <v>509</v>
-      </c>
       <c r="K41" s="143" t="s">
-        <v>512</v>
-      </c>
-      <c r="L41" s="144"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="146"/>
-      <c r="O41" s="147"/>
+        <v>510</v>
+      </c>
+      <c r="L41" s="144" t="s">
+        <v>553</v>
+      </c>
+      <c r="M41" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="N41" s="174">
+        <v>44858</v>
+      </c>
+      <c r="O41" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="P41" s="145"/>
       <c r="Q41" s="146"/>
     </row>
@@ -12706,8 +12758,8 @@
       <c r="F42" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="150" t="s">
-        <v>486</v>
+      <c r="G42" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
@@ -12740,8 +12792,8 @@
       <c r="F43" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="150" t="s">
-        <v>486</v>
+      <c r="G43" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
@@ -12774,8 +12826,8 @@
       <c r="F44" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="150" t="s">
-        <v>486</v>
+      <c r="G44" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
@@ -12810,8 +12862,8 @@
       <c r="F45" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="150" t="s">
-        <v>486</v>
+      <c r="G45" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
@@ -12844,8 +12896,8 @@
       <c r="F46" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="150" t="s">
-        <v>486</v>
+      <c r="G46" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
@@ -12878,8 +12930,8 @@
       <c r="F47" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="150" t="s">
-        <v>486</v>
+      <c r="G47" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -12914,8 +12966,8 @@
       <c r="F48" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="150" t="s">
-        <v>486</v>
+      <c r="G48" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
@@ -12948,8 +13000,8 @@
       <c r="F49" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="150" t="s">
-        <v>486</v>
+      <c r="G49" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
@@ -12984,8 +13036,8 @@
       <c r="F50" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="150" t="s">
-        <v>486</v>
+      <c r="G50" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
@@ -13018,8 +13070,8 @@
       <c r="F51" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="150" t="s">
-        <v>486</v>
+      <c r="G51" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H51" s="52"/>
       <c r="I51" s="52"/>
@@ -13052,8 +13104,8 @@
       <c r="F52" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="150" t="s">
-        <v>486</v>
+      <c r="G52" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
@@ -13086,8 +13138,8 @@
       <c r="F53" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="G53" s="150" t="s">
-        <v>486</v>
+      <c r="G53" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
@@ -13120,8 +13172,8 @@
       <c r="F54" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="150" t="s">
-        <v>486</v>
+      <c r="G54" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
@@ -13154,8 +13206,8 @@
       <c r="F55" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="150" t="s">
-        <v>486</v>
+      <c r="G55" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
@@ -13190,8 +13242,8 @@
       <c r="F56" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="150" t="s">
-        <v>486</v>
+      <c r="G56" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
@@ -13226,8 +13278,8 @@
       <c r="F57" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="150" t="s">
-        <v>486</v>
+      <c r="G57" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
@@ -13262,8 +13314,8 @@
       <c r="F58" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="150" t="s">
-        <v>486</v>
+      <c r="G58" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
@@ -13300,8 +13352,8 @@
       <c r="F59" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="150" t="s">
-        <v>486</v>
+      <c r="G59" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
@@ -13334,8 +13386,8 @@
       <c r="F60" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="150" t="s">
-        <v>486</v>
+      <c r="G60" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
@@ -13368,8 +13420,8 @@
       <c r="F61" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="G61" s="150" t="s">
-        <v>486</v>
+      <c r="G61" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
@@ -13402,8 +13454,8 @@
       <c r="F62" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="150" t="s">
-        <v>486</v>
+      <c r="G62" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
@@ -13436,8 +13488,8 @@
       <c r="F63" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="G63" s="150" t="s">
-        <v>486</v>
+      <c r="G63" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
@@ -13472,8 +13524,8 @@
       <c r="F64" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G64" s="150" t="s">
-        <v>486</v>
+      <c r="G64" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
@@ -13506,8 +13558,8 @@
       <c r="F65" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="G65" s="150" t="s">
-        <v>486</v>
+      <c r="G65" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
@@ -13540,8 +13592,8 @@
       <c r="F66" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="G66" s="150" t="s">
-        <v>486</v>
+      <c r="G66" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
@@ -13574,8 +13626,8 @@
       <c r="F67" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="150" t="s">
-        <v>486</v>
+      <c r="G67" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H67" s="52"/>
       <c r="I67" s="52"/>
@@ -13608,8 +13660,8 @@
       <c r="F68" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G68" s="150" t="s">
-        <v>486</v>
+      <c r="G68" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
@@ -13642,8 +13694,8 @@
       <c r="F69" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="150" t="s">
-        <v>486</v>
+      <c r="G69" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H69" s="52"/>
       <c r="I69" s="52"/>
@@ -13676,8 +13728,8 @@
       <c r="F70" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="G70" s="150" t="s">
-        <v>486</v>
+      <c r="G70" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H70" s="52"/>
       <c r="I70" s="52"/>
@@ -13710,8 +13762,8 @@
       <c r="F71" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="G71" s="150" t="s">
-        <v>486</v>
+      <c r="G71" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
@@ -13746,8 +13798,8 @@
       <c r="F72" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="G72" s="150" t="s">
-        <v>486</v>
+      <c r="G72" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
@@ -13782,8 +13834,8 @@
       <c r="F73" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="G73" s="150" t="s">
-        <v>486</v>
+      <c r="G73" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
@@ -13816,8 +13868,8 @@
       <c r="F74" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="G74" s="150" t="s">
-        <v>486</v>
+      <c r="G74" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
@@ -13850,8 +13902,8 @@
       <c r="F75" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="G75" s="150" t="s">
-        <v>486</v>
+      <c r="G75" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
@@ -13884,8 +13936,8 @@
       <c r="F76" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="150" t="s">
-        <v>486</v>
+      <c r="G76" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
@@ -13918,8 +13970,8 @@
       <c r="F77" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="150" t="s">
-        <v>486</v>
+      <c r="G77" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
@@ -13958,8 +14010,8 @@
       <c r="F78" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="G78" s="150" t="s">
-        <v>486</v>
+      <c r="G78" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
@@ -13992,8 +14044,8 @@
       <c r="F79" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="G79" s="150" t="s">
-        <v>486</v>
+      <c r="G79" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H79" s="52"/>
       <c r="I79" s="52"/>
@@ -14028,8 +14080,8 @@
       <c r="F80" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="G80" s="150" t="s">
-        <v>486</v>
+      <c r="G80" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H80" s="52"/>
       <c r="I80" s="52"/>
@@ -14064,8 +14116,8 @@
       <c r="F81" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="G81" s="150" t="s">
-        <v>486</v>
+      <c r="G81" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H81" s="52"/>
       <c r="I81" s="52"/>
@@ -14098,8 +14150,8 @@
       <c r="F82" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G82" s="150" t="s">
-        <v>486</v>
+      <c r="G82" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H82" s="52"/>
       <c r="I82" s="52"/>
@@ -14134,8 +14186,8 @@
       <c r="F83" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G83" s="150" t="s">
-        <v>486</v>
+      <c r="G83" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H83" s="52"/>
       <c r="I83" s="52"/>
@@ -14170,8 +14222,8 @@
       <c r="F84" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="G84" s="150" t="s">
-        <v>486</v>
+      <c r="G84" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H84" s="52"/>
       <c r="I84" s="52"/>
@@ -14210,8 +14262,8 @@
       <c r="F85" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G85" s="150" t="s">
-        <v>486</v>
+      <c r="G85" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H85" s="52"/>
       <c r="I85" s="52"/>
@@ -14246,8 +14298,8 @@
       <c r="F86" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G86" s="150" t="s">
-        <v>486</v>
+      <c r="G86" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H86" s="52"/>
       <c r="I86" s="52"/>
@@ -14282,8 +14334,8 @@
       <c r="F87" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G87" s="150" t="s">
-        <v>486</v>
+      <c r="G87" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
@@ -14322,8 +14374,8 @@
       <c r="F88" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G88" s="150" t="s">
-        <v>486</v>
+      <c r="G88" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
@@ -14356,8 +14408,8 @@
       <c r="F89" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="G89" s="150" t="s">
-        <v>486</v>
+      <c r="G89" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H89" s="52"/>
       <c r="I89" s="52"/>
@@ -14392,8 +14444,8 @@
       <c r="F90" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="G90" s="150" t="s">
-        <v>486</v>
+      <c r="G90" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
@@ -14428,8 +14480,8 @@
       <c r="F91" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G91" s="150" t="s">
-        <v>486</v>
+      <c r="G91" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
@@ -14462,8 +14514,8 @@
       <c r="F92" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="G92" s="150" t="s">
-        <v>486</v>
+      <c r="G92" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H92" s="52"/>
       <c r="I92" s="52"/>
@@ -14498,8 +14550,8 @@
       <c r="F93" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="G93" s="150" t="s">
-        <v>486</v>
+      <c r="G93" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
@@ -14538,8 +14590,8 @@
       <c r="F94" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="G94" s="150" t="s">
-        <v>486</v>
+      <c r="G94" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
@@ -14572,8 +14624,8 @@
       <c r="F95" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="G95" s="150" t="s">
-        <v>486</v>
+      <c r="G95" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H95" s="52"/>
       <c r="I95" s="52"/>
@@ -14606,8 +14658,8 @@
       <c r="F96" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="150" t="s">
-        <v>486</v>
+      <c r="G96" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
@@ -14640,8 +14692,8 @@
       <c r="F97" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="G97" s="150" t="s">
-        <v>486</v>
+      <c r="G97" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
@@ -14674,8 +14726,8 @@
       <c r="F98" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="G98" s="150" t="s">
-        <v>486</v>
+      <c r="G98" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H98" s="52"/>
       <c r="I98" s="52"/>
@@ -14710,8 +14762,8 @@
       <c r="F99" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="G99" s="150" t="s">
-        <v>486</v>
+      <c r="G99" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
@@ -14744,8 +14796,8 @@
       <c r="F100" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G100" s="150" t="s">
-        <v>486</v>
+      <c r="G100" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
@@ -14778,8 +14830,8 @@
       <c r="F101" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="G101" s="150" t="s">
-        <v>486</v>
+      <c r="G101" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H101" s="52"/>
       <c r="I101" s="52"/>
@@ -14812,8 +14864,8 @@
       <c r="F102" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="G102" s="150" t="s">
-        <v>486</v>
+      <c r="G102" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H102" s="52"/>
       <c r="I102" s="52"/>
@@ -14846,8 +14898,8 @@
       <c r="F103" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="G103" s="150" t="s">
-        <v>486</v>
+      <c r="G103" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H103" s="52"/>
       <c r="I103" s="52"/>
@@ -14882,8 +14934,8 @@
       <c r="F104" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G104" s="150" t="s">
-        <v>486</v>
+      <c r="G104" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H104" s="52"/>
       <c r="I104" s="52"/>
@@ -14924,8 +14976,8 @@
       <c r="F105" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="G105" s="150" t="s">
-        <v>486</v>
+      <c r="G105" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H105" s="52"/>
       <c r="I105" s="52"/>
@@ -14964,8 +15016,8 @@
       <c r="F106" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G106" s="150" t="s">
-        <v>486</v>
+      <c r="G106" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
@@ -14998,8 +15050,8 @@
       <c r="F107" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="G107" s="150" t="s">
-        <v>486</v>
+      <c r="G107" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H107" s="52"/>
       <c r="I107" s="52"/>
@@ -15038,8 +15090,8 @@
       <c r="F108" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="G108" s="150" t="s">
-        <v>486</v>
+      <c r="G108" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H108" s="52"/>
       <c r="I108" s="52"/>
@@ -15078,8 +15130,8 @@
       <c r="F109" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="G109" s="150" t="s">
-        <v>486</v>
+      <c r="G109" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H109" s="52"/>
       <c r="I109" s="52"/>
@@ -15112,8 +15164,8 @@
       <c r="F110" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="G110" s="150" t="s">
-        <v>486</v>
+      <c r="G110" s="149" t="s">
+        <v>484</v>
       </c>
       <c r="H110" s="52"/>
       <c r="I110" s="52"/>
@@ -15155,7 +15207,7 @@
         <v>194</v>
       </c>
       <c r="G111" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H111" s="51"/>
       <c r="I111" s="51"/>
@@ -15181,7 +15233,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="220" t="s">
+      <c r="B112" s="234" t="s">
         <v>195</v>
       </c>
       <c r="C112" s="56"/>
@@ -15191,7 +15243,7 @@
         <v>196</v>
       </c>
       <c r="G112" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H112" s="51"/>
       <c r="I112" s="51"/>
@@ -15217,7 +15269,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="220"/>
+      <c r="B113" s="234"/>
       <c r="C113" s="56"/>
       <c r="D113" s="43"/>
       <c r="E113" s="86"/>
@@ -15225,7 +15277,7 @@
         <v>197</v>
       </c>
       <c r="G113" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H113" s="51"/>
       <c r="I113" s="51"/>
@@ -15259,7 +15311,7 @@
         <v>198</v>
       </c>
       <c r="G114" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H114" s="51"/>
       <c r="I114" s="51"/>
@@ -15295,7 +15347,7 @@
         <v>199</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H115" s="51"/>
       <c r="I115" s="51"/>
@@ -15329,7 +15381,7 @@
         <v>200</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H116" s="51"/>
       <c r="I116" s="51"/>
@@ -15363,7 +15415,7 @@
         <v>201</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H117" s="51"/>
       <c r="I117" s="51"/>
@@ -15397,7 +15449,7 @@
         <v>202</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H118" s="51"/>
       <c r="I118" s="51"/>
@@ -15431,7 +15483,7 @@
         <v>203</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H119" s="51"/>
       <c r="I119" s="51"/>
@@ -15467,7 +15519,7 @@
         <v>206</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H120" s="51"/>
       <c r="I120" s="51"/>
@@ -15501,7 +15553,7 @@
         <v>207</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
@@ -15535,7 +15587,7 @@
         <v>208</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
@@ -15569,7 +15621,7 @@
         <v>209</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H123" s="51"/>
       <c r="I123" s="51"/>
@@ -15603,7 +15655,7 @@
         <v>210</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H124" s="51"/>
       <c r="I124" s="51"/>
@@ -15639,7 +15691,7 @@
         <v>212</v>
       </c>
       <c r="G125" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H125" s="51"/>
       <c r="I125" s="51"/>
@@ -15677,7 +15729,7 @@
         <v>213</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H126" s="51"/>
       <c r="I126" s="51"/>
@@ -15717,7 +15769,7 @@
         <v>216</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H127" s="51"/>
       <c r="I127" s="51"/>
@@ -15753,7 +15805,7 @@
         <v>218</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H128" s="51"/>
       <c r="I128" s="51"/>
@@ -15787,7 +15839,7 @@
         <v>219</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H129" s="51"/>
       <c r="I129" s="51"/>
@@ -15821,7 +15873,7 @@
         <v>220</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H130" s="51"/>
       <c r="I130" s="51"/>
@@ -15863,7 +15915,7 @@
         <v>222</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H131" s="51"/>
       <c r="I131" s="51"/>
@@ -15889,7 +15941,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="220" t="s">
+      <c r="B132" s="234" t="s">
         <v>223</v>
       </c>
       <c r="C132" s="56"/>
@@ -15899,7 +15951,7 @@
         <v>224</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H132" s="51"/>
       <c r="I132" s="51"/>
@@ -15925,7 +15977,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="220"/>
+      <c r="B133" s="234"/>
       <c r="C133" s="56"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
@@ -15933,7 +15985,7 @@
         <v>225</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H133" s="51"/>
       <c r="I133" s="51"/>
@@ -15967,7 +16019,7 @@
         <v>226</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H134" s="51"/>
       <c r="I134" s="51"/>
@@ -16003,7 +16055,7 @@
         <v>228</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H135" s="51"/>
       <c r="I135" s="51"/>
@@ -16037,7 +16089,7 @@
         <v>229</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
@@ -16075,7 +16127,7 @@
         <v>230</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
@@ -16115,7 +16167,7 @@
         <v>233</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H138" s="51"/>
       <c r="I138" s="51"/>
@@ -16151,7 +16203,7 @@
         <v>235</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H139" s="51"/>
       <c r="I139" s="51"/>
@@ -16187,7 +16239,7 @@
         <v>237</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
@@ -16223,7 +16275,7 @@
         <v>238</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
@@ -16259,7 +16311,7 @@
         <v>241</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
@@ -16295,7 +16347,7 @@
         <v>243</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
@@ -16329,7 +16381,7 @@
         <v>245</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
@@ -16363,7 +16415,7 @@
         <v>246</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
@@ -16397,7 +16449,7 @@
         <v>247</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
@@ -16431,7 +16483,7 @@
         <v>248</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
@@ -16465,7 +16517,7 @@
         <v>249</v>
       </c>
       <c r="G148" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
@@ -16503,7 +16555,7 @@
         <v>251</v>
       </c>
       <c r="G149" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
@@ -16537,7 +16589,7 @@
         <v>252</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
@@ -16573,7 +16625,7 @@
         <v>253</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H151" s="51"/>
       <c r="I151" s="51"/>
@@ -16607,7 +16659,7 @@
         <v>254</v>
       </c>
       <c r="G152" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
@@ -16641,7 +16693,7 @@
         <v>255</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H153" s="51"/>
       <c r="I153" s="51"/>
@@ -16675,7 +16727,7 @@
         <v>256</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H154" s="51"/>
       <c r="I154" s="51"/>
@@ -16709,7 +16761,7 @@
         <v>257</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H155" s="51"/>
       <c r="I155" s="51"/>
@@ -16743,7 +16795,7 @@
         <v>258</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H156" s="51"/>
       <c r="I156" s="51"/>
@@ -16777,7 +16829,7 @@
         <v>259</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H157" s="51"/>
       <c r="I157" s="51"/>
@@ -16811,7 +16863,7 @@
         <v>260</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H158" s="51"/>
       <c r="I158" s="51"/>
@@ -16845,7 +16897,7 @@
         <v>261</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H159" s="51"/>
       <c r="I159" s="51"/>
@@ -16879,7 +16931,7 @@
         <v>262</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H160" s="51"/>
       <c r="I160" s="51"/>
@@ -16913,7 +16965,7 @@
         <v>263</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H161" s="51"/>
       <c r="I161" s="51"/>
@@ -16949,7 +17001,7 @@
         <v>264</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H162" s="51"/>
       <c r="I162" s="51"/>
@@ -16983,7 +17035,7 @@
         <v>265</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H163" s="51"/>
       <c r="I163" s="51"/>
@@ -17017,7 +17069,7 @@
         <v>266</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H164" s="51"/>
       <c r="I164" s="51"/>
@@ -17051,7 +17103,7 @@
         <v>267</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H165" s="51"/>
       <c r="I165" s="51"/>
@@ -17085,7 +17137,7 @@
         <v>268</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H166" s="51"/>
       <c r="I166" s="51"/>
@@ -17119,7 +17171,7 @@
         <v>269</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H167" s="51"/>
       <c r="I167" s="51"/>
@@ -17153,7 +17205,7 @@
         <v>270</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H168" s="51"/>
       <c r="I168" s="51"/>
@@ -17189,7 +17241,7 @@
         <v>271</v>
       </c>
       <c r="G169" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H169" s="51"/>
       <c r="I169" s="51"/>
@@ -17223,7 +17275,7 @@
         <v>272</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H170" s="51"/>
       <c r="I170" s="51"/>
@@ -17257,7 +17309,7 @@
         <v>273</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H171" s="51"/>
       <c r="I171" s="51"/>
@@ -17291,7 +17343,7 @@
         <v>274</v>
       </c>
       <c r="G172" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H172" s="51"/>
       <c r="I172" s="51"/>
@@ -17325,7 +17377,7 @@
         <v>275</v>
       </c>
       <c r="G173" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H173" s="51"/>
       <c r="I173" s="51"/>
@@ -17359,7 +17411,7 @@
         <v>276</v>
       </c>
       <c r="G174" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H174" s="51"/>
       <c r="I174" s="51"/>
@@ -17393,7 +17445,7 @@
         <v>277</v>
       </c>
       <c r="G175" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H175" s="51"/>
       <c r="I175" s="51"/>
@@ -17427,7 +17479,7 @@
         <v>278</v>
       </c>
       <c r="G176" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H176" s="51"/>
       <c r="I176" s="51"/>
@@ -17461,7 +17513,7 @@
         <v>279</v>
       </c>
       <c r="G177" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H177" s="51"/>
       <c r="I177" s="51"/>
@@ -17497,7 +17549,7 @@
         <v>280</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H178" s="51"/>
       <c r="I178" s="51"/>
@@ -17533,7 +17585,7 @@
         <v>282</v>
       </c>
       <c r="G179" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H179" s="51"/>
       <c r="I179" s="51"/>
@@ -19329,7 +19381,7 @@
         <v>349</v>
       </c>
       <c r="G230" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H230" s="52"/>
       <c r="I230" s="52"/>
@@ -19365,7 +19417,7 @@
         <v>350</v>
       </c>
       <c r="G231" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H231" s="52"/>
       <c r="I231" s="52"/>
@@ -19399,7 +19451,7 @@
         <v>351</v>
       </c>
       <c r="G232" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H232" s="52"/>
       <c r="I232" s="52"/>
@@ -19433,7 +19485,7 @@
         <v>352</v>
       </c>
       <c r="G233" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H233" s="52"/>
       <c r="I233" s="52"/>
@@ -19467,7 +19519,7 @@
         <v>353</v>
       </c>
       <c r="G234" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H234" s="52"/>
       <c r="I234" s="52"/>
@@ -19501,7 +19553,7 @@
         <v>354</v>
       </c>
       <c r="G235" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H235" s="52"/>
       <c r="I235" s="52"/>
@@ -19537,7 +19589,7 @@
         <v>355</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H236" s="52"/>
       <c r="I236" s="52"/>
@@ -19571,7 +19623,7 @@
         <v>356</v>
       </c>
       <c r="G237" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H237" s="52"/>
       <c r="I237" s="52"/>
@@ -19605,7 +19657,7 @@
         <v>357</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H238" s="52"/>
       <c r="I238" s="52"/>
@@ -19639,7 +19691,7 @@
         <v>358</v>
       </c>
       <c r="G239" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H239" s="52"/>
       <c r="I239" s="52"/>
@@ -19673,7 +19725,7 @@
         <v>359</v>
       </c>
       <c r="G240" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H240" s="52"/>
       <c r="I240" s="52"/>
@@ -19709,7 +19761,7 @@
         <v>360</v>
       </c>
       <c r="G241" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H241" s="52"/>
       <c r="I241" s="52"/>
@@ -19749,7 +19801,7 @@
         <v>361</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H242" s="52"/>
       <c r="I242" s="52"/>
@@ -19791,7 +19843,7 @@
         <v>364</v>
       </c>
       <c r="G243" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H243" s="52"/>
       <c r="I243" s="52"/>
@@ -19825,7 +19877,7 @@
         <v>365</v>
       </c>
       <c r="G244" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H244" s="52"/>
       <c r="I244" s="52"/>
@@ -19863,7 +19915,7 @@
         <v>366</v>
       </c>
       <c r="G245" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H245" s="52"/>
       <c r="I245" s="52"/>
@@ -19897,7 +19949,7 @@
         <v>367</v>
       </c>
       <c r="G246" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H246" s="52"/>
       <c r="I246" s="52"/>
@@ -19937,7 +19989,7 @@
         <v>369</v>
       </c>
       <c r="G247" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H247" s="52"/>
       <c r="I247" s="52"/>
@@ -19973,7 +20025,7 @@
         <v>370</v>
       </c>
       <c r="G248" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H248" s="52"/>
       <c r="I248" s="52"/>
@@ -20009,7 +20061,7 @@
         <v>371</v>
       </c>
       <c r="G249" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H249" s="52"/>
       <c r="I249" s="52"/>
@@ -20045,7 +20097,7 @@
         <v>372</v>
       </c>
       <c r="G250" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H250" s="52"/>
       <c r="I250" s="52"/>
@@ -20083,7 +20135,7 @@
         <v>373</v>
       </c>
       <c r="G251" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H251" s="52"/>
       <c r="I251" s="52"/>
@@ -20117,7 +20169,7 @@
         <v>374</v>
       </c>
       <c r="G252" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H252" s="52"/>
       <c r="I252" s="52"/>
@@ -20153,7 +20205,7 @@
         <v>375</v>
       </c>
       <c r="G253" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H253" s="52"/>
       <c r="I253" s="52"/>
@@ -20187,7 +20239,7 @@
         <v>376</v>
       </c>
       <c r="G254" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H254" s="52"/>
       <c r="I254" s="52"/>
@@ -20221,7 +20273,7 @@
         <v>377</v>
       </c>
       <c r="G255" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H255" s="52"/>
       <c r="I255" s="52"/>
@@ -20255,7 +20307,7 @@
         <v>378</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H256" s="52"/>
       <c r="I256" s="52"/>
@@ -20289,7 +20341,7 @@
         <v>379</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H257" s="52"/>
       <c r="I257" s="52"/>
@@ -20323,7 +20375,7 @@
         <v>380</v>
       </c>
       <c r="G258" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H258" s="52"/>
       <c r="I258" s="52"/>
@@ -20357,7 +20409,7 @@
         <v>381</v>
       </c>
       <c r="G259" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H259" s="52"/>
       <c r="I259" s="52"/>
@@ -20391,7 +20443,7 @@
         <v>382</v>
       </c>
       <c r="G260" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H260" s="52"/>
       <c r="I260" s="52"/>
@@ -20425,7 +20477,7 @@
         <v>383</v>
       </c>
       <c r="G261" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H261" s="52"/>
       <c r="I261" s="52"/>
@@ -20459,7 +20511,7 @@
         <v>384</v>
       </c>
       <c r="G262" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H262" s="52"/>
       <c r="I262" s="52"/>
@@ -20493,7 +20545,7 @@
         <v>385</v>
       </c>
       <c r="G263" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H263" s="52"/>
       <c r="I263" s="52"/>
@@ -20529,7 +20581,7 @@
         <v>386</v>
       </c>
       <c r="G264" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H264" s="52"/>
       <c r="I264" s="52"/>
@@ -20563,7 +20615,7 @@
         <v>387</v>
       </c>
       <c r="G265" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H265" s="52"/>
       <c r="I265" s="52"/>
@@ -20597,7 +20649,7 @@
         <v>388</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H266" s="52"/>
       <c r="I266" s="52"/>
@@ -20631,7 +20683,7 @@
         <v>389</v>
       </c>
       <c r="G267" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H267" s="52"/>
       <c r="I267" s="52"/>
@@ -20665,7 +20717,7 @@
         <v>390</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H268" s="52"/>
       <c r="I268" s="52"/>
@@ -20699,7 +20751,7 @@
         <v>391</v>
       </c>
       <c r="G269" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H269" s="52"/>
       <c r="I269" s="52"/>
@@ -20735,7 +20787,7 @@
         <v>392</v>
       </c>
       <c r="G270" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H270" s="52"/>
       <c r="I270" s="52"/>
@@ -20769,7 +20821,7 @@
         <v>393</v>
       </c>
       <c r="G271" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H271" s="52"/>
       <c r="I271" s="52"/>
@@ -20803,7 +20855,7 @@
         <v>394</v>
       </c>
       <c r="G272" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H272" s="52"/>
       <c r="I272" s="52"/>
@@ -20837,7 +20889,7 @@
         <v>395</v>
       </c>
       <c r="G273" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H273" s="52"/>
       <c r="I273" s="52"/>
@@ -20871,7 +20923,7 @@
         <v>396</v>
       </c>
       <c r="G274" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H274" s="52"/>
       <c r="I274" s="52"/>
@@ -20905,7 +20957,7 @@
         <v>397</v>
       </c>
       <c r="G275" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H275" s="52"/>
       <c r="I275" s="52"/>
@@ -20939,7 +20991,7 @@
         <v>398</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H276" s="52"/>
       <c r="I276" s="52"/>
@@ -20973,7 +21025,7 @@
         <v>399</v>
       </c>
       <c r="G277" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H277" s="52"/>
       <c r="I277" s="52"/>
@@ -21009,7 +21061,7 @@
         <v>400</v>
       </c>
       <c r="G278" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H278" s="52"/>
       <c r="I278" s="52"/>
@@ -21054,7 +21106,7 @@
       <c r="H279" s="51"/>
       <c r="I279" s="51"/>
       <c r="J279" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K279" s="67"/>
       <c r="L279" s="66"/>
@@ -21079,8 +21131,8 @@
       </c>
       <c r="B280" s="50"/>
       <c r="C280" s="58"/>
-      <c r="D280" s="159"/>
-      <c r="E280" s="159"/>
+      <c r="D280" s="158"/>
+      <c r="E280" s="158"/>
       <c r="F280" s="51" t="s">
         <v>404</v>
       </c>
@@ -21088,7 +21140,7 @@
       <c r="H280" s="51"/>
       <c r="I280" s="51"/>
       <c r="J280" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K280" s="67"/>
       <c r="L280" s="66"/>
@@ -21113,8 +21165,8 @@
       </c>
       <c r="B281" s="50"/>
       <c r="C281" s="58"/>
-      <c r="D281" s="159"/>
-      <c r="E281" s="159"/>
+      <c r="D281" s="158"/>
+      <c r="E281" s="158"/>
       <c r="F281" s="51" t="s">
         <v>405</v>
       </c>
@@ -21122,7 +21174,7 @@
       <c r="H281" s="51"/>
       <c r="I281" s="51"/>
       <c r="J281" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K281" s="67"/>
       <c r="L281" s="66"/>
@@ -21146,7 +21198,7 @@
         <v>95-4-1</v>
       </c>
       <c r="B282" s="50"/>
-      <c r="C282" s="226"/>
+      <c r="C282" s="164"/>
       <c r="D282" s="54"/>
       <c r="E282" s="54"/>
       <c r="F282" s="51" t="s">
@@ -21156,7 +21208,7 @@
       <c r="H282" s="51"/>
       <c r="I282" s="51"/>
       <c r="J282" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K282" s="67"/>
       <c r="L282" s="66"/>
@@ -21180,10 +21232,10 @@
         <v>96-1-1</v>
       </c>
       <c r="B283" s="50"/>
-      <c r="C283" s="159" t="s">
+      <c r="C283" s="158" t="s">
         <v>407</v>
       </c>
-      <c r="D283" s="159" t="s">
+      <c r="D283" s="158" t="s">
         <v>214</v>
       </c>
       <c r="E283" s="51" t="s">
@@ -21196,7 +21248,7 @@
       <c r="H283" s="51"/>
       <c r="I283" s="51"/>
       <c r="J283" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K283" s="67"/>
       <c r="L283" s="66"/>
@@ -21221,7 +21273,7 @@
       </c>
       <c r="B284" s="50"/>
       <c r="C284" s="58"/>
-      <c r="D284" s="159"/>
+      <c r="D284" s="158"/>
       <c r="E284" s="54" t="s">
         <v>234</v>
       </c>
@@ -21232,7 +21284,7 @@
       <c r="H284" s="51"/>
       <c r="I284" s="51"/>
       <c r="J284" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K284" s="67"/>
       <c r="L284" s="66"/>
@@ -21257,7 +21309,7 @@
       </c>
       <c r="B285" s="50"/>
       <c r="C285" s="58"/>
-      <c r="D285" s="159"/>
+      <c r="D285" s="158"/>
       <c r="E285" s="51" t="s">
         <v>236</v>
       </c>
@@ -21268,7 +21320,7 @@
       <c r="H285" s="51"/>
       <c r="I285" s="51"/>
       <c r="J285" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K285" s="67"/>
       <c r="L285" s="66"/>
@@ -21304,7 +21356,7 @@
       <c r="H286" s="51"/>
       <c r="I286" s="51"/>
       <c r="J286" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K286" s="67"/>
       <c r="L286" s="66"/>
@@ -21329,10 +21381,10 @@
       </c>
       <c r="B287" s="50"/>
       <c r="C287" s="50"/>
-      <c r="D287" s="159" t="s">
+      <c r="D287" s="158" t="s">
         <v>412</v>
       </c>
-      <c r="E287" s="159" t="s">
+      <c r="E287" s="158" t="s">
         <v>413</v>
       </c>
       <c r="F287" s="51" t="s">
@@ -21342,7 +21394,7 @@
       <c r="H287" s="51"/>
       <c r="I287" s="51"/>
       <c r="J287" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K287" s="67"/>
       <c r="L287" s="66"/>
@@ -21368,7 +21420,7 @@
       <c r="B288" s="50"/>
       <c r="C288" s="50"/>
       <c r="D288" s="56"/>
-      <c r="E288" s="159"/>
+      <c r="E288" s="158"/>
       <c r="F288" s="51" t="s">
         <v>415</v>
       </c>
@@ -21376,7 +21428,7 @@
       <c r="H288" s="51"/>
       <c r="I288" s="51"/>
       <c r="J288" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K288" s="67"/>
       <c r="L288" s="66"/>
@@ -21402,7 +21454,7 @@
       <c r="B289" s="50"/>
       <c r="C289" s="50"/>
       <c r="D289" s="56"/>
-      <c r="E289" s="159"/>
+      <c r="E289" s="158"/>
       <c r="F289" s="51" t="s">
         <v>416</v>
       </c>
@@ -21410,7 +21462,7 @@
       <c r="H289" s="51"/>
       <c r="I289" s="51"/>
       <c r="J289" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K289" s="67"/>
       <c r="L289" s="66"/>
@@ -21436,7 +21488,7 @@
       <c r="B290" s="50"/>
       <c r="C290" s="50"/>
       <c r="D290" s="56"/>
-      <c r="E290" s="159"/>
+      <c r="E290" s="158"/>
       <c r="F290" s="51" t="s">
         <v>254</v>
       </c>
@@ -21444,7 +21496,7 @@
       <c r="H290" s="51"/>
       <c r="I290" s="51"/>
       <c r="J290" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K290" s="67"/>
       <c r="L290" s="66"/>
@@ -21470,7 +21522,7 @@
       <c r="B291" s="50"/>
       <c r="C291" s="50"/>
       <c r="D291" s="56"/>
-      <c r="E291" s="159"/>
+      <c r="E291" s="158"/>
       <c r="F291" s="51" t="s">
         <v>255</v>
       </c>
@@ -21478,7 +21530,7 @@
       <c r="H291" s="51"/>
       <c r="I291" s="51"/>
       <c r="J291" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K291" s="67"/>
       <c r="L291" s="66"/>
@@ -21504,7 +21556,7 @@
       <c r="B292" s="50"/>
       <c r="C292" s="50"/>
       <c r="D292" s="56"/>
-      <c r="E292" s="159"/>
+      <c r="E292" s="158"/>
       <c r="F292" s="51" t="s">
         <v>256</v>
       </c>
@@ -21512,7 +21564,7 @@
       <c r="H292" s="51"/>
       <c r="I292" s="51"/>
       <c r="J292" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K292" s="67"/>
       <c r="L292" s="66"/>
@@ -21538,7 +21590,7 @@
       <c r="B293" s="50"/>
       <c r="C293" s="50"/>
       <c r="D293" s="56"/>
-      <c r="E293" s="159"/>
+      <c r="E293" s="158"/>
       <c r="F293" s="51" t="s">
         <v>417</v>
       </c>
@@ -21546,7 +21598,7 @@
       <c r="H293" s="51"/>
       <c r="I293" s="51"/>
       <c r="J293" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K293" s="67"/>
       <c r="L293" s="66"/>
@@ -21572,7 +21624,7 @@
       <c r="B294" s="50"/>
       <c r="C294" s="50"/>
       <c r="D294" s="56"/>
-      <c r="E294" s="159"/>
+      <c r="E294" s="158"/>
       <c r="F294" s="51" t="s">
         <v>418</v>
       </c>
@@ -21580,7 +21632,7 @@
       <c r="H294" s="51"/>
       <c r="I294" s="51"/>
       <c r="J294" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K294" s="67"/>
       <c r="L294" s="66"/>
@@ -21603,8 +21655,8 @@
 )</f>
         <v>100-9-1</v>
       </c>
-      <c r="B295" s="227"/>
-      <c r="C295" s="227"/>
+      <c r="B295" s="165"/>
+      <c r="C295" s="165"/>
       <c r="D295" s="53"/>
       <c r="E295" s="54"/>
       <c r="F295" s="51" t="s">
@@ -21614,7 +21666,7 @@
       <c r="H295" s="51"/>
       <c r="I295" s="51"/>
       <c r="J295" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K295" s="67"/>
       <c r="L295" s="66"/>
@@ -21656,7 +21708,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -21675,7 +21727,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -21685,17 +21737,17 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>8</v>
@@ -21706,7 +21758,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>9</v>
@@ -21771,10 +21823,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>421</v>
+        <v>28</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>422</v>
+        <v>552</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -21805,8 +21857,8 @@
 )</f>
         <v>1-1-1</v>
       </c>
-      <c r="B11" s="157" t="s">
-        <v>423</v>
+      <c r="B11" s="156" t="s">
+        <v>421</v>
       </c>
       <c r="C11" s="97" t="s">
         <v>40</v>
@@ -21821,7 +21873,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -21848,7 +21900,7 @@
 )</f>
         <v>2-1-1</v>
       </c>
-      <c r="B12" s="153"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="102"/>
       <c r="D12" s="103"/>
       <c r="E12" s="103" t="s">
@@ -21858,7 +21910,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -21885,7 +21937,7 @@
 )</f>
         <v>3-1-1</v>
       </c>
-      <c r="B13" s="153"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="102"/>
       <c r="D13" s="98" t="s">
         <v>47</v>
@@ -21897,7 +21949,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -21924,7 +21976,7 @@
 )</f>
         <v>3-2-1</v>
       </c>
-      <c r="B14" s="153"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="102"/>
       <c r="D14" s="98"/>
       <c r="E14" s="104"/>
@@ -21932,7 +21984,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
@@ -21959,7 +22011,7 @@
 )</f>
         <v>3-3-1</v>
       </c>
-      <c r="B15" s="153"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="102"/>
       <c r="D15" s="98"/>
       <c r="E15" s="104"/>
@@ -21967,7 +22019,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
@@ -21994,7 +22046,7 @@
 )</f>
         <v>3-4-1</v>
       </c>
-      <c r="B16" s="153"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="102"/>
       <c r="D16" s="98"/>
       <c r="E16" s="104"/>
@@ -22002,7 +22054,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
@@ -22029,7 +22081,7 @@
 )</f>
         <v>3-5-1</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="102"/>
       <c r="D17" s="105"/>
       <c r="E17" s="103"/>
@@ -22037,7 +22089,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
@@ -22064,7 +22116,7 @@
 )</f>
         <v>4-1-1</v>
       </c>
-      <c r="B18" s="153"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="102"/>
       <c r="D18" s="104" t="s">
         <v>54</v>
@@ -22076,7 +22128,7 @@
         <v>56</v>
       </c>
       <c r="G18" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
@@ -22103,7 +22155,7 @@
 )</f>
         <v>4-2-1</v>
       </c>
-      <c r="B19" s="153"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="102"/>
       <c r="D19" s="104"/>
       <c r="E19" s="104"/>
@@ -22111,7 +22163,7 @@
         <v>57</v>
       </c>
       <c r="G19" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
@@ -22138,7 +22190,7 @@
 )</f>
         <v>4-3-1</v>
       </c>
-      <c r="B20" s="153"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="102"/>
       <c r="D20" s="104"/>
       <c r="E20" s="103"/>
@@ -22146,7 +22198,7 @@
         <v>58</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
@@ -22173,7 +22225,7 @@
 )</f>
         <v>5-1-1</v>
       </c>
-      <c r="B21" s="153"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="102"/>
       <c r="D21" s="104"/>
       <c r="E21" s="104" t="s">
@@ -22183,7 +22235,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
@@ -22210,7 +22262,7 @@
 )</f>
         <v>5-2-1</v>
       </c>
-      <c r="B22" s="153"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="102"/>
       <c r="D22" s="104"/>
       <c r="E22" s="104"/>
@@ -22218,7 +22270,7 @@
         <v>61</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
@@ -22245,15 +22297,15 @@
 )</f>
         <v>5-3-1</v>
       </c>
-      <c r="B23" s="153"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="102"/>
       <c r="D23" s="104"/>
       <c r="E23" s="104"/>
       <c r="F23" s="99" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G23" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
@@ -22280,15 +22332,15 @@
 )</f>
         <v>5-4-1</v>
       </c>
-      <c r="B24" s="153"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="102"/>
       <c r="D24" s="105"/>
       <c r="E24" s="103"/>
       <c r="F24" s="99" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G24" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
@@ -22315,7 +22367,7 @@
 )</f>
         <v>6-1-1</v>
       </c>
-      <c r="B25" s="153"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="102"/>
       <c r="D25" s="104" t="s">
         <v>64</v>
@@ -22327,7 +22379,7 @@
         <v>65</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
@@ -22354,7 +22406,7 @@
 )</f>
         <v>6-2-1</v>
       </c>
-      <c r="B26" s="153"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="102"/>
       <c r="D26" s="105"/>
       <c r="E26" s="103"/>
@@ -22362,7 +22414,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
@@ -22389,7 +22441,7 @@
 )</f>
         <v>7-1-1</v>
       </c>
-      <c r="B27" s="153"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="102"/>
       <c r="D27" s="104" t="s">
         <v>67</v>
@@ -22401,7 +22453,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
@@ -22428,7 +22480,7 @@
 )</f>
         <v>7-2-1</v>
       </c>
-      <c r="B28" s="153"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="102"/>
       <c r="D28" s="104"/>
       <c r="E28" s="103"/>
@@ -22436,7 +22488,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
@@ -22463,7 +22515,7 @@
 )</f>
         <v>8-1-1</v>
       </c>
-      <c r="B29" s="153"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="102"/>
       <c r="D29" s="98"/>
       <c r="E29" s="104" t="s">
@@ -22473,7 +22525,7 @@
         <v>72</v>
       </c>
       <c r="G29" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
@@ -22500,7 +22552,7 @@
 )</f>
         <v>8-2-1</v>
       </c>
-      <c r="B30" s="153"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="102"/>
       <c r="D30" s="104"/>
       <c r="E30" s="104"/>
@@ -22508,7 +22560,7 @@
         <v>73</v>
       </c>
       <c r="G30" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
@@ -22535,7 +22587,7 @@
 )</f>
         <v>8-3-1</v>
       </c>
-      <c r="B31" s="153"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="102"/>
       <c r="D31" s="104"/>
       <c r="E31" s="104"/>
@@ -22543,7 +22595,7 @@
         <v>74</v>
       </c>
       <c r="G31" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
@@ -22570,7 +22622,7 @@
 )</f>
         <v>8-4-1</v>
       </c>
-      <c r="B32" s="153"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="102"/>
       <c r="D32" s="104"/>
       <c r="E32" s="103"/>
@@ -22578,7 +22630,7 @@
         <v>75</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
@@ -22605,17 +22657,17 @@
 )</f>
         <v>9-1-1</v>
       </c>
-      <c r="B33" s="153"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="102"/>
       <c r="D33" s="104"/>
       <c r="E33" s="104" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F33" s="99" t="s">
         <v>77</v>
       </c>
       <c r="G33" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
@@ -22642,7 +22694,7 @@
 )</f>
         <v>9-2-1</v>
       </c>
-      <c r="B34" s="153"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="102"/>
       <c r="D34" s="104"/>
       <c r="E34" s="103"/>
@@ -22650,7 +22702,7 @@
         <v>78</v>
       </c>
       <c r="G34" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
@@ -22677,17 +22729,17 @@
 )</f>
         <v>10-1-1</v>
       </c>
-      <c r="B35" s="153"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="98"/>
       <c r="D35" s="104"/>
       <c r="E35" s="98" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="99" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G35" s="66" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -22714,21 +22766,21 @@
 )</f>
         <v>11-1-1</v>
       </c>
-      <c r="B36" s="153"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="129" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="129" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E36" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F36" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="151" t="s">
-        <v>490</v>
+      <c r="G36" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
@@ -22755,15 +22807,15 @@
 )</f>
         <v>11-2-1</v>
       </c>
-      <c r="B37" s="153"/>
+      <c r="B37" s="152"/>
       <c r="C37" s="98"/>
       <c r="D37" s="104"/>
       <c r="E37" s="98"/>
       <c r="F37" s="99" t="s">
-        <v>431</v>
-      </c>
-      <c r="G37" s="151" t="s">
-        <v>490</v>
+        <v>429</v>
+      </c>
+      <c r="G37" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
@@ -22790,15 +22842,15 @@
 )</f>
         <v>11-3-1</v>
       </c>
-      <c r="B38" s="153"/>
+      <c r="B38" s="152"/>
       <c r="C38" s="98"/>
       <c r="D38" s="104"/>
       <c r="E38" s="98"/>
       <c r="F38" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="151" t="s">
-        <v>490</v>
+      <c r="G38" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
@@ -22825,15 +22877,15 @@
 )</f>
         <v>11-4-1</v>
       </c>
-      <c r="B39" s="153"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="98"/>
       <c r="D39" s="105"/>
       <c r="E39" s="103"/>
       <c r="F39" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="151" t="s">
-        <v>490</v>
+      <c r="G39" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
@@ -22860,7 +22912,7 @@
 )</f>
         <v>12-1-1</v>
       </c>
-      <c r="B40" s="153"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="98"/>
       <c r="D40" s="104" t="s">
         <v>89</v>
@@ -22869,10 +22921,10 @@
         <v>48</v>
       </c>
       <c r="F40" s="99" t="s">
-        <v>432</v>
-      </c>
-      <c r="G40" s="151" t="s">
-        <v>490</v>
+        <v>430</v>
+      </c>
+      <c r="G40" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
@@ -22899,15 +22951,15 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="153"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="98"/>
       <c r="D41" s="104"/>
       <c r="E41" s="98"/>
       <c r="F41" s="99" t="s">
-        <v>433</v>
-      </c>
-      <c r="G41" s="151" t="s">
-        <v>490</v>
+        <v>431</v>
+      </c>
+      <c r="G41" s="150" t="s">
+        <v>488</v>
       </c>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
@@ -22934,41 +22986,49 @@
 )</f>
         <v>13-1-1</v>
       </c>
-      <c r="B42" s="153"/>
-      <c r="C42" s="157" t="s">
-        <v>491</v>
-      </c>
-      <c r="D42" s="157" t="s">
+      <c r="B42" s="152"/>
+      <c r="C42" s="156" t="s">
+        <v>489</v>
+      </c>
+      <c r="D42" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="157" t="s">
+      <c r="E42" s="156" t="s">
+        <v>490</v>
+      </c>
+      <c r="F42" s="153" t="s">
         <v>492</v>
       </c>
-      <c r="F42" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="G42" s="155"/>
+      <c r="G42" s="154"/>
       <c r="H42" s="146" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I42" s="146" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J42" s="144" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="K42" s="144" t="s">
-        <v>516</v>
-      </c>
-      <c r="L42" s="146"/>
+        <v>513</v>
+      </c>
+      <c r="L42" s="146" t="s">
+        <v>549</v>
+      </c>
       <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
-      <c r="O42" s="146"/>
-      <c r="P42" s="146"/>
-      <c r="Q42" s="156"/>
+      <c r="N42" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O42" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P42" s="174" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q42" s="155"/>
       <c r="R42" s="144"/>
     </row>
-    <row r="43" spans="1:18" ht="33.75">
+    <row r="43" spans="1:18" ht="45">
       <c r="A43" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -22981,32 +23041,40 @@
 )</f>
         <v>13-2-1</v>
       </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="154" t="s">
-        <v>495</v>
-      </c>
-      <c r="G43" s="155"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="153" t="s">
+        <v>493</v>
+      </c>
+      <c r="G43" s="154"/>
       <c r="H43" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="I43" s="146" t="s">
+        <v>502</v>
+      </c>
+      <c r="J43" s="144" t="s">
         <v>503</v>
       </c>
-      <c r="I43" s="146" t="s">
+      <c r="K43" s="144" t="s">
         <v>504</v>
       </c>
-      <c r="J43" s="144" t="s">
-        <v>505</v>
-      </c>
-      <c r="K43" s="144" t="s">
-        <v>506</v>
-      </c>
-      <c r="L43" s="146"/>
+      <c r="L43" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="156"/>
+      <c r="N43" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O43" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P43" s="174" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q43" s="155"/>
       <c r="R43" s="144"/>
     </row>
     <row r="44" spans="1:18" ht="67.5">
@@ -23022,39 +23090,47 @@
 )</f>
         <v>14-1-1</v>
       </c>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="157" t="s">
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="157" t="s">
-        <v>493</v>
-      </c>
-      <c r="F44" s="154" t="s">
-        <v>496</v>
-      </c>
-      <c r="G44" s="155"/>
+      <c r="E44" s="156" t="s">
+        <v>491</v>
+      </c>
+      <c r="F44" s="153" t="s">
+        <v>494</v>
+      </c>
+      <c r="G44" s="154"/>
       <c r="H44" s="146" t="s">
+        <v>505</v>
+      </c>
+      <c r="I44" s="146" t="s">
+        <v>506</v>
+      </c>
+      <c r="J44" s="144" t="s">
         <v>507</v>
       </c>
-      <c r="I44" s="146" t="s">
+      <c r="K44" s="144" t="s">
         <v>508</v>
       </c>
-      <c r="J44" s="144" t="s">
-        <v>509</v>
-      </c>
-      <c r="K44" s="144" t="s">
-        <v>510</v>
-      </c>
-      <c r="L44" s="146"/>
+      <c r="L44" s="146" t="s">
+        <v>551</v>
+      </c>
       <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
-      <c r="O44" s="146"/>
-      <c r="P44" s="146"/>
-      <c r="Q44" s="156"/>
+      <c r="N44" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O44" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P44" s="174" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q44" s="155"/>
       <c r="R44" s="144"/>
     </row>
-    <row r="45" spans="1:18" ht="33.75">
+    <row r="45" spans="1:18" ht="45">
       <c r="A45" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -23067,32 +23143,40 @@
 )</f>
         <v>14-2-1</v>
       </c>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="154" t="s">
-        <v>497</v>
-      </c>
-      <c r="G45" s="155"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="153" t="s">
+        <v>495</v>
+      </c>
+      <c r="G45" s="154"/>
       <c r="H45" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="I45" s="146" t="s">
+        <v>502</v>
+      </c>
+      <c r="J45" s="144" t="s">
         <v>503</v>
       </c>
-      <c r="I45" s="146" t="s">
+      <c r="K45" s="144" t="s">
         <v>504</v>
       </c>
-      <c r="J45" s="144" t="s">
-        <v>505</v>
-      </c>
-      <c r="K45" s="144" t="s">
-        <v>506</v>
-      </c>
-      <c r="L45" s="146"/>
+      <c r="L45" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="146"/>
-      <c r="P45" s="146"/>
-      <c r="Q45" s="156"/>
+      <c r="N45" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O45" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P45" s="174" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q45" s="155"/>
       <c r="R45" s="144"/>
     </row>
     <row r="46" spans="1:18" ht="45">
@@ -23125,22 +23209,30 @@
       </c>
       <c r="G46" s="62"/>
       <c r="H46" s="61" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I46" s="61" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J46" s="144" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K46" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="L46" s="63"/>
+        <v>516</v>
+      </c>
+      <c r="L46" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
+      <c r="N46" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O46" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P46" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q46" s="108"/>
       <c r="R46" s="62"/>
     </row>
@@ -23166,22 +23258,30 @@
       </c>
       <c r="G47" s="62"/>
       <c r="H47" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J47" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="I47" s="61" t="s">
+      <c r="K47" s="112" t="s">
         <v>508</v>
       </c>
-      <c r="J47" s="112" t="s">
-        <v>509</v>
-      </c>
-      <c r="K47" s="112" t="s">
-        <v>510</v>
-      </c>
-      <c r="L47" s="63"/>
+      <c r="L47" s="146" t="s">
+        <v>551</v>
+      </c>
       <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
+      <c r="N47" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O47" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P47" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q47" s="108"/>
       <c r="R47" s="62"/>
     </row>
@@ -23209,7 +23309,7 @@
       <c r="H48" s="42"/>
       <c r="I48" s="51"/>
       <c r="J48" s="65" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K48" s="65"/>
       <c r="L48" s="67"/>
@@ -23245,8 +23345,8 @@
       <c r="G49" s="66"/>
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
-      <c r="J49" s="228" t="s">
-        <v>521</v>
+      <c r="J49" s="166" t="s">
+        <v>518</v>
       </c>
       <c r="K49" s="66"/>
       <c r="L49" s="67"/>
@@ -23280,8 +23380,8 @@
       <c r="G50" s="66"/>
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
-      <c r="J50" s="228" t="s">
-        <v>521</v>
+      <c r="J50" s="166" t="s">
+        <v>518</v>
       </c>
       <c r="K50" s="66"/>
       <c r="L50" s="67"/>
@@ -23315,8 +23415,8 @@
       <c r="G51" s="66"/>
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
-      <c r="J51" s="228" t="s">
-        <v>521</v>
+      <c r="J51" s="166" t="s">
+        <v>518</v>
       </c>
       <c r="K51" s="66"/>
       <c r="L51" s="67"/>
@@ -23351,22 +23451,30 @@
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="61" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I52" s="61" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J52" s="112" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K52" s="112" t="s">
-        <v>519</v>
-      </c>
-      <c r="L52" s="63"/>
+        <v>516</v>
+      </c>
+      <c r="L52" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
+      <c r="N52" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O52" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P52" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q52" s="108"/>
       <c r="R52" s="62"/>
     </row>
@@ -23392,22 +23500,30 @@
       </c>
       <c r="G53" s="62"/>
       <c r="H53" s="61" t="s">
+        <v>505</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J53" s="112" t="s">
         <v>507</v>
       </c>
-      <c r="I53" s="61" t="s">
+      <c r="K53" s="112" t="s">
         <v>508</v>
       </c>
-      <c r="J53" s="112" t="s">
-        <v>509</v>
-      </c>
-      <c r="K53" s="112" t="s">
-        <v>510</v>
-      </c>
-      <c r="L53" s="63"/>
+      <c r="L53" s="146" t="s">
+        <v>551</v>
+      </c>
       <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
+      <c r="N53" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O53" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P53" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q53" s="108"/>
       <c r="R53" s="62"/>
     </row>
@@ -23437,7 +23553,7 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="66" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K54" s="66"/>
       <c r="L54" s="67"/>
@@ -23472,7 +23588,7 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="66" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K55" s="66"/>
       <c r="L55" s="67"/>
@@ -23507,7 +23623,7 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="66" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K56" s="66"/>
       <c r="L56" s="67"/>
@@ -23542,7 +23658,7 @@
       <c r="H57" s="67"/>
       <c r="I57" s="67"/>
       <c r="J57" s="66" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K57" s="66"/>
       <c r="L57" s="67"/>
@@ -23577,7 +23693,7 @@
       <c r="H58" s="67"/>
       <c r="I58" s="67"/>
       <c r="J58" s="66" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K58" s="66"/>
       <c r="L58" s="67"/>
@@ -23612,7 +23728,7 @@
       <c r="H59" s="67"/>
       <c r="I59" s="67"/>
       <c r="J59" s="66" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K59" s="66"/>
       <c r="L59" s="67"/>
@@ -23649,7 +23765,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="65" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K60" s="65"/>
       <c r="L60" s="67"/>
@@ -23677,7 +23793,7 @@
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
       <c r="E61" s="99" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F61" s="99" t="s">
         <v>115</v>
@@ -23686,7 +23802,7 @@
       <c r="H61" s="67"/>
       <c r="I61" s="67"/>
       <c r="J61" s="66" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K61" s="66"/>
       <c r="L61" s="67"/>
@@ -23723,7 +23839,7 @@
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
       <c r="J62" s="66" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K62" s="66"/>
       <c r="L62" s="67"/>
@@ -23749,20 +23865,20 @@
       </c>
       <c r="B63" s="101"/>
       <c r="C63" s="101"/>
-      <c r="D63" s="160" t="s">
+      <c r="D63" s="159" t="s">
         <v>118</v>
       </c>
       <c r="E63" s="104" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F63" s="99" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G63" s="66"/>
       <c r="H63" s="67"/>
       <c r="I63" s="67"/>
       <c r="J63" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K63" s="66"/>
       <c r="L63" s="67"/>
@@ -23788,16 +23904,16 @@
       </c>
       <c r="B64" s="101"/>
       <c r="C64" s="114"/>
-      <c r="D64" s="160"/>
+      <c r="D64" s="159"/>
       <c r="E64" s="104"/>
       <c r="F64" s="97" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G64" s="66"/>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K64" s="65"/>
       <c r="L64" s="67"/>
@@ -23823,16 +23939,16 @@
       </c>
       <c r="B65" s="101"/>
       <c r="C65" s="114"/>
-      <c r="D65" s="160"/>
+      <c r="D65" s="159"/>
       <c r="E65" s="104"/>
       <c r="F65" s="99" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G65" s="66"/>
       <c r="H65" s="67"/>
       <c r="I65" s="67"/>
       <c r="J65" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K65" s="66"/>
       <c r="L65" s="67"/>
@@ -23858,16 +23974,16 @@
       </c>
       <c r="B66" s="101"/>
       <c r="C66" s="114"/>
-      <c r="D66" s="160"/>
+      <c r="D66" s="159"/>
       <c r="E66" s="104"/>
       <c r="F66" s="99" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G66" s="66"/>
       <c r="H66" s="67"/>
       <c r="I66" s="67"/>
       <c r="J66" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K66" s="66"/>
       <c r="L66" s="67"/>
@@ -23893,7 +24009,7 @@
       </c>
       <c r="B67" s="101"/>
       <c r="C67" s="114"/>
-      <c r="D67" s="160"/>
+      <c r="D67" s="159"/>
       <c r="E67" s="103"/>
       <c r="F67" s="99" t="s">
         <v>123</v>
@@ -23902,7 +24018,7 @@
       <c r="H67" s="67"/>
       <c r="I67" s="67"/>
       <c r="J67" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K67" s="66"/>
       <c r="L67" s="67"/>
@@ -23928,7 +24044,7 @@
       </c>
       <c r="B68" s="101"/>
       <c r="C68" s="114"/>
-      <c r="D68" s="160"/>
+      <c r="D68" s="159"/>
       <c r="E68" s="104" t="s">
         <v>124</v>
       </c>
@@ -23939,7 +24055,7 @@
       <c r="H68" s="67"/>
       <c r="I68" s="67"/>
       <c r="J68" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K68" s="66"/>
       <c r="L68" s="67"/>
@@ -23965,7 +24081,7 @@
       </c>
       <c r="B69" s="101"/>
       <c r="C69" s="114"/>
-      <c r="D69" s="160"/>
+      <c r="D69" s="159"/>
       <c r="E69" s="104"/>
       <c r="F69" s="99" t="s">
         <v>126</v>
@@ -23974,7 +24090,7 @@
       <c r="H69" s="67"/>
       <c r="I69" s="67"/>
       <c r="J69" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K69" s="66"/>
       <c r="L69" s="67"/>
@@ -24000,7 +24116,7 @@
       </c>
       <c r="B70" s="101"/>
       <c r="C70" s="114"/>
-      <c r="D70" s="160"/>
+      <c r="D70" s="159"/>
       <c r="E70" s="104"/>
       <c r="F70" s="99" t="s">
         <v>127</v>
@@ -24009,7 +24125,7 @@
       <c r="H70" s="67"/>
       <c r="I70" s="67"/>
       <c r="J70" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K70" s="66"/>
       <c r="L70" s="67"/>
@@ -24035,7 +24151,7 @@
       </c>
       <c r="B71" s="101"/>
       <c r="C71" s="114"/>
-      <c r="D71" s="160"/>
+      <c r="D71" s="159"/>
       <c r="E71" s="104"/>
       <c r="F71" s="99" t="s">
         <v>128</v>
@@ -24044,7 +24160,7 @@
       <c r="H71" s="67"/>
       <c r="I71" s="67"/>
       <c r="J71" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K71" s="66"/>
       <c r="L71" s="67"/>
@@ -24070,7 +24186,7 @@
       </c>
       <c r="B72" s="101"/>
       <c r="C72" s="114"/>
-      <c r="D72" s="160"/>
+      <c r="D72" s="159"/>
       <c r="E72" s="104"/>
       <c r="F72" s="99" t="s">
         <v>129</v>
@@ -24079,7 +24195,7 @@
       <c r="H72" s="67"/>
       <c r="I72" s="67"/>
       <c r="J72" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K72" s="66"/>
       <c r="L72" s="67"/>
@@ -24105,7 +24221,7 @@
       </c>
       <c r="B73" s="101"/>
       <c r="C73" s="114"/>
-      <c r="D73" s="160"/>
+      <c r="D73" s="159"/>
       <c r="E73" s="104"/>
       <c r="F73" s="99" t="s">
         <v>130</v>
@@ -24114,7 +24230,7 @@
       <c r="H73" s="67"/>
       <c r="I73" s="67"/>
       <c r="J73" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K73" s="66"/>
       <c r="L73" s="67"/>
@@ -24140,7 +24256,7 @@
       </c>
       <c r="B74" s="101"/>
       <c r="C74" s="114"/>
-      <c r="D74" s="160"/>
+      <c r="D74" s="159"/>
       <c r="E74" s="104"/>
       <c r="F74" s="99" t="s">
         <v>131</v>
@@ -24149,7 +24265,7 @@
       <c r="H74" s="67"/>
       <c r="I74" s="67"/>
       <c r="J74" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K74" s="66"/>
       <c r="L74" s="67"/>
@@ -24175,7 +24291,7 @@
       </c>
       <c r="B75" s="101"/>
       <c r="C75" s="114"/>
-      <c r="D75" s="160"/>
+      <c r="D75" s="159"/>
       <c r="E75" s="103"/>
       <c r="F75" s="99" t="s">
         <v>132</v>
@@ -24184,7 +24300,7 @@
       <c r="H75" s="67"/>
       <c r="I75" s="67"/>
       <c r="J75" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K75" s="66"/>
       <c r="L75" s="67"/>
@@ -24210,24 +24326,24 @@
       </c>
       <c r="B76" s="101"/>
       <c r="C76" s="114"/>
-      <c r="D76" s="160"/>
-      <c r="E76" s="229" t="s">
+      <c r="D76" s="159"/>
+      <c r="E76" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="F76" s="230" t="s">
+      <c r="F76" s="168" t="s">
         <v>134</v>
       </c>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
       <c r="I76" s="51"/>
       <c r="J76" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K76" s="65"/>
-      <c r="L76" s="223"/>
-      <c r="M76" s="223"/>
+      <c r="L76" s="161"/>
+      <c r="M76" s="161"/>
       <c r="N76" s="67"/>
-      <c r="O76" s="225"/>
+      <c r="O76" s="163"/>
       <c r="P76" s="67"/>
       <c r="Q76" s="100"/>
       <c r="R76" s="66"/>
@@ -24247,7 +24363,7 @@
       </c>
       <c r="B77" s="101"/>
       <c r="C77" s="115"/>
-      <c r="D77" s="160"/>
+      <c r="D77" s="159"/>
       <c r="E77" s="104" t="s">
         <v>135</v>
       </c>
@@ -24258,7 +24374,7 @@
       <c r="H77" s="67"/>
       <c r="I77" s="67"/>
       <c r="J77" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K77" s="66"/>
       <c r="L77" s="67"/>
@@ -24284,7 +24400,7 @@
       </c>
       <c r="B78" s="101"/>
       <c r="C78" s="115"/>
-      <c r="D78" s="160"/>
+      <c r="D78" s="159"/>
       <c r="E78" s="104"/>
       <c r="F78" s="99" t="s">
         <v>137</v>
@@ -24293,7 +24409,7 @@
       <c r="H78" s="67"/>
       <c r="I78" s="67"/>
       <c r="J78" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K78" s="66"/>
       <c r="L78" s="67"/>
@@ -24319,7 +24435,7 @@
       </c>
       <c r="B79" s="101"/>
       <c r="C79" s="115"/>
-      <c r="D79" s="160"/>
+      <c r="D79" s="159"/>
       <c r="E79" s="104"/>
       <c r="F79" s="99" t="s">
         <v>138</v>
@@ -24328,7 +24444,7 @@
       <c r="H79" s="67"/>
       <c r="I79" s="67"/>
       <c r="J79" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K79" s="66"/>
       <c r="L79" s="67"/>
@@ -24354,7 +24470,7 @@
       </c>
       <c r="B80" s="101"/>
       <c r="C80" s="115"/>
-      <c r="D80" s="160"/>
+      <c r="D80" s="159"/>
       <c r="E80" s="104"/>
       <c r="F80" s="99" t="s">
         <v>139</v>
@@ -24363,7 +24479,7 @@
       <c r="H80" s="67"/>
       <c r="I80" s="67"/>
       <c r="J80" s="66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K80" s="66"/>
       <c r="L80" s="67"/>
@@ -24436,22 +24552,30 @@
       </c>
       <c r="G82" s="62"/>
       <c r="H82" s="61" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I82" s="61" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J82" s="112" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K82" s="112" t="s">
-        <v>519</v>
-      </c>
-      <c r="L82" s="63"/>
+        <v>516</v>
+      </c>
+      <c r="L82" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="63"/>
+      <c r="N82" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O82" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P82" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q82" s="108"/>
       <c r="R82" s="62"/>
     </row>
@@ -24477,22 +24601,32 @@
       </c>
       <c r="G83" s="62"/>
       <c r="H83" s="61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I83" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J83" s="61" t="s">
+        <v>524</v>
+      </c>
+      <c r="K83" s="112" t="s">
         <v>508</v>
       </c>
-      <c r="J83" s="61" t="s">
-        <v>527</v>
-      </c>
-      <c r="K83" s="112" t="s">
-        <v>510</v>
-      </c>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
-      <c r="O83" s="63"/>
-      <c r="P83" s="63"/>
+      <c r="L83" s="63" t="s">
+        <v>556</v>
+      </c>
+      <c r="M83" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="N83" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O83" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P83" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q83" s="108"/>
       <c r="R83" s="62"/>
     </row>
@@ -24520,22 +24654,30 @@
       </c>
       <c r="G84" s="62"/>
       <c r="H84" s="63" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I84" s="63" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J84" s="113" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K84" s="62" t="s">
-        <v>519</v>
-      </c>
-      <c r="L84" s="63"/>
+        <v>516</v>
+      </c>
+      <c r="L84" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M84" s="63"/>
-      <c r="N84" s="63"/>
-      <c r="O84" s="63"/>
-      <c r="P84" s="63"/>
+      <c r="N84" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O84" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P84" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q84" s="108"/>
       <c r="R84" s="62"/>
     </row>
@@ -24559,22 +24701,30 @@
       <c r="F85" s="107"/>
       <c r="G85" s="62"/>
       <c r="H85" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="I85" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J85" s="138" t="s">
         <v>507</v>
       </c>
-      <c r="I85" s="63" t="s">
+      <c r="K85" s="62" t="s">
         <v>508</v>
       </c>
-      <c r="J85" s="138" t="s">
-        <v>509</v>
-      </c>
-      <c r="K85" s="62" t="s">
-        <v>510</v>
-      </c>
-      <c r="L85" s="63"/>
+      <c r="L85" s="146" t="s">
+        <v>551</v>
+      </c>
       <c r="M85" s="63"/>
-      <c r="N85" s="63"/>
-      <c r="O85" s="63"/>
-      <c r="P85" s="63"/>
+      <c r="N85" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O85" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P85" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q85" s="108"/>
       <c r="R85" s="62"/>
     </row>
@@ -24604,7 +24754,7 @@
       <c r="H86" s="67"/>
       <c r="I86" s="67"/>
       <c r="J86" s="66" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K86" s="66"/>
       <c r="L86" s="67"/>
@@ -24639,7 +24789,7 @@
       <c r="H87" s="67"/>
       <c r="I87" s="67"/>
       <c r="J87" s="66" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K87" s="66"/>
       <c r="L87" s="67"/>
@@ -24676,7 +24826,7 @@
       <c r="H88" s="67"/>
       <c r="I88" s="67"/>
       <c r="J88" s="66" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K88" s="66"/>
       <c r="L88" s="67"/>
@@ -24713,7 +24863,7 @@
       <c r="H89" s="67"/>
       <c r="I89" s="67"/>
       <c r="J89" s="66" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K89" s="66"/>
       <c r="L89" s="67"/>
@@ -24738,14 +24888,14 @@
         <v>31-1-1</v>
       </c>
       <c r="B90" s="101"/>
-      <c r="C90" s="160" t="s">
+      <c r="C90" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="160" t="s">
+      <c r="D90" s="159" t="s">
         <v>143</v>
       </c>
       <c r="E90" s="99" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F90" s="99" t="s">
         <v>156</v>
@@ -24754,7 +24904,7 @@
       <c r="H90" s="67"/>
       <c r="I90" s="67"/>
       <c r="J90" s="66" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K90" s="66"/>
       <c r="L90" s="67"/>
@@ -24780,7 +24930,7 @@
       </c>
       <c r="B91" s="101"/>
       <c r="C91" s="104"/>
-      <c r="D91" s="160"/>
+      <c r="D91" s="159"/>
       <c r="E91" s="99" t="s">
         <v>146</v>
       </c>
@@ -24791,7 +24941,7 @@
       <c r="H91" s="67"/>
       <c r="I91" s="67"/>
       <c r="J91" s="66" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K91" s="66"/>
       <c r="L91" s="67"/>
@@ -24819,7 +24969,7 @@
       <c r="C92" s="103"/>
       <c r="D92" s="103"/>
       <c r="E92" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F92" s="99" t="s">
         <v>159</v>
@@ -24828,7 +24978,7 @@
       <c r="H92" s="67"/>
       <c r="I92" s="67"/>
       <c r="J92" s="66" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K92" s="66"/>
       <c r="L92" s="67"/>
@@ -24856,11 +25006,11 @@
       <c r="C93" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="D93" s="160" t="s">
+      <c r="D93" s="159" t="s">
         <v>143</v>
       </c>
       <c r="E93" s="104" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F93" s="97" t="s">
         <v>161</v>
@@ -24869,7 +25019,7 @@
       <c r="H93" s="51"/>
       <c r="I93" s="51"/>
       <c r="J93" s="65" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K93" s="67"/>
       <c r="L93" s="67"/>
@@ -24895,7 +25045,7 @@
       </c>
       <c r="B94" s="101"/>
       <c r="C94" s="104"/>
-      <c r="D94" s="160"/>
+      <c r="D94" s="159"/>
       <c r="E94" s="103"/>
       <c r="F94" s="99" t="s">
         <v>162</v>
@@ -24904,7 +25054,7 @@
       <c r="H94" s="67"/>
       <c r="I94" s="67"/>
       <c r="J94" s="65" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K94" s="66"/>
       <c r="L94" s="67"/>
@@ -24930,7 +25080,7 @@
       </c>
       <c r="B95" s="101"/>
       <c r="C95" s="104"/>
-      <c r="D95" s="160"/>
+      <c r="D95" s="159"/>
       <c r="E95" s="99" t="s">
         <v>146</v>
       </c>
@@ -24941,7 +25091,7 @@
       <c r="H95" s="67"/>
       <c r="I95" s="67"/>
       <c r="J95" s="65" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K95" s="66"/>
       <c r="L95" s="67"/>
@@ -24967,7 +25117,7 @@
       </c>
       <c r="B96" s="101"/>
       <c r="C96" s="104"/>
-      <c r="D96" s="160"/>
+      <c r="D96" s="159"/>
       <c r="E96" s="104" t="s">
         <v>148</v>
       </c>
@@ -24978,7 +25128,7 @@
       <c r="H96" s="67"/>
       <c r="I96" s="67"/>
       <c r="J96" s="65" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K96" s="66"/>
       <c r="L96" s="67"/>
@@ -25004,7 +25154,7 @@
       </c>
       <c r="B97" s="101"/>
       <c r="C97" s="104"/>
-      <c r="D97" s="160"/>
+      <c r="D97" s="159"/>
       <c r="E97" s="103"/>
       <c r="F97" s="99" t="s">
         <v>165</v>
@@ -25013,7 +25163,7 @@
       <c r="H97" s="67"/>
       <c r="I97" s="67"/>
       <c r="J97" s="65" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K97" s="66"/>
       <c r="L97" s="67"/>
@@ -25041,7 +25191,7 @@
       <c r="C98" s="103"/>
       <c r="D98" s="103"/>
       <c r="E98" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F98" s="99" t="s">
         <v>166</v>
@@ -25050,7 +25200,7 @@
       <c r="H98" s="67"/>
       <c r="I98" s="67"/>
       <c r="J98" s="65" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K98" s="66"/>
       <c r="L98" s="67"/>
@@ -25091,7 +25241,7 @@
       <c r="H99" s="67"/>
       <c r="I99" s="67"/>
       <c r="J99" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K99" s="66"/>
       <c r="L99" s="67"/>
@@ -25117,7 +25267,7 @@
       </c>
       <c r="B100" s="101"/>
       <c r="C100" s="102"/>
-      <c r="D100" s="160"/>
+      <c r="D100" s="159"/>
       <c r="E100" s="104"/>
       <c r="F100" s="99" t="s">
         <v>170</v>
@@ -25126,7 +25276,7 @@
       <c r="H100" s="67"/>
       <c r="I100" s="67"/>
       <c r="J100" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K100" s="66"/>
       <c r="L100" s="67"/>
@@ -25152,7 +25302,7 @@
       </c>
       <c r="B101" s="101"/>
       <c r="C101" s="102"/>
-      <c r="D101" s="160"/>
+      <c r="D101" s="159"/>
       <c r="E101" s="104"/>
       <c r="F101" s="99" t="s">
         <v>171</v>
@@ -25161,7 +25311,7 @@
       <c r="H101" s="67"/>
       <c r="I101" s="67"/>
       <c r="J101" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K101" s="66"/>
       <c r="L101" s="67"/>
@@ -25187,7 +25337,7 @@
       </c>
       <c r="B102" s="101"/>
       <c r="C102" s="104"/>
-      <c r="D102" s="160"/>
+      <c r="D102" s="159"/>
       <c r="E102" s="104"/>
       <c r="F102" s="99" t="s">
         <v>172</v>
@@ -25196,7 +25346,7 @@
       <c r="H102" s="67"/>
       <c r="I102" s="67"/>
       <c r="J102" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K102" s="66"/>
       <c r="L102" s="67"/>
@@ -25222,7 +25372,7 @@
       </c>
       <c r="B103" s="101"/>
       <c r="C103" s="104"/>
-      <c r="D103" s="160"/>
+      <c r="D103" s="159"/>
       <c r="E103" s="103"/>
       <c r="F103" s="99" t="s">
         <v>173</v>
@@ -25231,7 +25381,7 @@
       <c r="H103" s="67"/>
       <c r="I103" s="67"/>
       <c r="J103" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K103" s="66"/>
       <c r="L103" s="67"/>
@@ -25257,7 +25407,7 @@
       </c>
       <c r="B104" s="101"/>
       <c r="C104" s="102"/>
-      <c r="D104" s="160"/>
+      <c r="D104" s="159"/>
       <c r="E104" s="104" t="s">
         <v>174</v>
       </c>
@@ -25268,7 +25418,7 @@
       <c r="H104" s="67"/>
       <c r="I104" s="67"/>
       <c r="J104" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K104" s="66"/>
       <c r="L104" s="67"/>
@@ -25293,8 +25443,8 @@
         <v>39-2-1</v>
       </c>
       <c r="B105" s="101"/>
-      <c r="C105" s="160"/>
-      <c r="D105" s="160"/>
+      <c r="C105" s="159"/>
+      <c r="D105" s="159"/>
       <c r="E105" s="104"/>
       <c r="F105" s="99" t="s">
         <v>176</v>
@@ -25303,7 +25453,7 @@
       <c r="H105" s="67"/>
       <c r="I105" s="67"/>
       <c r="J105" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K105" s="66"/>
       <c r="L105" s="67"/>
@@ -25328,8 +25478,8 @@
         <v>39-3-1</v>
       </c>
       <c r="B106" s="101"/>
-      <c r="C106" s="160"/>
-      <c r="D106" s="160"/>
+      <c r="C106" s="159"/>
+      <c r="D106" s="159"/>
       <c r="E106" s="104"/>
       <c r="F106" s="99" t="s">
         <v>177</v>
@@ -25338,7 +25488,7 @@
       <c r="H106" s="67"/>
       <c r="I106" s="67"/>
       <c r="J106" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K106" s="66"/>
       <c r="L106" s="67"/>
@@ -25364,7 +25514,7 @@
       </c>
       <c r="B107" s="101"/>
       <c r="C107" s="104"/>
-      <c r="D107" s="160"/>
+      <c r="D107" s="159"/>
       <c r="E107" s="104"/>
       <c r="F107" s="99" t="s">
         <v>178</v>
@@ -25373,7 +25523,7 @@
       <c r="H107" s="67"/>
       <c r="I107" s="67"/>
       <c r="J107" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K107" s="66"/>
       <c r="L107" s="67"/>
@@ -25399,7 +25549,7 @@
       </c>
       <c r="B108" s="101"/>
       <c r="C108" s="104"/>
-      <c r="D108" s="160"/>
+      <c r="D108" s="159"/>
       <c r="E108" s="103"/>
       <c r="F108" s="99" t="s">
         <v>179</v>
@@ -25408,7 +25558,7 @@
       <c r="H108" s="67"/>
       <c r="I108" s="67"/>
       <c r="J108" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K108" s="66"/>
       <c r="L108" s="67"/>
@@ -25434,9 +25584,9 @@
       </c>
       <c r="B109" s="101"/>
       <c r="C109" s="103"/>
-      <c r="D109" s="160"/>
+      <c r="D109" s="159"/>
       <c r="E109" s="105" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F109" s="99" t="s">
         <v>180</v>
@@ -25445,7 +25595,7 @@
       <c r="H109" s="67"/>
       <c r="I109" s="67"/>
       <c r="J109" s="66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K109" s="66"/>
       <c r="L109" s="67"/>
@@ -25488,7 +25638,7 @@
       <c r="H110" s="67"/>
       <c r="I110" s="67"/>
       <c r="J110" s="66" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K110" s="66"/>
       <c r="L110" s="67"/>
@@ -25512,7 +25662,7 @@
 )</f>
         <v>42-1-1</v>
       </c>
-      <c r="B111" s="160"/>
+      <c r="B111" s="159"/>
       <c r="C111" s="97" t="s">
         <v>184</v>
       </c>
@@ -25529,7 +25679,7 @@
       <c r="H111" s="67"/>
       <c r="I111" s="67"/>
       <c r="J111" s="66" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K111" s="66"/>
       <c r="L111" s="67"/>
@@ -25553,7 +25703,7 @@
 )</f>
         <v>42-2-1</v>
       </c>
-      <c r="B112" s="160"/>
+      <c r="B112" s="159"/>
       <c r="C112" s="103"/>
       <c r="D112" s="103"/>
       <c r="E112" s="103"/>
@@ -25564,7 +25714,7 @@
       <c r="H112" s="67"/>
       <c r="I112" s="67"/>
       <c r="J112" s="66" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K112" s="66"/>
       <c r="L112" s="67"/>
@@ -25588,9 +25738,9 @@
 )</f>
         <v>43-1-1</v>
       </c>
-      <c r="B113" s="160"/>
+      <c r="B113" s="159"/>
       <c r="C113" s="99" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D113" s="99" t="s">
         <v>48</v>
@@ -25605,7 +25755,7 @@
       <c r="H113" s="67"/>
       <c r="I113" s="67"/>
       <c r="J113" s="66" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K113" s="66"/>
       <c r="L113" s="67"/>
@@ -25629,11 +25779,11 @@
 )</f>
         <v>44-1-1</v>
       </c>
-      <c r="B114" s="160"/>
-      <c r="C114" s="160" t="s">
-        <v>441</v>
-      </c>
-      <c r="D114" s="160" t="s">
+      <c r="B114" s="159"/>
+      <c r="C114" s="159" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="159" t="s">
         <v>48</v>
       </c>
       <c r="E114" s="104" t="s">
@@ -25646,7 +25796,7 @@
       <c r="H114" s="67"/>
       <c r="I114" s="67"/>
       <c r="J114" s="66" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K114" s="66"/>
       <c r="L114" s="67"/>
@@ -25681,7 +25831,7 @@
       <c r="H115" s="67"/>
       <c r="I115" s="67"/>
       <c r="J115" s="66" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K115" s="66"/>
       <c r="L115" s="67"/>
@@ -25712,16 +25862,16 @@
         <v>193</v>
       </c>
       <c r="D116" s="97" t="s">
-        <v>430</v>
-      </c>
-      <c r="E116" s="152" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="E116" s="151" t="s">
+        <v>428</v>
       </c>
       <c r="F116" s="99" t="s">
         <v>194</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H116" s="67"/>
       <c r="I116" s="67"/>
@@ -25748,8 +25898,8 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B117" s="221" t="s">
-        <v>442</v>
+      <c r="B117" s="235" t="s">
+        <v>440</v>
       </c>
       <c r="C117" s="104"/>
       <c r="D117" s="98"/>
@@ -25758,7 +25908,7 @@
         <v>196</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H117" s="67"/>
       <c r="I117" s="67"/>
@@ -25785,7 +25935,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B118" s="221"/>
+      <c r="B118" s="235"/>
       <c r="C118" s="104"/>
       <c r="D118" s="98"/>
       <c r="E118" s="116"/>
@@ -25793,7 +25943,7 @@
         <v>197</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H118" s="67"/>
       <c r="I118" s="67"/>
@@ -25828,7 +25978,7 @@
         <v>198</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H119" s="67"/>
       <c r="I119" s="67"/>
@@ -25865,7 +26015,7 @@
         <v>199</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H120" s="67"/>
       <c r="I120" s="67"/>
@@ -25900,7 +26050,7 @@
         <v>200</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H121" s="67"/>
       <c r="I121" s="67"/>
@@ -25935,7 +26085,7 @@
         <v>201</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H122" s="67"/>
       <c r="I122" s="67"/>
@@ -25970,7 +26120,7 @@
         <v>202</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H123" s="67"/>
       <c r="I123" s="67"/>
@@ -26005,7 +26155,7 @@
         <v>203</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H124" s="67"/>
       <c r="I124" s="67"/>
@@ -26042,7 +26192,7 @@
         <v>206</v>
       </c>
       <c r="G125" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H125" s="67"/>
       <c r="I125" s="67"/>
@@ -26077,7 +26227,7 @@
         <v>207</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H126" s="67"/>
       <c r="I126" s="67"/>
@@ -26112,7 +26262,7 @@
         <v>208</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H127" s="67"/>
       <c r="I127" s="67"/>
@@ -26147,7 +26297,7 @@
         <v>209</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H128" s="67"/>
       <c r="I128" s="67"/>
@@ -26182,7 +26332,7 @@
         <v>210</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H129" s="67"/>
       <c r="I129" s="67"/>
@@ -26213,13 +26363,13 @@
       <c r="C130" s="104"/>
       <c r="D130" s="103"/>
       <c r="E130" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F130" s="99" t="s">
         <v>212</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H130" s="67"/>
       <c r="I130" s="67"/>
@@ -26249,16 +26399,16 @@
       <c r="B131" s="98"/>
       <c r="C131" s="105"/>
       <c r="D131" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E131" s="103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F131" s="99" t="s">
         <v>213</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H131" s="67"/>
       <c r="I131" s="67"/>
@@ -26287,7 +26437,7 @@
       </c>
       <c r="B132" s="98"/>
       <c r="C132" s="98" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D132" s="98" t="s">
         <v>214</v>
@@ -26299,7 +26449,7 @@
         <v>216</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H132" s="67"/>
       <c r="I132" s="67"/>
@@ -26330,13 +26480,13 @@
       <c r="C133" s="98"/>
       <c r="D133" s="98"/>
       <c r="E133" s="104" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F133" s="99" t="s">
         <v>218</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H133" s="67"/>
       <c r="I133" s="67"/>
@@ -26371,7 +26521,7 @@
         <v>219</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H134" s="67"/>
       <c r="I134" s="67"/>
@@ -26406,7 +26556,7 @@
         <v>220</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H135" s="67"/>
       <c r="I135" s="67"/>
@@ -26440,16 +26590,16 @@
         <v>193</v>
       </c>
       <c r="D136" s="97" t="s">
-        <v>430</v>
-      </c>
-      <c r="E136" s="152" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="E136" s="151" t="s">
+        <v>428</v>
       </c>
       <c r="F136" s="99" t="s">
         <v>222</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H136" s="67"/>
       <c r="I136" s="67"/>
@@ -26476,7 +26626,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B137" s="221" t="s">
+      <c r="B137" s="235" t="s">
         <v>223</v>
       </c>
       <c r="C137" s="104"/>
@@ -26486,7 +26636,7 @@
         <v>224</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H137" s="67"/>
       <c r="I137" s="67"/>
@@ -26513,7 +26663,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B138" s="221"/>
+      <c r="B138" s="235"/>
       <c r="C138" s="104"/>
       <c r="D138" s="98"/>
       <c r="E138" s="104"/>
@@ -26521,7 +26671,7 @@
         <v>225</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H138" s="67"/>
       <c r="I138" s="67"/>
@@ -26556,7 +26706,7 @@
         <v>226</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H139" s="67"/>
       <c r="I139" s="67"/>
@@ -26593,7 +26743,7 @@
         <v>228</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H140" s="67"/>
       <c r="I140" s="67"/>
@@ -26628,7 +26778,7 @@
         <v>229</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H141" s="67"/>
       <c r="I141" s="67"/>
@@ -26658,16 +26808,16 @@
       <c r="B142" s="98"/>
       <c r="C142" s="105"/>
       <c r="D142" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E142" s="103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F142" s="99" t="s">
         <v>230</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H142" s="67"/>
       <c r="I142" s="67"/>
@@ -26708,7 +26858,7 @@
         <v>233</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H143" s="67"/>
       <c r="I143" s="67"/>
@@ -26745,7 +26895,7 @@
         <v>235</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H144" s="67"/>
       <c r="I144" s="67"/>
@@ -26782,7 +26932,7 @@
         <v>237</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H145" s="67"/>
       <c r="I145" s="67"/>
@@ -26850,13 +27000,13 @@
       <c r="C147" s="104"/>
       <c r="D147" s="98"/>
       <c r="E147" s="99" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F147" s="99" t="s">
         <v>241</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H147" s="67"/>
       <c r="I147" s="67"/>
@@ -26887,7 +27037,7 @@
       <c r="C148" s="104"/>
       <c r="D148" s="98"/>
       <c r="E148" s="116" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F148" s="99" t="s">
         <v>243</v>
@@ -27101,13 +27251,13 @@
         <v>250</v>
       </c>
       <c r="E154" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F154" s="99" t="s">
         <v>251</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H154" s="67"/>
       <c r="I154" s="67"/>
@@ -27142,7 +27292,7 @@
         <v>252</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H155" s="67"/>
       <c r="I155" s="67"/>
@@ -27179,7 +27329,7 @@
         <v>253</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H156" s="67"/>
       <c r="I156" s="67"/>
@@ -27214,7 +27364,7 @@
         <v>254</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H157" s="67"/>
       <c r="I157" s="67"/>
@@ -27246,10 +27396,10 @@
       <c r="D158" s="98"/>
       <c r="E158" s="116"/>
       <c r="F158" s="99" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H158" s="67"/>
       <c r="I158" s="67"/>
@@ -27281,10 +27431,10 @@
       <c r="D159" s="98"/>
       <c r="E159" s="116"/>
       <c r="F159" s="99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H159" s="67"/>
       <c r="I159" s="67"/>
@@ -27319,7 +27469,7 @@
         <v>257</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H160" s="67"/>
       <c r="I160" s="67"/>
@@ -27354,7 +27504,7 @@
         <v>258</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H161" s="67"/>
       <c r="I161" s="67"/>
@@ -27389,7 +27539,7 @@
         <v>259</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H162" s="67"/>
       <c r="I162" s="67"/>
@@ -27424,7 +27574,7 @@
         <v>260</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H163" s="67"/>
       <c r="I163" s="67"/>
@@ -27459,7 +27609,7 @@
         <v>261</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H164" s="67"/>
       <c r="I164" s="67"/>
@@ -27494,7 +27644,7 @@
         <v>262</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H165" s="67"/>
       <c r="I165" s="67"/>
@@ -27529,7 +27679,7 @@
         <v>263</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H166" s="67"/>
       <c r="I166" s="67"/>
@@ -27566,7 +27716,7 @@
         <v>264</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H167" s="67"/>
       <c r="I167" s="67"/>
@@ -27601,7 +27751,7 @@
         <v>265</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H168" s="67"/>
       <c r="I168" s="67"/>
@@ -27636,7 +27786,7 @@
         <v>266</v>
       </c>
       <c r="G169" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H169" s="67"/>
       <c r="I169" s="67"/>
@@ -27671,7 +27821,7 @@
         <v>267</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H170" s="67"/>
       <c r="I170" s="67"/>
@@ -27706,7 +27856,7 @@
         <v>268</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H171" s="67"/>
       <c r="I171" s="67"/>
@@ -27741,7 +27891,7 @@
         <v>269</v>
       </c>
       <c r="G172" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H172" s="67"/>
       <c r="I172" s="67"/>
@@ -27813,7 +27963,7 @@
         <v>271</v>
       </c>
       <c r="G174" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H174" s="67"/>
       <c r="I174" s="67"/>
@@ -27848,7 +27998,7 @@
         <v>272</v>
       </c>
       <c r="G175" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H175" s="67"/>
       <c r="I175" s="67"/>
@@ -27883,7 +28033,7 @@
         <v>273</v>
       </c>
       <c r="G176" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H176" s="67"/>
       <c r="I176" s="67"/>
@@ -27918,7 +28068,7 @@
         <v>274</v>
       </c>
       <c r="G177" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H177" s="67"/>
       <c r="I177" s="67"/>
@@ -27953,7 +28103,7 @@
         <v>275</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H178" s="67"/>
       <c r="I178" s="67"/>
@@ -27988,7 +28138,7 @@
         <v>276</v>
       </c>
       <c r="G179" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H179" s="67"/>
       <c r="I179" s="67"/>
@@ -28130,7 +28280,7 @@
         <v>280</v>
       </c>
       <c r="G183" s="51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H183" s="67"/>
       <c r="I183" s="67"/>
@@ -28279,7 +28429,7 @@
       <c r="B187" s="103"/>
       <c r="C187" s="105"/>
       <c r="D187" s="105" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E187" s="105" t="s">
         <v>48</v>
@@ -28322,7 +28472,7 @@
         <v>193</v>
       </c>
       <c r="D188" s="117" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E188" s="118" t="s">
         <v>293</v>
@@ -28331,7 +28481,7 @@
         <v>294</v>
       </c>
       <c r="G188" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H188" s="48"/>
       <c r="I188" s="48"/>
@@ -28368,7 +28518,7 @@
         <v>296</v>
       </c>
       <c r="G189" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H189" s="48"/>
       <c r="I189" s="48"/>
@@ -28403,7 +28553,7 @@
         <v>297</v>
       </c>
       <c r="G190" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H190" s="48"/>
       <c r="I190" s="48"/>
@@ -28440,7 +28590,7 @@
         <v>299</v>
       </c>
       <c r="G191" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H191" s="48"/>
       <c r="I191" s="48"/>
@@ -28475,7 +28625,7 @@
         <v>300</v>
       </c>
       <c r="G192" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H192" s="48"/>
       <c r="I192" s="48"/>
@@ -28505,16 +28655,16 @@
       <c r="B193" s="120"/>
       <c r="C193" s="124"/>
       <c r="D193" s="124" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E193" s="124" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F193" s="118" t="s">
         <v>301</v>
       </c>
       <c r="G193" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H193" s="48"/>
       <c r="I193" s="48"/>
@@ -28546,7 +28696,7 @@
         <v>302</v>
       </c>
       <c r="D194" s="120" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E194" s="122" t="s">
         <v>304</v>
@@ -28555,7 +28705,7 @@
         <v>305</v>
       </c>
       <c r="G194" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H194" s="48"/>
       <c r="I194" s="48"/>
@@ -28590,7 +28740,7 @@
         <v>306</v>
       </c>
       <c r="G195" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H195" s="48"/>
       <c r="I195" s="48"/>
@@ -28625,7 +28775,7 @@
         <v>307</v>
       </c>
       <c r="G196" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H196" s="48"/>
       <c r="I196" s="48"/>
@@ -28660,7 +28810,7 @@
         <v>308</v>
       </c>
       <c r="G197" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H197" s="48"/>
       <c r="I197" s="48"/>
@@ -28695,7 +28845,7 @@
         <v>309</v>
       </c>
       <c r="G198" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H198" s="48"/>
       <c r="I198" s="48"/>
@@ -28730,7 +28880,7 @@
         <v>310</v>
       </c>
       <c r="G199" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H199" s="48"/>
       <c r="I199" s="48"/>
@@ -28765,7 +28915,7 @@
         <v>311</v>
       </c>
       <c r="G200" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H200" s="48"/>
       <c r="I200" s="48"/>
@@ -28799,10 +28949,10 @@
         <v>312</v>
       </c>
       <c r="F201" s="118" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G201" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H201" s="48"/>
       <c r="I201" s="48"/>
@@ -28841,7 +28991,7 @@
         <v>315</v>
       </c>
       <c r="G202" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H202" s="48"/>
       <c r="I202" s="48"/>
@@ -28876,7 +29026,7 @@
         <v>316</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H203" s="48"/>
       <c r="I203" s="48"/>
@@ -28911,7 +29061,7 @@
         <v>317</v>
       </c>
       <c r="G204" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H204" s="48"/>
       <c r="I204" s="48"/>
@@ -28946,7 +29096,7 @@
         <v>318</v>
       </c>
       <c r="G205" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H205" s="48"/>
       <c r="I205" s="48"/>
@@ -28981,7 +29131,7 @@
         <v>319</v>
       </c>
       <c r="G206" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H206" s="48"/>
       <c r="I206" s="48"/>
@@ -29016,7 +29166,7 @@
         <v>320</v>
       </c>
       <c r="G207" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H207" s="48"/>
       <c r="I207" s="48"/>
@@ -29048,10 +29198,10 @@
       <c r="D208" s="120"/>
       <c r="E208" s="122"/>
       <c r="F208" s="118" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G208" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H208" s="48"/>
       <c r="I208" s="48"/>
@@ -29086,7 +29236,7 @@
         <v>322</v>
       </c>
       <c r="G209" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H209" s="48"/>
       <c r="I209" s="48"/>
@@ -29121,7 +29271,7 @@
         <v>323</v>
       </c>
       <c r="G210" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H210" s="48"/>
       <c r="I210" s="48"/>
@@ -29156,7 +29306,7 @@
         <v>324</v>
       </c>
       <c r="G211" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H211" s="48"/>
       <c r="I211" s="48"/>
@@ -29191,7 +29341,7 @@
         <v>325</v>
       </c>
       <c r="G212" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H212" s="48"/>
       <c r="I212" s="48"/>
@@ -29226,7 +29376,7 @@
         <v>326</v>
       </c>
       <c r="G213" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H213" s="48"/>
       <c r="I213" s="48"/>
@@ -29261,7 +29411,7 @@
         <v>327</v>
       </c>
       <c r="G214" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H214" s="48"/>
       <c r="I214" s="48"/>
@@ -29291,7 +29441,7 @@
       <c r="B215" s="120"/>
       <c r="C215" s="121"/>
       <c r="D215" s="117" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E215" s="127" t="s">
         <v>124</v>
@@ -29300,7 +29450,7 @@
         <v>329</v>
       </c>
       <c r="G215" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H215" s="48"/>
       <c r="I215" s="48"/>
@@ -29335,7 +29485,7 @@
         <v>330</v>
       </c>
       <c r="G216" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H216" s="48"/>
       <c r="I216" s="48"/>
@@ -29370,7 +29520,7 @@
         <v>331</v>
       </c>
       <c r="G217" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H217" s="48"/>
       <c r="I217" s="48"/>
@@ -29405,7 +29555,7 @@
         <v>317</v>
       </c>
       <c r="G218" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H218" s="48"/>
       <c r="I218" s="48"/>
@@ -29440,7 +29590,7 @@
         <v>318</v>
       </c>
       <c r="G219" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H219" s="48"/>
       <c r="I219" s="48"/>
@@ -29475,7 +29625,7 @@
         <v>332</v>
       </c>
       <c r="G220" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H220" s="48"/>
       <c r="I220" s="48"/>
@@ -29510,7 +29660,7 @@
         <v>333</v>
       </c>
       <c r="G221" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H221" s="48"/>
       <c r="I221" s="48"/>
@@ -29542,10 +29692,10 @@
       <c r="D222" s="120"/>
       <c r="E222" s="122"/>
       <c r="F222" s="118" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G222" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H222" s="48"/>
       <c r="I222" s="48"/>
@@ -29577,10 +29727,10 @@
       <c r="D223" s="120"/>
       <c r="E223" s="122"/>
       <c r="F223" s="118" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G223" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H223" s="48"/>
       <c r="I223" s="48"/>
@@ -29615,7 +29765,7 @@
         <v>336</v>
       </c>
       <c r="G224" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H224" s="48"/>
       <c r="I224" s="48"/>
@@ -29650,7 +29800,7 @@
         <v>337</v>
       </c>
       <c r="G225" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H225" s="48"/>
       <c r="I225" s="48"/>
@@ -29685,7 +29835,7 @@
         <v>338</v>
       </c>
       <c r="G226" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H226" s="48"/>
       <c r="I226" s="48"/>
@@ -29720,7 +29870,7 @@
         <v>339</v>
       </c>
       <c r="G227" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H227" s="48"/>
       <c r="I227" s="48"/>
@@ -29755,7 +29905,7 @@
         <v>340</v>
       </c>
       <c r="G228" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H228" s="48"/>
       <c r="I228" s="48"/>
@@ -29790,7 +29940,7 @@
         <v>327</v>
       </c>
       <c r="G229" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H229" s="48"/>
       <c r="I229" s="48"/>
@@ -29827,7 +29977,7 @@
         <v>342</v>
       </c>
       <c r="G230" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H230" s="48"/>
       <c r="I230" s="48"/>
@@ -29862,7 +30012,7 @@
         <v>343</v>
       </c>
       <c r="G231" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H231" s="48"/>
       <c r="I231" s="48"/>
@@ -29897,7 +30047,7 @@
         <v>344</v>
       </c>
       <c r="G232" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H232" s="48"/>
       <c r="I232" s="48"/>
@@ -29931,10 +30081,10 @@
         <v>151</v>
       </c>
       <c r="F233" s="118" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G233" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H233" s="48"/>
       <c r="I233" s="48"/>
@@ -29971,7 +30121,7 @@
         <v>347</v>
       </c>
       <c r="G234" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H234" s="48"/>
       <c r="I234" s="48"/>
@@ -30005,16 +30155,16 @@
         <v>193</v>
       </c>
       <c r="D235" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E235" s="99" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F235" s="99" t="s">
         <v>349</v>
       </c>
       <c r="G235" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H235" s="67"/>
       <c r="I235" s="67"/>
@@ -30051,7 +30201,7 @@
         <v>350</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H236" s="67"/>
       <c r="I236" s="67"/>
@@ -30086,7 +30236,7 @@
         <v>351</v>
       </c>
       <c r="G237" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H237" s="67"/>
       <c r="I237" s="67"/>
@@ -30121,7 +30271,7 @@
         <v>352</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H238" s="67"/>
       <c r="I238" s="67"/>
@@ -30156,7 +30306,7 @@
         <v>353</v>
       </c>
       <c r="G239" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H239" s="67"/>
       <c r="I239" s="67"/>
@@ -30191,7 +30341,7 @@
         <v>354</v>
       </c>
       <c r="G240" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H240" s="67"/>
       <c r="I240" s="67"/>
@@ -30228,7 +30378,7 @@
         <v>355</v>
       </c>
       <c r="G241" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H241" s="67"/>
       <c r="I241" s="67"/>
@@ -30263,7 +30413,7 @@
         <v>356</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H242" s="67"/>
       <c r="I242" s="67"/>
@@ -30298,7 +30448,7 @@
         <v>357</v>
       </c>
       <c r="G243" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H243" s="67"/>
       <c r="I243" s="67"/>
@@ -30333,7 +30483,7 @@
         <v>358</v>
       </c>
       <c r="G244" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H244" s="67"/>
       <c r="I244" s="67"/>
@@ -30368,7 +30518,7 @@
         <v>359</v>
       </c>
       <c r="G245" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H245" s="67"/>
       <c r="I245" s="67"/>
@@ -30399,13 +30549,13 @@
       <c r="C246" s="103"/>
       <c r="D246" s="103"/>
       <c r="E246" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F246" s="99" t="s">
         <v>360</v>
       </c>
       <c r="G246" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H246" s="67"/>
       <c r="I246" s="67"/>
@@ -30434,7 +30584,7 @@
       </c>
       <c r="B247" s="103"/>
       <c r="C247" s="103" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D247" s="103" t="s">
         <v>214</v>
@@ -30446,7 +30596,7 @@
         <v>361</v>
       </c>
       <c r="G247" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H247" s="67"/>
       <c r="I247" s="67"/>
@@ -30480,16 +30630,16 @@
         <v>363</v>
       </c>
       <c r="D248" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E248" s="129" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F248" s="99" t="s">
         <v>364</v>
       </c>
       <c r="G248" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H248" s="67"/>
       <c r="I248" s="67"/>
@@ -30524,7 +30674,7 @@
         <v>365</v>
       </c>
       <c r="G249" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H249" s="67"/>
       <c r="I249" s="67"/>
@@ -30554,16 +30704,16 @@
       <c r="B250" s="98"/>
       <c r="C250" s="98"/>
       <c r="D250" s="98" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E250" s="104" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F250" s="99" t="s">
         <v>366</v>
       </c>
       <c r="G250" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H250" s="67"/>
       <c r="I250" s="67"/>
@@ -30598,7 +30748,7 @@
         <v>367</v>
       </c>
       <c r="G251" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H251" s="67"/>
       <c r="I251" s="67"/>
@@ -30639,7 +30789,7 @@
         <v>369</v>
       </c>
       <c r="G252" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H252" s="67"/>
       <c r="I252" s="67"/>
@@ -30676,7 +30826,7 @@
         <v>370</v>
       </c>
       <c r="G253" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H253" s="67"/>
       <c r="I253" s="67"/>
@@ -30713,7 +30863,7 @@
         <v>371</v>
       </c>
       <c r="G254" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H254" s="67"/>
       <c r="I254" s="67"/>
@@ -30750,7 +30900,7 @@
         <v>372</v>
       </c>
       <c r="G255" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H255" s="67"/>
       <c r="I255" s="67"/>
@@ -30783,13 +30933,13 @@
         <v>250</v>
       </c>
       <c r="E256" s="116" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F256" s="99" t="s">
         <v>373</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H256" s="67"/>
       <c r="I256" s="67"/>
@@ -30824,7 +30974,7 @@
         <v>374</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H257" s="67"/>
       <c r="I257" s="67"/>
@@ -30861,7 +31011,7 @@
         <v>375</v>
       </c>
       <c r="G258" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H258" s="67"/>
       <c r="I258" s="67"/>
@@ -30896,7 +31046,7 @@
         <v>376</v>
       </c>
       <c r="G259" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H259" s="67"/>
       <c r="I259" s="67"/>
@@ -30928,10 +31078,10 @@
       <c r="D260" s="104"/>
       <c r="E260" s="104"/>
       <c r="F260" s="99" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G260" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H260" s="67"/>
       <c r="I260" s="67"/>
@@ -30966,7 +31116,7 @@
         <v>378</v>
       </c>
       <c r="G261" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H261" s="67"/>
       <c r="I261" s="67"/>
@@ -31001,7 +31151,7 @@
         <v>379</v>
       </c>
       <c r="G262" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H262" s="67"/>
       <c r="I262" s="67"/>
@@ -31036,7 +31186,7 @@
         <v>380</v>
       </c>
       <c r="G263" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H263" s="67"/>
       <c r="I263" s="67"/>
@@ -31071,7 +31221,7 @@
         <v>381</v>
       </c>
       <c r="G264" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H264" s="67"/>
       <c r="I264" s="67"/>
@@ -31106,7 +31256,7 @@
         <v>382</v>
       </c>
       <c r="G265" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H265" s="67"/>
       <c r="I265" s="67"/>
@@ -31141,7 +31291,7 @@
         <v>383</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H266" s="67"/>
       <c r="I266" s="67"/>
@@ -31176,7 +31326,7 @@
         <v>384</v>
       </c>
       <c r="G267" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H267" s="67"/>
       <c r="I267" s="67"/>
@@ -31211,7 +31361,7 @@
         <v>385</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H268" s="67"/>
       <c r="I268" s="67"/>
@@ -31248,7 +31398,7 @@
         <v>386</v>
       </c>
       <c r="G269" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H269" s="67"/>
       <c r="I269" s="67"/>
@@ -31283,7 +31433,7 @@
         <v>387</v>
       </c>
       <c r="G270" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H270" s="67"/>
       <c r="I270" s="67"/>
@@ -31318,7 +31468,7 @@
         <v>388</v>
       </c>
       <c r="G271" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H271" s="67"/>
       <c r="I271" s="67"/>
@@ -31353,7 +31503,7 @@
         <v>389</v>
       </c>
       <c r="G272" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H272" s="67"/>
       <c r="I272" s="67"/>
@@ -31388,7 +31538,7 @@
         <v>390</v>
       </c>
       <c r="G273" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H273" s="67"/>
       <c r="I273" s="67"/>
@@ -31423,7 +31573,7 @@
         <v>391</v>
       </c>
       <c r="G274" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H274" s="67"/>
       <c r="I274" s="67"/>
@@ -31460,7 +31610,7 @@
         <v>392</v>
       </c>
       <c r="G275" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H275" s="67"/>
       <c r="I275" s="67"/>
@@ -31495,7 +31645,7 @@
         <v>393</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H276" s="67"/>
       <c r="I276" s="67"/>
@@ -31530,7 +31680,7 @@
         <v>394</v>
       </c>
       <c r="G277" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H277" s="67"/>
       <c r="I277" s="67"/>
@@ -31565,7 +31715,7 @@
         <v>395</v>
       </c>
       <c r="G278" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H278" s="67"/>
       <c r="I278" s="67"/>
@@ -31600,7 +31750,7 @@
         <v>396</v>
       </c>
       <c r="G279" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H279" s="67"/>
       <c r="I279" s="67"/>
@@ -31635,7 +31785,7 @@
         <v>397</v>
       </c>
       <c r="G280" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H280" s="67"/>
       <c r="I280" s="67"/>
@@ -31670,7 +31820,7 @@
         <v>398</v>
       </c>
       <c r="G281" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H281" s="67"/>
       <c r="I281" s="67"/>
@@ -31705,7 +31855,7 @@
         <v>399</v>
       </c>
       <c r="G282" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H282" s="67"/>
       <c r="I282" s="67"/>
@@ -31742,7 +31892,7 @@
         <v>400</v>
       </c>
       <c r="G283" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H283" s="67"/>
       <c r="I283" s="67"/>
@@ -31776,10 +31926,10 @@
         <v>402</v>
       </c>
       <c r="D284" s="97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E284" s="129" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F284" s="99" t="s">
         <v>403</v>
@@ -31787,8 +31937,8 @@
       <c r="G284" s="66"/>
       <c r="H284" s="67"/>
       <c r="I284" s="67"/>
-      <c r="J284" s="228" t="s">
-        <v>535</v>
+      <c r="J284" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K284" s="66"/>
       <c r="L284" s="67"/>
@@ -31812,9 +31962,9 @@
 )</f>
         <v>97-2-1</v>
       </c>
-      <c r="B285" s="160"/>
-      <c r="C285" s="160"/>
-      <c r="D285" s="160"/>
+      <c r="B285" s="159"/>
+      <c r="C285" s="159"/>
+      <c r="D285" s="159"/>
       <c r="E285" s="104"/>
       <c r="F285" s="99" t="s">
         <v>404</v>
@@ -31822,8 +31972,8 @@
       <c r="G285" s="66"/>
       <c r="H285" s="67"/>
       <c r="I285" s="67"/>
-      <c r="J285" s="228" t="s">
-        <v>535</v>
+      <c r="J285" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K285" s="66"/>
       <c r="L285" s="67"/>
@@ -31847,9 +31997,9 @@
 )</f>
         <v>97-3-1</v>
       </c>
-      <c r="B286" s="160"/>
-      <c r="C286" s="160"/>
-      <c r="D286" s="160"/>
+      <c r="B286" s="159"/>
+      <c r="C286" s="159"/>
+      <c r="D286" s="159"/>
       <c r="E286" s="104"/>
       <c r="F286" s="99" t="s">
         <v>405</v>
@@ -31857,8 +32007,8 @@
       <c r="G286" s="66"/>
       <c r="H286" s="67"/>
       <c r="I286" s="67"/>
-      <c r="J286" s="228" t="s">
-        <v>535</v>
+      <c r="J286" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K286" s="66"/>
       <c r="L286" s="67"/>
@@ -31882,7 +32032,7 @@
 )</f>
         <v>97-4-1</v>
       </c>
-      <c r="B287" s="160"/>
+      <c r="B287" s="159"/>
       <c r="C287" s="103"/>
       <c r="D287" s="103"/>
       <c r="E287" s="103"/>
@@ -31892,8 +32042,8 @@
       <c r="G287" s="66"/>
       <c r="H287" s="67"/>
       <c r="I287" s="67"/>
-      <c r="J287" s="228" t="s">
-        <v>535</v>
+      <c r="J287" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K287" s="66"/>
       <c r="L287" s="67"/>
@@ -31917,11 +32067,11 @@
 )</f>
         <v>98-1-1</v>
       </c>
-      <c r="B288" s="160"/>
-      <c r="C288" s="160" t="s">
+      <c r="B288" s="159"/>
+      <c r="C288" s="159" t="s">
         <v>407</v>
       </c>
-      <c r="D288" s="160" t="s">
+      <c r="D288" s="159" t="s">
         <v>214</v>
       </c>
       <c r="E288" s="103" t="s">
@@ -31933,8 +32083,8 @@
       <c r="G288" s="66"/>
       <c r="H288" s="67"/>
       <c r="I288" s="67"/>
-      <c r="J288" s="228" t="s">
-        <v>535</v>
+      <c r="J288" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K288" s="66"/>
       <c r="L288" s="67"/>
@@ -31958,9 +32108,9 @@
 )</f>
         <v>99-1-1</v>
       </c>
-      <c r="B289" s="160"/>
-      <c r="C289" s="160"/>
-      <c r="D289" s="160"/>
+      <c r="B289" s="159"/>
+      <c r="C289" s="159"/>
+      <c r="D289" s="159"/>
       <c r="E289" s="103" t="s">
         <v>234</v>
       </c>
@@ -31970,8 +32120,8 @@
       <c r="G289" s="66"/>
       <c r="H289" s="67"/>
       <c r="I289" s="67"/>
-      <c r="J289" s="228" t="s">
-        <v>535</v>
+      <c r="J289" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K289" s="66"/>
       <c r="L289" s="67"/>
@@ -31995,9 +32145,9 @@
 )</f>
         <v>100-1-1</v>
       </c>
-      <c r="B290" s="160"/>
-      <c r="C290" s="160"/>
-      <c r="D290" s="160"/>
+      <c r="B290" s="159"/>
+      <c r="C290" s="159"/>
+      <c r="D290" s="159"/>
       <c r="E290" s="103" t="s">
         <v>236</v>
       </c>
@@ -32007,8 +32157,8 @@
       <c r="G290" s="66"/>
       <c r="H290" s="67"/>
       <c r="I290" s="67"/>
-      <c r="J290" s="228" t="s">
-        <v>535</v>
+      <c r="J290" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K290" s="66"/>
       <c r="L290" s="67"/>
@@ -32032,8 +32182,8 @@
 )</f>
         <v>101-1-1</v>
       </c>
-      <c r="B291" s="160"/>
-      <c r="C291" s="160"/>
+      <c r="B291" s="159"/>
+      <c r="C291" s="159"/>
       <c r="D291" s="103"/>
       <c r="E291" s="103" t="s">
         <v>151</v>
@@ -32044,8 +32194,8 @@
       <c r="G291" s="66"/>
       <c r="H291" s="67"/>
       <c r="I291" s="67"/>
-      <c r="J291" s="228" t="s">
-        <v>535</v>
+      <c r="J291" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K291" s="66"/>
       <c r="L291" s="67"/>
@@ -32069,9 +32219,9 @@
 )</f>
         <v>102-1-1</v>
       </c>
-      <c r="B292" s="160"/>
+      <c r="B292" s="159"/>
       <c r="C292" s="102"/>
-      <c r="D292" s="160" t="s">
+      <c r="D292" s="159" t="s">
         <v>412</v>
       </c>
       <c r="E292" s="104" t="s">
@@ -32083,8 +32233,8 @@
       <c r="G292" s="66"/>
       <c r="H292" s="67"/>
       <c r="I292" s="67"/>
-      <c r="J292" s="228" t="s">
-        <v>535</v>
+      <c r="J292" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K292" s="66"/>
       <c r="L292" s="67"/>
@@ -32108,7 +32258,7 @@
 )</f>
         <v>102-2-1</v>
       </c>
-      <c r="B293" s="160"/>
+      <c r="B293" s="159"/>
       <c r="C293" s="102"/>
       <c r="D293" s="104"/>
       <c r="E293" s="104"/>
@@ -32118,8 +32268,8 @@
       <c r="G293" s="66"/>
       <c r="H293" s="67"/>
       <c r="I293" s="67"/>
-      <c r="J293" s="228" t="s">
-        <v>535</v>
+      <c r="J293" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K293" s="66"/>
       <c r="L293" s="67"/>
@@ -32143,7 +32293,7 @@
 )</f>
         <v>102-3-1</v>
       </c>
-      <c r="B294" s="160"/>
+      <c r="B294" s="159"/>
       <c r="C294" s="102"/>
       <c r="D294" s="104"/>
       <c r="E294" s="104"/>
@@ -32153,8 +32303,8 @@
       <c r="G294" s="66"/>
       <c r="H294" s="67"/>
       <c r="I294" s="67"/>
-      <c r="J294" s="228" t="s">
-        <v>535</v>
+      <c r="J294" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K294" s="66"/>
       <c r="L294" s="67"/>
@@ -32178,18 +32328,18 @@
 )</f>
         <v>102-4-1</v>
       </c>
-      <c r="B295" s="160"/>
+      <c r="B295" s="159"/>
       <c r="C295" s="102"/>
       <c r="D295" s="104"/>
       <c r="E295" s="104"/>
       <c r="F295" s="99" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G295" s="66"/>
       <c r="H295" s="67"/>
       <c r="I295" s="67"/>
-      <c r="J295" s="228" t="s">
-        <v>535</v>
+      <c r="J295" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K295" s="66"/>
       <c r="L295" s="67"/>
@@ -32213,18 +32363,18 @@
 )</f>
         <v>102-5-1</v>
       </c>
-      <c r="B296" s="160"/>
+      <c r="B296" s="159"/>
       <c r="C296" s="102"/>
       <c r="D296" s="104"/>
       <c r="E296" s="104"/>
       <c r="F296" s="99" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G296" s="66"/>
       <c r="H296" s="67"/>
       <c r="I296" s="67"/>
-      <c r="J296" s="228" t="s">
-        <v>535</v>
+      <c r="J296" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K296" s="66"/>
       <c r="L296" s="67"/>
@@ -32248,18 +32398,18 @@
 )</f>
         <v>102-6-1</v>
       </c>
-      <c r="B297" s="160"/>
+      <c r="B297" s="159"/>
       <c r="C297" s="102"/>
       <c r="D297" s="104"/>
       <c r="E297" s="104"/>
       <c r="F297" s="99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G297" s="66"/>
       <c r="H297" s="67"/>
       <c r="I297" s="67"/>
-      <c r="J297" s="228" t="s">
-        <v>535</v>
+      <c r="J297" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K297" s="66"/>
       <c r="L297" s="67"/>
@@ -32283,18 +32433,18 @@
 )</f>
         <v>102-7-1</v>
       </c>
-      <c r="B298" s="160"/>
+      <c r="B298" s="159"/>
       <c r="C298" s="102"/>
       <c r="D298" s="104"/>
       <c r="E298" s="104"/>
       <c r="F298" s="99" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G298" s="66"/>
       <c r="H298" s="67"/>
       <c r="I298" s="67"/>
-      <c r="J298" s="228" t="s">
-        <v>535</v>
+      <c r="J298" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K298" s="66"/>
       <c r="L298" s="67"/>
@@ -32318,7 +32468,7 @@
 )</f>
         <v>102-8-1</v>
       </c>
-      <c r="B299" s="160"/>
+      <c r="B299" s="159"/>
       <c r="C299" s="102"/>
       <c r="D299" s="104"/>
       <c r="E299" s="104"/>
@@ -32328,8 +32478,8 @@
       <c r="G299" s="66"/>
       <c r="H299" s="67"/>
       <c r="I299" s="67"/>
-      <c r="J299" s="228" t="s">
-        <v>535</v>
+      <c r="J299" s="166" t="s">
+        <v>532</v>
       </c>
       <c r="K299" s="66"/>
       <c r="L299" s="67"/>
@@ -32353,29 +32503,29 @@
 )</f>
         <v>102-9-1</v>
       </c>
-      <c r="B300" s="160"/>
+      <c r="B300" s="159"/>
       <c r="C300" s="102"/>
       <c r="D300" s="104"/>
       <c r="E300" s="104"/>
       <c r="F300" s="97" t="s">
         <v>419</v>
       </c>
-      <c r="G300" s="231"/>
-      <c r="H300" s="232"/>
-      <c r="I300" s="232"/>
-      <c r="J300" s="228" t="s">
-        <v>535</v>
-      </c>
-      <c r="K300" s="231"/>
-      <c r="L300" s="232"/>
-      <c r="M300" s="232"/>
-      <c r="N300" s="232"/>
-      <c r="O300" s="232"/>
-      <c r="P300" s="232"/>
-      <c r="Q300" s="233"/>
-      <c r="R300" s="231"/>
-    </row>
-    <row r="301" spans="1:18" ht="33.75">
+      <c r="G300" s="169"/>
+      <c r="H300" s="170"/>
+      <c r="I300" s="170"/>
+      <c r="J300" s="166" t="s">
+        <v>532</v>
+      </c>
+      <c r="K300" s="169"/>
+      <c r="L300" s="170"/>
+      <c r="M300" s="170"/>
+      <c r="N300" s="170"/>
+      <c r="O300" s="170"/>
+      <c r="P300" s="170"/>
+      <c r="Q300" s="171"/>
+      <c r="R300" s="169"/>
+    </row>
+    <row r="301" spans="1:18" ht="45">
       <c r="A301" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -32389,7 +32539,7 @@
         <v>103-1-1</v>
       </c>
       <c r="B301" s="131" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C301" s="131" t="s">
         <v>142</v>
@@ -32401,26 +32551,34 @@
         <v>48</v>
       </c>
       <c r="F301" s="62" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G301" s="62"/>
       <c r="H301" s="63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I301" s="63" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J301" s="63" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="K301" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="L301" s="63"/>
+        <v>504</v>
+      </c>
+      <c r="L301" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M301" s="63"/>
-      <c r="N301" s="63"/>
-      <c r="O301" s="63"/>
-      <c r="P301" s="63"/>
+      <c r="N301" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O301" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P301" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q301" s="63"/>
       <c r="R301" s="63"/>
     </row>
@@ -32440,36 +32598,44 @@
       <c r="B302" s="133"/>
       <c r="C302" s="133"/>
       <c r="D302" s="132" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E302" s="132" t="s">
         <v>48</v>
       </c>
       <c r="F302" s="132" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G302" s="62"/>
       <c r="H302" s="131" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I302" s="131" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J302" s="63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K302" s="63" t="s">
-        <v>538</v>
-      </c>
-      <c r="L302" s="63"/>
+        <v>535</v>
+      </c>
+      <c r="L302" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M302" s="63"/>
-      <c r="N302" s="63"/>
-      <c r="O302" s="63"/>
-      <c r="P302" s="63"/>
+      <c r="N302" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O302" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P302" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q302" s="63"/>
       <c r="R302" s="63"/>
     </row>
-    <row r="303" spans="1:18" ht="45">
+    <row r="303" spans="1:18" ht="56.25">
       <c r="A303" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
@@ -32489,26 +32655,34 @@
       <c r="F303" s="134"/>
       <c r="G303" s="62"/>
       <c r="H303" s="131" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I303" s="131" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J303" s="63" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K303" s="63" t="s">
-        <v>540</v>
-      </c>
-      <c r="L303" s="63"/>
+        <v>537</v>
+      </c>
+      <c r="L303" s="63" t="s">
+        <v>558</v>
+      </c>
       <c r="M303" s="63"/>
-      <c r="N303" s="63"/>
-      <c r="O303" s="63"/>
-      <c r="P303" s="63"/>
+      <c r="N303" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O303" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P303" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q303" s="63"/>
       <c r="R303" s="63"/>
     </row>
-    <row r="304" spans="1:18" ht="45">
+    <row r="304" spans="1:18" ht="56.25">
       <c r="A304" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
@@ -32528,22 +32702,30 @@
       <c r="F304" s="135"/>
       <c r="G304" s="62"/>
       <c r="H304" s="131" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I304" s="131" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J304" s="63" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K304" s="63" t="s">
-        <v>542</v>
-      </c>
-      <c r="L304" s="63"/>
+        <v>539</v>
+      </c>
+      <c r="L304" s="146" t="s">
+        <v>551</v>
+      </c>
       <c r="M304" s="63"/>
-      <c r="N304" s="63"/>
-      <c r="O304" s="63"/>
-      <c r="P304" s="63"/>
+      <c r="N304" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O304" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P304" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q304" s="63"/>
       <c r="R304" s="63"/>
     </row>
@@ -32563,32 +32745,40 @@
       <c r="B305" s="133"/>
       <c r="C305" s="133"/>
       <c r="D305" s="132" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E305" s="132" t="s">
         <v>48</v>
       </c>
       <c r="F305" s="62" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G305" s="62"/>
       <c r="H305" s="63" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I305" s="63" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J305" s="63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K305" s="63" t="s">
-        <v>519</v>
-      </c>
-      <c r="L305" s="63"/>
+        <v>516</v>
+      </c>
+      <c r="L305" s="146" t="s">
+        <v>550</v>
+      </c>
       <c r="M305" s="63"/>
-      <c r="N305" s="63"/>
-      <c r="O305" s="63"/>
-      <c r="P305" s="63"/>
+      <c r="N305" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O305" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P305" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q305" s="63"/>
       <c r="R305" s="63"/>
     </row>
@@ -32610,26 +32800,34 @@
       <c r="D306" s="134"/>
       <c r="E306" s="134"/>
       <c r="F306" s="132" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G306" s="62"/>
       <c r="H306" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I306" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J306" s="63" t="s">
+        <v>538</v>
+      </c>
+      <c r="K306" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="J306" s="63" t="s">
-        <v>541</v>
-      </c>
-      <c r="K306" s="63" t="s">
-        <v>510</v>
-      </c>
-      <c r="L306" s="63"/>
+      <c r="L306" s="146" t="s">
+        <v>551</v>
+      </c>
       <c r="M306" s="63"/>
-      <c r="N306" s="63"/>
-      <c r="O306" s="63"/>
-      <c r="P306" s="63"/>
+      <c r="N306" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O306" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P306" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q306" s="63"/>
       <c r="R306" s="63"/>
     </row>
@@ -32653,22 +32851,30 @@
       <c r="F307" s="135"/>
       <c r="G307" s="62"/>
       <c r="H307" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I307" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J307" s="63" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K307" s="63" t="s">
-        <v>543</v>
-      </c>
-      <c r="L307" s="63"/>
+        <v>555</v>
+      </c>
+      <c r="L307" s="63" t="s">
+        <v>558</v>
+      </c>
       <c r="M307" s="63"/>
-      <c r="N307" s="63"/>
-      <c r="O307" s="63"/>
-      <c r="P307" s="63"/>
+      <c r="N307" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O307" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P307" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q307" s="63"/>
       <c r="R307" s="63"/>
     </row>
@@ -32690,13 +32896,13 @@
       <c r="D308" s="135"/>
       <c r="E308" s="135"/>
       <c r="F308" s="66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G308" s="66"/>
       <c r="H308" s="67"/>
       <c r="I308" s="67"/>
       <c r="J308" s="67" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K308" s="67"/>
       <c r="L308" s="67"/>
@@ -32722,20 +32928,20 @@
       </c>
       <c r="B309" s="133"/>
       <c r="C309" s="133"/>
-      <c r="D309" s="231" t="s">
-        <v>476</v>
+      <c r="D309" s="169" t="s">
+        <v>474</v>
       </c>
       <c r="E309" s="66" t="s">
         <v>48</v>
       </c>
       <c r="F309" s="66" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G309" s="66"/>
       <c r="H309" s="67"/>
       <c r="I309" s="67"/>
       <c r="J309" s="67" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K309" s="67"/>
       <c r="L309" s="67"/>
@@ -32761,18 +32967,18 @@
       </c>
       <c r="B310" s="133"/>
       <c r="C310" s="133"/>
-      <c r="D310" s="234"/>
+      <c r="D310" s="172"/>
       <c r="E310" s="66" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F310" s="66" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G310" s="66"/>
       <c r="H310" s="67"/>
       <c r="I310" s="67"/>
       <c r="J310" s="67" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K310" s="67"/>
       <c r="L310" s="67"/>
@@ -32805,26 +33011,34 @@
         <v>48</v>
       </c>
       <c r="F311" s="132" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G311" s="62"/>
       <c r="H311" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I311" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J311" s="63" t="s">
+        <v>538</v>
+      </c>
+      <c r="K311" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="J311" s="63" t="s">
-        <v>541</v>
-      </c>
-      <c r="K311" s="63" t="s">
-        <v>510</v>
-      </c>
-      <c r="L311" s="63"/>
+      <c r="L311" s="146" t="s">
+        <v>551</v>
+      </c>
       <c r="M311" s="63"/>
-      <c r="N311" s="63"/>
-      <c r="O311" s="63"/>
-      <c r="P311" s="63"/>
+      <c r="N311" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O311" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P311" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q311" s="63"/>
       <c r="R311" s="63"/>
     </row>
@@ -32848,22 +33062,30 @@
       <c r="F312" s="135"/>
       <c r="G312" s="62"/>
       <c r="H312" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I312" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J312" s="63" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K312" s="63" t="s">
-        <v>543</v>
-      </c>
-      <c r="L312" s="63"/>
+        <v>555</v>
+      </c>
+      <c r="L312" s="63" t="s">
+        <v>558</v>
+      </c>
       <c r="M312" s="63"/>
-      <c r="N312" s="63"/>
-      <c r="O312" s="63"/>
-      <c r="P312" s="63"/>
+      <c r="N312" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="O312" s="174">
+        <v>44858</v>
+      </c>
+      <c r="P312" s="174" t="s">
+        <v>548</v>
+      </c>
       <c r="Q312" s="63"/>
       <c r="R312" s="63"/>
     </row>
@@ -32885,13 +33107,13 @@
       <c r="D313" s="134"/>
       <c r="E313" s="134"/>
       <c r="F313" s="66" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G313" s="66"/>
       <c r="H313" s="67"/>
       <c r="I313" s="67"/>
       <c r="J313" s="67" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K313" s="67"/>
       <c r="L313" s="67"/>
@@ -32920,13 +33142,13 @@
       <c r="D314" s="134"/>
       <c r="E314" s="134"/>
       <c r="F314" s="66" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G314" s="66"/>
       <c r="H314" s="67"/>
       <c r="I314" s="67"/>
       <c r="J314" s="67" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K314" s="67"/>
       <c r="L314" s="67"/>
@@ -32955,13 +33177,13 @@
       <c r="D315" s="134"/>
       <c r="E315" s="134"/>
       <c r="F315" s="66" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G315" s="66"/>
       <c r="H315" s="67"/>
       <c r="I315" s="67"/>
       <c r="J315" s="67" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K315" s="67"/>
       <c r="L315" s="67"/>
@@ -32990,13 +33212,13 @@
       <c r="D316" s="134"/>
       <c r="E316" s="134"/>
       <c r="F316" s="66" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G316" s="66"/>
       <c r="H316" s="67"/>
       <c r="I316" s="67"/>
       <c r="J316" s="67" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K316" s="67"/>
       <c r="L316" s="67"/>
@@ -33025,13 +33247,13 @@
       <c r="D317" s="134"/>
       <c r="E317" s="134"/>
       <c r="F317" s="66" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G317" s="66"/>
       <c r="H317" s="67"/>
       <c r="I317" s="67"/>
       <c r="J317" s="67" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K317" s="67"/>
       <c r="L317" s="67"/>
@@ -33060,13 +33282,13 @@
       <c r="D318" s="134"/>
       <c r="E318" s="134"/>
       <c r="F318" s="66" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G318" s="66"/>
       <c r="H318" s="67"/>
       <c r="I318" s="67"/>
       <c r="J318" s="67" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K318" s="67"/>
       <c r="L318" s="67"/>
@@ -33095,13 +33317,13 @@
       <c r="D319" s="135"/>
       <c r="E319" s="135"/>
       <c r="F319" s="66" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G319" s="66"/>
       <c r="H319" s="67"/>
       <c r="I319" s="67"/>
       <c r="J319" s="67" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K319" s="67"/>
       <c r="L319" s="67"/>
@@ -33120,7 +33342,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P11:Q300" xr:uid="{F3017212-E498-4A3A-B13C-7310AB81317B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P11:Q300 P301:P307 P311:P312" xr:uid="{F3017212-E498-4A3A-B13C-7310AB81317B}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
